--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFDD934-A5BD-4DF7-84B9-58053DF57DF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82436A-C41F-4C41-9273-AB6C64EB03B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
-    <sheet name="ActorRankTable" sheetId="2" r:id="rId2"/>
+    <sheet name="ActorPowerLevelTable" sheetId="2" r:id="rId2"/>
     <sheet name="DyeingTable" sheetId="3" r:id="rId3"/>
     <sheet name="CostumeTable" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -33,16 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>numbering|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actorId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,14 +95,6 @@
     <t>Actor017</t>
   </si>
   <si>
-    <t>actorRankId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +120,14 @@
   </si>
   <si>
     <t>affectorValueId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorPowerLevelId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerLevel|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,9 +135,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,239 +495,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
         <v>3</v>
       </c>
     </row>
@@ -748,34 +715,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -784,7 +751,7 @@
         <v>Actor00101</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -805,7 +772,7 @@
         <v>Actor00102</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -829,7 +796,7 @@
         <v>Actor00103</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -853,7 +820,7 @@
         <v>Actor00104</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -877,7 +844,7 @@
         <v>Actor00105</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -901,7 +868,7 @@
         <v>Actor00106</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -925,7 +892,7 @@
         <v>Actor00107</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -949,7 +916,7 @@
         <v>Actor00108</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -973,7 +940,7 @@
         <v>Actor00109</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -997,7 +964,7 @@
         <v>Actor00110</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1021,7 +988,7 @@
         <v>Actor00111</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1045,7 +1012,7 @@
         <v>Actor00112</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1069,7 +1036,7 @@
         <v>Actor00113</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1093,7 +1060,7 @@
         <v>Actor00114</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1117,7 +1084,7 @@
         <v>Actor00115</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1141,7 +1108,7 @@
         <v>Actor00116</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1180,10 +1147,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1208,13 +1175,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82436A-C41F-4C41-9273-AB6C64EB03B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D0B0A-1D3A-4C75-8274-3DAB2B98739F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>powerLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDelay|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,11 +499,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -507,7 +509,7 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -517,8 +519,11 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -528,8 +533,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -539,8 +547,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -550,8 +561,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -561,8 +575,11 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -572,8 +589,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -583,8 +603,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -594,8 +617,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -605,8 +631,11 @@
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -616,8 +645,11 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -627,8 +659,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -638,8 +673,11 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -649,8 +687,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -660,8 +701,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -671,8 +715,11 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -682,8 +729,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -693,8 +743,11 @@
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -703,6 +756,9 @@
       </c>
       <c r="C18">
         <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D0B0A-1D3A-4C75-8274-3DAB2B98739F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733ACA6A-6C0C-4407-841A-DB753597E446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>affectorValueId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actorPowerLevelId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,12 +497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -520,7 +517,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -769,422 +766,356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>B2&amp;TEXT(C2,"00")</f>
-        <v>Actor00101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>400</v>
       </c>
       <c r="D2" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1">
-        <v>150</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A17" si="0">B3&amp;TEXT(C3,"00")</f>
-        <v>Actor00102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2*1.09</f>
+        <v>436.00000000000006</v>
       </c>
       <c r="D3" s="1">
-        <f>D2*1.09</f>
-        <v>436.00000000000006</v>
+        <f t="shared" ref="D3:D17" si="0">D2*1.09</f>
+        <v>163.5</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E17" si="1">E2*1.09</f>
-        <v>163.5</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F17" si="2">F2*1.09</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C17" si="2">C3*1.09</f>
+        <v>475.24000000000012</v>
+      </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D17" si="3">D3*1.09</f>
-        <v>475.24000000000012</v>
+        <f t="shared" si="0"/>
+        <v>178.215</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>178.215</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>518.01160000000016</v>
+      </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
-        <v>518.01160000000016</v>
+        <f t="shared" si="0"/>
+        <v>194.25435000000002</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>194.25435000000002</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>564.63264400000025</v>
+      </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>564.63264400000025</v>
+        <f t="shared" si="0"/>
+        <v>211.73724150000004</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>211.73724150000004</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>615.44958196000027</v>
+      </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>615.44958196000027</v>
+        <f t="shared" si="0"/>
+        <v>230.79359323500006</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>230.79359323500006</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>670.8400443364003</v>
+      </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>670.8400443364003</v>
+        <f t="shared" si="0"/>
+        <v>251.56501662615008</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>251.56501662615008</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>731.21564832667639</v>
+      </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
-        <v>731.21564832667639</v>
+        <f t="shared" si="0"/>
+        <v>274.2058681225036</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>274.2058681225036</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>797.02505667607727</v>
+      </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
-        <v>797.02505667607727</v>
+        <f t="shared" si="0"/>
+        <v>298.88439625352896</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>298.88439625352896</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>868.75731177692433</v>
+      </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>868.75731177692433</v>
+        <f t="shared" si="0"/>
+        <v>325.78399191634657</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>325.78399191634657</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>946.94546983684756</v>
+      </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>946.94546983684756</v>
+        <f t="shared" si="0"/>
+        <v>355.10455118881777</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>355.10455118881777</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>1032.170562122164</v>
+      </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
-        <v>1032.170562122164</v>
+        <f t="shared" si="0"/>
+        <v>387.0639607958114</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>387.0639607958114</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>1125.0659127131589</v>
+      </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>1125.0659127131589</v>
+        <f t="shared" si="0"/>
+        <v>421.89971726743443</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>421.89971726743443</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>1226.3218448573434</v>
+      </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>1226.3218448573434</v>
+        <f t="shared" si="0"/>
+        <v>459.87069182150356</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>459.87069182150356</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>1336.6908108945045</v>
+      </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>1336.6908108945045</v>
+        <f t="shared" si="0"/>
+        <v>501.25905408543889</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>501.25905408543889</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>Actor00116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>1456.9929838750099</v>
+      </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>1456.9929838750099</v>
+        <f t="shared" si="0"/>
+        <v>546.37236895312844</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>546.37236895312844</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733ACA6A-6C0C-4407-841A-DB753597E446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091BC9D1-AC32-4025-B25F-63DE3C5D5DF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>attackDelay|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSpeed|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,18 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -519,8 +524,11 @@
       <c r="D1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -533,8 +541,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -547,8 +558,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -561,8 +575,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -575,8 +592,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -589,8 +609,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -603,8 +626,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -617,8 +643,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -631,8 +660,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -645,8 +677,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -659,8 +694,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -673,8 +711,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -687,8 +728,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -701,8 +745,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -715,8 +762,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -729,8 +779,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -743,8 +796,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -755,6 +811,9 @@
         <v>3</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
@@ -768,9 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091BC9D1-AC32-4025-B25F-63DE3C5D5DF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F50D165-2419-4FCE-969B-F1A6AB8E15B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>attackDelay|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSpeed|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +504,9 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -524,11 +519,8 @@
       <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -541,11 +533,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -558,11 +547,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -575,11 +561,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -592,11 +575,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -609,11 +589,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -626,11 +603,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -643,11 +617,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -660,11 +631,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -677,11 +645,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -694,11 +659,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -711,11 +673,8 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -728,11 +687,8 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -745,11 +701,8 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -762,11 +715,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -779,11 +729,8 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -796,11 +743,8 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -811,9 +755,6 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F50D165-2419-4FCE-969B-F1A6AB8E15B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA2CB2-1E4A-4B5A-AE0B-D62B094474CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,2020 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평타공격의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이시간을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뜻한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경하지는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>말</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최초로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정하려는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의도로만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그래야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공속팩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">), </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공속팩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러가지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합산하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내부적으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그래서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> AttackSpeedRatio </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯이고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가지고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0.2, 0.4 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어펙터의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합산으로써</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+AttackDelay </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최종합산된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> AttackSpeedRatio </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나누어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그런데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이러다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애니메이션의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>히트시그널보다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>딜레이가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>짧아질</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그러면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평타공격이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나가지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>또한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>짧게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하여야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애니가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>너무</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빨라지면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어색하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> AttackAniSpeedRatio </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만들어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애니의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배속을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경시킨다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+AttackSpeedRatio </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만큼은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빠르게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>너무</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>높아지기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절반만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빠르게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산식은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1+(AttackSpeedRatio-1)/2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>들어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1.5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빠르게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3.2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2.1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빠르게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -135,7 +2149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +2164,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,10 +2521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -761,6 +2790,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA2CB2-1E4A-4B5A-AE0B-D62B094474CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978404C-22C5-405B-A90F-B8E8E00C34BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2142,6 +2142,10 @@
   </si>
   <si>
     <t>attackDelay|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2522,11 +2526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2535,7 +2537,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2548,8 +2550,11 @@
       <c r="D1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2562,8 +2567,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2584,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +2601,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2604,8 +2618,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2618,8 +2635,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2632,8 +2652,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2646,8 +2669,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2660,8 +2686,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2674,8 +2703,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2688,8 +2720,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2702,8 +2737,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2716,8 +2754,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2730,8 +2771,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2744,8 +2788,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2758,8 +2805,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2772,8 +2822,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2785,6 +2838,9 @@
       </c>
       <c r="D18">
         <v>1</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978404C-22C5-405B-A90F-B8E8E00C34BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EE393-6CD0-4DAE-9935-BAD393F3B4B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EE393-6CD0-4DAE-9935-BAD393F3B4B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA5E871-BD72-46F5-BD44-C9EB735D1EE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="15" yWindow="1530" windowWidth="29040" windowHeight="13485" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2146,6 +2146,10 @@
   </si>
   <si>
     <t>moveSpeed|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerSource|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,9 +2530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2537,7 +2543,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2553,8 +2559,11 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2570,8 +2579,11 @@
       <c r="E2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2599,11 @@
       <c r="E3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2604,8 +2619,11 @@
       <c r="E4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2621,8 +2639,11 @@
       <c r="E5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2638,8 +2659,11 @@
       <c r="E6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2655,8 +2679,11 @@
       <c r="E7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2672,8 +2699,11 @@
       <c r="E8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2689,8 +2719,11 @@
       <c r="E9">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2706,8 +2739,11 @@
       <c r="E10">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2723,8 +2759,11 @@
       <c r="E11">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2740,8 +2779,11 @@
       <c r="E12">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2757,8 +2799,11 @@
       <c r="E13">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2774,8 +2819,11 @@
       <c r="E14">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2791,8 +2839,11 @@
       <c r="E15">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2808,8 +2859,11 @@
       <c r="E16">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2825,8 +2879,11 @@
       <c r="E17">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2841,12 +2898,16 @@
       </c>
       <c r="E18">
         <v>4.5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA5E871-BD72-46F5-BD44-C9EB735D1EE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA467D3D-A85E-4266-A233-A34A2F59AFA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1530" windowWidth="29040" windowHeight="13485" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2150,6 +2150,10 @@
   </si>
   <si>
     <t>powerSource|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2530,11 +2534,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2543,7 +2545,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2562,8 +2564,11 @@
       <c r="F1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2582,8 +2587,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2602,8 +2610,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2622,8 +2633,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2642,8 +2656,11 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2662,8 +2679,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2682,8 +2702,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2702,8 +2725,11 @@
       <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2722,8 +2748,11 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2742,8 +2771,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2762,8 +2794,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2782,8 +2817,11 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2802,8 +2840,11 @@
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2822,8 +2863,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2842,8 +2886,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2862,8 +2909,11 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2882,8 +2932,11 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2901,6 +2954,9 @@
       </c>
       <c r="F18">
         <v>0</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA467D3D-A85E-4266-A233-A34A2F59AFA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F1496-462D-47A9-ACA9-A02BC5B885CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2154,6 +2154,14 @@
   </si>
   <si>
     <t>sp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2969,11 +2977,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3027,11 +3035,11 @@
         <v>436.00000000000006</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D17" si="0">D2*1.09</f>
+        <f t="shared" ref="D3:D49" si="0">D2*1.09</f>
         <v>163.5</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="1">E2*1.09</f>
+        <f t="shared" ref="E3:E49" si="1">E2*1.09</f>
         <v>0</v>
       </c>
     </row>
@@ -3311,6 +3319,640 @@
         <v>546.37236895312844</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>400</v>
+      </c>
+      <c r="D18" s="1">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C18*1.09</f>
+        <v>436.00000000000006</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>163.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:C33" si="3">C19*1.09</f>
+        <v>475.24000000000012</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>178.215</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
+        <v>518.01160000000016</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>194.25435000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
+        <v>564.63264400000025</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>211.73724150000004</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="3"/>
+        <v>615.44958196000027</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>230.79359323500006</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="3"/>
+        <v>670.8400443364003</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>251.56501662615008</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="3"/>
+        <v>731.21564832667639</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>274.2058681225036</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>797.02505667607727</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>298.88439625352896</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="3"/>
+        <v>868.75731177692433</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>325.78399191634657</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="3"/>
+        <v>946.94546983684756</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>355.10455118881777</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="3"/>
+        <v>1032.170562122164</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>387.0639607958114</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="3"/>
+        <v>1125.0659127131589</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>421.89971726743443</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="3"/>
+        <v>1226.3218448573434</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>459.87069182150356</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="3"/>
+        <v>1336.6908108945045</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>501.25905408543889</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="3"/>
+        <v>1456.9929838750099</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>546.37236895312844</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>400</v>
+      </c>
+      <c r="D34" s="1">
+        <v>150</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C34*1.09</f>
+        <v>436.00000000000006</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>163.5</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:C49" si="4">C35*1.09</f>
+        <v>475.24000000000012</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>178.215</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="4"/>
+        <v>518.01160000000016</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>194.25435000000002</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="4"/>
+        <v>564.63264400000025</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>211.73724150000004</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="4"/>
+        <v>615.44958196000027</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>230.79359323500006</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="4"/>
+        <v>670.8400443364003</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>251.56501662615008</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="4"/>
+        <v>731.21564832667639</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>274.2058681225036</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>797.02505667607727</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>298.88439625352896</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>868.75731177692433</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>325.78399191634657</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>946.94546983684756</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>355.10455118881777</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>1032.170562122164</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>387.0639607958114</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>1125.0659127131589</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>421.89971726743443</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="4"/>
+        <v>1226.3218448573434</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>459.87069182150356</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="4"/>
+        <v>1336.6908108945045</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>501.25905408543889</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="4"/>
+        <v>1456.9929838750099</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>546.37236895312844</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F1496-462D-47A9-ACA9-A02BC5B885CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BE22F-8F87-4CEA-B6F6-AFD2ACD001BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F18">
         <v>0</v>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BE22F-8F87-4CEA-B6F6-AFD2ACD001BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED113FCE-E652-4571-8113-78D8CDA70757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2162,6 +2162,14 @@
   </si>
   <si>
     <t>Actor003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimateRange|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2542,7 +2550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2553,7 +2561,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2575,8 +2583,14 @@
       <c r="G1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2598,8 +2612,14 @@
       <c r="G2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2621,8 +2641,14 @@
       <c r="G3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2644,8 +2670,14 @@
       <c r="G4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2667,8 +2699,14 @@
       <c r="G5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2690,8 +2728,14 @@
       <c r="G6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2713,8 +2757,14 @@
       <c r="G7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2736,8 +2786,14 @@
       <c r="G8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2759,8 +2815,14 @@
       <c r="G9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2782,8 +2844,14 @@
       <c r="G10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2805,8 +2873,14 @@
       <c r="G11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2828,8 +2902,14 @@
       <c r="G12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2851,8 +2931,14 @@
       <c r="G13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2874,8 +2960,14 @@
       <c r="G14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2897,8 +2989,14 @@
       <c r="G15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2920,8 +3018,14 @@
       <c r="G16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2943,8 +3047,14 @@
       <c r="G17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2965,6 +3075,12 @@
       </c>
       <c r="G18">
         <v>30</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED113FCE-E652-4571-8113-78D8CDA70757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE65FEA-2C8E-41D3-AA91-AB81387D8F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2166,10 +2166,6 @@
   </si>
   <si>
     <t>attackRange|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultimateRange|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2550,7 +2546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2561,7 +2557,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2586,11 +2582,8 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2615,11 +2608,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2644,11 +2634,8 @@
       <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2673,11 +2660,8 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2702,11 +2686,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2731,11 +2712,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2760,11 +2738,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2789,11 +2764,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2818,11 +2790,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2847,11 +2816,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2876,11 +2842,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2905,11 +2868,8 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2934,11 +2894,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2963,11 +2920,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2992,11 +2946,8 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3021,11 +2972,8 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3050,11 +2998,8 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3077,9 +3022,6 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE65FEA-2C8E-41D3-AA91-AB81387D8F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7275EE3C-1E37-4756-A7C2-065BC08BA96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2632,7 +2632,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3038,7 +3038,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7275EE3C-1E37-4756-A7C2-065BC08BA96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54BFDB0-0785-42C4-86D5-F3289DAE5422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2166,6 +2166,10 @@
   </si>
   <si>
     <t>attackRange|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2548,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2678,7 +2682,7 @@
         <v>3.5</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -3035,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3093,11 +3097,11 @@
         <v>436.00000000000006</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D49" si="0">D2*1.09</f>
+        <f t="shared" ref="D3:D65" si="0">D2*1.09</f>
         <v>163.5</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E49" si="1">E2*1.09</f>
+        <f t="shared" ref="E3:E65" si="1">E2*1.09</f>
         <v>0</v>
       </c>
     </row>
@@ -4011,6 +4015,323 @@
         <v>546.37236895312844</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>400</v>
+      </c>
+      <c r="D50" s="1">
+        <v>150</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <f>C50*1.09</f>
+        <v>436.00000000000006</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>163.5</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ref="C52:C65" si="5">C51*1.09</f>
+        <v>475.24000000000012</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>178.215</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>518.01160000000016</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>194.25435000000002</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>564.63264400000025</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>211.73724150000004</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>615.44958196000027</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>230.79359323500006</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>670.8400443364003</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>251.56501662615008</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>731.21564832667639</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>274.2058681225036</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>797.02505667607727</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>298.88439625352896</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>868.75731177692433</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>325.78399191634657</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>946.94546983684756</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>355.10455118881777</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>1032.170562122164</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>387.0639607958114</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>1125.0659127131589</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>421.89971726743443</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>1226.3218448573434</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>459.87069182150356</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>1336.6908108945045</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>501.25905408543889</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>1456.9929838750099</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>546.37236895312844</v>
+      </c>
+      <c r="E65" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54BFDB0-0785-42C4-86D5-F3289DAE5422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC05BC-624B-4E21-A8CC-E6A9CA42A857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
-    <sheet name="ActorPowerLevelTable" sheetId="2" r:id="rId2"/>
+    <sheet name="PowerLevelTable" sheetId="2" r:id="rId2"/>
     <sheet name="DyeingTable" sheetId="3" r:id="rId3"/>
-    <sheet name="CostumeTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2046,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2117,19 +2116,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>def|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainWeaponType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dyeingId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2157,19 +2144,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attackRange|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor004</t>
+    <t>multiHp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiAtkVisual|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2550,18 +2533,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2569,77 +2551,86 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3.5</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3.5</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2647,25 +2638,28 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2673,30 +2667,33 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0.93</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>3.5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2705,24 +2702,27 @@
         <v>1</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>3.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2731,102 +2731,114 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3.5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3.5</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
         <v>30</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3.5</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3.5</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>3.5</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>30</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2835,76 +2847,85 @@
         <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>3.5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>30</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3.5</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3.5</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
         <v>30</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3.5</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>3.5</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>30</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2913,50 +2934,56 @@
         <v>1</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>3.5</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>3.5</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>30</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2965,67 +2992,76 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>3.5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>30</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>3.5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>30</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>3.5</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>30</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
@@ -3039,1301 +3075,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>400</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2*1.5</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B21" si="0">B3*1.5</f>
+        <v>900</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C21" si="1">C3*1.5</f>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>506.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>759.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>3037.5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>1139.0625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>4556.25</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>1708.59375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6834.375</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>2562.890625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>10251.5625</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>3844.3359375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>15377.34375</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>5766.50390625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>23066.015625</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>8649.755859375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>34599.0234375</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>12974.6337890625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>51898.53515625</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>19461.95068359375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>77847.802734375</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>29192.926025390625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>116771.7041015625</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>43789.389038085938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>175157.55615234375</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>65684.083557128906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>262736.33422851563</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>98526.125335693359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>394104.50134277344</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>147789.18800354004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>591156.75201416016</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>221683.78200531006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>400</v>
-      </c>
-      <c r="D2" s="1">
-        <v>150</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2*1.09</f>
-        <v>436.00000000000006</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D65" si="0">D2*1.09</f>
-        <v>163.5</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E65" si="1">E2*1.09</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C17" si="2">C3*1.09</f>
-        <v>475.24000000000012</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>178.215</v>
-      </c>
-      <c r="E4" s="1">
+        <v>886735.12802124023</v>
+      </c>
+      <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="2"/>
-        <v>518.01160000000016</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>194.25435000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>564.63264400000025</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>211.73724150000004</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>615.44958196000027</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>230.79359323500006</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>670.8400443364003</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>251.56501662615008</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>731.21564832667639</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>274.2058681225036</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>797.02505667607727</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>298.88439625352896</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>868.75731177692433</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>325.78399191634657</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>946.94546983684756</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>355.10455118881777</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>1032.170562122164</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>387.0639607958114</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>1125.0659127131589</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>421.89971726743443</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>1226.3218448573434</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>459.87069182150356</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>1336.6908108945045</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>501.25905408543889</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>1456.9929838750099</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>546.37236895312844</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>400</v>
-      </c>
-      <c r="D18" s="1">
-        <v>150</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <f>C18*1.09</f>
-        <v>436.00000000000006</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>163.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:C33" si="3">C19*1.09</f>
-        <v>475.24000000000012</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>178.215</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>518.01160000000016</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>194.25435000000002</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="3"/>
-        <v>564.63264400000025</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>211.73724150000004</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="3"/>
-        <v>615.44958196000027</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>230.79359323500006</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="3"/>
-        <v>670.8400443364003</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>251.56501662615008</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="3"/>
-        <v>731.21564832667639</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>274.2058681225036</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="3"/>
-        <v>797.02505667607727</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>298.88439625352896</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="3"/>
-        <v>868.75731177692433</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>325.78399191634657</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="3"/>
-        <v>946.94546983684756</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>355.10455118881777</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="3"/>
-        <v>1032.170562122164</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>387.0639607958114</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="3"/>
-        <v>1125.0659127131589</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>421.89971726743443</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="3"/>
-        <v>1226.3218448573434</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>459.87069182150356</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="3"/>
-        <v>1336.6908108945045</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>501.25905408543889</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="3"/>
-        <v>1456.9929838750099</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>546.37236895312844</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>400</v>
-      </c>
-      <c r="D34" s="1">
-        <v>150</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1">
-        <f>C34*1.09</f>
-        <v>436.00000000000006</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>163.5</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" ref="C36:C49" si="4">C35*1.09</f>
-        <v>475.24000000000012</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>178.215</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="4"/>
-        <v>518.01160000000016</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>194.25435000000002</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="4"/>
-        <v>564.63264400000025</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>211.73724150000004</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="4"/>
-        <v>615.44958196000027</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>230.79359323500006</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="4"/>
-        <v>670.8400443364003</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>251.56501662615008</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="4"/>
-        <v>731.21564832667639</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>274.2058681225036</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="4"/>
-        <v>797.02505667607727</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>298.88439625352896</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="4"/>
-        <v>868.75731177692433</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>325.78399191634657</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="4"/>
-        <v>946.94546983684756</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>355.10455118881777</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="4"/>
-        <v>1032.170562122164</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>387.0639607958114</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="4"/>
-        <v>1125.0659127131589</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>421.89971726743443</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="4"/>
-        <v>1226.3218448573434</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>459.87069182150356</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="4"/>
-        <v>1336.6908108945045</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>501.25905408543889</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49">
-        <v>16</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="4"/>
-        <v>1456.9929838750099</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>546.37236895312844</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>400</v>
-      </c>
-      <c r="D50" s="1">
-        <v>150</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1">
-        <f>C50*1.09</f>
-        <v>436.00000000000006</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>163.5</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" ref="C52:C65" si="5">C51*1.09</f>
-        <v>475.24000000000012</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>178.215</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="5"/>
-        <v>518.01160000000016</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>194.25435000000002</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="5"/>
-        <v>564.63264400000025</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="0"/>
-        <v>211.73724150000004</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="5"/>
-        <v>615.44958196000027</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="0"/>
-        <v>230.79359323500006</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="5"/>
-        <v>670.8400443364003</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="0"/>
-        <v>251.56501662615008</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57">
-        <v>8</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="5"/>
-        <v>731.21564832667639</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="0"/>
-        <v>274.2058681225036</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="5"/>
-        <v>797.02505667607727</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="0"/>
-        <v>298.88439625352896</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="5"/>
-        <v>868.75731177692433</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="0"/>
-        <v>325.78399191634657</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="5"/>
-        <v>946.94546983684756</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="0"/>
-        <v>355.10455118881777</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="5"/>
-        <v>1032.170562122164</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="0"/>
-        <v>387.0639607958114</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62">
-        <v>13</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="5"/>
-        <v>1125.0659127131589</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="0"/>
-        <v>421.89971726743443</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63">
-        <v>14</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="5"/>
-        <v>1226.3218448573434</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="0"/>
-        <v>459.87069182150356</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="5"/>
-        <v>1336.6908108945045</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="0"/>
-        <v>501.25905408543889</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65">
-        <v>16</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="5"/>
-        <v>1456.9929838750099</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="0"/>
-        <v>546.37236895312844</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>332525.67300796509</v>
       </c>
     </row>
   </sheetData>
@@ -4358,41 +3378,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E27B6-0116-42E8-87FD-0A56585592A2}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC05BC-624B-4E21-A8CC-E6A9CA42A857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC369747-14D0-4DEF-8EA3-BDF85F5E714C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="PowerLevelTable" sheetId="2" r:id="rId2"/>
     <sheet name="DyeingTable" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
       <text>
         <r>
           <rPr>
@@ -2046,7 +2049,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2152,7 +2155,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>multiAtkVisual|Float</t>
+    <t>multiAtk|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어펙터댐지배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종배율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,6 +2245,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AffectorValueTable"/>
+      <sheetName val="AffectorValueLevelTable"/>
+      <sheetName val="ActorStateTable"/>
+      <sheetName val="ConditionValueTable"/>
+      <sheetName val="어펙터인자"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>0.5625</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>0.33333333329999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2533,17 +2586,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2557,22 +2611,28 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2586,22 +2646,30 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E2">
+        <f>[1]AffectorValueLevelTable!I3</f>
         <v>1</v>
       </c>
       <c r="F2">
+        <f>D2*E2</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>3.5</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>30</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2612,25 +2680,33 @@
         <v>0.85</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <f>[1]AffectorValueLevelTable!I4</f>
+        <v>0.5625</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
         <v>0.45</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>3.5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>30</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2644,22 +2720,30 @@
         <v>0.9</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <f>[1]AffectorValueLevelTable!I5</f>
+        <v>0.33333333329999998</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.29999999996999999</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>3.5</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>30</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2673,22 +2757,30 @@
         <v>0.75</v>
       </c>
       <c r="E5">
+        <f>[1]AffectorValueLevelTable!I6</f>
         <v>1</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3.5</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>30</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2705,19 +2797,26 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>3.5</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2734,19 +2833,26 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>3.5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2763,19 +2869,26 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>3.5</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2792,19 +2905,26 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>3.5</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>30</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2821,19 +2941,26 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>3.5</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>30</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2850,19 +2977,26 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>3.5</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>30</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2879,19 +3013,26 @@
         <v>1</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>3.5</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>30</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2908,19 +3049,26 @@
         <v>1</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>3.5</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2937,19 +3085,26 @@
         <v>1</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>3.5</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>30</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2966,19 +3121,26 @@
         <v>1</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>3.5</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>30</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2995,19 +3157,26 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>3.5</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>30</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3024,19 +3193,26 @@
         <v>1</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>3.5</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>30</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3053,15 +3229,22 @@
         <v>1</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>3.5</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>30</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC369747-14D0-4DEF-8EA3-BDF85F5E714C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6AAC4-71BC-4D5D-8F91-7CC4D06DFC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2643,7 +2644,7 @@
         <v>0.95</v>
       </c>
       <c r="D2">
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E2">
         <f>[1]AffectorValueLevelTable!I3</f>
@@ -2651,7 +2652,7 @@
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6AAC4-71BC-4D5D-8F91-7CC4D06DFC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DEE0BA-3319-4541-BCCE-F16D828C9445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2050,7 +2050,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2165,6 +2165,26 @@
   </si>
   <si>
     <t>최종배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabAddress|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ganfaul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepSeries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigBatSuccubus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2268,17 +2288,17 @@
         </row>
         <row r="4">
           <cell r="I4">
-            <v>0.5625</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>0.33333333329999998</v>
+            <v>0.5625</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1</v>
+            <v>0.33333333329999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2587,18 +2607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="16.375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2632,8 +2653,11 @@
       <c r="K1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2669,8 +2693,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2685,11 +2712,11 @@
       </c>
       <c r="E3">
         <f>[1]AffectorValueLevelTable!I4</f>
-        <v>0.5625</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F18" si="0">D3*E3</f>
-        <v>0.45</v>
+        <v>3.2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2706,8 +2733,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2722,11 +2752,11 @@
       </c>
       <c r="E4">
         <f>[1]AffectorValueLevelTable!I5</f>
-        <v>0.33333333329999998</v>
+        <v>0.5625</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.29999999996999999</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2743,8 +2773,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2759,11 +2792,11 @@
       </c>
       <c r="E5">
         <f>[1]AffectorValueLevelTable!I6</f>
-        <v>1</v>
+        <v>0.33333333329999998</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.249999999975</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2780,8 +2813,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2889,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2925,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3069,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3105,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DEE0BA-3319-4541-BCCE-F16D828C9445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9AB75-6FC4-42AC-AB6B-EF089E3579C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{FAD13062-B500-4D55-BAE0-BF08A78D8E29}">
       <text>
         <r>
           <rPr>
@@ -2050,7 +2051,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,6 +2188,46 @@
     <t>BigBatSuccubus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>nameId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_Ganfaul</t>
+  </si>
+  <si>
+    <t>CharDesc_Ganfaul</t>
+  </si>
+  <si>
+    <t>CharName_KeepSeries</t>
+  </si>
+  <si>
+    <t>CharDesc_KeepSeries</t>
+  </si>
+  <si>
+    <t>CharName_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharDesc_BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>CharName_Bei</t>
+  </si>
+  <si>
+    <t>CharDesc_Bei</t>
+  </si>
 </sst>
 </file>
 
@@ -2279,8 +2320,19 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>idForVlookup|String</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="I3">
             <v>1</v>
@@ -2305,6 +2357,2787 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="InApkStringTable"/>
+      <sheetName val="StringTable"/>
+      <sheetName val="FontTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>kor|String</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>eng|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>CommonUI_Ok</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>확인</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>OK</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CommonUI_Cancel</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>취소</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Cancel</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CommonUI_Yes</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>예</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Yes</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CommonUI_No</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>아니오</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>No</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SystemUI_NeedPatch</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>새로운 패치가 있습니다.
+&lt;color=cyan&gt;와이파이&lt;/color&gt;를 사용해서 다운로드 받으시길 권장합니다.</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>New Patch!
+Recommended to download with &lt;color=cyan&gt;WIFI&lt;/color&gt;</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SystemUI_DisconnectServer</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>서버와의 접속이 원활하지 않습니다.
+프로그램을 재시작합니다.</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Bad connection
+Restarting the app</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SystemUI_Mainternance</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>서버 점검 중입니다.</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>We're on a mainternance</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>SystemUI_MainternanceDetail</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다.
+감사합니다.</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable.
+Thank you for your patience.</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>SystemUI_Downloading</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>다운로드 중</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Downloading</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>GameUI_RomanNumber1</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>I</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>I</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>GameUI_RomanNumber2</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>II</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>II</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>GameUI_RomanNumber3</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>III</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>III</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>GameUI_RomanNumber4</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>IV</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>IV</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>GameUI_RomanNumber5</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>GameUI_RomanNumber6</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>VI</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>VI</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>GameUI_RomanNumber7</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>VII</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>VII</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>GameUI_RomanNumber8</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>VIII</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>VIII</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>GameUI_RomanNumber9</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>IX</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>IX</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>GameUI_RomanNumber10</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>X</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>GameUI_RomanNumber11</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>XI</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>XI</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>GameUI_RomanNumber12</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>XII</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>XII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>GameUI_RomanNumber13</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>XIII</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>XIII</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>GameUI_RomanNumber14</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>XIV</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>XIV</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>GameUI_RomanNumber15</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>XV</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>XV</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>GameUI_RomanNumber16</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>XVI</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>XVI</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>GameUI_RomanNumber17</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>XVII</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>XVII</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>GameUI_RomanNumber18</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>XVIII</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>XVIII</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>GameUI_RomanNumber19</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>XIX</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>XIX</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>GameUI_RomanNumber20</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>XX</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>XX</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>GameUI_RomanNumber21</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>XXI</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>XXI</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>GameUI_RomanNumber22</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>XXII</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>XXII</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>GameUI_RomanNumber23</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>XXIII</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>XXIII</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>GameUI_RomanNumber24</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>XXIV</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>XXIV</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>GameUI_RomanNumber25</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>XXV</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>XXV</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>GameUI_RomanNumber26</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>XXVI</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>XXVI</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>GameUI_RomanNumber27</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>XXVII</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>XXVII</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>GameUI_RomanNumber28</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>XXVIII</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>XXVIII</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>GameUI_RomanNumber29</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>XXIX</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>XXIX</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>GameUI_RomanNumber30</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>XXX</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>XXX</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>GameUI_Magic</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>마법</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Magic</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>GameUI_Machine</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>기계</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Machine</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>GameUI_Nature</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>자연</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Nature</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>GameUI_Qigong</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>기공</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Qigong</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>GameUI_CharGrade0</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>일반</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Normal</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>GameUI_CharGrade1</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>영웅</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Heroic</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>GameUI_CharGrade2</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>전설</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Legendary</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>GameUI_EquipGrade0</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>일반</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Normal</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>GameUI_EquipGrade1</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>희귀</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Rare</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>GameUI_EquipGrade2</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>영웅</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Heroic</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>GameUI_EquipGrade3</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>에픽</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Epic</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>GameUI_EquipGrade4</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>전설</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Legendary</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>GameUI_Lv</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Lv. {0}</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Lv. {0}</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>GameUI_ExitGame</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>GameUI_ExitGameDescription</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>게임을 종료하시겠습니까?</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Quit the game?</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>GameUI_BackToLobby</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>GameUI_BackToLobbyDescription</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
+전투를 중지하시겠습니까?</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>You cannot get gold, items you got til now.
+Sure to quit the battle?</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>GameUI_TouchToMove</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>터치하여 이동하세요</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Touch to move</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>GameUI_BossReady</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>보스에 대비하세요</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Prepare for the boss</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>GameUI_PossibleAfterTraining</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>훈련 챕터 클리어 후 진행 가능</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Possible to play after the training chapter</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>GameUI_Shop</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>상점</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Shop</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>GameUI_Challenge</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>도전</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Challenge</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>GameUI_Revert</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>환원</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Revert</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>GameUI_Swappable</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>교체 가능</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Can be swapped</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>GameUI_EnterInfo</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>입장 안내</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Entry Info</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>GameUI_EnterInfoDesc</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>이 전투에 현재 캐릭터는 적합하지 않습니다.
+캐릭터를 변경하시겠습니까?</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>In progress of translating…(66)</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>GameUI_ChangeCharacter</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>캐릭터 교체</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Change Chracter</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>GameUI_Chapter</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>챕터 {0}</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Chapter {0}</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>GameUI_ChaosMode</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>카오스 모드</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Chaos Mode</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>GameUI_SuggestedPowerLevel</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>권장 파워레벨 {0}</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Recommended Power Level {0}</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>GameUI_Power</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>POWER {0}</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>POWER {0}</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>GameUI_Suggested</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>추천</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Recommended</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>GameUI_FirstSwapHealApplied</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>첫 교체회복이 적용되는 캐릭터입니다</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>This character is applied to the first replacement recovery</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>GameUI_FirstSwapHealNotApplied</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>이미 전투에 참가했던 캐릭터는 회복되지 않습니다</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Characters already in combat will not recover</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>GameUI_Invincible</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>무적</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>INVINCIBLE</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>GameUI_Miss</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>빗맞음</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>MISS</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>GameUI_Headshot</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>즉사</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>HEADSHOT</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>GameUI_ImmortalWill</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>불사!</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>IMMORTAL!</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>TimeSpaceUI_Low</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>소</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Low</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>TimeSpaceUI_Medium</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>중</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Medium</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>TimeSpaceUI_High</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>대</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>High</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>TimeSpaceUI_Ultra</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>극대</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Ultra</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>TimeSpaceUI_ExtraUltra</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>초극대</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>ExtraUltra</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>PowerSourceUI_Heal</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>The light of life flows from the source of power</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>GameUI_SelectLevelPack</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>레벨팩을 선택하세요</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Choose a level-pack</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>LevelPackUIName_Atk</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>공격력</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Low Attack Boost</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>LevelPackUIName_AtkBetter</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Medium Attack Boost</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>LevelPackUIName_AtkBest</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>In progress of translating…(88)</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>LevelPackUIName_AtkSpeed</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>공격 속도</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>In progress of translating…(89)</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>LevelPackUIName_AtkSpeedBetter</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>In progress of translating…(90)</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>LevelPackUIName_AtkSpeedBest</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>In progress of translating…(91)</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>LevelPackUIName_Crit</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>치명타 확률</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>In progress of translating…(92)</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>LevelPackUIName_CritBetter</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>In progress of translating…(93)</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>LevelPackUIName_CritBest</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>In progress of translating…(94)</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>LevelPackUIName_MaxHp</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>최대 체력</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>In progress of translating…(95)</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>LevelPackUIName_MaxHpBetter</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>In progress of translating…(96)</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>LevelPackUIName_MaxHpBest</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>In progress of translating…(97)</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>발사체 대미지 감소</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>In progress of translating…(98)</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>LevelPackUIName_ReduceDmgClose</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>충돌 대미지 감소</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>In progress of translating…(99)</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>LevelPackUIName_ExtraGold</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>골드 획득량 증가</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>In progress of translating…(100)</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>LevelPackUIName_ItemChanceBoost</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>아이템 확률 증가</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>In progress of translating…(101)</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>LevelPackUIName_HealChanceBoost</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>회복구슬 확률 증가</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>In progress of translating…(102)</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>LevelPackUIName_MonsterThrough</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>In progress of translating…(103)</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>LevelPackUIName_Ricochet</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>In progress of translating…(104)</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>LevelPackUIName_BounceWallQuad</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>In progress of translating…(105)</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>LevelPackUIName_Parallel</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>In progress of translating…(106)</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>In progress of translating…(107)</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>In progress of translating…(108)</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>LevelPackUIName_BackNwayGenerator</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>In progress of translating…(109)</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>LevelPackUIName_Repeat</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>In progress of translating…(110)</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>LevelPackUIName_HealOnKill</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>In progress of translating…(111)</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>In progress of translating…(112)</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>적 조우 시
+공격 속도 증가</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>In progress of translating…(113)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
+공격 속도 증가</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>In progress of translating…(114)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>LevelPackUIName_VampireOnAttack</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>흡혈</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>In progress of translating…(115)</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>In progress of translating…(116)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>In progress of translating…(117)</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
+HP 리젠</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>In progress of translating…(118)</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>LevelPackUIName_ReflectOnAttacked</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>피격 시 반사</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>In progress of translating…(119)</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>In progress of translating…(120)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>LevelPackUIName_AtkUpOnLowerHp</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>HP 낮을수록
+공격력 증가</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>In progress of translating…(121)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
+공격력 증가</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>In progress of translating…(122)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>적 HP 낮을수록
+치명타 대미지 증가</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
+치명타 대미지 증가</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>In progress of translating…(124)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>LevelPackUIName_InstantKill</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>일정확률로 즉사</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>In progress of translating…(125)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>LevelPackUIName_InstantKillBetter</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>In progress of translating…(126)</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>LevelPackUIName_ImmortalWill</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>불사의 의지</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>In progress of translating…(127)</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>LevelPackUIName_ImmortalWillBetter</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>In progress of translating…(128)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>In progress of translating…(129)</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>피격 시
+이동 속도 증가</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>In progress of translating…(130)</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>LevelPackUIName_MineOnMove</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>이동 중 오브 설치</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>In progress of translating…(131)</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>LevelPackUIName_SlowHitObject</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>발사체 속도 감소</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>In progress of translating…(132)</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>LevelPackUIName_Paralyze</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>마비 효과</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>In progress of translating…(133)</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>LevelPackUIName_Hold</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>이동 불가 효과</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>In progress of translating…(134)</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>LevelPackUIName_Transport</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>몬스터 전이 효과</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>In progress of translating…(135)</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>LevelPackUIName_SummonShield</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>쉴드 소환</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>In progress of translating…(136)</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>LevelPackUIDesc_Atk</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>공격력이 증가합니다</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>In progress of translating…(137)</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>LevelPackUIDesc_AtkBetter</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>공격력이 많이 증가합니다</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>In progress of translating…(138)</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>LevelPackUIDesc_AtkBest</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>공격력이 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>In progress of translating…(139)</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>LevelPackUIDesc_AtkSpeed</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>공격 속도가 증가합니다</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>In progress of translating…(140)</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>공격 속도가 많이 증가합니다</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>In progress of translating…(141)</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>공격 속도가 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>In progress of translating…(142)</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>LevelPackUIDesc_Crit</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>치명타 확률이 증가합니다</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>In progress of translating…(143)</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>LevelPackUIDesc_CritBetter</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>치명타 확률이 많이 증가합니다</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>In progress of translating…(144)</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>LevelPackUIDesc_CritBest</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>치명타 확률이 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>In progress of translating…(145)</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>LevelPackUIDesc_MaxHp</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>최대 체력이 증가합니다</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>In progress of translating…(146)</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>LevelPackUIDesc_MaxHpBetter</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>최대 체력이 많이 증가합니다</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>In progress of translating…(147)</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>LevelPackUIDesc_MaxHpBest</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>최대 체력이 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>In progress of translating…(148)</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>발사체의 대미지가 감소합니다</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>In progress of translating…(149)</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>In progress of translating…(150)</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>LevelPackUIDesc_ExtraGold</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>골드 획득량이 증가합니다</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>In progress of translating…(151)</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>아이템 획득 확률이 증가합니다</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>In progress of translating…(152)</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>LevelPackUIDesc_HealChanceBoost</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>회복구슬 획득 확률이 증가합니다</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>In progress of translating…(153)</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>LevelPackUIDesc_MonsterThrough</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>평타 공격이 몬스터를 관통합니다</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>In progress of translating…(154)</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>LevelPackUIDesc_Ricochet</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>In progress of translating…(155)</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>LevelPackUIDesc_BounceWallQuad</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>In progress of translating…(156)</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>LevelPackUIDesc_Parallel</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>In progress of translating…(157)</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>In progress of translating…(158)</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>In progress of translating…(159)</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>In progress of translating…(160)</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>LevelPackUIDesc_Repeat</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>평타 공격이 한 번 더 반복됩니다</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>In progress of translating…(161)</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>LevelPackUIDesc_HealOnKill</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>몬스터를 죽일 때 회복합니다</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>In progress of translating…(162)</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>In progress of translating…(163)</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>In progress of translating…(164)</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>In progress of translating…(165)</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>LevelPackUIDesc_VampireOnAttack</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>In progress of translating…(166)</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>In progress of translating…(167)</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>In progress of translating…(168)</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>In progress of translating…(169)</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>In progress of translating…(170)</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>In progress of translating…(171)</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>In progress of translating…(172)</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>In progress of translating…(173)</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>In progress of translating…(174)</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>In progress of translating…(175)</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>LevelPackUIDesc_InstantKill</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>In progress of translating…(176)</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>LevelPackUIDesc_InstantKillBetter</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>In progress of translating…(177)</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>LevelPackUIDesc_ImmortalWill</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>In progress of translating…(178)</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>In progress of translating…(179)</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>In progress of translating…(180)</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>In progress of translating…(181)</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>LevelPackUIDesc_MineOnMove</v>
+          </cell>
+          <cell r="B182" t="str">
+            <v>이동 시 공격구체를 설치합니다</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>In progress of translating…(182)</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>LevelPackUIDesc_SlowHitObject</v>
+          </cell>
+          <cell r="B183" t="str">
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>In progress of translating…(183)</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>LevelPackUIDesc_Paralyze</v>
+          </cell>
+          <cell r="B184" t="str">
+            <v>공격에 마비 효과를 부여합니다</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>In progress of translating…(184)</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>LevelPackUIDesc_Hold</v>
+          </cell>
+          <cell r="B185" t="str">
+            <v>공격에 이동 불가 효과를 부여합니다</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>In progress of translating…(185)</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>LevelPackUIDesc_Transport</v>
+          </cell>
+          <cell r="B186" t="str">
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>In progress of translating…(186)</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>LevelPackUIDesc_SummonShield</v>
+          </cell>
+          <cell r="B187" t="str">
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>In progress of translating…(187)</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>Chapter1Name</v>
+          </cell>
+          <cell r="B188" t="str">
+            <v>드넓은 평야</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>In progress of translating…(188)</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>Chapter2Name</v>
+          </cell>
+          <cell r="B189" t="str">
+            <v>드넓은 평야2</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>In progress of translating…(189)</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>Chapter3Name</v>
+          </cell>
+          <cell r="B190" t="str">
+            <v>드넓은 평야3</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>In progress of translating…(190)</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>Chapter4Name</v>
+          </cell>
+          <cell r="B191" t="str">
+            <v>드넓은 평야4</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>In progress of translating…(191)</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>Chapter5Name</v>
+          </cell>
+          <cell r="B192" t="str">
+            <v>드넓은 평야5</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>In progress of translating…(192)</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>Chapter6Name</v>
+          </cell>
+          <cell r="B193" t="str">
+            <v>드넓은 평야6</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>In progress of translating…(193)</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>Chapter7Name</v>
+          </cell>
+          <cell r="B194" t="str">
+            <v>드넓은 평야7</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>In progress of translating…(194)</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>Chapter8Name</v>
+          </cell>
+          <cell r="B195" t="str">
+            <v>드넓은 평야8</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>In progress of translating…(195)</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>Chapter9Name</v>
+          </cell>
+          <cell r="B196" t="str">
+            <v>드넓은 평야9</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>In progress of translating…(196)</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>Chapter10Name</v>
+          </cell>
+          <cell r="B197" t="str">
+            <v>드넓은 평야10</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>In progress of translating…(197)</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>Chapter11Name</v>
+          </cell>
+          <cell r="B198" t="str">
+            <v>드넓은 평야11</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>In progress of translating…(198)</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>Chapter12Name</v>
+          </cell>
+          <cell r="B199" t="str">
+            <v>드넓은 평야12</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>In progress of translating…(199)</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>Chapter13Name</v>
+          </cell>
+          <cell r="B200" t="str">
+            <v>드넓은 평야13</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>In progress of translating…(200)</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>Chapter14Name</v>
+          </cell>
+          <cell r="B201" t="str">
+            <v>드넓은 평야14</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>In progress of translating…(201)</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>Chapter15Name</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>드넓은 평야15</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>In progress of translating…(202)</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>Chapter16Name</v>
+          </cell>
+          <cell r="B203" t="str">
+            <v>드넓은 평야16</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>In progress of translating…(203)</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204" t="str">
+            <v>Chapter17Name</v>
+          </cell>
+          <cell r="B204" t="str">
+            <v>드넓은 평야17</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>In progress of translating…(204)</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205" t="str">
+            <v>Chapter18Name</v>
+          </cell>
+          <cell r="B205" t="str">
+            <v>드넓은 평야18</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>In progress of translating…(205)</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206" t="str">
+            <v>Chapter19Name</v>
+          </cell>
+          <cell r="B206" t="str">
+            <v>드넓은 평야19</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>In progress of translating…(206)</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207" t="str">
+            <v>Chapter20Name</v>
+          </cell>
+          <cell r="B207" t="str">
+            <v>드넓은 평야20</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>In progress of translating…(207)</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208" t="str">
+            <v>Chapter21Name</v>
+          </cell>
+          <cell r="B208" t="str">
+            <v>드넓은 평야21</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>In progress of translating…(208)</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209" t="str">
+            <v>Chapter1Desc</v>
+          </cell>
+          <cell r="B209" t="str">
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>In progress of translating…(209)</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210" t="str">
+            <v>Chapter2Desc</v>
+          </cell>
+          <cell r="B210" t="str">
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>In progress of translating…(210)</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211" t="str">
+            <v>Chapter3Desc</v>
+          </cell>
+          <cell r="B211" t="str">
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>In progress of translating…(211)</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212" t="str">
+            <v>Chapter4Desc</v>
+          </cell>
+          <cell r="B212" t="str">
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>In progress of translating…(212)</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213" t="str">
+            <v>Chapter5Desc</v>
+          </cell>
+          <cell r="B213" t="str">
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>In progress of translating…(213)</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214" t="str">
+            <v>Chapter6Desc</v>
+          </cell>
+          <cell r="B214" t="str">
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>In progress of translating…(214)</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215" t="str">
+            <v>Chapter7Desc</v>
+          </cell>
+          <cell r="B215" t="str">
+            <v>챕터7 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>In progress of translating…(215)</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216" t="str">
+            <v>Chapter8Desc</v>
+          </cell>
+          <cell r="B216" t="str">
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>In progress of translating…(216)</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217" t="str">
+            <v>Chapter9Desc</v>
+          </cell>
+          <cell r="B217" t="str">
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>In progress of translating…(217)</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218" t="str">
+            <v>Chapter10Desc</v>
+          </cell>
+          <cell r="B218" t="str">
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>In progress of translating…(218)</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219" t="str">
+            <v>Chapter11Desc</v>
+          </cell>
+          <cell r="B219" t="str">
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>In progress of translating…(219)</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220" t="str">
+            <v>Chapter12Desc</v>
+          </cell>
+          <cell r="B220" t="str">
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>In progress of translating…(220)</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221" t="str">
+            <v>Chapter13Desc</v>
+          </cell>
+          <cell r="B221" t="str">
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>In progress of translating…(221)</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222" t="str">
+            <v>Chapter14Desc</v>
+          </cell>
+          <cell r="B222" t="str">
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>In progress of translating…(222)</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223" t="str">
+            <v>Chapter15Desc</v>
+          </cell>
+          <cell r="B223" t="str">
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>In progress of translating…(223)</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224" t="str">
+            <v>Chapter16Desc</v>
+          </cell>
+          <cell r="B224" t="str">
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>In progress of translating…(224)</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225" t="str">
+            <v>Chapter17Desc</v>
+          </cell>
+          <cell r="B225" t="str">
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>In progress of translating…(225)</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226" t="str">
+            <v>Chapter18Desc</v>
+          </cell>
+          <cell r="B226" t="str">
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>In progress of translating…(226)</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227" t="str">
+            <v>Chapter19Desc</v>
+          </cell>
+          <cell r="B227" t="str">
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>In progress of translating…(227)</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228" t="str">
+            <v>Chapter20Desc</v>
+          </cell>
+          <cell r="B228" t="str">
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>In progress of translating…(228)</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229" t="str">
+            <v>Chapter21Desc</v>
+          </cell>
+          <cell r="B229" t="str">
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>In progress of translating…(229)</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B230" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231" t="str">
+            <v>CharDesc_Ganfaul</v>
+          </cell>
+          <cell r="B231" t="str">
+            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+강력한 단일 공격을 사용한다</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>In progress of translating…(231)</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B232" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233" t="str">
+            <v>CharDesc_KeepSeries</v>
+          </cell>
+          <cell r="B233" t="str">
+            <v>킵시리즈의 설명 우다다다
+간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>In progress of translating…(233)</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B234" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235" t="str">
+            <v>CharDesc_BigBatSuccubus</v>
+          </cell>
+          <cell r="B235" t="str">
+            <v>킵시리즈의 설명 우다다다
+강력한 단일 공격을 사용한다</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>In progress of translating…(235)</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B236" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237" t="str">
+            <v>CharDesc_Bei</v>
+          </cell>
+          <cell r="B237" t="str">
+            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+강력한 단일 공격을 사용한다</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>In progress of translating…(237)</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238" t="str">
+            <v>BossName_Madcap</v>
+          </cell>
+          <cell r="B238" t="str">
+            <v>매드캡</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>In progress of translating…(238)</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239" t="str">
+            <v>BossDesc_Madcap</v>
+          </cell>
+          <cell r="B239" t="str">
+            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>In progress of translating…(239)</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240" t="str">
+            <v>PenaltyUIName_One</v>
+          </cell>
+          <cell r="B240" t="str">
+            <v>&lt;color=#FFFFFF&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FFFFFF&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>In progress of translating…(240)</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241" t="str">
+            <v>PenaltyUIMind_One</v>
+          </cell>
+          <cell r="B241" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FFFFFF&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FFFFFF&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>In progress of translating…(241)</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242" t="str">
+            <v>PenaltyUIRepre_OneOfTwo</v>
+          </cell>
+          <cell r="B242" t="str">
+            <v>&lt;color=#FFFFFF&gt;{0}&lt;/color&gt; 또는 &lt;color=#FFFFFF&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FFFFFF&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>In progress of translating…(242)</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243" t="str">
+            <v>PenaltyUIName_Two</v>
+          </cell>
+          <cell r="B243" t="str">
+            <v>&lt;color=#FFFFFF&gt;{0}&lt;/color&gt;, &lt;color=#FFFFFF&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FFFFFF&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C243" t="str">
+            <v>In progress of translating…(243)</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244" t="str">
+            <v>PenaltyUIMind_Two</v>
+          </cell>
+          <cell r="B244" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FFFFFF&gt;마법&lt;/color&gt; 계열이 &lt;color=#FFFFFF&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="C244" t="str">
+            <v>In progress of translating…(244)</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B245" t="str">
+            <v>&lt;color=#FFFFFF&gt;{0}&lt;/color&gt;, &lt;color=#FFFFFF&gt;{1}&lt;/color&gt;, &lt;color=#FFFFFF&gt;{2}&lt;/color&gt;, &lt;color=#FFFFFF&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FFFFFF&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FFFFFF&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C245" t="str">
+            <v>In progress of translating…(245)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>kor|String</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>eng|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Skill_ActiveOne001_Name</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>하트가 폭발한다</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Hearts exploding!</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Skill_ActiveOne001_Description</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Skill_ActiveOne002_Description</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2607,681 +5440,961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.25" customWidth="1"/>
+    <col min="1" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="5" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ISBLANK(B2),"",
+IFERROR(VLOOKUP(B2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B2,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>간파울</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(ISBLANK(C2),"",
+IFERROR(VLOOKUP(C2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C2,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+강력한 단일 공격을 사용한다</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>0.95</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>1.05</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <f>[1]AffectorValueLevelTable!I3</f>
         <v>1</v>
       </c>
-      <c r="F2">
-        <f>D2*E2</f>
+      <c r="J2">
+        <f>H2*I2</f>
         <v>1.05</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>3.5</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>30</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(ISBLANK(B3),"",
+IFERROR(VLOOKUP(B3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B3,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>킵시리즈</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(ISBLANK(C3),"",
+IFERROR(VLOOKUP(C3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C3,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>킵시리즈의 설명 우다다다
+간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>0.85</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>0.8</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <f>[1]AffectorValueLevelTable!I4</f>
         <v>4</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J18" si="0">H3*I3</f>
         <v>3.2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>3.5</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(ISBLANK(B4),"",
+IFERROR(VLOOKUP(B4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>빅뱃서큐버스</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(ISBLANK(C4),"",
+IFERROR(VLOOKUP(C4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>킵시리즈의 설명 우다다다
+강력한 단일 공격을 사용한다</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>0.9</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>0.9</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <f>[1]AffectorValueLevelTable!I5</f>
         <v>0.5625</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>0.50624999999999998</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>3.5</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(ISBLANK(B5),"",
+IFERROR(VLOOKUP(B5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>베이</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(ISBLANK(C5),"",
+IFERROR(VLOOKUP(C5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+강력한 단일 공격을 사용한다</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0.93</v>
       </c>
-      <c r="D5">
+      <c r="H5">
         <v>0.75</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <f>[1]AffectorValueLevelTable!I6</f>
         <v>0.33333333329999998</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.249999999975</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>3.5</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>30</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="D6" t="str">
+        <f>IF(ISBLANK(B6),"",
+IFERROR(VLOOKUP(B6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(ISBLANK(C6),"",
+IFERROR(VLOOKUP(C6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>3.5</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="D7" t="str">
+        <f>IF(ISBLANK(B7),"",
+IFERROR(VLOOKUP(B7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(ISBLANK(C7),"",
+IFERROR(VLOOKUP(C7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>3.5</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>30</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="D8" t="str">
+        <f>IF(ISBLANK(B8),"",
+IFERROR(VLOOKUP(B8,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B8,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(ISBLANK(C8),"",
+IFERROR(VLOOKUP(C8,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C8,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>3.5</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>30</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="D9" t="str">
+        <f>IF(ISBLANK(B9),"",
+IFERROR(VLOOKUP(B9,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B9,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(ISBLANK(C9),"",
+IFERROR(VLOOKUP(C9,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C9,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>3.5</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>30</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="D10" t="str">
+        <f>IF(ISBLANK(B10),"",
+IFERROR(VLOOKUP(B10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(ISBLANK(C10),"",
+IFERROR(VLOOKUP(C10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>3.5</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>30</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="D11" t="str">
+        <f>IF(ISBLANK(B11),"",
+IFERROR(VLOOKUP(B11,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B11,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(ISBLANK(C11),"",
+IFERROR(VLOOKUP(C11,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C11,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>3.5</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>30</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="D12" t="str">
+        <f>IF(ISBLANK(B12),"",
+IFERROR(VLOOKUP(B12,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B12,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(ISBLANK(C12),"",
+IFERROR(VLOOKUP(C12,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C12,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>3.5</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>30</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="D13" t="str">
+        <f>IF(ISBLANK(B13),"",
+IFERROR(VLOOKUP(B13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(ISBLANK(C13),"",
+IFERROR(VLOOKUP(C13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>3.5</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="D14" t="str">
+        <f>IF(ISBLANK(B14),"",
+IFERROR(VLOOKUP(B14,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B14,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(ISBLANK(C14),"",
+IFERROR(VLOOKUP(C14,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C14,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>3.5</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>30</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="D15" t="str">
+        <f>IF(ISBLANK(B15),"",
+IFERROR(VLOOKUP(B15,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B15,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(ISBLANK(C15),"",
+IFERROR(VLOOKUP(C15,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C15,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>3.5</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>30</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="D16" t="str">
+        <f>IF(ISBLANK(B16),"",
+IFERROR(VLOOKUP(B16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(ISBLANK(C16),"",
+IFERROR(VLOOKUP(C16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>3.5</v>
       </c>
-      <c r="I16">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>30</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="D17" t="str">
+        <f>IF(ISBLANK(B17),"",
+IFERROR(VLOOKUP(B17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(ISBLANK(C17),"",
+IFERROR(VLOOKUP(C17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>3.5</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>30</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="D18" t="str">
+        <f>IF(ISBLANK(B18),"",
+IFERROR(VLOOKUP(B18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(ISBLANK(C18),"",
+IFERROR(VLOOKUP(C18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v/>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>3.5</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>30</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25385E3A-AB3D-4445-928D-ED3B90A5F166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52212779-876A-46CF-87B0-4EBA98B3A2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2052,7 +2052,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2269,6 +2269,10 @@
     <t>표현차이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>portraitAddress|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2360,6 +2364,7 @@
       <sheetName val="InApkStringTable"/>
       <sheetName val="StringTable"/>
       <sheetName val="FontTable"/>
+      <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3166,175 +3171,175 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GameUI_FirstSwapHealApplied</v>
+            <v>GameUI_FirstSwapHealNotApplied</v>
           </cell>
           <cell r="B73" t="str">
-            <v>첫 교체회복이 적용되는 캐릭터입니다</v>
+            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
           </cell>
           <cell r="C73" t="str">
-            <v>This character is applied to the first replacement recovery</v>
+            <v>Characters already in combat will not recover</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_FirstSwapHealNotApplied</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B74" t="str">
-            <v>이미 전투에 참가했던 캐릭터는 회복되지 않습니다</v>
+            <v>무적</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Characters already in combat will not recover</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B75" t="str">
-            <v>무적</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C75" t="str">
-            <v>INVINCIBLE</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B76" t="str">
-            <v>빗맞음</v>
+            <v>즉사</v>
           </cell>
           <cell r="C76" t="str">
-            <v>MISS</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B77" t="str">
-            <v>즉사</v>
+            <v>불사!</v>
           </cell>
           <cell r="C77" t="str">
-            <v>HEADSHOT</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B78" t="str">
-            <v>불사!</v>
+            <v>소</v>
           </cell>
           <cell r="C78" t="str">
-            <v>IMMORTAL!</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B79" t="str">
-            <v>소</v>
+            <v>중</v>
           </cell>
           <cell r="C79" t="str">
-            <v>Low</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B80" t="str">
-            <v>중</v>
+            <v>대</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Medium</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B81" t="str">
-            <v>대</v>
+            <v>극대</v>
           </cell>
           <cell r="C81" t="str">
-            <v>High</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B82" t="str">
-            <v>극대</v>
+            <v>초극대</v>
           </cell>
           <cell r="C82" t="str">
-            <v>Ultra</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B83" t="str">
-            <v>초극대</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C83" t="str">
-            <v>ExtraUltra</v>
+            <v>The light of life flows from the source of power</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B84" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C84" t="str">
-            <v>The light of life flows from the source of power</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B85" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>공격력</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Choose a level-pack</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B86" t="str">
-            <v>공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Low Attack Boost</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B87" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C87" t="str">
-            <v>Medium Attack Boost</v>
+            <v>In progress of translating…(87)</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B88" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C88" t="str">
             <v>In progress of translating…(88)</v>
@@ -3342,10 +3347,10 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B89" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C89" t="str">
             <v>In progress of translating…(89)</v>
@@ -3353,10 +3358,10 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C90" t="str">
             <v>In progress of translating…(90)</v>
@@ -3364,10 +3369,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B91" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -3375,10 +3380,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B92" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -3386,10 +3391,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -3397,10 +3402,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B94" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -3408,10 +3413,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B95" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -3419,10 +3424,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -3430,10 +3435,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B97" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -3441,10 +3446,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B98" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -3452,10 +3457,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B99" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -3463,10 +3468,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B100" t="str">
-            <v>골드 획득량 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -3474,10 +3479,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B101" t="str">
-            <v>아이템 확률 증가</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -3485,10 +3490,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B102" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -3496,10 +3501,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B103" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -3507,10 +3512,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B104" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -3518,10 +3523,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -3529,10 +3534,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -3540,10 +3545,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -3551,10 +3556,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -3562,10 +3567,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -3573,10 +3578,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -3584,10 +3589,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_HealOnKillBetter</v>
           </cell>
           <cell r="B111" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -3595,10 +3600,11 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B112" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>적 조우 시
+공격 속도 증가</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -3606,10 +3612,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B113" t="str">
-            <v>적 조우 시
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
           <cell r="C113" t="str">
@@ -3618,11 +3624,10 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B114" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
-공격 속도 증가</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -3630,10 +3635,10 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B115" t="str">
-            <v>흡혈</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -3641,10 +3646,10 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_RecoverOnAttacked</v>
           </cell>
           <cell r="B116" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>피격 시 HP 리젠</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -3652,10 +3657,11 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B117" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
+HP 리젠</v>
           </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
@@ -3663,11 +3669,10 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B118" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
-HP 리젠</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -3675,10 +3680,10 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B119" t="str">
-            <v>피격 시 반사</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -3686,10 +3691,11 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B120" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>HP 낮을수록
+공격력 증가</v>
           </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
@@ -3697,10 +3703,10 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHp</v>
+            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B121" t="str">
-            <v>HP 낮을수록
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
           <cell r="C121" t="str">
@@ -3709,11 +3715,11 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B122" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
-공격력 증가</v>
+            <v>적 HP 낮을수록
+치명타 대미지 증가</v>
           </cell>
           <cell r="C122" t="str">
             <v>In progress of translating…(122)</v>
@@ -3721,10 +3727,10 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B123" t="str">
-            <v>적 HP 낮을수록
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
           <cell r="C123" t="str">
@@ -3733,11 +3739,10 @@
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B124" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
-치명타 대미지 증가</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C124" t="str">
             <v>In progress of translating…(124)</v>
@@ -3745,10 +3750,10 @@
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LevelPackUIName_InstantKill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B125" t="str">
-            <v>일정확률로 즉사</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
@@ -3756,10 +3761,10 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B126" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -3767,10 +3772,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B127" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -3778,10 +3783,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
           </cell>
           <cell r="B128" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>적 조우 시 회복지대</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -3789,10 +3794,11 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B129" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>피격 시
+이동 속도 증가</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -3800,11 +3806,10 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B130" t="str">
-            <v>피격 시
-이동 속도 증가</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -3812,10 +3817,10 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B131" t="str">
-            <v>이동 중 오브 설치</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -3823,10 +3828,10 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B132" t="str">
-            <v>발사체 속도 감소</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -3834,10 +3839,10 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B133" t="str">
-            <v>마비 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -3845,10 +3850,10 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B134" t="str">
-            <v>이동 불가 효과</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -3856,10 +3861,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B135" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -3867,10 +3872,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B136" t="str">
-            <v>쉴드 소환</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -3878,10 +3883,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B137" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -3889,10 +3894,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B138" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -3900,10 +3905,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -3911,10 +3916,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -3922,10 +3927,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -3933,10 +3938,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -3944,10 +3949,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B143" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -3955,10 +3960,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B144" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -3966,10 +3971,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B145" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -3977,10 +3982,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B146" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -3988,10 +3993,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B147" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -3999,10 +4004,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B148" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -4010,10 +4015,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B149" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -4021,10 +4026,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B150" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -4032,10 +4037,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B151" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -4043,10 +4048,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B152" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -4054,10 +4059,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B153" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -4065,10 +4070,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B154" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -4076,10 +4081,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B155" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -4087,10 +4092,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -4098,10 +4103,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -4109,10 +4114,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -4120,10 +4125,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -4131,10 +4136,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -4142,10 +4147,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -4153,10 +4158,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B162" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -4164,10 +4169,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B163" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -4175,10 +4180,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -4186,10 +4191,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -4197,10 +4202,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -4208,10 +4213,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -4219,10 +4224,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B168" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -4230,10 +4235,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B169" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -4241,10 +4246,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B170" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -4252,10 +4257,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B171" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -4263,10 +4268,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B172" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -4274,10 +4279,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B173" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -4285,10 +4290,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B174" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -4296,10 +4301,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B175" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -4307,10 +4312,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B176" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -4318,10 +4323,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B177" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -4329,10 +4334,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B178" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -4340,10 +4345,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B179" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -4351,10 +4356,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B180" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -4362,10 +4367,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B181" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -4373,10 +4378,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B182" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -4384,10 +4389,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B183" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -4395,10 +4400,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B184" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -4406,10 +4411,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B185" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -4417,10 +4422,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B186" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -4428,10 +4433,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B187" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -4439,10 +4444,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>Chapter1Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B188" t="str">
-            <v>드넓은 평야</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -4450,10 +4455,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B189" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -4461,10 +4466,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -4472,10 +4477,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -4483,10 +4488,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -4494,10 +4499,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -4505,10 +4510,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -4516,10 +4521,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -4527,10 +4532,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -4538,10 +4543,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -4549,10 +4554,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -4560,10 +4565,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -4571,10 +4576,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -4582,10 +4587,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -4593,10 +4598,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -4604,10 +4609,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -4615,10 +4620,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -4626,10 +4631,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -4637,10 +4642,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -4648,10 +4653,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -4659,10 +4664,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -4670,10 +4675,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -4681,10 +4686,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -4692,10 +4697,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -4703,10 +4708,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -4714,10 +4719,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -4725,10 +4730,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -4736,10 +4741,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -4747,10 +4752,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야29</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -4758,10 +4763,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B217" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -4769,10 +4774,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B218" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -4780,10 +4785,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B219" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -4791,10 +4796,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -4802,10 +4807,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -4813,10 +4818,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -4824,10 +4829,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -4835,10 +4840,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -4846,10 +4851,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -4857,10 +4862,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -4868,10 +4873,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -4879,10 +4884,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -4890,10 +4895,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -4901,10 +4906,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -4912,10 +4917,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -4923,10 +4928,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -4934,10 +4939,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -4945,10 +4950,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -4956,10 +4961,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -4967,10 +4972,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -4978,10 +4983,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -4989,10 +4994,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -5000,10 +5005,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -5011,10 +5016,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -5022,10 +5027,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -5033,10 +5038,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -5044,10 +5049,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -5055,10 +5060,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -5066,102 +5071,102 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>Chapter29Desc</v>
+            <v>CharName_Ganfaul</v>
           </cell>
           <cell r="B245" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>간파울</v>
           </cell>
           <cell r="C245" t="str">
-            <v>In progress of translating…(245)</v>
+            <v>Ganfaul</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>CharDesc_Ganfaul</v>
           </cell>
           <cell r="B246" t="str">
-            <v>간파울</v>
+            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+강력한 단일 공격을 사용한다</v>
           </cell>
           <cell r="C246" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(246)</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>CharDesc_Ganfaul</v>
+            <v>CharName_KeepSeries</v>
           </cell>
           <cell r="B247" t="str">
-            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
-강력한 단일 공격을 사용한다</v>
+            <v>킵시리즈</v>
           </cell>
           <cell r="C247" t="str">
-            <v>In progress of translating…(247)</v>
+            <v>KeepSeries</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>CharName_KeepSeries</v>
+            <v>CharDesc_KeepSeries</v>
           </cell>
           <cell r="B248" t="str">
-            <v>킵시리즈</v>
+            <v>킵시리즈의 설명 우다다다
+간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
           <cell r="C248" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(248)</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>CharDesc_KeepSeries</v>
+            <v>CharName_BigBatSuccubus</v>
           </cell>
           <cell r="B249" t="str">
-            <v>킵시리즈의 설명 우다다다
-간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+            <v>빅뱃서큐버스</v>
           </cell>
           <cell r="C249" t="str">
-            <v>In progress of translating…(249)</v>
+            <v>BigBatSuccubus</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>CharName_BigBatSuccubus</v>
+            <v>CharDesc_BigBatSuccubus</v>
           </cell>
           <cell r="B250" t="str">
-            <v>빅뱃서큐버스</v>
+            <v>빅뱃서큐버스의 설명 우다다다
+연타 공격을 사용한다</v>
           </cell>
           <cell r="C250" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(250)</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>CharDesc_BigBatSuccubus</v>
+            <v>CharName_Bei</v>
           </cell>
           <cell r="B251" t="str">
-            <v>빅뱃서큐버스의 설명 우다다다
-연타 공격을 사용한다</v>
+            <v>베이</v>
           </cell>
           <cell r="C251" t="str">
-            <v>In progress of translating…(251)</v>
+            <v>Bei</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>CharName_Bei</v>
+            <v>CharDesc_Bei</v>
           </cell>
           <cell r="B252" t="str">
-            <v>베이</v>
+            <v>베이의 설명 우다다다
+장판 공격을 사용한다</v>
           </cell>
           <cell r="C252" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(252)</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>CharDesc_Bei</v>
+            <v>BossName_Madcap</v>
           </cell>
           <cell r="B253" t="str">
-            <v>베이의 설명 우다다다
-장판 공격을 사용한다</v>
+            <v>매드캡</v>
           </cell>
           <cell r="C253" t="str">
             <v>In progress of translating…(253)</v>
@@ -5169,10 +5174,10 @@
         </row>
         <row r="254">
           <cell r="A254" t="str">
-            <v>BossName_Madcap</v>
+            <v>BossDesc_Madcap</v>
           </cell>
           <cell r="B254" t="str">
-            <v>매드캡</v>
+            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="C254" t="str">
             <v>In progress of translating…(254)</v>
@@ -5180,10 +5185,10 @@
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>BossDesc_Madcap</v>
+            <v>PenaltyUIName_One</v>
           </cell>
           <cell r="B255" t="str">
-            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
           </cell>
           <cell r="C255" t="str">
             <v>In progress of translating…(255)</v>
@@ -5191,10 +5196,10 @@
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>PenaltyUIMind_One</v>
           </cell>
           <cell r="B256" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C256" t="str">
             <v>In progress of translating…(256)</v>
@@ -5202,10 +5207,10 @@
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>PenaltyUIRepre_OneOfTwo</v>
           </cell>
           <cell r="B257" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C257" t="str">
             <v>In progress of translating…(257)</v>
@@ -5213,10 +5218,10 @@
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>PenaltyUIName_Two</v>
           </cell>
           <cell r="B258" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C258" t="str">
             <v>In progress of translating…(258)</v>
@@ -5224,10 +5229,10 @@
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>PenaltyUIMind_Two</v>
           </cell>
           <cell r="B259" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C259" t="str">
             <v>In progress of translating…(259)</v>
@@ -5235,24 +5240,13 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>PenaltyUIRepre_TwoOfFour</v>
           </cell>
           <cell r="B260" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
           </cell>
           <cell r="C260" t="str">
             <v>In progress of translating…(260)</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
-          </cell>
-          <cell r="B261" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="C261" t="str">
-            <v>In progress of translating…(261)</v>
           </cell>
         </row>
       </sheetData>
@@ -5305,6 +5299,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5429,7 +5424,7 @@
             <v/>
           </cell>
           <cell r="I5">
-            <v>4</v>
+            <v>4.8</v>
           </cell>
         </row>
         <row r="6">
@@ -12285,7 +12280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12297,13 +12292,14 @@
     <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="16.375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" collapsed="1"/>
     <col min="19" max="19" width="19.25" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12361,8 +12357,11 @@
       <c r="S1" t="s">
         <v>32</v>
       </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12435,8 +12434,12 @@
       <c r="S2" t="s">
         <v>33</v>
       </c>
+      <c r="T2" t="str">
+        <f>"Portrati_"&amp;S2</f>
+        <v>Portrati_Ganfaul</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12509,8 +12512,12 @@
       <c r="S3" t="s">
         <v>34</v>
       </c>
+      <c r="T3" t="str">
+        <f>"Portrati_"&amp;S3</f>
+        <v>Portrati_KeepSeries</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12583,8 +12590,12 @@
       <c r="S4" t="s">
         <v>36</v>
       </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T5" si="3">"Portrati_"&amp;S4</f>
+        <v>Portrati_BigBatSuccubus</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12657,8 +12668,12 @@
       <c r="S5" t="s">
         <v>35</v>
       </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>Portrati_Bei</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12719,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12753,7 +12768,7 @@
         <v/>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J18" si="3">IF(ISNUMBER(I7),H7*I7,0)</f>
+        <f t="shared" ref="J7:J18" si="4">IF(ISNUMBER(I7),H7*I7,0)</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -12780,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12814,7 +12829,7 @@
         <v/>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8">
@@ -12841,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -12875,7 +12890,7 @@
         <v/>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
@@ -12902,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -12936,7 +12951,7 @@
         <v/>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10">
@@ -12963,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -12997,7 +13012,7 @@
         <v/>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11">
@@ -13024,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -13058,7 +13073,7 @@
         <v/>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12">
@@ -13085,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -13119,7 +13134,7 @@
         <v/>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13">
@@ -13146,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -13180,7 +13195,7 @@
         <v/>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14">
@@ -13207,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -13241,7 +13256,7 @@
         <v/>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15">
@@ -13268,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13317,7 @@
         <v/>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16">
@@ -13363,7 +13378,7 @@
         <v/>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17">
@@ -13424,7 +13439,7 @@
         <v/>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18">
@@ -13465,7 +13480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13567,7 +13582,7 @@
         <v>1.2857142857142858</v>
       </c>
       <c r="H3">
-        <f>G3-G2</f>
+        <f t="shared" ref="H3:H21" si="3">G3-G2</f>
         <v>8.5714285714285854E-2</v>
       </c>
       <c r="I3">
@@ -13586,7 +13601,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="3">B3*1.5</f>
+        <f t="shared" ref="B4:B21" si="4">B3*1.5</f>
         <v>1350</v>
       </c>
       <c r="C4" s="1">
@@ -13598,7 +13613,7 @@
         <v>196.69999999999996</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E21" si="4">E3+0.005</f>
+        <f t="shared" ref="E4:E21" si="5">E3+0.005</f>
         <v>1.4049999999999998</v>
       </c>
       <c r="F4" s="2">
@@ -13609,7 +13624,7 @@
         <v>1.372648703609558</v>
       </c>
       <c r="H4">
-        <f>G4-G3</f>
+        <f t="shared" si="3"/>
         <v>8.6934417895272231E-2</v>
       </c>
       <c r="I4">
@@ -13628,7 +13643,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="C5" s="1">
@@ -13640,7 +13655,7 @@
         <v>277.34699999999987</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4099999999999997</v>
       </c>
       <c r="F5" s="2">
@@ -13651,7 +13666,7 @@
         <v>1.460264578308041</v>
       </c>
       <c r="H5">
-        <f>G5-G4</f>
+        <f t="shared" si="3"/>
         <v>8.7615874698482976E-2</v>
       </c>
       <c r="I5">
@@ -13670,7 +13685,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3037.5</v>
       </c>
       <c r="C6" s="1">
@@ -13682,7 +13697,7 @@
         <v>392.44600499999967</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4149999999999996</v>
       </c>
       <c r="F6" s="2">
@@ -13693,7 +13708,7 @@
         <v>1.5479836519166514</v>
       </c>
       <c r="H6">
-        <f>G6-G5</f>
+        <f t="shared" si="3"/>
         <v>8.7719073608610421E-2</v>
       </c>
       <c r="I6">
@@ -13712,7 +13727,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4556.25</v>
       </c>
       <c r="C7" s="1">
@@ -13724,7 +13739,7 @@
         <v>557.27332709999928</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4199999999999995</v>
       </c>
       <c r="F7" s="2">
@@ -13735,7 +13750,7 @@
         <v>1.635193998503506</v>
       </c>
       <c r="H7">
-        <f>G7-G6</f>
+        <f t="shared" si="3"/>
         <v>8.7210346586854559E-2</v>
       </c>
       <c r="I7">
@@ -13754,7 +13769,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6834.375</v>
       </c>
       <c r="C8" s="1">
@@ -13766,7 +13781,7 @@
         <v>794.11449111749857</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4249999999999994</v>
       </c>
       <c r="F8" s="2">
@@ -13777,7 +13792,7 @@
         <v>1.721256840530007</v>
       </c>
       <c r="H8">
-        <f>G8-G7</f>
+        <f t="shared" si="3"/>
         <v>8.6062842026501052E-2</v>
       </c>
       <c r="I8">
@@ -13796,7 +13811,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10251.5625</v>
       </c>
       <c r="C9" s="1">
@@ -13808,7 +13823,7 @@
         <v>1135.5837222980224</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4299999999999993</v>
       </c>
       <c r="F9" s="2">
@@ -13819,7 +13834,7 @@
         <v>1.8055141683881202</v>
       </c>
       <c r="H9">
-        <f>G9-G8</f>
+        <f t="shared" si="3"/>
         <v>8.4257327858113129E-2</v>
       </c>
       <c r="I9">
@@ -13838,7 +13853,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15377.34375</v>
       </c>
       <c r="C10" s="1">
@@ -13850,7 +13865,7 @@
         <v>1629.5626414976612</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4349999999999992</v>
       </c>
       <c r="F10" s="2">
@@ -13861,7 +13876,7 @@
         <v>1.887297040126956</v>
       </c>
       <c r="H10">
-        <f>G10-G9</f>
+        <f t="shared" si="3"/>
         <v>8.1782871738835805E-2</v>
       </c>
       <c r="I10">
@@ -13880,7 +13895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23066.015625</v>
       </c>
       <c r="C11" s="1">
@@ -13892,7 +13907,7 @@
         <v>2346.5702037566307</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4399999999999991</v>
       </c>
       <c r="F11" s="2">
@@ -13903,7 +13918,7 @@
         <v>1.9659344167989139</v>
       </c>
       <c r="H11">
-        <f>G11-G10</f>
+        <f t="shared" si="3"/>
         <v>7.8637376671957915E-2</v>
       </c>
       <c r="I11">
@@ -13922,7 +13937,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34599.0234375</v>
       </c>
       <c r="C12" s="1">
@@ -13934,7 +13949,7 @@
         <v>3390.7939444283288</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.444999999999999</v>
       </c>
       <c r="F12" s="2">
@@ -13945,7 +13960,7 @@
         <v>2.0407623703794968</v>
       </c>
       <c r="H12">
-        <f>G12-G11</f>
+        <f t="shared" si="3"/>
         <v>7.4827953580582918E-2</v>
       </c>
       <c r="I12">
@@ -13964,7 +13979,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51898.53515625</v>
       </c>
       <c r="C13" s="1">
@@ -13976,7 +13991,7 @@
         <v>4916.6512194210727</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4499999999999988</v>
       </c>
       <c r="F13" s="2">
@@ -13987,7 +14002,7 @@
         <v>2.1111334865994813</v>
       </c>
       <c r="H13">
-        <f>G13-G12</f>
+        <f t="shared" si="3"/>
         <v>7.0371116219984486E-2</v>
       </c>
       <c r="I13">
@@ -14006,7 +14021,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77847.802734375</v>
       </c>
       <c r="C14" s="1">
@@ -14018,7 +14033,7 @@
         <v>7153.7275242576543</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4549999999999987</v>
       </c>
       <c r="F14" s="2">
@@ -14029,7 +14044,7 @@
         <v>2.1764262748448275</v>
       </c>
       <c r="H14">
-        <f>G14-G13</f>
+        <f t="shared" si="3"/>
         <v>6.5292788245346234E-2</v>
       </c>
       <c r="I14">
@@ -14048,7 +14063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116771.7041015625</v>
       </c>
       <c r="C15" s="1">
@@ -14060,7 +14075,7 @@
         <v>10444.442185416165</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4599999999999986</v>
       </c>
       <c r="F15" s="2">
@@ -14071,7 +14086,7 @@
         <v>2.2360543919638665</v>
       </c>
       <c r="H15">
-        <f>G15-G14</f>
+        <f t="shared" si="3"/>
         <v>5.9628117119038926E-2</v>
       </c>
       <c r="I15">
@@ -14090,7 +14105,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175157.55615234375</v>
       </c>
       <c r="C16" s="1">
@@ -14102,7 +14117,7 @@
         <v>15301.107801634666</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4649999999999985</v>
       </c>
       <c r="F16" s="2">
@@ -14113,7 +14128,7 @@
         <v>2.2894754866524254</v>
       </c>
       <c r="H16">
-        <f>G16-G15</f>
+        <f t="shared" si="3"/>
         <v>5.3421094688558934E-2</v>
       </c>
       <c r="I16">
@@ -14132,7 +14147,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>262736.33422851563</v>
       </c>
       <c r="C17" s="1">
@@ -14144,7 +14159,7 @@
         <v>22492.628468402934</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4699999999999984</v>
       </c>
       <c r="F17" s="2">
@@ -14155,7 +14170,7 @@
         <v>2.3361994761759468</v>
       </c>
       <c r="H17">
-        <f>G17-G16</f>
+        <f t="shared" si="3"/>
         <v>4.6723989523521414E-2</v>
       </c>
       <c r="I17">
@@ -14174,7 +14189,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>394104.50134277344</v>
       </c>
       <c r="C18" s="1">
@@ -14186,7 +14201,7 @@
         <v>33176.626990894292</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4749999999999983</v>
       </c>
       <c r="F18" s="2">
@@ -14197,7 +14212,7 @@
         <v>2.3757960774670672</v>
       </c>
       <c r="H18">
-        <f>G18-G17</f>
+        <f t="shared" si="3"/>
         <v>3.9596601291120415E-2</v>
       </c>
       <c r="I18">
@@ -14216,7 +14231,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>591156.75201416016</v>
       </c>
       <c r="C19" s="1">
@@ -14228,7 +14243,7 @@
         <v>49101.40794652349</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4799999999999982</v>
       </c>
       <c r="F19" s="2">
@@ -14239,7 +14254,7 @@
         <v>2.4079014298652739</v>
       </c>
       <c r="H19">
-        <f>G19-G18</f>
+        <f t="shared" si="3"/>
         <v>3.2105352398206666E-2</v>
       </c>
       <c r="I19">
@@ -14258,7 +14273,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>886735.12802124023</v>
       </c>
       <c r="C20" s="1">
@@ -14270,7 +14285,7 @@
         <v>72915.590800587292</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4849999999999981</v>
       </c>
       <c r="F20" s="2">
@@ -14281,7 +14296,7 @@
         <v>2.4322236665305823</v>
       </c>
       <c r="H20">
-        <f>G20-G19</f>
+        <f t="shared" si="3"/>
         <v>2.4322236665308417E-2</v>
       </c>
       <c r="I20">
@@ -14300,7 +14315,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1330102.6920318604</v>
       </c>
       <c r="C21" s="1">
@@ -14312,7 +14327,7 @@
         <v>108644.23029287491</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.489999999999998</v>
       </c>
       <c r="F21" s="2">
@@ -14323,7 +14338,7 @@
         <v>2.4485473152992481</v>
       </c>
       <c r="H21">
-        <f>G21-G20</f>
+        <f t="shared" si="3"/>
         <v>1.6323648768665766E-2</v>
       </c>
       <c r="I21">

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52212779-876A-46CF-87B0-4EBA98B3A2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDB028-564C-42F3-A710-F5E872C8D9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -3177,7 +3177,7 @@
             <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Characters already in combat will not recover</v>
+            <v>Characters already in combat will not recover HP/SP</v>
           </cell>
         </row>
         <row r="74">
@@ -12435,8 +12435,8 @@
         <v>33</v>
       </c>
       <c r="T2" t="str">
-        <f>"Portrati_"&amp;S2</f>
-        <v>Portrati_Ganfaul</v>
+        <f t="shared" ref="T2:T5" si="1">"Portrait_"&amp;S2</f>
+        <v>Portrait_Ganfaul</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -12480,7 +12480,7 @@
         <v>0.5625</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="1">H3*I3</f>
+        <f t="shared" ref="J3:J5" si="2">H3*I3</f>
         <v>0.45</v>
       </c>
       <c r="K3">
@@ -12490,7 +12490,7 @@
         <v>3.5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M18" si="2">J3*L3</f>
+        <f t="shared" ref="M3:M18" si="3">J3*L3</f>
         <v>1.575</v>
       </c>
       <c r="N3">
@@ -12513,8 +12513,8 @@
         <v>34</v>
       </c>
       <c r="T3" t="str">
-        <f>"Portrati_"&amp;S3</f>
-        <v>Portrati_KeepSeries</v>
+        <f t="shared" si="1"/>
+        <v>Portrait_KeepSeries</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -12558,7 +12558,7 @@
         <v>0.47</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42299999999999999</v>
       </c>
       <c r="K4">
@@ -12568,7 +12568,7 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2689999999999999</v>
       </c>
       <c r="N4">
@@ -12591,8 +12591,8 @@
         <v>36</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T5" si="3">"Portrati_"&amp;S4</f>
-        <v>Portrati_BigBatSuccubus</v>
+        <f t="shared" si="1"/>
+        <v>Portrait_BigBatSuccubus</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -12636,7 +12636,7 @@
         <v>0.25</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="K5">
@@ -12646,7 +12646,7 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3125</v>
       </c>
       <c r="N5">
@@ -12669,8 +12669,8 @@
         <v>35</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>Portrati_Bei</v>
+        <f t="shared" si="1"/>
+        <v>Portrait_Bei</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -12714,7 +12714,7 @@
         <v>0.7</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N6">
@@ -12775,7 +12775,7 @@
         <v>0.7</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7">
@@ -12836,7 +12836,7 @@
         <v>0.7</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8">
@@ -12897,7 +12897,7 @@
         <v>0.7</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9">
@@ -12958,7 +12958,7 @@
         <v>0.7</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10">
@@ -13019,7 +13019,7 @@
         <v>0.7</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11">
@@ -13080,7 +13080,7 @@
         <v>0.7</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12">
@@ -13141,7 +13141,7 @@
         <v>0.7</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13">
@@ -13202,7 +13202,7 @@
         <v>0.7</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14">
@@ -13263,7 +13263,7 @@
         <v>0.7</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15">
@@ -13324,7 +13324,7 @@
         <v>0.7</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16">
@@ -13385,7 +13385,7 @@
         <v>0.7</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17">
@@ -13446,7 +13446,7 @@
         <v>0.7</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18">

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDB028-564C-42F3-A710-F5E872C8D9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F3363-C71F-46A2-82E9-5A723AC74266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
-    <sheet name="PowerLevelTable" sheetId="2" r:id="rId2"/>
-    <sheet name="DyeingTable" sheetId="3" r:id="rId3"/>
+    <sheet name="ActorInfoTable" sheetId="4" r:id="rId2"/>
+    <sheet name="PowerLevelTable" sheetId="2" r:id="rId3"/>
+    <sheet name="DyeingTable" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2051,8 +2052,174 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7D492F7C-D6E5-4EE6-A9B2-3F6DDADD21F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비워두면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오버라이딩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{79169145-072E-42FA-96A1-089544487888}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오버라이딩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CE131E1D-17E6-4714-9338-E8E2A2A0663E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다
+기본값은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> TRUE</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2273,6 +2440,22 @@
     <t>portraitAddress|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mecanimName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer.InfoIdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloomThreshold|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useHeadLook|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3096,7 +3279,7 @@
             <v>GameUI_EnterInfoDesc</v>
           </cell>
           <cell r="B66" t="str">
-            <v>이 전투에 현재 캐릭터는 적합하지 않습니다.
+            <v>현재 캐릭터의 파워레벨이 부족합니다
 캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C66" t="str">
@@ -3119,10 +3302,10 @@
             <v>GameUI_Chapter</v>
           </cell>
           <cell r="B68" t="str">
-            <v>챕터 {0}</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C68" t="str">
-            <v>Chapter {0}</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="69">
@@ -3152,10 +3335,10 @@
             <v>GameUI_Power</v>
           </cell>
           <cell r="B71" t="str">
-            <v>POWER {0}</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C71" t="str">
-            <v>POWER {0}</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="72">
@@ -3163,7 +3346,7 @@
             <v>GameUI_Suggested</v>
           </cell>
           <cell r="B72" t="str">
-            <v>추천</v>
+            <v>추천캐릭터</v>
           </cell>
           <cell r="C72" t="str">
             <v>Recommended</v>
@@ -3182,164 +3365,164 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_NowPlayingCharacter</v>
           </cell>
           <cell r="B74" t="str">
-            <v>무적</v>
+            <v>현재 플레이 중인 캐릭터입니다</v>
           </cell>
           <cell r="C74" t="str">
-            <v>INVINCIBLE</v>
+            <v>Now playing!</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B75" t="str">
-            <v>빗맞음</v>
+            <v>무적</v>
           </cell>
           <cell r="C75" t="str">
-            <v>MISS</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B76" t="str">
-            <v>즉사</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C76" t="str">
-            <v>HEADSHOT</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B77" t="str">
-            <v>불사!</v>
+            <v>즉사</v>
           </cell>
           <cell r="C77" t="str">
-            <v>IMMORTAL!</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B78" t="str">
-            <v>소</v>
+            <v>불사!</v>
           </cell>
           <cell r="C78" t="str">
-            <v>Low</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B79" t="str">
-            <v>중</v>
+            <v>소</v>
           </cell>
           <cell r="C79" t="str">
-            <v>Medium</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B80" t="str">
-            <v>대</v>
+            <v>중</v>
           </cell>
           <cell r="C80" t="str">
-            <v>High</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B81" t="str">
-            <v>극대</v>
+            <v>대</v>
           </cell>
           <cell r="C81" t="str">
-            <v>Ultra</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B82" t="str">
-            <v>초극대</v>
+            <v>극대</v>
           </cell>
           <cell r="C82" t="str">
-            <v>ExtraUltra</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B83" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>초극대</v>
           </cell>
           <cell r="C83" t="str">
-            <v>The light of life flows from the source of power</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B84" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C84" t="str">
-            <v>Choose a level-pack</v>
+            <v>The light of life flows from the source of power</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B85" t="str">
-            <v>공격력</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B86" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B87" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C87" t="str">
-            <v>In progress of translating…(87)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B88" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C88" t="str">
             <v>In progress of translating…(88)</v>
@@ -3347,10 +3530,10 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B89" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C89" t="str">
             <v>In progress of translating…(89)</v>
@@ -3358,10 +3541,10 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C90" t="str">
             <v>In progress of translating…(90)</v>
@@ -3369,10 +3552,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B91" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -3380,10 +3563,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B92" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -3391,10 +3574,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -3402,10 +3585,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B94" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -3413,10 +3596,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B95" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -3424,10 +3607,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -3435,10 +3618,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B97" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -3446,10 +3629,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B98" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -3457,10 +3640,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B99" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -3468,10 +3651,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B100" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -3479,10 +3662,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B101" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -3490,10 +3673,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B102" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -3501,10 +3684,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B103" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -3512,10 +3695,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B104" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -3523,10 +3706,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -3534,10 +3717,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -3545,10 +3728,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -3556,10 +3739,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -3567,10 +3750,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -3578,10 +3761,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B110" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -3589,10 +3772,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -3600,45 +3783,45 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>In progress of translating…(112)</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B112" t="str">
+          <cell r="B113" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C112" t="str">
-            <v>In progress of translating…(112)</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
+          <cell r="C113" t="str">
+            <v>In progress of translating…(113)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B113" t="str">
+          <cell r="B114" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C113" t="str">
-            <v>In progress of translating…(113)</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B115" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -3646,10 +3829,10 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B116" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -3657,33 +3840,33 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>In progress of translating…(117)</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B117" t="str">
+          <cell r="B118" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C117" t="str">
-            <v>In progress of translating…(117)</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B119" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -3691,69 +3874,69 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>In progress of translating…(120)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B120" t="str">
+          <cell r="B121" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C120" t="str">
-            <v>In progress of translating…(120)</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
+          <cell r="C121" t="str">
+            <v>In progress of translating…(121)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B121" t="str">
+          <cell r="B122" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C121" t="str">
-            <v>In progress of translating…(121)</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
+          <cell r="C122" t="str">
+            <v>In progress of translating…(122)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B122" t="str">
+          <cell r="B123" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C122" t="str">
-            <v>In progress of translating…(122)</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B123" t="str">
+          <cell r="B124" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C124" t="str">
             <v>In progress of translating…(124)</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B125" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
@@ -3761,10 +3944,10 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B126" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -3772,10 +3955,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B127" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -3783,10 +3966,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B128" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -3794,33 +3977,33 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>In progress of translating…(129)</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B129" t="str">
+          <cell r="B130" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C129" t="str">
-            <v>In progress of translating…(129)</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B131" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -3828,10 +4011,10 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B132" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -3839,10 +4022,10 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B133" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -3850,10 +4033,10 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B134" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -3861,10 +4044,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B135" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -3872,10 +4055,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B136" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -3883,10 +4066,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B137" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -3894,10 +4077,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B138" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -3905,10 +4088,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -3916,10 +4099,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -3927,10 +4110,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -3938,10 +4121,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B142" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -3949,10 +4132,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B143" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -3960,10 +4143,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B144" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -3971,10 +4154,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B145" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -3982,10 +4165,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B146" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -3993,10 +4176,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B147" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -4004,10 +4187,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B148" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -4015,10 +4198,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B149" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -4026,10 +4209,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B150" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -4037,10 +4220,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B151" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -4048,10 +4231,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B152" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -4059,10 +4242,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B153" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -4070,10 +4253,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B154" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -4081,10 +4264,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B155" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -4092,10 +4275,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -4103,10 +4286,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -4114,10 +4297,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -4125,10 +4308,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -4136,10 +4319,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -4147,10 +4330,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B161" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -4158,10 +4341,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B162" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -4169,10 +4352,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B163" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -4180,10 +4363,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -4191,10 +4374,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -4202,10 +4385,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -4213,10 +4396,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B167" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -4224,10 +4407,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B168" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -4235,10 +4418,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B169" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -4246,10 +4429,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B170" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -4257,10 +4440,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B171" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -4268,10 +4451,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B172" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -4279,10 +4462,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B173" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -4290,10 +4473,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B174" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -4301,10 +4484,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B175" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -4312,10 +4495,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B176" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -4323,10 +4506,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B177" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -4334,10 +4517,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B178" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -4345,10 +4528,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B179" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -4356,10 +4539,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B180" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -4367,10 +4550,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B181" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -4378,10 +4561,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B182" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -4389,10 +4572,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B183" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -4400,10 +4583,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B184" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -4411,10 +4594,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B185" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -4422,10 +4605,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B186" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -4433,10 +4616,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B187" t="str">
-            <v>드넓은 평야</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -4444,10 +4627,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B188" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -4455,10 +4638,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B189" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -4466,10 +4649,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -4477,10 +4660,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -4488,10 +4671,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -4499,10 +4682,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -4510,10 +4693,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -4521,10 +4704,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -4532,10 +4715,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -4543,10 +4726,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -4554,10 +4737,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -4565,10 +4748,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -4576,10 +4759,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -4587,10 +4770,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -4598,10 +4781,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -4609,10 +4792,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -4620,10 +4803,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -4631,10 +4814,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -4642,10 +4825,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -4653,10 +4836,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -4664,10 +4847,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -4675,10 +4858,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -4686,10 +4869,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -4697,10 +4880,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -4708,10 +4891,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -4719,10 +4902,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -4730,10 +4913,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -4741,10 +4924,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -4752,10 +4935,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -4763,10 +4946,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B217" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -4774,10 +4957,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B218" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -4785,10 +4968,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B219" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -4796,10 +4979,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -4807,10 +4990,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -4818,10 +5001,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -4829,10 +5012,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -4840,10 +5023,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -4851,10 +5034,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -4862,10 +5045,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -4873,10 +5056,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -4884,10 +5067,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -4895,10 +5078,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -4906,10 +5089,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -4917,10 +5100,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -4928,10 +5111,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -4939,10 +5122,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -4950,10 +5133,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -4961,10 +5144,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -4972,10 +5155,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -4983,10 +5166,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -4994,10 +5177,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -5005,10 +5188,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -5016,10 +5199,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -5027,10 +5210,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -5038,10 +5221,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -5049,10 +5232,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -5060,10 +5243,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -5071,113 +5254,113 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>간파울</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(245)</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B246" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247" t="str">
             <v>CharDesc_Ganfaul</v>
           </cell>
-          <cell r="B246" t="str">
+          <cell r="B247" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
           </cell>
-          <cell r="C246" t="str">
-            <v>In progress of translating…(246)</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B247" t="str">
-            <v>킵시리즈</v>
-          </cell>
           <cell r="C247" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(247)</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
             <v>CharDesc_KeepSeries</v>
           </cell>
-          <cell r="B248" t="str">
+          <cell r="B249" t="str">
             <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
-          <cell r="C248" t="str">
-            <v>In progress of translating…(248)</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B249" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
           <cell r="C249" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(249)</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
             <v>CharDesc_BigBatSuccubus</v>
           </cell>
-          <cell r="B250" t="str">
+          <cell r="B251" t="str">
             <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
           </cell>
-          <cell r="C250" t="str">
-            <v>In progress of translating…(250)</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B251" t="str">
-            <v>베이</v>
-          </cell>
           <cell r="C251" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(251)</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
             <v>CharDesc_Bei</v>
           </cell>
-          <cell r="B252" t="str">
+          <cell r="B253" t="str">
             <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
           </cell>
-          <cell r="C252" t="str">
-            <v>In progress of translating…(252)</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253" t="str">
-            <v>BossName_Madcap</v>
-          </cell>
-          <cell r="B253" t="str">
-            <v>매드캡</v>
-          </cell>
           <cell r="C253" t="str">
             <v>In progress of translating…(253)</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254" t="str">
-            <v>BossDesc_Madcap</v>
+            <v>BossName_Madcap</v>
           </cell>
           <cell r="B254" t="str">
-            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
+            <v>매드캡</v>
           </cell>
           <cell r="C254" t="str">
             <v>In progress of translating…(254)</v>
@@ -5185,10 +5368,10 @@
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossDesc_Madcap</v>
           </cell>
           <cell r="B255" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="C255" t="str">
             <v>In progress of translating…(255)</v>
@@ -5196,10 +5379,10 @@
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>PenaltyUIName_One</v>
           </cell>
           <cell r="B256" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
           </cell>
           <cell r="C256" t="str">
             <v>In progress of translating…(256)</v>
@@ -5207,10 +5390,10 @@
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>PenaltyUIMind_One</v>
           </cell>
           <cell r="B257" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C257" t="str">
             <v>In progress of translating…(257)</v>
@@ -5218,10 +5401,10 @@
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>PenaltyUIRepre_OneOfTwo</v>
           </cell>
           <cell r="B258" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C258" t="str">
             <v>In progress of translating…(258)</v>
@@ -5229,10 +5412,10 @@
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>PenaltyUIName_Two</v>
           </cell>
           <cell r="B259" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C259" t="str">
             <v>In progress of translating…(259)</v>
@@ -5240,13 +5423,24 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>PenaltyUIMind_Two</v>
           </cell>
           <cell r="B260" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C260" t="str">
             <v>In progress of translating…(260)</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B261" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>In progress of translating…(261)</v>
           </cell>
         </row>
       </sheetData>
@@ -5316,18 +5510,9 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>idForVlookup|String</v>
-          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -12282,19 +12467,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
-    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="10" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="19.25" customWidth="1"/>
     <col min="20" max="20" width="15.625" customWidth="1"/>
   </cols>
@@ -13475,6 +13658,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87214D-1A43-40DA-9E02-1F2E1AE17FC3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -14359,7 +14591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E5CCA7-2CDB-4EC3-8E21-F03A3EA2508B}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F3363-C71F-46A2-82E9-5A723AC74266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183BE025-62AB-48EB-9896-5E21BEA43056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2219,7 +2219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2454,6 +2454,10 @@
   </si>
   <si>
     <t>useHeadLook|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingSphereRadius|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12465,24 +12469,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.75" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
     <col min="19" max="19" width="19.25" customWidth="1"/>
     <col min="20" max="20" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12543,8 +12549,11 @@
       <c r="T1" t="s">
         <v>60</v>
       </c>
+      <c r="U1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12621,8 +12630,11 @@
         <f t="shared" ref="T2:T5" si="1">"Portrait_"&amp;S2</f>
         <v>Portrait_Ganfaul</v>
       </c>
+      <c r="U2">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12699,8 +12711,11 @@
         <f t="shared" si="1"/>
         <v>Portrait_KeepSeries</v>
       </c>
+      <c r="U3">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12777,8 +12792,11 @@
         <f t="shared" si="1"/>
         <v>Portrait_BigBatSuccubus</v>
       </c>
+      <c r="U4">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12855,8 +12873,11 @@
         <f t="shared" si="1"/>
         <v>Portrait_Bei</v>
       </c>
+      <c r="U5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12917,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12978,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13039,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -13100,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13161,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13222,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -13283,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -13344,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -13405,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -13466,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13661,7 +13682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87214D-1A43-40DA-9E02-1F2E1AE17FC3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183BE025-62AB-48EB-9896-5E21BEA43056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67300D9-00BB-4F78-A7FE-C526A775BD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -3479,65 +3479,65 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>PowerSourceUI_ComeHere</v>
           </cell>
           <cell r="B84" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
           </cell>
           <cell r="C84" t="str">
-            <v>The light of life flows from the source of power</v>
+            <v>In progress of translating…(84)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B85" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Choose a level-pack</v>
+            <v>The light of life flows from the power source</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B86" t="str">
-            <v>공격력</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B87" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C87" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B88" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C88" t="str">
-            <v>In progress of translating…(88)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B89" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C89" t="str">
             <v>In progress of translating…(89)</v>
@@ -3545,10 +3545,10 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C90" t="str">
             <v>In progress of translating…(90)</v>
@@ -3556,10 +3556,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B91" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -3567,10 +3567,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B92" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -3578,10 +3578,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -3589,10 +3589,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B94" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -3600,10 +3600,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B95" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -3611,10 +3611,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -3622,10 +3622,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B97" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -3633,10 +3633,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B98" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -3644,10 +3644,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B99" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -3655,10 +3655,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B100" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -3666,10 +3666,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B101" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -3677,10 +3677,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B102" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -3688,10 +3688,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B103" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -3699,10 +3699,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B104" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -3710,10 +3710,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -3721,10 +3721,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -3732,10 +3732,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -3743,10 +3743,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -3754,10 +3754,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -3765,10 +3765,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -3776,10 +3776,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B111" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -3787,10 +3787,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B112" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -3798,45 +3798,45 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>In progress of translating…(113)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B113" t="str">
+          <cell r="B114" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C113" t="str">
-            <v>In progress of translating…(113)</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
+          <cell r="C114" t="str">
+            <v>In progress of translating…(114)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B114" t="str">
+          <cell r="B115" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C114" t="str">
-            <v>In progress of translating…(114)</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B116" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -3844,10 +3844,10 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B117" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
@@ -3855,33 +3855,33 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>In progress of translating…(118)</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B118" t="str">
+          <cell r="B119" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C118" t="str">
-            <v>In progress of translating…(118)</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B120" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
@@ -3889,69 +3889,69 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>In progress of translating…(121)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B121" t="str">
+          <cell r="B122" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C121" t="str">
-            <v>In progress of translating…(121)</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
+          <cell r="C122" t="str">
+            <v>In progress of translating…(122)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B122" t="str">
+          <cell r="B123" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C122" t="str">
-            <v>In progress of translating…(122)</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B123" t="str">
+          <cell r="B124" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
+          <cell r="C124" t="str">
+            <v>In progress of translating…(124)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B124" t="str">
+          <cell r="B125" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C124" t="str">
-            <v>In progress of translating…(124)</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B126" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -3959,10 +3959,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B127" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -3970,10 +3970,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B128" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -3981,10 +3981,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B129" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -3992,33 +3992,33 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>In progress of translating…(130)</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B130" t="str">
+          <cell r="B131" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C130" t="str">
-            <v>In progress of translating…(130)</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B132" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -4026,10 +4026,10 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B133" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -4037,10 +4037,10 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B134" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -4048,10 +4048,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B135" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -4059,10 +4059,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B136" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -4070,10 +4070,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B137" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -4081,10 +4081,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B138" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -4092,10 +4092,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -4103,10 +4103,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -4114,10 +4114,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -4125,10 +4125,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -4136,10 +4136,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B143" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -4147,10 +4147,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B144" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -4158,10 +4158,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B145" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -4169,10 +4169,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B146" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -4180,10 +4180,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B147" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -4191,10 +4191,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B148" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -4202,10 +4202,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B149" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -4213,10 +4213,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B150" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -4224,10 +4224,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B151" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -4235,10 +4235,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B152" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -4246,10 +4246,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B153" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -4257,10 +4257,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B154" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -4268,10 +4268,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B155" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -4279,10 +4279,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -4290,10 +4290,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -4301,10 +4301,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -4312,10 +4312,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -4323,10 +4323,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -4334,10 +4334,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -4345,10 +4345,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B162" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -4356,10 +4356,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B163" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -4367,10 +4367,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -4378,10 +4378,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -4389,10 +4389,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -4400,10 +4400,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -4411,10 +4411,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B168" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -4422,10 +4422,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B169" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -4433,10 +4433,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B170" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -4444,10 +4444,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B171" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -4455,10 +4455,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B172" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -4466,10 +4466,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B173" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -4477,10 +4477,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B174" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -4488,10 +4488,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B175" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -4499,10 +4499,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B176" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -4510,10 +4510,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B177" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -4521,10 +4521,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B178" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -4532,10 +4532,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B179" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -4543,10 +4543,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B180" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -4554,10 +4554,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B181" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -4565,10 +4565,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B182" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -4576,10 +4576,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B183" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -4587,10 +4587,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B184" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -4598,10 +4598,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B185" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -4609,10 +4609,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B186" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -4620,10 +4620,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B187" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -4631,10 +4631,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B188" t="str">
-            <v>드넓은 평야</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -4642,10 +4642,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B189" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -4653,10 +4653,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -4664,10 +4664,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -4675,10 +4675,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -4686,10 +4686,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -4697,10 +4697,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -4708,10 +4708,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -4719,10 +4719,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -4730,10 +4730,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -4741,10 +4741,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -4752,10 +4752,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -4763,10 +4763,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -4774,10 +4774,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -4785,10 +4785,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -4796,10 +4796,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -4807,10 +4807,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -4818,10 +4818,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -4829,10 +4829,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -4840,10 +4840,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -4851,10 +4851,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -4862,10 +4862,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -4873,10 +4873,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -4884,10 +4884,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -4895,10 +4895,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -4906,10 +4906,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -4917,10 +4917,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -4928,10 +4928,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -4939,10 +4939,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -4950,10 +4950,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B217" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -4961,10 +4961,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B218" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -4972,10 +4972,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B219" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -4983,10 +4983,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -4994,10 +4994,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -5005,10 +5005,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -5016,10 +5016,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -5027,10 +5027,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -5038,10 +5038,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -5049,10 +5049,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -5060,10 +5060,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -5071,10 +5071,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -5082,10 +5082,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -5093,10 +5093,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -5104,10 +5104,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -5115,10 +5115,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -5126,10 +5126,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -5137,10 +5137,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -5148,10 +5148,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -5159,10 +5159,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -5170,10 +5170,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -5181,10 +5181,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -5192,10 +5192,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -5203,10 +5203,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -5214,10 +5214,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -5225,10 +5225,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -5236,10 +5236,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -5247,10 +5247,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -5258,10 +5258,10 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
             <v>In progress of translating…(245)</v>
@@ -5269,113 +5269,113 @@
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B246" t="str">
-            <v>간파울</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C246" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(246)</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B247" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C247" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248" t="str">
             <v>CharDesc_Ganfaul</v>
           </cell>
-          <cell r="B247" t="str">
+          <cell r="B248" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
           </cell>
-          <cell r="C247" t="str">
-            <v>In progress of translating…(247)</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B248" t="str">
-            <v>킵시리즈</v>
-          </cell>
           <cell r="C248" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(248)</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
             <v>CharDesc_KeepSeries</v>
           </cell>
-          <cell r="B249" t="str">
+          <cell r="B250" t="str">
             <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
-          <cell r="C249" t="str">
-            <v>In progress of translating…(249)</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B250" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
           <cell r="C250" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(250)</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
             <v>CharDesc_BigBatSuccubus</v>
           </cell>
-          <cell r="B251" t="str">
+          <cell r="B252" t="str">
             <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
           </cell>
-          <cell r="C251" t="str">
-            <v>In progress of translating…(251)</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B252" t="str">
-            <v>베이</v>
-          </cell>
           <cell r="C252" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(252)</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
             <v>CharDesc_Bei</v>
           </cell>
-          <cell r="B253" t="str">
+          <cell r="B254" t="str">
             <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
           </cell>
-          <cell r="C253" t="str">
-            <v>In progress of translating…(253)</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254" t="str">
-            <v>BossName_Madcap</v>
-          </cell>
-          <cell r="B254" t="str">
-            <v>매드캡</v>
-          </cell>
           <cell r="C254" t="str">
             <v>In progress of translating…(254)</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>BossDesc_Madcap</v>
+            <v>BossName_Madcap</v>
           </cell>
           <cell r="B255" t="str">
-            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
+            <v>매드캡</v>
           </cell>
           <cell r="C255" t="str">
             <v>In progress of translating…(255)</v>
@@ -5383,10 +5383,10 @@
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossDesc_Madcap</v>
           </cell>
           <cell r="B256" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="C256" t="str">
             <v>In progress of translating…(256)</v>
@@ -5394,10 +5394,10 @@
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>PenaltyUIName_One</v>
           </cell>
           <cell r="B257" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
           </cell>
           <cell r="C257" t="str">
             <v>In progress of translating…(257)</v>
@@ -5405,10 +5405,10 @@
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>PenaltyUIMind_One</v>
           </cell>
           <cell r="B258" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C258" t="str">
             <v>In progress of translating…(258)</v>
@@ -5416,10 +5416,10 @@
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>PenaltyUIRepre_OneOfTwo</v>
           </cell>
           <cell r="B259" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C259" t="str">
             <v>In progress of translating…(259)</v>
@@ -5427,10 +5427,10 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>PenaltyUIName_Two</v>
           </cell>
           <cell r="B260" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C260" t="str">
             <v>In progress of translating…(260)</v>
@@ -5438,13 +5438,24 @@
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>PenaltyUIMind_Two</v>
           </cell>
           <cell r="B261" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C261" t="str">
             <v>In progress of translating…(261)</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B262" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>In progress of translating…(262)</v>
           </cell>
         </row>
       </sheetData>
@@ -5514,9 +5525,18 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="1">
+          <cell r="A1" t="str">
+            <v>idForVlookup|String</v>
+          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -12097,7 +12117,7 @@
             <v>SpDecreaseRate</v>
           </cell>
           <cell r="C6">
-            <v>0.8</v>
+            <v>0.7</v>
           </cell>
         </row>
         <row r="7">
@@ -12618,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -12699,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -12780,7 +12800,7 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -12861,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -12932,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -12993,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -13054,7 +13074,7 @@
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -13115,7 +13135,7 @@
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -13176,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -13237,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -13298,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -13359,7 +13379,7 @@
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -13420,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -13481,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -13542,7 +13562,7 @@
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -13603,7 +13623,7 @@
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -13664,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="R18">
         <v>0</v>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67300D9-00BB-4F78-A7FE-C526A775BD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C9EE4E-B8B8-4183-895C-08B52671AC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -3292,263 +3292,264 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>GameUI_ChangeCharacter</v>
+            <v>GameUI_EnterRecommendDesc</v>
           </cell>
           <cell r="B67" t="str">
-            <v>캐릭터 교체</v>
+            <v>더 적합한 추천 캐릭터가 있습니다
+캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C67" t="str">
-            <v>Change Chracter</v>
+            <v>In progress of translating…(67)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>GameUI_Chapter</v>
+            <v>GameUI_ChangeCharacter</v>
           </cell>
           <cell r="B68" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>캐릭터 교체</v>
           </cell>
           <cell r="C68" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>Change Chracter</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GameUI_ChaosMode</v>
+            <v>GameUI_Chapter</v>
           </cell>
           <cell r="B69" t="str">
-            <v>카오스 모드</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C69" t="str">
-            <v>Chaos Mode</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GameUI_SuggestedPowerLevel</v>
+            <v>GameUI_ChaosMode</v>
           </cell>
           <cell r="B70" t="str">
-            <v>권장 파워레벨 {0}</v>
+            <v>카오스 모드</v>
           </cell>
           <cell r="C70" t="str">
-            <v>Recommended Power Level {0}</v>
+            <v>Chaos Mode</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GameUI_Power</v>
+            <v>GameUI_SuggestedPowerLevel</v>
           </cell>
           <cell r="B71" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>권장 파워레벨 {0}</v>
           </cell>
           <cell r="C71" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>Recommended Power Level {0}</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GameUI_Suggested</v>
+            <v>GameUI_Power</v>
           </cell>
           <cell r="B72" t="str">
-            <v>추천캐릭터</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C72" t="str">
-            <v>Recommended</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GameUI_FirstSwapHealNotApplied</v>
+            <v>GameUI_Suggested</v>
           </cell>
           <cell r="B73" t="str">
-            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
+            <v>추천캐릭터</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Characters already in combat will not recover HP/SP</v>
+            <v>Recommended</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_NowPlayingCharacter</v>
+            <v>GameUI_FirstSwapHealNotApplied</v>
           </cell>
           <cell r="B74" t="str">
-            <v>현재 플레이 중인 캐릭터입니다</v>
+            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Now playing!</v>
+            <v>Characters already in combat will not recover HP/SP</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_NowPlayingCharacter</v>
           </cell>
           <cell r="B75" t="str">
-            <v>무적</v>
+            <v>현재 플레이 중인 캐릭터입니다</v>
           </cell>
           <cell r="C75" t="str">
-            <v>INVINCIBLE</v>
+            <v>Now playing!</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B76" t="str">
-            <v>빗맞음</v>
+            <v>무적</v>
           </cell>
           <cell r="C76" t="str">
-            <v>MISS</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B77" t="str">
-            <v>즉사</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C77" t="str">
-            <v>HEADSHOT</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B78" t="str">
-            <v>불사!</v>
+            <v>즉사</v>
           </cell>
           <cell r="C78" t="str">
-            <v>IMMORTAL!</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B79" t="str">
-            <v>소</v>
+            <v>불사!</v>
           </cell>
           <cell r="C79" t="str">
-            <v>Low</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B80" t="str">
-            <v>중</v>
+            <v>소</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Medium</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B81" t="str">
-            <v>대</v>
+            <v>중</v>
           </cell>
           <cell r="C81" t="str">
-            <v>High</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B82" t="str">
-            <v>극대</v>
+            <v>대</v>
           </cell>
           <cell r="C82" t="str">
-            <v>Ultra</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B83" t="str">
-            <v>초극대</v>
+            <v>극대</v>
           </cell>
           <cell r="C83" t="str">
-            <v>ExtraUltra</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>PowerSourceUI_ComeHere</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B84" t="str">
-            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
+            <v>초극대</v>
           </cell>
           <cell r="C84" t="str">
-            <v>In progress of translating…(84)</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>PowerSourceUI_ComeHere</v>
           </cell>
           <cell r="B85" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
           </cell>
           <cell r="C85" t="str">
-            <v>The light of life flows from the power source</v>
+            <v>In progress of translating…(85)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B86" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Choose a level-pack</v>
+            <v>The light of life flows from the power source</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B87" t="str">
-            <v>공격력</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C87" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B88" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C88" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B89" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C89" t="str">
-            <v>In progress of translating…(89)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B90" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C90" t="str">
             <v>In progress of translating…(90)</v>
@@ -3556,10 +3557,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B91" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -3567,10 +3568,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B92" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -3578,10 +3579,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B93" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -3589,10 +3590,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B94" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -3600,10 +3601,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B95" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -3611,10 +3612,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B96" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -3622,10 +3623,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B97" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -3633,10 +3634,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B98" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -3644,10 +3645,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B99" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -3655,10 +3656,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B100" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -3666,10 +3667,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B101" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -3677,10 +3678,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B102" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -3688,10 +3689,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B103" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -3699,10 +3700,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B104" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -3710,10 +3711,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -3721,10 +3722,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -3732,10 +3733,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -3743,10 +3744,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -3754,10 +3755,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -3765,10 +3766,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -3776,10 +3777,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -3787,10 +3788,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B112" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -3798,10 +3799,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B113" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C113" t="str">
             <v>In progress of translating…(113)</v>
@@ -3809,45 +3810,45 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>In progress of translating…(114)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B114" t="str">
+          <cell r="B115" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C114" t="str">
-            <v>In progress of translating…(114)</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
+          <cell r="C115" t="str">
+            <v>In progress of translating…(115)</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B115" t="str">
+          <cell r="B116" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C115" t="str">
-            <v>In progress of translating…(115)</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B117" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
@@ -3855,10 +3856,10 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B118" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -3866,33 +3867,33 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>In progress of translating…(119)</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B119" t="str">
+          <cell r="B120" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C119" t="str">
-            <v>In progress of translating…(119)</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B121" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
@@ -3900,69 +3901,69 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>In progress of translating…(122)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B122" t="str">
+          <cell r="B123" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C122" t="str">
-            <v>In progress of translating…(122)</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B123" t="str">
+          <cell r="B124" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
+          <cell r="C124" t="str">
+            <v>In progress of translating…(124)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B124" t="str">
+          <cell r="B125" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C124" t="str">
-            <v>In progress of translating…(124)</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
+          <cell r="C125" t="str">
+            <v>In progress of translating…(125)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B125" t="str">
+          <cell r="B126" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C125" t="str">
-            <v>In progress of translating…(125)</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B127" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -3970,10 +3971,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B128" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -3981,10 +3982,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B129" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -3992,10 +3993,10 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B130" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -4003,33 +4004,33 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>In progress of translating…(131)</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B131" t="str">
+          <cell r="B132" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C131" t="str">
-            <v>In progress of translating…(131)</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B133" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -4037,10 +4038,10 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B134" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -4048,10 +4049,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B135" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -4059,10 +4060,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B136" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -4070,10 +4071,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B137" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -4081,10 +4082,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B138" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -4092,10 +4093,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -4103,10 +4104,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -4114,10 +4115,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -4125,10 +4126,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -4136,10 +4137,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B143" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -4147,10 +4148,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B144" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -4158,10 +4159,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B145" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -4169,10 +4170,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B146" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -4180,10 +4181,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B147" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -4191,10 +4192,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B148" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -4202,10 +4203,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B149" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -4213,10 +4214,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B150" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -4224,10 +4225,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B151" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -4235,10 +4236,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B152" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -4246,10 +4247,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B153" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -4257,10 +4258,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B154" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -4268,10 +4269,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B155" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -4279,10 +4280,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -4290,10 +4291,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -4301,10 +4302,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -4312,10 +4313,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -4323,10 +4324,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -4334,10 +4335,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -4345,10 +4346,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B162" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -4356,10 +4357,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B163" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -4367,10 +4368,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -4378,10 +4379,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -4389,10 +4390,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -4400,10 +4401,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -4411,10 +4412,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B168" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -4422,10 +4423,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B169" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -4433,10 +4434,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B170" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -4444,10 +4445,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B171" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -4455,10 +4456,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B172" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -4466,10 +4467,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B173" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -4477,10 +4478,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B174" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -4488,10 +4489,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B175" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -4499,10 +4500,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B176" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -4510,10 +4511,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B177" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -4521,10 +4522,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B178" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -4532,10 +4533,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B179" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -4543,10 +4544,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B180" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -4554,10 +4555,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B181" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -4565,10 +4566,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B182" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -4576,10 +4577,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B183" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -4587,10 +4588,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B184" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -4598,10 +4599,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B185" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -4609,10 +4610,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B186" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -4620,10 +4621,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B187" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -4631,10 +4632,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B188" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -4642,10 +4643,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B189" t="str">
-            <v>드넓은 평야</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -4653,10 +4654,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -4664,10 +4665,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -4675,10 +4676,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -4686,10 +4687,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -4697,10 +4698,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -4708,10 +4709,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -4719,10 +4720,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -4730,10 +4731,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -4741,10 +4742,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -4752,10 +4753,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -4763,10 +4764,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -4774,10 +4775,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -4785,10 +4786,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -4796,10 +4797,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -4807,10 +4808,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -4818,10 +4819,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -4829,10 +4830,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -4840,10 +4841,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -4851,10 +4852,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -4862,10 +4863,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -4873,10 +4874,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -4884,10 +4885,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -4895,10 +4896,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -4906,10 +4907,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -4917,10 +4918,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -4928,10 +4929,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -4939,10 +4940,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -4950,10 +4951,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B217" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -4961,10 +4962,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B218" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -4972,10 +4973,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B219" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -4983,10 +4984,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -4994,10 +4995,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -5005,10 +5006,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -5016,10 +5017,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -5027,10 +5028,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -5038,10 +5039,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -5049,10 +5050,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -5060,10 +5061,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -5071,10 +5072,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -5082,10 +5083,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -5093,10 +5094,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -5104,10 +5105,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -5115,10 +5116,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -5126,10 +5127,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -5137,10 +5138,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -5148,10 +5149,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -5159,10 +5160,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -5170,10 +5171,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -5181,10 +5182,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -5192,10 +5193,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -5203,10 +5204,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -5214,10 +5215,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -5225,10 +5226,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -5236,10 +5237,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -5247,10 +5248,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -5258,10 +5259,10 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
             <v>In progress of translating…(245)</v>
@@ -5269,10 +5270,10 @@
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B246" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C246" t="str">
             <v>In progress of translating…(246)</v>
@@ -5280,146 +5281,146 @@
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B247" t="str">
-            <v>간파울</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C247" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(247)</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
             <v>CharDesc_Ganfaul</v>
           </cell>
-          <cell r="B248" t="str">
+          <cell r="B249" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
           </cell>
-          <cell r="C248" t="str">
-            <v>In progress of translating…(248)</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B249" t="str">
-            <v>킵시리즈</v>
-          </cell>
           <cell r="C249" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(249)</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
             <v>CharDesc_KeepSeries</v>
           </cell>
-          <cell r="B250" t="str">
+          <cell r="B251" t="str">
             <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
-          <cell r="C250" t="str">
-            <v>In progress of translating…(250)</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B251" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
           <cell r="C251" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(251)</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
             <v>CharDesc_BigBatSuccubus</v>
           </cell>
-          <cell r="B252" t="str">
+          <cell r="B253" t="str">
             <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
           </cell>
-          <cell r="C252" t="str">
-            <v>In progress of translating…(252)</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B253" t="str">
-            <v>베이</v>
-          </cell>
           <cell r="C253" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(253)</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B254" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C254" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255" t="str">
             <v>CharDesc_Bei</v>
           </cell>
-          <cell r="B254" t="str">
+          <cell r="B255" t="str">
             <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
           </cell>
-          <cell r="C254" t="str">
-            <v>In progress of translating…(254)</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255" t="str">
-            <v>BossName_Madcap</v>
-          </cell>
-          <cell r="B255" t="str">
-            <v>매드캡</v>
-          </cell>
           <cell r="C255" t="str">
             <v>In progress of translating…(255)</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>BossDesc_Madcap</v>
+            <v>BossName_SlimeRabbit</v>
           </cell>
           <cell r="B256" t="str">
-            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
+            <v>초록 토끼귀 슬라임</v>
           </cell>
           <cell r="C256" t="str">
-            <v>In progress of translating…(256)</v>
+            <v>Green Rabbit Slime</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossName_SlimeRabbit_Red</v>
           </cell>
           <cell r="B257" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>붉은 토끼귀 슬라임</v>
           </cell>
           <cell r="C257" t="str">
-            <v>In progress of translating…(257)</v>
+            <v>Red Rabbit Slime</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>BossName_TerribleStump_Purple</v>
           </cell>
           <cell r="B258" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>나무귀신</v>
           </cell>
           <cell r="C258" t="str">
-            <v>In progress of translating…(258)</v>
+            <v>Terrible Stump</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>BossName_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B259" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>외뿔 풍뎅이</v>
           </cell>
           <cell r="C259" t="str">
             <v>In progress of translating…(259)</v>
@@ -5427,35 +5428,125 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>BossName_SpiritKing</v>
           </cell>
           <cell r="B260" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>스피릿 킹</v>
           </cell>
           <cell r="C260" t="str">
-            <v>In progress of translating…(260)</v>
+            <v>Spirit King</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>BossDesc_SlimeRabbit</v>
           </cell>
           <cell r="B261" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
-          </cell>
-          <cell r="C261" t="str">
-            <v>In progress of translating…(261)</v>
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262" t="str">
+            <v>BossDesc_SlimeRabbit_Red</v>
+          </cell>
+          <cell r="B262" t="str">
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263" t="str">
+            <v>BossDesc_TerribleStump_Purple</v>
+          </cell>
+          <cell r="B263" t="str">
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>In progress of translating…(263)</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264" t="str">
+            <v>BossDesc_PolygonalMetalon_Red</v>
+          </cell>
+          <cell r="B264" t="str">
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="C264" t="str">
+            <v>In progress of translating…(264)</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265" t="str">
+            <v>BossDesc_SpiritKing</v>
+          </cell>
+          <cell r="B265" t="str">
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266" t="str">
+            <v>PenaltyUIName_One</v>
+          </cell>
+          <cell r="B266" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>In progress of translating…(266)</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267" t="str">
+            <v>PenaltyUIMind_One</v>
+          </cell>
+          <cell r="B267" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="C267" t="str">
+            <v>In progress of translating…(267)</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268" t="str">
+            <v>PenaltyUIRepre_OneOfTwo</v>
+          </cell>
+          <cell r="B268" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v>In progress of translating…(268)</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269" t="str">
+            <v>PenaltyUIName_Two</v>
+          </cell>
+          <cell r="B269" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C269" t="str">
+            <v>In progress of translating…(269)</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270" t="str">
+            <v>PenaltyUIMind_Two</v>
+          </cell>
+          <cell r="B270" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="C270" t="str">
+            <v>In progress of translating…(270)</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271" t="str">
             <v>PenaltyUIRepre_TwoOfFour</v>
           </cell>
-          <cell r="B262" t="str">
+          <cell r="B271" t="str">
             <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
           </cell>
-          <cell r="C262" t="str">
-            <v>In progress of translating…(262)</v>
+          <cell r="C271" t="str">
+            <v>In progress of translating…(271)</v>
           </cell>
         </row>
       </sheetData>
@@ -5525,18 +5616,9 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>idForVlookup|String</v>
-          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -5564,13 +5646,11 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>PositionBuff</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="F2" t="str">
-            <v>특정 범위 원 안에서 특정한 능력치를 얻게 함</v>
-          </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
+            <v>리젠 힐</v>
+          </cell>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
@@ -5678,7 +5758,7 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>NormalAttackBigBatSuccubus</v>
+            <v>UltimateRemoveKeepSeries</v>
           </cell>
           <cell r="C8" t="str">
             <v/>
@@ -5687,18 +5767,18 @@
             <v>1</v>
           </cell>
           <cell r="E8" t="str">
-            <v>BaseDamage</v>
+            <v>RemoveColliderHitObjectAffector</v>
           </cell>
           <cell r="H8" t="str">
             <v/>
           </cell>
           <cell r="I8">
-            <v>0.47</v>
+            <v>0.9</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>NormalAttackBei</v>
+            <v>UltimateCreateKeepSeries</v>
           </cell>
           <cell r="C9" t="str">
             <v/>
@@ -5707,18 +5787,15 @@
             <v>1</v>
           </cell>
           <cell r="E9" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H9" t="str">
             <v/>
-          </cell>
-          <cell r="I9">
-            <v>0.25</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>UltimateAttackKeepSeries</v>
           </cell>
           <cell r="C10" t="str">
             <v/>
@@ -5727,18 +5804,18 @@
             <v>1</v>
           </cell>
           <cell r="E10" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H10" t="str">
             <v/>
           </cell>
           <cell r="I10">
-            <v>-1</v>
+            <v>0.84375</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>InvincibleTortoise</v>
+            <v>NormalAttackBigBatSuccubus</v>
           </cell>
           <cell r="C11" t="str">
             <v/>
@@ -5747,18 +5824,18 @@
             <v>1</v>
           </cell>
           <cell r="E11" t="str">
-            <v>InvincibleTortoise</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H11" t="str">
             <v/>
           </cell>
           <cell r="I11">
-            <v>3</v>
+            <v>0.47</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>CountBarrier5Times</v>
+            <v>NormalAttackBei</v>
           </cell>
           <cell r="C12" t="str">
             <v/>
@@ -5767,18 +5844,18 @@
             <v>1</v>
           </cell>
           <cell r="E12" t="str">
-            <v>CountBarrier</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H12" t="str">
             <v/>
           </cell>
           <cell r="I12">
-            <v>-1</v>
+            <v>0.3</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C13" t="str">
             <v/>
@@ -5798,7 +5875,7 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="C14" t="str">
             <v/>
@@ -5807,7 +5884,7 @@
             <v>1</v>
           </cell>
           <cell r="E14" t="str">
-            <v>Burrow</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="H14" t="str">
             <v/>
@@ -5818,7 +5895,7 @@
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>LP_Atk</v>
+            <v>CountBarrier5Times</v>
           </cell>
           <cell r="C15" t="str">
             <v/>
@@ -5827,7 +5904,7 @@
             <v>1</v>
           </cell>
           <cell r="E15" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CountBarrier</v>
           </cell>
           <cell r="H15" t="str">
             <v/>
@@ -5838,16 +5915,16 @@
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>LP_Atk</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
           <cell r="C16" t="str">
             <v/>
           </cell>
           <cell r="D16">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E16" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H16" t="str">
             <v/>
@@ -5858,22 +5935,22 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>LP_Atk</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C17" t="str">
             <v/>
           </cell>
           <cell r="D17">
+            <v>1</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Burrow</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v/>
+          </cell>
+          <cell r="I17">
             <v>3</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v/>
-          </cell>
-          <cell r="I17">
-            <v>-1</v>
           </cell>
         </row>
         <row r="18">
@@ -5884,7 +5961,7 @@
             <v/>
           </cell>
           <cell r="D18">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E18" t="str">
             <v>ChangeActorStatus</v>
@@ -5904,7 +5981,7 @@
             <v/>
           </cell>
           <cell r="D19">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E19" t="str">
             <v>ChangeActorStatus</v>
@@ -5924,7 +6001,7 @@
             <v/>
           </cell>
           <cell r="D20">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E20" t="str">
             <v>ChangeActorStatus</v>
@@ -5944,7 +6021,7 @@
             <v/>
           </cell>
           <cell r="D21">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E21" t="str">
             <v>ChangeActorStatus</v>
@@ -5964,7 +6041,7 @@
             <v/>
           </cell>
           <cell r="D22">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E22" t="str">
             <v>ChangeActorStatus</v>
@@ -5984,7 +6061,7 @@
             <v/>
           </cell>
           <cell r="D23">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E23" t="str">
             <v>ChangeActorStatus</v>
@@ -5998,13 +6075,13 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C24" t="str">
             <v/>
           </cell>
           <cell r="D24">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E24" t="str">
             <v>ChangeActorStatus</v>
@@ -6018,13 +6095,13 @@
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C25" t="str">
             <v/>
           </cell>
           <cell r="D25">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E25" t="str">
             <v>ChangeActorStatus</v>
@@ -6038,13 +6115,13 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C26" t="str">
             <v/>
           </cell>
           <cell r="D26">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E26" t="str">
             <v>ChangeActorStatus</v>
@@ -6064,7 +6141,7 @@
             <v/>
           </cell>
           <cell r="D27">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E27" t="str">
             <v>ChangeActorStatus</v>
@@ -6084,7 +6161,7 @@
             <v/>
           </cell>
           <cell r="D28">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E28" t="str">
             <v>ChangeActorStatus</v>
@@ -6104,7 +6181,7 @@
             <v/>
           </cell>
           <cell r="D29">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E29" t="str">
             <v>ChangeActorStatus</v>
@@ -6124,7 +6201,7 @@
             <v/>
           </cell>
           <cell r="D30">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E30" t="str">
             <v>ChangeActorStatus</v>
@@ -6144,7 +6221,7 @@
             <v/>
           </cell>
           <cell r="D31">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E31" t="str">
             <v>ChangeActorStatus</v>
@@ -6164,7 +6241,7 @@
             <v/>
           </cell>
           <cell r="D32">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E32" t="str">
             <v>ChangeActorStatus</v>
@@ -6178,13 +6255,13 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C33" t="str">
             <v/>
           </cell>
           <cell r="D33">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E33" t="str">
             <v>ChangeActorStatus</v>
@@ -6198,13 +6275,13 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C34" t="str">
             <v/>
           </cell>
           <cell r="D34">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E34" t="str">
             <v>ChangeActorStatus</v>
@@ -6218,13 +6295,13 @@
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C35" t="str">
             <v/>
           </cell>
           <cell r="D35">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E35" t="str">
             <v>ChangeActorStatus</v>
@@ -6238,7 +6315,7 @@
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C36" t="str">
             <v/>
@@ -6258,7 +6335,7 @@
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C37" t="str">
             <v/>
@@ -6278,7 +6355,7 @@
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C38" t="str">
             <v/>
@@ -6304,7 +6381,7 @@
             <v/>
           </cell>
           <cell r="D39">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E39" t="str">
             <v>ChangeActorStatus</v>
@@ -6324,7 +6401,7 @@
             <v/>
           </cell>
           <cell r="D40">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E40" t="str">
             <v>ChangeActorStatus</v>
@@ -6344,7 +6421,7 @@
             <v/>
           </cell>
           <cell r="D41">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E41" t="str">
             <v>ChangeActorStatus</v>
@@ -6364,7 +6441,7 @@
             <v/>
           </cell>
           <cell r="D42">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E42" t="str">
             <v>ChangeActorStatus</v>
@@ -6384,7 +6461,7 @@
             <v/>
           </cell>
           <cell r="D43">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E43" t="str">
             <v>ChangeActorStatus</v>
@@ -6404,7 +6481,7 @@
             <v/>
           </cell>
           <cell r="D44">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E44" t="str">
             <v>ChangeActorStatus</v>
@@ -6418,13 +6495,13 @@
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C45" t="str">
             <v/>
           </cell>
           <cell r="D45">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E45" t="str">
             <v>ChangeActorStatus</v>
@@ -6438,13 +6515,13 @@
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C46" t="str">
             <v/>
           </cell>
           <cell r="D46">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E46" t="str">
             <v>ChangeActorStatus</v>
@@ -6458,13 +6535,13 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C47" t="str">
             <v/>
           </cell>
           <cell r="D47">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E47" t="str">
             <v>ChangeActorStatus</v>
@@ -6484,7 +6561,7 @@
             <v/>
           </cell>
           <cell r="D48">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E48" t="str">
             <v>ChangeActorStatus</v>
@@ -6504,7 +6581,7 @@
             <v/>
           </cell>
           <cell r="D49">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E49" t="str">
             <v>ChangeActorStatus</v>
@@ -6524,7 +6601,7 @@
             <v/>
           </cell>
           <cell r="D50">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E50" t="str">
             <v>ChangeActorStatus</v>
@@ -6544,7 +6621,7 @@
             <v/>
           </cell>
           <cell r="D51">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E51" t="str">
             <v>ChangeActorStatus</v>
@@ -6564,7 +6641,7 @@
             <v/>
           </cell>
           <cell r="D52">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E52" t="str">
             <v>ChangeActorStatus</v>
@@ -6584,7 +6661,7 @@
             <v/>
           </cell>
           <cell r="D53">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E53" t="str">
             <v>ChangeActorStatus</v>
@@ -6598,13 +6675,13 @@
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>LP_AtkSpeedBest</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C54" t="str">
             <v/>
           </cell>
           <cell r="D54">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E54" t="str">
             <v>ChangeActorStatus</v>
@@ -6618,13 +6695,13 @@
         </row>
         <row r="55">
           <cell r="B55" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C55" t="str">
             <v/>
           </cell>
           <cell r="D55">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E55" t="str">
             <v>ChangeActorStatus</v>
@@ -6638,13 +6715,13 @@
         </row>
         <row r="56">
           <cell r="B56" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C56" t="str">
             <v/>
           </cell>
           <cell r="D56">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="E56" t="str">
             <v>ChangeActorStatus</v>
@@ -6658,13 +6735,13 @@
         </row>
         <row r="57">
           <cell r="B57" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBest</v>
           </cell>
           <cell r="C57" t="str">
             <v/>
           </cell>
           <cell r="D57">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E57" t="str">
             <v>ChangeActorStatus</v>
@@ -6684,7 +6761,7 @@
             <v/>
           </cell>
           <cell r="D58">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E58" t="str">
             <v>ChangeActorStatus</v>
@@ -6704,7 +6781,7 @@
             <v/>
           </cell>
           <cell r="D59">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E59" t="str">
             <v>ChangeActorStatus</v>
@@ -6724,7 +6801,7 @@
             <v/>
           </cell>
           <cell r="D60">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E60" t="str">
             <v>ChangeActorStatus</v>
@@ -6738,13 +6815,13 @@
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C61" t="str">
             <v/>
           </cell>
           <cell r="D61">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E61" t="str">
             <v>ChangeActorStatus</v>
@@ -6758,13 +6835,13 @@
         </row>
         <row r="62">
           <cell r="B62" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C62" t="str">
             <v/>
           </cell>
           <cell r="D62">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E62" t="str">
             <v>ChangeActorStatus</v>
@@ -6778,13 +6855,13 @@
         </row>
         <row r="63">
           <cell r="B63" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C63" t="str">
             <v/>
           </cell>
           <cell r="D63">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E63" t="str">
             <v>ChangeActorStatus</v>
@@ -6798,7 +6875,7 @@
         </row>
         <row r="64">
           <cell r="B64" t="str">
-            <v>LP_CritBest</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C64" t="str">
             <v/>
@@ -6818,13 +6895,13 @@
         </row>
         <row r="65">
           <cell r="B65" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C65" t="str">
             <v/>
           </cell>
           <cell r="D65">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E65" t="str">
             <v>ChangeActorStatus</v>
@@ -6838,13 +6915,13 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C66" t="str">
             <v/>
           </cell>
           <cell r="D66">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E66" t="str">
             <v>ChangeActorStatus</v>
@@ -6858,13 +6935,13 @@
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBest</v>
           </cell>
           <cell r="C67" t="str">
             <v/>
           </cell>
           <cell r="D67">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E67" t="str">
             <v>ChangeActorStatus</v>
@@ -6884,7 +6961,7 @@
             <v/>
           </cell>
           <cell r="D68">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E68" t="str">
             <v>ChangeActorStatus</v>
@@ -6904,7 +6981,7 @@
             <v/>
           </cell>
           <cell r="D69">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E69" t="str">
             <v>ChangeActorStatus</v>
@@ -6924,7 +7001,7 @@
             <v/>
           </cell>
           <cell r="D70">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E70" t="str">
             <v>ChangeActorStatus</v>
@@ -6944,7 +7021,7 @@
             <v/>
           </cell>
           <cell r="D71">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E71" t="str">
             <v>ChangeActorStatus</v>
@@ -6964,7 +7041,7 @@
             <v/>
           </cell>
           <cell r="D72">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E72" t="str">
             <v>ChangeActorStatus</v>
@@ -6984,7 +7061,7 @@
             <v/>
           </cell>
           <cell r="D73">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E73" t="str">
             <v>ChangeActorStatus</v>
@@ -6998,13 +7075,13 @@
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C74" t="str">
             <v/>
           </cell>
           <cell r="D74">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E74" t="str">
             <v>ChangeActorStatus</v>
@@ -7018,13 +7095,13 @@
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C75" t="str">
             <v/>
           </cell>
           <cell r="D75">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E75" t="str">
             <v>ChangeActorStatus</v>
@@ -7038,13 +7115,13 @@
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C76" t="str">
             <v/>
           </cell>
           <cell r="D76">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E76" t="str">
             <v>ChangeActorStatus</v>
@@ -7064,7 +7141,7 @@
             <v/>
           </cell>
           <cell r="D77">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E77" t="str">
             <v>ChangeActorStatus</v>
@@ -7084,7 +7161,7 @@
             <v/>
           </cell>
           <cell r="D78">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E78" t="str">
             <v>ChangeActorStatus</v>
@@ -7104,7 +7181,7 @@
             <v/>
           </cell>
           <cell r="D79">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E79" t="str">
             <v>ChangeActorStatus</v>
@@ -7124,7 +7201,7 @@
             <v/>
           </cell>
           <cell r="D80">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E80" t="str">
             <v>ChangeActorStatus</v>
@@ -7144,7 +7221,7 @@
             <v/>
           </cell>
           <cell r="D81">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E81" t="str">
             <v>ChangeActorStatus</v>
@@ -7164,7 +7241,7 @@
             <v/>
           </cell>
           <cell r="D82">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E82" t="str">
             <v>ChangeActorStatus</v>
@@ -7178,13 +7255,13 @@
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C83" t="str">
             <v/>
           </cell>
           <cell r="D83">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E83" t="str">
             <v>ChangeActorStatus</v>
@@ -7198,13 +7275,13 @@
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C84" t="str">
             <v/>
           </cell>
           <cell r="D84">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E84" t="str">
             <v>ChangeActorStatus</v>
@@ -7218,13 +7295,13 @@
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C85" t="str">
             <v/>
           </cell>
           <cell r="D85">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E85" t="str">
             <v>ChangeActorStatus</v>
@@ -7244,7 +7321,7 @@
             <v/>
           </cell>
           <cell r="D86">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E86" t="str">
             <v>ChangeActorStatus</v>
@@ -7264,7 +7341,7 @@
             <v/>
           </cell>
           <cell r="D87">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E87" t="str">
             <v>ChangeActorStatus</v>
@@ -7278,16 +7355,16 @@
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C88" t="str">
             <v/>
           </cell>
           <cell r="D88">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E88" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H88" t="str">
             <v/>
@@ -7298,16 +7375,16 @@
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C89" t="str">
             <v/>
           </cell>
           <cell r="D89">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E89" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H89" t="str">
             <v/>
@@ -7318,16 +7395,16 @@
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C90" t="str">
             <v/>
           </cell>
           <cell r="D90">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E90" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H90" t="str">
             <v/>
@@ -7344,7 +7421,7 @@
             <v/>
           </cell>
           <cell r="D91">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E91" t="str">
             <v>ReduceDamage</v>
@@ -7364,7 +7441,7 @@
             <v/>
           </cell>
           <cell r="D92">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E92" t="str">
             <v>ReduceDamage</v>
@@ -7384,7 +7461,7 @@
             <v/>
           </cell>
           <cell r="D93">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E93" t="str">
             <v>ReduceDamage</v>
@@ -7404,7 +7481,7 @@
             <v/>
           </cell>
           <cell r="D94">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E94" t="str">
             <v>ReduceDamage</v>
@@ -7424,7 +7501,7 @@
             <v/>
           </cell>
           <cell r="D95">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E95" t="str">
             <v>ReduceDamage</v>
@@ -7444,7 +7521,7 @@
             <v/>
           </cell>
           <cell r="D96">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E96" t="str">
             <v>ReduceDamage</v>
@@ -7458,13 +7535,13 @@
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C97" t="str">
             <v/>
           </cell>
           <cell r="D97">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E97" t="str">
             <v>ReduceDamage</v>
@@ -7478,13 +7555,13 @@
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C98" t="str">
             <v/>
           </cell>
           <cell r="D98">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E98" t="str">
             <v>ReduceDamage</v>
@@ -7498,13 +7575,13 @@
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C99" t="str">
             <v/>
           </cell>
           <cell r="D99">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E99" t="str">
             <v>ReduceDamage</v>
@@ -7524,7 +7601,7 @@
             <v/>
           </cell>
           <cell r="D100">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E100" t="str">
             <v>ReduceDamage</v>
@@ -7544,7 +7621,7 @@
             <v/>
           </cell>
           <cell r="D101">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E101" t="str">
             <v>ReduceDamage</v>
@@ -7564,7 +7641,7 @@
             <v/>
           </cell>
           <cell r="D102">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E102" t="str">
             <v>ReduceDamage</v>
@@ -7584,7 +7661,7 @@
             <v/>
           </cell>
           <cell r="D103">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E103" t="str">
             <v>ReduceDamage</v>
@@ -7604,7 +7681,7 @@
             <v/>
           </cell>
           <cell r="D104">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E104" t="str">
             <v>ReduceDamage</v>
@@ -7624,7 +7701,7 @@
             <v/>
           </cell>
           <cell r="D105">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E105" t="str">
             <v>ReduceDamage</v>
@@ -7638,58 +7715,67 @@
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>LP_ExtraGold</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C106" t="str">
             <v/>
           </cell>
           <cell r="D106">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E106" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H106" t="str">
             <v/>
+          </cell>
+          <cell r="I106">
+            <v>-1</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>LP_ItemChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C107" t="str">
             <v/>
           </cell>
           <cell r="D107">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E107" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H107" t="str">
             <v/>
+          </cell>
+          <cell r="I107">
+            <v>-1</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C108" t="str">
             <v/>
           </cell>
           <cell r="D108">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E108" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H108" t="str">
             <v/>
+          </cell>
+          <cell r="I108">
+            <v>-1</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_ExtraGold</v>
           </cell>
           <cell r="C109" t="str">
             <v/>
@@ -7698,7 +7784,7 @@
             <v>1</v>
           </cell>
           <cell r="E109" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H109" t="str">
             <v/>
@@ -7706,16 +7792,16 @@
         </row>
         <row r="110">
           <cell r="B110" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
           <cell r="C110" t="str">
             <v/>
           </cell>
           <cell r="D110">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E110" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H110" t="str">
             <v/>
@@ -7723,7 +7809,7 @@
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C111" t="str">
             <v/>
@@ -7732,7 +7818,7 @@
             <v>1</v>
           </cell>
           <cell r="E111" t="str">
-            <v>RicochetHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H111" t="str">
             <v/>
@@ -7740,7 +7826,7 @@
         </row>
         <row r="112">
           <cell r="B112" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C112" t="str">
             <v/>
@@ -7749,7 +7835,7 @@
             <v>2</v>
           </cell>
           <cell r="E112" t="str">
-            <v>RicochetHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H112" t="str">
             <v/>
@@ -7757,16 +7843,16 @@
         </row>
         <row r="113">
           <cell r="B113" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C113" t="str">
             <v/>
           </cell>
           <cell r="D113">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E113" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H113" t="str">
             <v/>
@@ -7774,16 +7860,16 @@
         </row>
         <row r="114">
           <cell r="B114" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C114" t="str">
             <v/>
           </cell>
           <cell r="D114">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E114" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H114" t="str">
             <v/>
@@ -7791,16 +7877,16 @@
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C115" t="str">
             <v/>
           </cell>
           <cell r="D115">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E115" t="str">
-            <v>ParallelHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H115" t="str">
             <v/>
@@ -7808,16 +7894,16 @@
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C116" t="str">
             <v/>
           </cell>
           <cell r="D116">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E116" t="str">
-            <v>ParallelHitObject</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H116" t="str">
             <v/>
@@ -7825,16 +7911,16 @@
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C117" t="str">
             <v/>
           </cell>
           <cell r="D117">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E117" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H117" t="str">
             <v/>
@@ -7842,16 +7928,16 @@
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C118" t="str">
             <v/>
           </cell>
           <cell r="D118">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E118" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H118" t="str">
             <v/>
@@ -7859,16 +7945,16 @@
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C119" t="str">
             <v/>
           </cell>
           <cell r="D119">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E119" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H119" t="str">
             <v/>
@@ -7876,16 +7962,16 @@
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C120" t="str">
             <v/>
           </cell>
           <cell r="D120">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E120" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H120" t="str">
             <v/>
@@ -7893,16 +7979,16 @@
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C121" t="str">
             <v/>
           </cell>
           <cell r="D121">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E121" t="str">
-            <v>BackNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H121" t="str">
             <v/>
@@ -7910,16 +7996,16 @@
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C122" t="str">
             <v/>
           </cell>
           <cell r="D122">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E122" t="str">
-            <v>BackNwayGenerator</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H122" t="str">
             <v/>
@@ -7927,16 +8013,16 @@
         </row>
         <row r="123">
           <cell r="B123" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C123" t="str">
             <v/>
           </cell>
           <cell r="D123">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E123" t="str">
-            <v>RepeatHitObject</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H123" t="str">
             <v/>
@@ -7944,16 +8030,16 @@
         </row>
         <row r="124">
           <cell r="B124" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C124" t="str">
             <v/>
           </cell>
           <cell r="D124">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E124" t="str">
-            <v>RepeatHitObject</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H124" t="str">
             <v/>
@@ -7961,56 +8047,50 @@
         </row>
         <row r="125">
           <cell r="B125" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C125" t="str">
             <v/>
           </cell>
           <cell r="D125">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E125" t="str">
-            <v>CallAffectorValue</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H125" t="str">
             <v/>
-          </cell>
-          <cell r="I125">
-            <v>-1</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C126" t="str">
             <v/>
           </cell>
           <cell r="D126">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E126" t="str">
-            <v>CallAffectorValue</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H126" t="str">
             <v/>
-          </cell>
-          <cell r="I126">
-            <v>-1</v>
           </cell>
         </row>
         <row r="127">
           <cell r="B127" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C127" t="str">
             <v/>
           </cell>
           <cell r="D127">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E127" t="str">
-            <v>Heal</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H127" t="str">
             <v/>
@@ -8018,16 +8098,16 @@
         </row>
         <row r="128">
           <cell r="B128" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C128" t="str">
             <v/>
           </cell>
           <cell r="D128">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E128" t="str">
-            <v>Heal</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H128" t="str">
             <v/>
@@ -8035,33 +8115,30 @@
         </row>
         <row r="129">
           <cell r="B129" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C129" t="str">
             <v/>
           </cell>
           <cell r="D129">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E129" t="str">
-            <v>CallAffectorValue</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H129" t="str">
             <v/>
-          </cell>
-          <cell r="I129">
-            <v>-1</v>
           </cell>
         </row>
         <row r="130">
           <cell r="B130" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C130" t="str">
             <v/>
           </cell>
           <cell r="D130">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E130" t="str">
             <v>CallAffectorValue</v>
@@ -8075,30 +8152,33 @@
         </row>
         <row r="131">
           <cell r="B131" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C131" t="str">
             <v/>
           </cell>
           <cell r="D131">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E131" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H131" t="str">
             <v/>
+          </cell>
+          <cell r="I131">
+            <v>-1</v>
           </cell>
         </row>
         <row r="132">
           <cell r="B132" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C132" t="str">
             <v/>
           </cell>
           <cell r="D132">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E132" t="str">
             <v>Heal</v>
@@ -8109,33 +8189,30 @@
         </row>
         <row r="133">
           <cell r="B133" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C133" t="str">
             <v/>
           </cell>
           <cell r="D133">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E133" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H133" t="str">
             <v/>
-          </cell>
-          <cell r="I133">
-            <v>-1</v>
           </cell>
         </row>
         <row r="134">
           <cell r="B134" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C134" t="str">
             <v/>
           </cell>
           <cell r="D134">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E134" t="str">
             <v>CallAffectorValue</v>
@@ -8149,13 +8226,13 @@
         </row>
         <row r="135">
           <cell r="B135" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C135" t="str">
             <v/>
           </cell>
           <cell r="D135">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E135" t="str">
             <v>CallAffectorValue</v>
@@ -8169,42 +8246,36 @@
         </row>
         <row r="136">
           <cell r="B136" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C136" t="str">
             <v/>
           </cell>
           <cell r="D136">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E136" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H136" t="str">
             <v/>
-          </cell>
-          <cell r="I136">
-            <v>-1</v>
           </cell>
         </row>
         <row r="137">
           <cell r="B137" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C137" t="str">
             <v/>
           </cell>
           <cell r="D137">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E137" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H137" t="str">
             <v/>
-          </cell>
-          <cell r="I137">
-            <v>-1</v>
           </cell>
         </row>
         <row r="138">
@@ -8215,7 +8286,7 @@
             <v/>
           </cell>
           <cell r="D138">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E138" t="str">
             <v>CallAffectorValue</v>
@@ -8235,7 +8306,7 @@
             <v/>
           </cell>
           <cell r="D139">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E139" t="str">
             <v>CallAffectorValue</v>
@@ -8255,7 +8326,7 @@
             <v/>
           </cell>
           <cell r="D140">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E140" t="str">
             <v>CallAffectorValue</v>
@@ -8275,7 +8346,7 @@
             <v/>
           </cell>
           <cell r="D141">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E141" t="str">
             <v>CallAffectorValue</v>
@@ -8289,102 +8360,102 @@
         </row>
         <row r="142">
           <cell r="B142" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C142" t="str">
             <v/>
           </cell>
           <cell r="D142">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E142" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H142" t="str">
             <v/>
           </cell>
           <cell r="I142">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="143">
           <cell r="B143" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C143" t="str">
             <v/>
           </cell>
           <cell r="D143">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E143" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H143" t="str">
             <v/>
           </cell>
           <cell r="I143">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="144">
           <cell r="B144" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C144" t="str">
             <v/>
           </cell>
           <cell r="D144">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E144" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H144" t="str">
             <v/>
           </cell>
           <cell r="I144">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="145">
           <cell r="B145" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C145" t="str">
             <v/>
           </cell>
           <cell r="D145">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E145" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H145" t="str">
             <v/>
           </cell>
           <cell r="I145">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="146">
           <cell r="B146" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C146" t="str">
             <v/>
           </cell>
           <cell r="D146">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E146" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H146" t="str">
             <v/>
           </cell>
           <cell r="I146">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="147">
@@ -8395,7 +8466,7 @@
             <v/>
           </cell>
           <cell r="D147">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E147" t="str">
             <v>ChangeActorStatus</v>
@@ -8415,7 +8486,7 @@
             <v/>
           </cell>
           <cell r="D148">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E148" t="str">
             <v>ChangeActorStatus</v>
@@ -8435,7 +8506,7 @@
             <v/>
           </cell>
           <cell r="D149">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E149" t="str">
             <v>ChangeActorStatus</v>
@@ -8455,7 +8526,7 @@
             <v/>
           </cell>
           <cell r="D150">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E150" t="str">
             <v>ChangeActorStatus</v>
@@ -8469,107 +8540,107 @@
         </row>
         <row r="151">
           <cell r="B151" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C151" t="str">
             <v/>
           </cell>
           <cell r="D151">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E151" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H151" t="str">
             <v/>
           </cell>
           <cell r="I151">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C152" t="str">
             <v/>
           </cell>
           <cell r="D152">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E152" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H152" t="str">
             <v/>
           </cell>
           <cell r="I152">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C153" t="str">
             <v/>
           </cell>
           <cell r="D153">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E153" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H153" t="str">
             <v/>
           </cell>
           <cell r="I153">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="154">
           <cell r="B154" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C154" t="str">
             <v/>
           </cell>
           <cell r="D154">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E154" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H154" t="str">
             <v/>
           </cell>
           <cell r="I154">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="155">
           <cell r="B155" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C155" t="str">
             <v/>
           </cell>
           <cell r="D155">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E155" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H155" t="str">
             <v/>
           </cell>
           <cell r="I155">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="156">
           <cell r="B156" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C156" t="str">
             <v/>
@@ -8578,18 +8649,18 @@
             <v>1</v>
           </cell>
           <cell r="E156" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H156" t="str">
             <v/>
           </cell>
           <cell r="I156">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="157">
           <cell r="B157" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C157" t="str">
             <v/>
@@ -8598,18 +8669,18 @@
             <v>2</v>
           </cell>
           <cell r="E157" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H157" t="str">
             <v/>
           </cell>
           <cell r="I157">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C158" t="str">
             <v/>
@@ -8618,18 +8689,18 @@
             <v>3</v>
           </cell>
           <cell r="E158" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H158" t="str">
             <v/>
           </cell>
           <cell r="I158">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="159">
           <cell r="B159" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C159" t="str">
             <v/>
@@ -8638,18 +8709,18 @@
             <v>4</v>
           </cell>
           <cell r="E159" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H159" t="str">
             <v/>
           </cell>
           <cell r="I159">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="160">
           <cell r="B160" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C160" t="str">
             <v/>
@@ -8658,18 +8729,18 @@
             <v>5</v>
           </cell>
           <cell r="E160" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H160" t="str">
             <v/>
           </cell>
           <cell r="I160">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="161">
           <cell r="B161" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C161" t="str">
             <v/>
@@ -8678,18 +8749,18 @@
             <v>1</v>
           </cell>
           <cell r="E161" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H161" t="str">
             <v/>
           </cell>
           <cell r="I161">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="162">
           <cell r="B162" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C162" t="str">
             <v/>
@@ -8698,18 +8769,18 @@
             <v>2</v>
           </cell>
           <cell r="E162" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H162" t="str">
             <v/>
           </cell>
           <cell r="I162">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="163">
           <cell r="B163" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C163" t="str">
             <v/>
@@ -8718,18 +8789,18 @@
             <v>3</v>
           </cell>
           <cell r="E163" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H163" t="str">
             <v/>
           </cell>
           <cell r="I163">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="164">
           <cell r="B164" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C164" t="str">
             <v/>
@@ -8738,18 +8809,18 @@
             <v>4</v>
           </cell>
           <cell r="E164" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H164" t="str">
             <v/>
           </cell>
           <cell r="I164">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="165">
           <cell r="B165" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C165" t="str">
             <v/>
@@ -8758,18 +8829,18 @@
             <v>5</v>
           </cell>
           <cell r="E165" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H165" t="str">
             <v/>
           </cell>
           <cell r="I165">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="166">
           <cell r="B166" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C166" t="str">
             <v/>
@@ -8778,15 +8849,18 @@
             <v>1</v>
           </cell>
           <cell r="E166" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H166" t="str">
             <v/>
+          </cell>
+          <cell r="I166">
+            <v>-1</v>
           </cell>
         </row>
         <row r="167">
           <cell r="B167" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C167" t="str">
             <v/>
@@ -8795,15 +8869,18 @@
             <v>2</v>
           </cell>
           <cell r="E167" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H167" t="str">
             <v/>
+          </cell>
+          <cell r="I167">
+            <v>-1</v>
           </cell>
         </row>
         <row r="168">
           <cell r="B168" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C168" t="str">
             <v/>
@@ -8812,15 +8889,18 @@
             <v>3</v>
           </cell>
           <cell r="E168" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H168" t="str">
             <v/>
+          </cell>
+          <cell r="I168">
+            <v>-1</v>
           </cell>
         </row>
         <row r="169">
           <cell r="B169" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C169" t="str">
             <v/>
@@ -8829,15 +8909,18 @@
             <v>4</v>
           </cell>
           <cell r="E169" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H169" t="str">
             <v/>
+          </cell>
+          <cell r="I169">
+            <v>-1</v>
           </cell>
         </row>
         <row r="170">
           <cell r="B170" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C170" t="str">
             <v/>
@@ -8846,15 +8929,18 @@
             <v>5</v>
           </cell>
           <cell r="E170" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H170" t="str">
             <v/>
+          </cell>
+          <cell r="I170">
+            <v>-1</v>
           </cell>
         </row>
         <row r="171">
           <cell r="B171" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C171" t="str">
             <v/>
@@ -8863,18 +8949,15 @@
             <v>1</v>
           </cell>
           <cell r="E171" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H171" t="str">
             <v/>
-          </cell>
-          <cell r="I171">
-            <v>-1</v>
           </cell>
         </row>
         <row r="172">
           <cell r="B172" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C172" t="str">
             <v/>
@@ -8883,18 +8966,15 @@
             <v>2</v>
           </cell>
           <cell r="E172" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H172" t="str">
             <v/>
-          </cell>
-          <cell r="I172">
-            <v>-1</v>
           </cell>
         </row>
         <row r="173">
           <cell r="B173" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C173" t="str">
             <v/>
@@ -8903,18 +8983,15 @@
             <v>3</v>
           </cell>
           <cell r="E173" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H173" t="str">
             <v/>
-          </cell>
-          <cell r="I173">
-            <v>-1</v>
           </cell>
         </row>
         <row r="174">
           <cell r="B174" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C174" t="str">
             <v/>
@@ -8923,18 +9000,15 @@
             <v>4</v>
           </cell>
           <cell r="E174" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H174" t="str">
             <v/>
-          </cell>
-          <cell r="I174">
-            <v>-1</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C175" t="str">
             <v/>
@@ -8943,18 +9017,15 @@
             <v>5</v>
           </cell>
           <cell r="E175" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H175" t="str">
             <v/>
-          </cell>
-          <cell r="I175">
-            <v>-1</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C176" t="str">
             <v/>
@@ -8963,15 +9034,18 @@
             <v>1</v>
           </cell>
           <cell r="E176" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H176" t="str">
             <v/>
+          </cell>
+          <cell r="I176">
+            <v>-1</v>
           </cell>
         </row>
         <row r="177">
           <cell r="B177" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C177" t="str">
             <v/>
@@ -8980,15 +9054,18 @@
             <v>2</v>
           </cell>
           <cell r="E177" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H177" t="str">
             <v/>
+          </cell>
+          <cell r="I177">
+            <v>-1</v>
           </cell>
         </row>
         <row r="178">
           <cell r="B178" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C178" t="str">
             <v/>
@@ -8997,15 +9074,18 @@
             <v>3</v>
           </cell>
           <cell r="E178" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H178" t="str">
             <v/>
+          </cell>
+          <cell r="I178">
+            <v>-1</v>
           </cell>
         </row>
         <row r="179">
           <cell r="B179" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C179" t="str">
             <v/>
@@ -9014,15 +9094,18 @@
             <v>4</v>
           </cell>
           <cell r="E179" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H179" t="str">
             <v/>
+          </cell>
+          <cell r="I179">
+            <v>-1</v>
           </cell>
         </row>
         <row r="180">
           <cell r="B180" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C180" t="str">
             <v/>
@@ -9031,15 +9114,18 @@
             <v>5</v>
           </cell>
           <cell r="E180" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H180" t="str">
             <v/>
+          </cell>
+          <cell r="I180">
+            <v>-1</v>
           </cell>
         </row>
         <row r="181">
           <cell r="B181" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C181" t="str">
             <v/>
@@ -9048,18 +9134,15 @@
             <v>1</v>
           </cell>
           <cell r="E181" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H181" t="str">
             <v/>
-          </cell>
-          <cell r="I181">
-            <v>-1</v>
           </cell>
         </row>
         <row r="182">
           <cell r="B182" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C182" t="str">
             <v/>
@@ -9068,18 +9151,15 @@
             <v>2</v>
           </cell>
           <cell r="E182" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H182" t="str">
             <v/>
-          </cell>
-          <cell r="I182">
-            <v>-1</v>
           </cell>
         </row>
         <row r="183">
           <cell r="B183" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C183" t="str">
             <v/>
@@ -9088,18 +9168,15 @@
             <v>3</v>
           </cell>
           <cell r="E183" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H183" t="str">
             <v/>
-          </cell>
-          <cell r="I183">
-            <v>-1</v>
           </cell>
         </row>
         <row r="184">
           <cell r="B184" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C184" t="str">
             <v/>
@@ -9108,18 +9185,15 @@
             <v>4</v>
           </cell>
           <cell r="E184" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H184" t="str">
             <v/>
-          </cell>
-          <cell r="I184">
-            <v>-1</v>
           </cell>
         </row>
         <row r="185">
           <cell r="B185" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C185" t="str">
             <v/>
@@ -9128,13 +9202,10 @@
             <v>5</v>
           </cell>
           <cell r="E185" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H185" t="str">
             <v/>
-          </cell>
-          <cell r="I185">
-            <v>-1</v>
           </cell>
         </row>
         <row r="186">
@@ -9145,7 +9216,7 @@
             <v/>
           </cell>
           <cell r="D186">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E186" t="str">
             <v>CallAffectorValue</v>
@@ -9165,7 +9236,7 @@
             <v/>
           </cell>
           <cell r="D187">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E187" t="str">
             <v>CallAffectorValue</v>
@@ -9185,7 +9256,7 @@
             <v/>
           </cell>
           <cell r="D188">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E188" t="str">
             <v>CallAffectorValue</v>
@@ -9205,7 +9276,7 @@
             <v/>
           </cell>
           <cell r="D189">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E189" t="str">
             <v>CallAffectorValue</v>
@@ -9219,102 +9290,102 @@
         </row>
         <row r="190">
           <cell r="B190" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C190" t="str">
             <v/>
           </cell>
           <cell r="D190">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E190" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H190" t="str">
             <v/>
           </cell>
           <cell r="I190">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="191">
           <cell r="B191" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C191" t="str">
             <v/>
           </cell>
           <cell r="D191">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E191" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H191" t="str">
             <v/>
           </cell>
           <cell r="I191">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="192">
           <cell r="B192" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C192" t="str">
             <v/>
           </cell>
           <cell r="D192">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E192" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H192" t="str">
             <v/>
           </cell>
           <cell r="I192">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="193">
           <cell r="B193" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C193" t="str">
             <v/>
           </cell>
           <cell r="D193">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E193" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H193" t="str">
             <v/>
           </cell>
           <cell r="I193">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="194">
           <cell r="B194" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C194" t="str">
             <v/>
           </cell>
           <cell r="D194">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E194" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H194" t="str">
             <v/>
           </cell>
           <cell r="I194">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="195">
@@ -9325,7 +9396,7 @@
             <v/>
           </cell>
           <cell r="D195">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E195" t="str">
             <v>HealOverTime</v>
@@ -9345,7 +9416,7 @@
             <v/>
           </cell>
           <cell r="D196">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E196" t="str">
             <v>HealOverTime</v>
@@ -9365,7 +9436,7 @@
             <v/>
           </cell>
           <cell r="D197">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E197" t="str">
             <v>HealOverTime</v>
@@ -9385,7 +9456,7 @@
             <v/>
           </cell>
           <cell r="D198">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E198" t="str">
             <v>HealOverTime</v>
@@ -9399,107 +9470,107 @@
         </row>
         <row r="199">
           <cell r="B199" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C199" t="str">
             <v/>
           </cell>
           <cell r="D199">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E199" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H199" t="str">
             <v/>
           </cell>
           <cell r="I199">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C200" t="str">
             <v/>
           </cell>
           <cell r="D200">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E200" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H200" t="str">
             <v/>
           </cell>
           <cell r="I200">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C201" t="str">
             <v/>
           </cell>
           <cell r="D201">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E201" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H201" t="str">
             <v/>
           </cell>
           <cell r="I201">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="202">
           <cell r="B202" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C202" t="str">
             <v/>
           </cell>
           <cell r="D202">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E202" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H202" t="str">
             <v/>
           </cell>
           <cell r="I202">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="203">
           <cell r="B203" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C203" t="str">
             <v/>
           </cell>
           <cell r="D203">
+            <v>9</v>
+          </cell>
+          <cell r="E203" t="str">
+            <v>HealOverTime</v>
+          </cell>
+          <cell r="H203" t="str">
+            <v/>
+          </cell>
+          <cell r="I203">
             <v>5</v>
-          </cell>
-          <cell r="E203" t="str">
-            <v>ReflectDamage</v>
-          </cell>
-          <cell r="H203" t="str">
-            <v/>
-          </cell>
-          <cell r="I203">
-            <v>-1</v>
           </cell>
         </row>
         <row r="204">
           <cell r="B204" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C204" t="str">
             <v/>
@@ -9519,7 +9590,7 @@
         </row>
         <row r="205">
           <cell r="B205" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C205" t="str">
             <v/>
@@ -9539,7 +9610,7 @@
         </row>
         <row r="206">
           <cell r="B206" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C206" t="str">
             <v/>
@@ -9559,7 +9630,7 @@
         </row>
         <row r="207">
           <cell r="B207" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C207" t="str">
             <v/>
@@ -9579,7 +9650,7 @@
         </row>
         <row r="208">
           <cell r="B208" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C208" t="str">
             <v/>
@@ -9599,7 +9670,7 @@
         </row>
         <row r="209">
           <cell r="B209" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C209" t="str">
             <v/>
@@ -9608,7 +9679,7 @@
             <v>1</v>
           </cell>
           <cell r="E209" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H209" t="str">
             <v/>
@@ -9619,7 +9690,7 @@
         </row>
         <row r="210">
           <cell r="B210" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C210" t="str">
             <v/>
@@ -9628,7 +9699,7 @@
             <v>2</v>
           </cell>
           <cell r="E210" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H210" t="str">
             <v/>
@@ -9639,7 +9710,7 @@
         </row>
         <row r="211">
           <cell r="B211" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C211" t="str">
             <v/>
@@ -9648,7 +9719,7 @@
             <v>3</v>
           </cell>
           <cell r="E211" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H211" t="str">
             <v/>
@@ -9659,7 +9730,7 @@
         </row>
         <row r="212">
           <cell r="B212" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C212" t="str">
             <v/>
@@ -9668,7 +9739,7 @@
             <v>4</v>
           </cell>
           <cell r="E212" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H212" t="str">
             <v/>
@@ -9679,7 +9750,7 @@
         </row>
         <row r="213">
           <cell r="B213" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C213" t="str">
             <v/>
@@ -9688,7 +9759,7 @@
             <v>5</v>
           </cell>
           <cell r="E213" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H213" t="str">
             <v/>
@@ -9699,7 +9770,7 @@
         </row>
         <row r="214">
           <cell r="B214" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C214" t="str">
             <v/>
@@ -9719,7 +9790,7 @@
         </row>
         <row r="215">
           <cell r="B215" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C215" t="str">
             <v/>
@@ -9739,7 +9810,7 @@
         </row>
         <row r="216">
           <cell r="B216" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C216" t="str">
             <v/>
@@ -9759,16 +9830,16 @@
         </row>
         <row r="217">
           <cell r="B217" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C217" t="str">
             <v/>
           </cell>
           <cell r="D217">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E217" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H217" t="str">
             <v/>
@@ -9779,16 +9850,16 @@
         </row>
         <row r="218">
           <cell r="B218" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C218" t="str">
             <v/>
           </cell>
           <cell r="D218">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E218" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H218" t="str">
             <v/>
@@ -9799,16 +9870,16 @@
         </row>
         <row r="219">
           <cell r="B219" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C219" t="str">
             <v/>
           </cell>
           <cell r="D219">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E219" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H219" t="str">
             <v/>
@@ -9819,16 +9890,16 @@
         </row>
         <row r="220">
           <cell r="B220" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C220" t="str">
             <v/>
           </cell>
           <cell r="D220">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E220" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H220" t="str">
             <v/>
@@ -9839,16 +9910,16 @@
         </row>
         <row r="221">
           <cell r="B221" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C221" t="str">
             <v/>
           </cell>
           <cell r="D221">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E221" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H221" t="str">
             <v/>
@@ -9859,16 +9930,16 @@
         </row>
         <row r="222">
           <cell r="B222" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C222" t="str">
             <v/>
           </cell>
           <cell r="D222">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E222" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H222" t="str">
             <v/>
@@ -9879,16 +9950,16 @@
         </row>
         <row r="223">
           <cell r="B223" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C223" t="str">
             <v/>
           </cell>
           <cell r="D223">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E223" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H223" t="str">
             <v/>
@@ -9899,16 +9970,16 @@
         </row>
         <row r="224">
           <cell r="B224" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C224" t="str">
             <v/>
           </cell>
           <cell r="D224">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E224" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H224" t="str">
             <v/>
@@ -9919,16 +9990,16 @@
         </row>
         <row r="225">
           <cell r="B225" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="C225" t="str">
             <v/>
           </cell>
           <cell r="D225">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E225" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H225" t="str">
             <v/>
@@ -9945,7 +10016,7 @@
             <v/>
           </cell>
           <cell r="D226">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E226" t="str">
             <v>InstantDeath</v>
@@ -9965,7 +10036,7 @@
             <v/>
           </cell>
           <cell r="D227">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E227" t="str">
             <v>InstantDeath</v>
@@ -9985,7 +10056,7 @@
             <v/>
           </cell>
           <cell r="D228">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E228" t="str">
             <v>InstantDeath</v>
@@ -10005,7 +10076,7 @@
             <v/>
           </cell>
           <cell r="D229">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E229" t="str">
             <v>InstantDeath</v>
@@ -10019,13 +10090,13 @@
         </row>
         <row r="230">
           <cell r="B230" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C230" t="str">
             <v/>
           </cell>
           <cell r="D230">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E230" t="str">
             <v>InstantDeath</v>
@@ -10039,13 +10110,13 @@
         </row>
         <row r="231">
           <cell r="B231" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C231" t="str">
             <v/>
           </cell>
           <cell r="D231">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E231" t="str">
             <v>InstantDeath</v>
@@ -10059,13 +10130,13 @@
         </row>
         <row r="232">
           <cell r="B232" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C232" t="str">
             <v/>
           </cell>
           <cell r="D232">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E232" t="str">
             <v>InstantDeath</v>
@@ -10079,13 +10150,13 @@
         </row>
         <row r="233">
           <cell r="B233" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C233" t="str">
             <v/>
           </cell>
           <cell r="D233">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E233" t="str">
             <v>InstantDeath</v>
@@ -10099,13 +10170,13 @@
         </row>
         <row r="234">
           <cell r="B234" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C234" t="str">
             <v/>
           </cell>
           <cell r="D234">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E234" t="str">
             <v>InstantDeath</v>
@@ -10119,7 +10190,7 @@
         </row>
         <row r="235">
           <cell r="B235" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C235" t="str">
             <v/>
@@ -10128,7 +10199,7 @@
             <v>1</v>
           </cell>
           <cell r="E235" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H235" t="str">
             <v/>
@@ -10139,7 +10210,7 @@
         </row>
         <row r="236">
           <cell r="B236" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C236" t="str">
             <v/>
@@ -10148,7 +10219,7 @@
             <v>2</v>
           </cell>
           <cell r="E236" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H236" t="str">
             <v/>
@@ -10159,7 +10230,7 @@
         </row>
         <row r="237">
           <cell r="B237" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C237" t="str">
             <v/>
@@ -10168,7 +10239,7 @@
             <v>3</v>
           </cell>
           <cell r="E237" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H237" t="str">
             <v/>
@@ -10179,7 +10250,7 @@
         </row>
         <row r="238">
           <cell r="B238" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C238" t="str">
             <v/>
@@ -10188,7 +10259,7 @@
             <v>4</v>
           </cell>
           <cell r="E238" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H238" t="str">
             <v/>
@@ -10199,7 +10270,7 @@
         </row>
         <row r="239">
           <cell r="B239" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C239" t="str">
             <v/>
@@ -10208,7 +10279,7 @@
             <v>5</v>
           </cell>
           <cell r="E239" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H239" t="str">
             <v/>
@@ -10225,7 +10296,7 @@
             <v/>
           </cell>
           <cell r="D240">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E240" t="str">
             <v>ImmortalWill</v>
@@ -10245,7 +10316,7 @@
             <v/>
           </cell>
           <cell r="D241">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E241" t="str">
             <v>ImmortalWill</v>
@@ -10265,7 +10336,7 @@
             <v/>
           </cell>
           <cell r="D242">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E242" t="str">
             <v>ImmortalWill</v>
@@ -10285,7 +10356,7 @@
             <v/>
           </cell>
           <cell r="D243">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E243" t="str">
             <v>ImmortalWill</v>
@@ -10299,13 +10370,13 @@
         </row>
         <row r="244">
           <cell r="B244" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C244" t="str">
             <v/>
           </cell>
           <cell r="D244">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E244" t="str">
             <v>ImmortalWill</v>
@@ -10319,13 +10390,13 @@
         </row>
         <row r="245">
           <cell r="B245" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C245" t="str">
             <v/>
           </cell>
           <cell r="D245">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E245" t="str">
             <v>ImmortalWill</v>
@@ -10339,13 +10410,13 @@
         </row>
         <row r="246">
           <cell r="B246" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C246" t="str">
             <v/>
           </cell>
           <cell r="D246">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E246" t="str">
             <v>ImmortalWill</v>
@@ -10359,13 +10430,13 @@
         </row>
         <row r="247">
           <cell r="B247" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C247" t="str">
             <v/>
           </cell>
           <cell r="D247">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E247" t="str">
             <v>ImmortalWill</v>
@@ -10379,13 +10450,13 @@
         </row>
         <row r="248">
           <cell r="B248" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C248" t="str">
             <v/>
           </cell>
           <cell r="D248">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E248" t="str">
             <v>ImmortalWill</v>
@@ -10399,7 +10470,7 @@
         </row>
         <row r="249">
           <cell r="B249" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C249" t="str">
             <v/>
@@ -10408,7 +10479,7 @@
             <v>1</v>
           </cell>
           <cell r="E249" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H249" t="str">
             <v/>
@@ -10419,7 +10490,7 @@
         </row>
         <row r="250">
           <cell r="B250" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C250" t="str">
             <v/>
@@ -10428,7 +10499,7 @@
             <v>2</v>
           </cell>
           <cell r="E250" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H250" t="str">
             <v/>
@@ -10439,7 +10510,7 @@
         </row>
         <row r="251">
           <cell r="B251" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C251" t="str">
             <v/>
@@ -10448,7 +10519,7 @@
             <v>3</v>
           </cell>
           <cell r="E251" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H251" t="str">
             <v/>
@@ -10459,7 +10530,7 @@
         </row>
         <row r="252">
           <cell r="B252" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C252" t="str">
             <v/>
@@ -10468,7 +10539,7 @@
             <v>4</v>
           </cell>
           <cell r="E252" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H252" t="str">
             <v/>
@@ -10479,7 +10550,7 @@
         </row>
         <row r="253">
           <cell r="B253" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C253" t="str">
             <v/>
@@ -10488,7 +10559,7 @@
             <v>5</v>
           </cell>
           <cell r="E253" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H253" t="str">
             <v/>
@@ -10505,7 +10576,7 @@
             <v/>
           </cell>
           <cell r="D254">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E254" t="str">
             <v>CallAffectorValue</v>
@@ -10519,87 +10590,102 @@
         </row>
         <row r="255">
           <cell r="B255" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C255" t="str">
             <v/>
           </cell>
           <cell r="D255">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E255" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H255" t="str">
             <v/>
+          </cell>
+          <cell r="I255">
+            <v>-1</v>
           </cell>
         </row>
         <row r="256">
           <cell r="B256" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C256" t="str">
             <v/>
           </cell>
           <cell r="D256">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E256" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H256" t="str">
             <v/>
+          </cell>
+          <cell r="I256">
+            <v>-1</v>
           </cell>
         </row>
         <row r="257">
           <cell r="B257" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C257" t="str">
             <v/>
           </cell>
           <cell r="D257">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E257" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H257" t="str">
             <v/>
+          </cell>
+          <cell r="I257">
+            <v>-1</v>
           </cell>
         </row>
         <row r="258">
           <cell r="B258" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C258" t="str">
             <v/>
           </cell>
           <cell r="D258">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E258" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H258" t="str">
             <v/>
+          </cell>
+          <cell r="I258">
+            <v>-1</v>
           </cell>
         </row>
         <row r="259">
           <cell r="B259" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C259" t="str">
             <v/>
           </cell>
           <cell r="D259">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E259" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H259" t="str">
             <v/>
+          </cell>
+          <cell r="I259">
+            <v>-1</v>
           </cell>
         </row>
         <row r="260">
@@ -10610,7 +10696,7 @@
             <v/>
           </cell>
           <cell r="D260">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E260" t="str">
             <v>CreateHitObject</v>
@@ -10621,16 +10707,16 @@
         </row>
         <row r="261">
           <cell r="B261" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C261" t="str">
             <v/>
           </cell>
           <cell r="D261">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E261" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H261" t="str">
             <v/>
@@ -10638,16 +10724,16 @@
         </row>
         <row r="262">
           <cell r="B262" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C262" t="str">
             <v/>
           </cell>
           <cell r="D262">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E262" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H262" t="str">
             <v/>
@@ -10655,16 +10741,16 @@
         </row>
         <row r="263">
           <cell r="B263" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C263" t="str">
             <v/>
           </cell>
           <cell r="D263">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E263" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H263" t="str">
             <v/>
@@ -10672,16 +10758,16 @@
         </row>
         <row r="264">
           <cell r="B264" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C264" t="str">
             <v/>
           </cell>
           <cell r="D264">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E264" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H264" t="str">
             <v/>
@@ -10689,16 +10775,16 @@
         </row>
         <row r="265">
           <cell r="B265" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C265" t="str">
             <v/>
           </cell>
           <cell r="D265">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E265" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H265" t="str">
             <v/>
@@ -10712,7 +10798,7 @@
             <v/>
           </cell>
           <cell r="D266">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E266" t="str">
             <v>Heal</v>
@@ -10723,102 +10809,87 @@
         </row>
         <row r="267">
           <cell r="B267" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C267" t="str">
             <v/>
           </cell>
           <cell r="D267">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E267" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H267" t="str">
             <v/>
-          </cell>
-          <cell r="I267">
-            <v>-1</v>
           </cell>
         </row>
         <row r="268">
           <cell r="B268" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C268" t="str">
             <v/>
           </cell>
           <cell r="D268">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E268" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H268" t="str">
             <v/>
-          </cell>
-          <cell r="I268">
-            <v>-1</v>
           </cell>
         </row>
         <row r="269">
           <cell r="B269" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C269" t="str">
             <v/>
           </cell>
           <cell r="D269">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E269" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H269" t="str">
             <v/>
-          </cell>
-          <cell r="I269">
-            <v>-1</v>
           </cell>
         </row>
         <row r="270">
           <cell r="B270" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C270" t="str">
             <v/>
           </cell>
           <cell r="D270">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E270" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H270" t="str">
             <v/>
-          </cell>
-          <cell r="I270">
-            <v>-1</v>
           </cell>
         </row>
         <row r="271">
           <cell r="B271" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
           </cell>
           <cell r="D271">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E271" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H271" t="str">
             <v/>
-          </cell>
-          <cell r="I271">
-            <v>-1</v>
           </cell>
         </row>
         <row r="272">
@@ -10829,7 +10900,7 @@
             <v/>
           </cell>
           <cell r="D272">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E272" t="str">
             <v>CallAffectorValue</v>
@@ -10843,102 +10914,102 @@
         </row>
         <row r="273">
           <cell r="B273" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
           </cell>
           <cell r="D273">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E273" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H273" t="str">
             <v/>
           </cell>
           <cell r="I273">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="274">
           <cell r="B274" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
           </cell>
           <cell r="D274">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E274" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H274" t="str">
             <v/>
           </cell>
           <cell r="I274">
-            <v>7</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C275" t="str">
             <v/>
           </cell>
           <cell r="D275">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E275" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H275" t="str">
             <v/>
           </cell>
           <cell r="I275">
-            <v>9</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="276">
           <cell r="B276" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C276" t="str">
             <v/>
           </cell>
           <cell r="D276">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E276" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H276" t="str">
             <v/>
           </cell>
           <cell r="I276">
-            <v>11</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C277" t="str">
             <v/>
           </cell>
           <cell r="D277">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E277" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H277" t="str">
             <v/>
           </cell>
           <cell r="I277">
-            <v>13</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="278">
@@ -10949,7 +11020,7 @@
             <v/>
           </cell>
           <cell r="D278">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E278" t="str">
             <v>ChangeActorStatus</v>
@@ -10958,107 +11029,107 @@
             <v/>
           </cell>
           <cell r="I278">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
           </cell>
           <cell r="D279">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E279" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H279" t="str">
             <v/>
           </cell>
           <cell r="I279">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
           </cell>
           <cell r="D280">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E280" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H280" t="str">
             <v/>
           </cell>
           <cell r="I280">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="281">
           <cell r="B281" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C281" t="str">
             <v/>
           </cell>
           <cell r="D281">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E281" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H281" t="str">
             <v/>
           </cell>
           <cell r="I281">
-            <v>-1</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="282">
           <cell r="B282" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C282" t="str">
             <v/>
           </cell>
           <cell r="D282">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E282" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H282" t="str">
             <v/>
           </cell>
           <cell r="I282">
-            <v>-1</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="283">
           <cell r="B283" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C283" t="str">
             <v/>
           </cell>
           <cell r="D283">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E283" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H283" t="str">
             <v/>
           </cell>
           <cell r="I283">
-            <v>-1</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="284">
@@ -11069,7 +11140,7 @@
             <v/>
           </cell>
           <cell r="D284">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E284" t="str">
             <v>CreateHitObjectMoving</v>
@@ -11083,102 +11154,102 @@
         </row>
         <row r="285">
           <cell r="B285" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
           </cell>
           <cell r="D285">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E285" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H285" t="str">
             <v/>
           </cell>
           <cell r="I285">
-            <v>1</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="286">
           <cell r="B286" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
           </cell>
           <cell r="D286">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E286" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H286" t="str">
             <v/>
           </cell>
           <cell r="I286">
-            <v>1.1000000000000001</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="287">
           <cell r="B287" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C287" t="str">
             <v/>
           </cell>
           <cell r="D287">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E287" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H287" t="str">
             <v/>
           </cell>
           <cell r="I287">
-            <v>1.2</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="288">
           <cell r="B288" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C288" t="str">
             <v/>
           </cell>
           <cell r="D288">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E288" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H288" t="str">
             <v/>
           </cell>
           <cell r="I288">
-            <v>1.3</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="289">
           <cell r="B289" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C289" t="str">
             <v/>
           </cell>
           <cell r="D289">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E289" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H289" t="str">
             <v/>
           </cell>
           <cell r="I289">
-            <v>1.4</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="290">
@@ -11189,7 +11260,7 @@
             <v/>
           </cell>
           <cell r="D290">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E290" t="str">
             <v>CollisionDamage</v>
@@ -11198,112 +11269,112 @@
             <v/>
           </cell>
           <cell r="I290">
-            <v>1.5</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="291">
           <cell r="B291" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C291" t="str">
             <v/>
           </cell>
           <cell r="D291">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E291" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H291" t="str">
             <v/>
           </cell>
           <cell r="I291">
-            <v>-1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C292" t="str">
             <v/>
           </cell>
           <cell r="D292">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E292" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H292" t="str">
             <v/>
           </cell>
           <cell r="I292">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="293">
           <cell r="B293" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C293" t="str">
             <v/>
           </cell>
           <cell r="D293">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E293" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H293" t="str">
             <v/>
           </cell>
           <cell r="I293">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="294">
           <cell r="B294" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C294" t="str">
             <v/>
           </cell>
           <cell r="D294">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E294" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H294" t="str">
             <v/>
           </cell>
           <cell r="I294">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="295">
           <cell r="B295" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C295" t="str">
             <v/>
           </cell>
           <cell r="D295">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E295" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H295" t="str">
             <v/>
           </cell>
           <cell r="I295">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="296">
           <cell r="B296" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C296" t="str">
             <v/>
@@ -11312,15 +11383,18 @@
             <v>1</v>
           </cell>
           <cell r="E296" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H296" t="str">
             <v/>
+          </cell>
+          <cell r="I296">
+            <v>-1</v>
           </cell>
         </row>
         <row r="297">
           <cell r="B297" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C297" t="str">
             <v/>
@@ -11329,15 +11403,18 @@
             <v>2</v>
           </cell>
           <cell r="E297" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H297" t="str">
             <v/>
+          </cell>
+          <cell r="I297">
+            <v>-1</v>
           </cell>
         </row>
         <row r="298">
           <cell r="B298" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C298" t="str">
             <v/>
@@ -11346,15 +11423,18 @@
             <v>3</v>
           </cell>
           <cell r="E298" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H298" t="str">
             <v/>
+          </cell>
+          <cell r="I298">
+            <v>-1</v>
           </cell>
         </row>
         <row r="299">
           <cell r="B299" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C299" t="str">
             <v/>
@@ -11363,15 +11443,18 @@
             <v>4</v>
           </cell>
           <cell r="E299" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H299" t="str">
             <v/>
+          </cell>
+          <cell r="I299">
+            <v>-1</v>
           </cell>
         </row>
         <row r="300">
           <cell r="B300" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C300" t="str">
             <v/>
@@ -11380,15 +11463,18 @@
             <v>5</v>
           </cell>
           <cell r="E300" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H300" t="str">
             <v/>
+          </cell>
+          <cell r="I300">
+            <v>-1</v>
           </cell>
         </row>
         <row r="301">
           <cell r="B301" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C301" t="str">
             <v/>
@@ -11397,18 +11483,15 @@
             <v>1</v>
           </cell>
           <cell r="E301" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H301" t="str">
             <v/>
-          </cell>
-          <cell r="I301">
-            <v>1.5</v>
           </cell>
         </row>
         <row r="302">
           <cell r="B302" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C302" t="str">
             <v/>
@@ -11417,18 +11500,15 @@
             <v>2</v>
           </cell>
           <cell r="E302" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H302" t="str">
             <v/>
-          </cell>
-          <cell r="I302">
-            <v>1.8</v>
           </cell>
         </row>
         <row r="303">
           <cell r="B303" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C303" t="str">
             <v/>
@@ -11437,18 +11517,15 @@
             <v>3</v>
           </cell>
           <cell r="E303" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H303" t="str">
             <v/>
-          </cell>
-          <cell r="I303">
-            <v>2.1</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C304" t="str">
             <v/>
@@ -11457,18 +11534,15 @@
             <v>4</v>
           </cell>
           <cell r="E304" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H304" t="str">
             <v/>
-          </cell>
-          <cell r="I304">
-            <v>2.4</v>
           </cell>
         </row>
         <row r="305">
           <cell r="B305" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C305" t="str">
             <v/>
@@ -11477,18 +11551,15 @@
             <v>5</v>
           </cell>
           <cell r="E305" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H305" t="str">
             <v/>
-          </cell>
-          <cell r="I305">
-            <v>2.7</v>
           </cell>
         </row>
         <row r="306">
           <cell r="B306" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C306" t="str">
             <v/>
@@ -11497,15 +11568,18 @@
             <v>1</v>
           </cell>
           <cell r="E306" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H306" t="str">
             <v/>
+          </cell>
+          <cell r="I306">
+            <v>1.5</v>
           </cell>
         </row>
         <row r="307">
           <cell r="B307" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C307" t="str">
             <v/>
@@ -11514,15 +11588,18 @@
             <v>2</v>
           </cell>
           <cell r="E307" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H307" t="str">
             <v/>
+          </cell>
+          <cell r="I307">
+            <v>1.8</v>
           </cell>
         </row>
         <row r="308">
           <cell r="B308" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C308" t="str">
             <v/>
@@ -11531,15 +11608,18 @@
             <v>3</v>
           </cell>
           <cell r="E308" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H308" t="str">
             <v/>
+          </cell>
+          <cell r="I308">
+            <v>2.1</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C309" t="str">
             <v/>
@@ -11548,15 +11628,18 @@
             <v>4</v>
           </cell>
           <cell r="E309" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H309" t="str">
             <v/>
+          </cell>
+          <cell r="I309">
+            <v>2.4</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C310" t="str">
             <v/>
@@ -11565,15 +11648,18 @@
             <v>5</v>
           </cell>
           <cell r="E310" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H310" t="str">
             <v/>
+          </cell>
+          <cell r="I310">
+            <v>2.7</v>
           </cell>
         </row>
         <row r="311">
           <cell r="B311" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C311" t="str">
             <v/>
@@ -11582,18 +11668,15 @@
             <v>1</v>
           </cell>
           <cell r="E311" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H311" t="str">
             <v/>
-          </cell>
-          <cell r="I311">
-            <v>3</v>
           </cell>
         </row>
         <row r="312">
           <cell r="B312" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C312" t="str">
             <v/>
@@ -11602,18 +11685,15 @@
             <v>2</v>
           </cell>
           <cell r="E312" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H312" t="str">
             <v/>
-          </cell>
-          <cell r="I312">
-            <v>3.5</v>
           </cell>
         </row>
         <row r="313">
           <cell r="B313" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C313" t="str">
             <v/>
@@ -11622,18 +11702,15 @@
             <v>3</v>
           </cell>
           <cell r="E313" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H313" t="str">
             <v/>
-          </cell>
-          <cell r="I313">
-            <v>4</v>
           </cell>
         </row>
         <row r="314">
           <cell r="B314" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C314" t="str">
             <v/>
@@ -11642,18 +11719,15 @@
             <v>4</v>
           </cell>
           <cell r="E314" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H314" t="str">
             <v/>
-          </cell>
-          <cell r="I314">
-            <v>4.5</v>
           </cell>
         </row>
         <row r="315">
           <cell r="B315" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C315" t="str">
             <v/>
@@ -11662,18 +11736,15 @@
             <v>5</v>
           </cell>
           <cell r="E315" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H315" t="str">
             <v/>
-          </cell>
-          <cell r="I315">
-            <v>5</v>
           </cell>
         </row>
         <row r="316">
           <cell r="B316" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C316" t="str">
             <v/>
@@ -11682,15 +11753,18 @@
             <v>1</v>
           </cell>
           <cell r="E316" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H316" t="str">
             <v/>
+          </cell>
+          <cell r="I316">
+            <v>3</v>
           </cell>
         </row>
         <row r="317">
           <cell r="B317" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C317" t="str">
             <v/>
@@ -11699,15 +11773,18 @@
             <v>2</v>
           </cell>
           <cell r="E317" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H317" t="str">
             <v/>
+          </cell>
+          <cell r="I317">
+            <v>3.5</v>
           </cell>
         </row>
         <row r="318">
           <cell r="B318" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C318" t="str">
             <v/>
@@ -11716,15 +11793,18 @@
             <v>3</v>
           </cell>
           <cell r="E318" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H318" t="str">
             <v/>
+          </cell>
+          <cell r="I318">
+            <v>4</v>
           </cell>
         </row>
         <row r="319">
           <cell r="B319" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C319" t="str">
             <v/>
@@ -11733,15 +11813,18 @@
             <v>4</v>
           </cell>
           <cell r="E319" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H319" t="str">
             <v/>
+          </cell>
+          <cell r="I319">
+            <v>4.5</v>
           </cell>
         </row>
         <row r="320">
           <cell r="B320" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C320" t="str">
             <v/>
@@ -11750,15 +11833,18 @@
             <v>5</v>
           </cell>
           <cell r="E320" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H320" t="str">
             <v/>
+          </cell>
+          <cell r="I320">
+            <v>5</v>
           </cell>
         </row>
         <row r="321">
           <cell r="B321" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C321" t="str">
             <v/>
@@ -11767,18 +11853,15 @@
             <v>1</v>
           </cell>
           <cell r="E321" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H321" t="str">
             <v/>
-          </cell>
-          <cell r="I321">
-            <v>10</v>
           </cell>
         </row>
         <row r="322">
           <cell r="B322" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C322" t="str">
             <v/>
@@ -11787,18 +11870,15 @@
             <v>2</v>
           </cell>
           <cell r="E322" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H322" t="str">
             <v/>
-          </cell>
-          <cell r="I322">
-            <v>10</v>
           </cell>
         </row>
         <row r="323">
           <cell r="B323" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C323" t="str">
             <v/>
@@ -11807,18 +11887,15 @@
             <v>3</v>
           </cell>
           <cell r="E323" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H323" t="str">
             <v/>
-          </cell>
-          <cell r="I323">
-            <v>10</v>
           </cell>
         </row>
         <row r="324">
           <cell r="B324" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C324" t="str">
             <v/>
@@ -11827,18 +11904,15 @@
             <v>4</v>
           </cell>
           <cell r="E324" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H324" t="str">
             <v/>
-          </cell>
-          <cell r="I324">
-            <v>10</v>
           </cell>
         </row>
         <row r="325">
           <cell r="B325" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C325" t="str">
             <v/>
@@ -11847,18 +11921,15 @@
             <v>5</v>
           </cell>
           <cell r="E325" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H325" t="str">
             <v/>
-          </cell>
-          <cell r="I325">
-            <v>10</v>
           </cell>
         </row>
         <row r="326">
           <cell r="B326" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C326" t="str">
             <v/>
@@ -11867,18 +11938,18 @@
             <v>1</v>
           </cell>
           <cell r="E326" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H326" t="str">
             <v/>
           </cell>
           <cell r="I326">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="327">
           <cell r="B327" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C327" t="str">
             <v/>
@@ -11887,18 +11958,18 @@
             <v>2</v>
           </cell>
           <cell r="E327" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H327" t="str">
             <v/>
           </cell>
           <cell r="I327">
-            <v>-1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="328">
           <cell r="B328" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C328" t="str">
             <v/>
@@ -11907,18 +11978,18 @@
             <v>3</v>
           </cell>
           <cell r="E328" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H328" t="str">
             <v/>
           </cell>
           <cell r="I328">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="329">
           <cell r="B329" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C329" t="str">
             <v/>
@@ -11927,18 +11998,18 @@
             <v>4</v>
           </cell>
           <cell r="E329" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H329" t="str">
             <v/>
           </cell>
           <cell r="I329">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="330">
           <cell r="B330" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C330" t="str">
             <v/>
@@ -11947,18 +12018,18 @@
             <v>5</v>
           </cell>
           <cell r="E330" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H330" t="str">
             <v/>
           </cell>
           <cell r="I330">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="331">
           <cell r="B331" t="str">
-            <v>PN_Magic2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C331" t="str">
             <v/>
@@ -11967,10 +12038,7 @@
             <v>1</v>
           </cell>
           <cell r="E331" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G331" t="str">
-            <v>DefenderSource==Magic</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H331" t="str">
             <v/>
@@ -11981,19 +12049,16 @@
         </row>
         <row r="332">
           <cell r="B332" t="str">
-            <v>PN_Machine2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C332" t="str">
             <v/>
           </cell>
           <cell r="D332">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E332" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G332" t="str">
-            <v>DefenderSource==Machine</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H332" t="str">
             <v/>
@@ -12004,19 +12069,16 @@
         </row>
         <row r="333">
           <cell r="B333" t="str">
-            <v>PN_Nature2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C333" t="str">
             <v/>
           </cell>
           <cell r="D333">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E333" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G333" t="str">
-            <v>DefenderSource==Nature</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H333" t="str">
             <v/>
@@ -12027,24 +12089,133 @@
         </row>
         <row r="334">
           <cell r="B334" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C334" t="str">
+            <v/>
+          </cell>
+          <cell r="D334">
+            <v>4</v>
+          </cell>
+          <cell r="E334" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H334" t="str">
+            <v/>
+          </cell>
+          <cell r="I334">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C335" t="str">
+            <v/>
+          </cell>
+          <cell r="D335">
+            <v>5</v>
+          </cell>
+          <cell r="E335" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H335" t="str">
+            <v/>
+          </cell>
+          <cell r="I335">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>PN_Magic2Times</v>
+          </cell>
+          <cell r="C336" t="str">
+            <v/>
+          </cell>
+          <cell r="D336">
+            <v>1</v>
+          </cell>
+          <cell r="E336" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G336" t="str">
+            <v>DefenderSource==Magic</v>
+          </cell>
+          <cell r="H336" t="str">
+            <v/>
+          </cell>
+          <cell r="I336">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>PN_Machine2Times</v>
+          </cell>
+          <cell r="C337" t="str">
+            <v/>
+          </cell>
+          <cell r="D337">
+            <v>1</v>
+          </cell>
+          <cell r="E337" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G337" t="str">
+            <v>DefenderSource==Machine</v>
+          </cell>
+          <cell r="H337" t="str">
+            <v/>
+          </cell>
+          <cell r="I337">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>PN_Nature2Times</v>
+          </cell>
+          <cell r="C338" t="str">
+            <v/>
+          </cell>
+          <cell r="D338">
+            <v>1</v>
+          </cell>
+          <cell r="E338" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G338" t="str">
+            <v>DefenderSource==Nature</v>
+          </cell>
+          <cell r="H338" t="str">
+            <v/>
+          </cell>
+          <cell r="I338">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
             <v>PN_Qigong2Times</v>
           </cell>
-          <cell r="C334" t="str">
-            <v/>
-          </cell>
-          <cell r="D334">
+          <cell r="C339" t="str">
+            <v/>
+          </cell>
+          <cell r="D339">
             <v>1</v>
           </cell>
-          <cell r="E334" t="str">
+          <cell r="E339" t="str">
             <v>EnlargeDamage</v>
           </cell>
-          <cell r="G334" t="str">
+          <cell r="G339" t="str">
             <v>DefenderSource==Qigong</v>
           </cell>
-          <cell r="H334" t="str">
-            <v/>
-          </cell>
-          <cell r="I334">
+          <cell r="H339" t="str">
+            <v/>
+          </cell>
+          <cell r="I339">
             <v>-1</v>
           </cell>
         </row>
@@ -12181,7 +12352,7 @@
             <v>PowerSourceSpHeal</v>
           </cell>
           <cell r="C14">
-            <v>0.25</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -12491,19 +12662,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
-    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="10" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="19.25" customWidth="1"/>
     <col min="20" max="20" width="15.625" customWidth="1"/>
   </cols>
@@ -12848,31 +13019,31 @@
         <v>0.93</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="I5">
         <f>IF(ISBLANK(B5),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B5,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>1.3125</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>1.8750000000000002</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="O5">
         <v>3.5</v>
@@ -12884,7 +13055,7 @@
         <v>100</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s">
         <v>35</v>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C9EE4E-B8B8-4183-895C-08B52671AC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35551E-3E2B-4F57-BAC6-65D34083A4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -3146,421 +3146,421 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>GameUI_ExitGame</v>
+            <v>GameUI_LevelPackLv</v>
           </cell>
           <cell r="B54" t="str">
-            <v>나가기</v>
+            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C54" t="str">
-            <v>Exit</v>
+            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>GameUI_ExitGameDescription</v>
+            <v>GameUI_ExitGame</v>
           </cell>
           <cell r="B55" t="str">
-            <v>게임을 종료하시겠습니까?</v>
+            <v>나가기</v>
           </cell>
           <cell r="C55" t="str">
-            <v>Quit the game?</v>
+            <v>Exit</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>GameUI_BackToLobby</v>
+            <v>GameUI_ExitGameDescription</v>
           </cell>
           <cell r="B56" t="str">
-            <v>나가기</v>
+            <v>게임을 종료하시겠습니까?</v>
           </cell>
           <cell r="C56" t="str">
-            <v>Exit</v>
+            <v>Quit the game?</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
+            <v>GameUI_BackToLobby</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
             <v>GameUI_BackToLobbyDescription</v>
           </cell>
-          <cell r="B57" t="str">
+          <cell r="B58" t="str">
             <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
 전투를 중지하시겠습니까?</v>
           </cell>
-          <cell r="C57" t="str">
+          <cell r="C58" t="str">
             <v>You cannot get gold, items you got til now.
 Sure to quit the battle?</v>
           </cell>
         </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>GameUI_TouchToMove</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>터치하여 이동하세요</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Touch to move</v>
-          </cell>
-        </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>GameUI_BossReady</v>
+            <v>GameUI_TouchToMove</v>
           </cell>
           <cell r="B59" t="str">
-            <v>보스에 대비하세요</v>
+            <v>터치하여 이동하세요</v>
           </cell>
           <cell r="C59" t="str">
-            <v>Prepare for the boss</v>
+            <v>Touch to move</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>GameUI_PossibleAfterTraining</v>
+            <v>GameUI_BossReady</v>
           </cell>
           <cell r="B60" t="str">
-            <v>훈련 챕터 클리어 후 진행 가능</v>
+            <v>보스에 대비하세요</v>
           </cell>
           <cell r="C60" t="str">
-            <v>Possible to play after the training chapter</v>
+            <v>Prepare for the boss</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>GameUI_Shop</v>
+            <v>GameUI_PossibleAfterTraining</v>
           </cell>
           <cell r="B61" t="str">
-            <v>상점</v>
+            <v>훈련 챕터 클리어 후 진행 가능</v>
           </cell>
           <cell r="C61" t="str">
-            <v>Shop</v>
+            <v>Possible to play after the training chapter</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GameUI_Challenge</v>
+            <v>GameUI_Shop</v>
           </cell>
           <cell r="B62" t="str">
-            <v>도전</v>
+            <v>상점</v>
           </cell>
           <cell r="C62" t="str">
-            <v>Challenge</v>
+            <v>Shop</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GameUI_Revert</v>
+            <v>GameUI_Challenge</v>
           </cell>
           <cell r="B63" t="str">
-            <v>환원</v>
+            <v>도전</v>
           </cell>
           <cell r="C63" t="str">
-            <v>Revert</v>
+            <v>Challenge</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GameUI_Swappable</v>
+            <v>GameUI_Revert</v>
           </cell>
           <cell r="B64" t="str">
-            <v>교체 가능</v>
+            <v>환원</v>
           </cell>
           <cell r="C64" t="str">
-            <v>Can be swapped</v>
+            <v>Revert</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GameUI_EnterInfo</v>
+            <v>GameUI_Swappable</v>
           </cell>
           <cell r="B65" t="str">
-            <v>입장 안내</v>
+            <v>교체 가능</v>
           </cell>
           <cell r="C65" t="str">
-            <v>Entry Info</v>
+            <v>Can be swapped</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
+            <v>GameUI_EnterInfo</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>입장 안내</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Entry Info</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
             <v>GameUI_EnterInfoDesc</v>
           </cell>
-          <cell r="B66" t="str">
+          <cell r="B67" t="str">
             <v>현재 캐릭터의 파워레벨이 부족합니다
 캐릭터를 변경하시겠습니까?</v>
           </cell>
-          <cell r="C66" t="str">
-            <v>In progress of translating…(66)</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
+          <cell r="C67" t="str">
+            <v>In progress of translating…(67)</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
             <v>GameUI_EnterRecommendDesc</v>
           </cell>
-          <cell r="B67" t="str">
+          <cell r="B68" t="str">
             <v>더 적합한 추천 캐릭터가 있습니다
 캐릭터를 변경하시겠습니까?</v>
           </cell>
-          <cell r="C67" t="str">
-            <v>In progress of translating…(67)</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>GameUI_ChangeCharacter</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>캐릭터 교체</v>
-          </cell>
           <cell r="C68" t="str">
-            <v>Change Chracter</v>
+            <v>In progress of translating…(68)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GameUI_Chapter</v>
+            <v>GameUI_ChangeCharacter</v>
           </cell>
           <cell r="B69" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>캐릭터 교체</v>
           </cell>
           <cell r="C69" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>Change Chracter</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GameUI_ChaosMode</v>
+            <v>GameUI_Chapter</v>
           </cell>
           <cell r="B70" t="str">
-            <v>카오스 모드</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C70" t="str">
-            <v>Chaos Mode</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GameUI_SuggestedPowerLevel</v>
+            <v>GameUI_ChaosMode</v>
           </cell>
           <cell r="B71" t="str">
-            <v>권장 파워레벨 {0}</v>
+            <v>카오스 모드</v>
           </cell>
           <cell r="C71" t="str">
-            <v>Recommended Power Level {0}</v>
+            <v>Chaos Mode</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GameUI_Power</v>
+            <v>GameUI_SuggestedPowerLevel</v>
           </cell>
           <cell r="B72" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>권장 파워레벨 {0}</v>
           </cell>
           <cell r="C72" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>Recommended Power Level {0}</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GameUI_Suggested</v>
+            <v>GameUI_Power</v>
           </cell>
           <cell r="B73" t="str">
-            <v>추천캐릭터</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Recommended</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_FirstSwapHealNotApplied</v>
+            <v>GameUI_Suggested</v>
           </cell>
           <cell r="B74" t="str">
-            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
+            <v>추천캐릭터</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Characters already in combat will not recover HP/SP</v>
+            <v>Recommended</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_NowPlayingCharacter</v>
+            <v>GameUI_FirstSwapHealNotApplied</v>
           </cell>
           <cell r="B75" t="str">
-            <v>현재 플레이 중인 캐릭터입니다</v>
+            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Now playing!</v>
+            <v>Characters already in combat will not recover HP/SP</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_NowPlayingCharacter</v>
           </cell>
           <cell r="B76" t="str">
-            <v>무적</v>
+            <v>현재 플레이 중인 캐릭터입니다</v>
           </cell>
           <cell r="C76" t="str">
-            <v>INVINCIBLE</v>
+            <v>Now playing!</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B77" t="str">
-            <v>빗맞음</v>
+            <v>무적</v>
           </cell>
           <cell r="C77" t="str">
-            <v>MISS</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B78" t="str">
-            <v>즉사</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C78" t="str">
-            <v>HEADSHOT</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B79" t="str">
-            <v>불사!</v>
+            <v>즉사</v>
           </cell>
           <cell r="C79" t="str">
-            <v>IMMORTAL!</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B80" t="str">
-            <v>소</v>
+            <v>불사!</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Low</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B81" t="str">
-            <v>중</v>
+            <v>소</v>
           </cell>
           <cell r="C81" t="str">
-            <v>Medium</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B82" t="str">
-            <v>대</v>
+            <v>중</v>
           </cell>
           <cell r="C82" t="str">
-            <v>High</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B83" t="str">
-            <v>극대</v>
+            <v>대</v>
           </cell>
           <cell r="C83" t="str">
-            <v>Ultra</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B84" t="str">
-            <v>초극대</v>
+            <v>극대</v>
           </cell>
           <cell r="C84" t="str">
-            <v>ExtraUltra</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>PowerSourceUI_ComeHere</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B85" t="str">
-            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
+            <v>초극대</v>
           </cell>
           <cell r="C85" t="str">
-            <v>In progress of translating…(85)</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>PowerSourceUI_ComeHere</v>
           </cell>
           <cell r="B86" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
           </cell>
           <cell r="C86" t="str">
-            <v>The light of life flows from the power source</v>
+            <v>In progress of translating…(86)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B87" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C87" t="str">
-            <v>Choose a level-pack</v>
+            <v>The light of life flows from the power source</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B88" t="str">
-            <v>공격력</v>
+            <v>전투팩을 선택하세요</v>
           </cell>
           <cell r="C88" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a Battle Pack</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B89" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C89" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C90" t="str">
-            <v>In progress of translating…(90)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B91" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -3568,10 +3568,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B92" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -3579,10 +3579,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -3590,10 +3590,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B94" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -3601,10 +3601,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B95" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -3612,10 +3612,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -3623,10 +3623,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B97" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -3634,10 +3634,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B98" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -3645,10 +3645,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B99" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -3656,10 +3656,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B100" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -3667,10 +3667,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B101" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -3678,10 +3678,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B102" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -3689,10 +3689,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B103" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -3700,10 +3700,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B104" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -3711,10 +3711,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -3722,10 +3722,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -3733,10 +3733,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -3744,10 +3744,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -3755,10 +3755,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -3766,10 +3766,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -3777,10 +3777,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -3788,10 +3788,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B112" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -3799,10 +3799,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B113" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C113" t="str">
             <v>In progress of translating…(113)</v>
@@ -3810,10 +3810,10 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B114" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -3821,45 +3821,45 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>In progress of translating…(115)</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B115" t="str">
+          <cell r="B116" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C115" t="str">
-            <v>In progress of translating…(115)</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
+          <cell r="C116" t="str">
+            <v>In progress of translating…(116)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B116" t="str">
+          <cell r="B117" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C116" t="str">
-            <v>In progress of translating…(116)</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B118" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -3867,10 +3867,10 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B119" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -3878,33 +3878,33 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>In progress of translating…(120)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B120" t="str">
+          <cell r="B121" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C120" t="str">
-            <v>In progress of translating…(120)</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B122" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C122" t="str">
             <v>In progress of translating…(122)</v>
@@ -3912,69 +3912,69 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B123" t="str">
+          <cell r="B124" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
+          <cell r="C124" t="str">
+            <v>In progress of translating…(124)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B124" t="str">
+          <cell r="B125" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C124" t="str">
-            <v>In progress of translating…(124)</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
+          <cell r="C125" t="str">
+            <v>In progress of translating…(125)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B125" t="str">
+          <cell r="B126" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C125" t="str">
-            <v>In progress of translating…(125)</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
+          <cell r="C126" t="str">
+            <v>In progress of translating…(126)</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B126" t="str">
+          <cell r="B127" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C126" t="str">
-            <v>In progress of translating…(126)</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B128" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -3982,10 +3982,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B129" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -3993,10 +3993,10 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B130" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -4004,10 +4004,10 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B131" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -4015,33 +4015,33 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>In progress of translating…(132)</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B132" t="str">
+          <cell r="B133" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C132" t="str">
-            <v>In progress of translating…(132)</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B134" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -4049,10 +4049,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B135" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -4060,10 +4060,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B136" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -4071,10 +4071,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B137" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -4082,10 +4082,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B138" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -4093,10 +4093,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -4104,10 +4104,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -4115,10 +4115,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -4126,10 +4126,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -4137,10 +4137,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B143" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -4148,10 +4148,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B144" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -4159,10 +4159,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B145" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -4170,10 +4170,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B146" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -4181,10 +4181,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B147" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -4192,10 +4192,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B148" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -4203,10 +4203,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B149" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -4214,10 +4214,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B150" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -4225,10 +4225,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B151" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -4236,10 +4236,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B152" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -4247,10 +4247,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B153" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -4258,10 +4258,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B154" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -4269,10 +4269,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B155" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -4280,10 +4280,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -4291,10 +4291,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -4302,10 +4302,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -4313,10 +4313,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -4324,10 +4324,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -4335,10 +4335,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -4346,10 +4346,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B162" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -4357,10 +4357,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B163" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -4368,10 +4368,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -4379,10 +4379,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -4390,10 +4390,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -4401,10 +4401,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -4412,10 +4412,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B168" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -4423,10 +4423,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B169" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -4434,10 +4434,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B170" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -4445,10 +4445,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B171" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -4456,10 +4456,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B172" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -4467,10 +4467,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B173" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -4478,10 +4478,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B174" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -4489,10 +4489,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B175" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -4500,10 +4500,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B176" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -4511,10 +4511,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B177" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -4522,10 +4522,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B178" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -4533,10 +4533,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B179" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -4544,10 +4544,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B180" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -4555,10 +4555,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B181" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -4566,10 +4566,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B182" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -4577,10 +4577,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B183" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -4588,10 +4588,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B184" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -4599,10 +4599,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B185" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -4610,10 +4610,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B186" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -4621,10 +4621,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B187" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -4632,10 +4632,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B188" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -4643,10 +4643,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B189" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -4654,10 +4654,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -4665,10 +4665,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -4676,10 +4676,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -4687,10 +4687,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -4698,10 +4698,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -4709,10 +4709,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -4720,10 +4720,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -4731,10 +4731,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -4742,10 +4742,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -4753,10 +4753,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -4764,10 +4764,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -4775,10 +4775,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -4786,10 +4786,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -4797,10 +4797,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -4808,10 +4808,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -4819,10 +4819,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -4830,10 +4830,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -4841,10 +4841,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -4852,10 +4852,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -4863,10 +4863,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -4874,10 +4874,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -4885,10 +4885,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -4896,10 +4896,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -4907,10 +4907,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -4918,10 +4918,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -4929,10 +4929,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -4940,10 +4940,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -4951,10 +4951,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B217" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -4962,10 +4962,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B218" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -4973,10 +4973,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B219" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -4984,10 +4984,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -4995,10 +4995,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -5006,10 +5006,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -5017,10 +5017,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -5028,10 +5028,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -5039,10 +5039,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -5050,10 +5050,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -5061,10 +5061,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -5072,10 +5072,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -5083,10 +5083,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -5094,10 +5094,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -5105,10 +5105,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -5116,10 +5116,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -5127,10 +5127,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -5138,10 +5138,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -5149,10 +5149,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -5160,10 +5160,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -5171,10 +5171,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -5182,10 +5182,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -5193,10 +5193,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -5204,10 +5204,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -5215,10 +5215,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -5226,10 +5226,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -5237,10 +5237,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -5248,10 +5248,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -5259,10 +5259,10 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
             <v>In progress of translating…(245)</v>
@@ -5270,10 +5270,10 @@
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B246" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C246" t="str">
             <v>In progress of translating…(246)</v>
@@ -5281,10 +5281,10 @@
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B247" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C247" t="str">
             <v>In progress of translating…(247)</v>
@@ -5292,184 +5292,184 @@
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B248" t="str">
-            <v>간파울</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C248" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(248)</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
             <v>CharDesc_Ganfaul</v>
           </cell>
-          <cell r="B249" t="str">
+          <cell r="B250" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
           </cell>
-          <cell r="C249" t="str">
-            <v>In progress of translating…(249)</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B250" t="str">
-            <v>킵시리즈</v>
-          </cell>
           <cell r="C250" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(250)</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
             <v>CharDesc_KeepSeries</v>
           </cell>
-          <cell r="B251" t="str">
+          <cell r="B252" t="str">
             <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
-          <cell r="C251" t="str">
-            <v>In progress of translating…(251)</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B252" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
           <cell r="C252" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(252)</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
             <v>CharDesc_BigBatSuccubus</v>
           </cell>
-          <cell r="B253" t="str">
+          <cell r="B254" t="str">
             <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
           </cell>
-          <cell r="C253" t="str">
-            <v>In progress of translating…(253)</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B254" t="str">
-            <v>베이</v>
-          </cell>
           <cell r="C254" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(254)</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256" t="str">
             <v>CharDesc_Bei</v>
           </cell>
-          <cell r="B255" t="str">
+          <cell r="B256" t="str">
             <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
           </cell>
-          <cell r="C255" t="str">
-            <v>In progress of translating…(255)</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256" t="str">
-            <v>BossName_SlimeRabbit</v>
-          </cell>
-          <cell r="B256" t="str">
-            <v>초록 토끼귀 슬라임</v>
-          </cell>
           <cell r="C256" t="str">
-            <v>Green Rabbit Slime</v>
+            <v>In progress of translating…(256)</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
+            <v>BossName_SlimeRabbit</v>
           </cell>
           <cell r="B257" t="str">
-            <v>붉은 토끼귀 슬라임</v>
+            <v>초록 토끼귀 슬라임</v>
           </cell>
           <cell r="C257" t="str">
-            <v>Red Rabbit Slime</v>
+            <v>Green Rabbit Slime</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>BossName_TerribleStump_Purple</v>
+            <v>BossName_SlimeRabbit_Red</v>
           </cell>
           <cell r="B258" t="str">
-            <v>나무귀신</v>
+            <v>붉은 토끼귀 슬라임</v>
           </cell>
           <cell r="C258" t="str">
-            <v>Terrible Stump</v>
+            <v>Red Rabbit Slime</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
+            <v>BossName_TerribleStump_Purple</v>
           </cell>
           <cell r="B259" t="str">
-            <v>외뿔 풍뎅이</v>
+            <v>나무귀신</v>
           </cell>
           <cell r="C259" t="str">
-            <v>In progress of translating…(259)</v>
+            <v>Terrible Stump</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>BossName_SpiritKing</v>
+            <v>BossName_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B260" t="str">
-            <v>스피릿 킹</v>
+            <v>외뿔 풍뎅이</v>
           </cell>
           <cell r="C260" t="str">
-            <v>Spirit King</v>
+            <v>In progress of translating…(260)</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>BossDesc_SlimeRabbit</v>
+            <v>BossName_SpiritKing</v>
           </cell>
           <cell r="B261" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>스피릿 킹</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>Spirit King</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
+            <v>BossDesc_SlimeRabbit</v>
           </cell>
           <cell r="B262" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
+            <v>BossDesc_SlimeRabbit_Red</v>
           </cell>
           <cell r="B263" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
-          </cell>
-          <cell r="C263" t="str">
-            <v>In progress of translating…(263)</v>
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
+            <v>BossDesc_TerribleStump_Purple</v>
           </cell>
           <cell r="B264" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
           </cell>
           <cell r="C264" t="str">
             <v>In progress of translating…(264)</v>
@@ -5477,29 +5477,29 @@
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>BossDesc_SpiritKing</v>
+            <v>BossDesc_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B265" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>In progress of translating…(265)</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossDesc_SpiritKing</v>
           </cell>
           <cell r="B266" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="C266" t="str">
-            <v>In progress of translating…(266)</v>
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>PenaltyUIName_One</v>
           </cell>
           <cell r="B267" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
           </cell>
           <cell r="C267" t="str">
             <v>In progress of translating…(267)</v>
@@ -5507,10 +5507,10 @@
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>PenaltyUIMind_One</v>
           </cell>
           <cell r="B268" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C268" t="str">
             <v>In progress of translating…(268)</v>
@@ -5518,10 +5518,10 @@
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>PenaltyUIRepre_OneOfTwo</v>
           </cell>
           <cell r="B269" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C269" t="str">
             <v>In progress of translating…(269)</v>
@@ -5529,10 +5529,10 @@
         </row>
         <row r="270">
           <cell r="A270" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>PenaltyUIName_Two</v>
           </cell>
           <cell r="B270" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C270" t="str">
             <v>In progress of translating…(270)</v>
@@ -5540,13 +5540,24 @@
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>PenaltyUIMind_Two</v>
           </cell>
           <cell r="B271" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C271" t="str">
             <v>In progress of translating…(271)</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B272" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>In progress of translating…(272)</v>
           </cell>
         </row>
       </sheetData>
@@ -5616,9 +5627,18 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="1">
+          <cell r="A1" t="str">
+            <v>idForVlookup|String</v>
+          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -5646,14 +5666,16 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>HealOverTime</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="F2" t="str">
-            <v>리젠 힐</v>
-          </cell>
+            <v>공격 어펙터의 가중치를 확률에 곱하여 적용 후 히트오브젝트를 부여함
+가중치가 1보다 크면 1로 하여 확률을 더 높이지 않고 사용</v>
+          </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v/>
           </cell>
         </row>
         <row r="3">
@@ -8172,47 +8194,53 @@
         </row>
         <row r="132">
           <cell r="B132" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C132" t="str">
             <v/>
           </cell>
           <cell r="D132">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E132" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H132" t="str">
             <v/>
+          </cell>
+          <cell r="I132">
+            <v>-1</v>
           </cell>
         </row>
         <row r="133">
           <cell r="B133" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C133" t="str">
             <v/>
           </cell>
           <cell r="D133">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E133" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H133" t="str">
             <v/>
+          </cell>
+          <cell r="I133">
+            <v>-1</v>
           </cell>
         </row>
         <row r="134">
           <cell r="B134" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C134" t="str">
             <v/>
           </cell>
           <cell r="D134">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E134" t="str">
             <v>CallAffectorValue</v>
@@ -8226,33 +8254,30 @@
         </row>
         <row r="135">
           <cell r="B135" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C135" t="str">
             <v/>
           </cell>
           <cell r="D135">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E135" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H135" t="str">
             <v/>
-          </cell>
-          <cell r="I135">
-            <v>-1</v>
           </cell>
         </row>
         <row r="136">
           <cell r="B136" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C136" t="str">
             <v/>
           </cell>
           <cell r="D136">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E136" t="str">
             <v>Heal</v>
@@ -8263,13 +8288,13 @@
         </row>
         <row r="137">
           <cell r="B137" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C137" t="str">
             <v/>
           </cell>
           <cell r="D137">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E137" t="str">
             <v>Heal</v>
@@ -8280,53 +8305,47 @@
         </row>
         <row r="138">
           <cell r="B138" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C138" t="str">
             <v/>
           </cell>
           <cell r="D138">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E138" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H138" t="str">
             <v/>
-          </cell>
-          <cell r="I138">
-            <v>-1</v>
           </cell>
         </row>
         <row r="139">
           <cell r="B139" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C139" t="str">
             <v/>
           </cell>
           <cell r="D139">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E139" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H139" t="str">
             <v/>
-          </cell>
-          <cell r="I139">
-            <v>-1</v>
           </cell>
         </row>
         <row r="140">
           <cell r="B140" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C140" t="str">
             <v/>
           </cell>
           <cell r="D140">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E140" t="str">
             <v>CallAffectorValue</v>
@@ -8340,13 +8359,13 @@
         </row>
         <row r="141">
           <cell r="B141" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C141" t="str">
             <v/>
           </cell>
           <cell r="D141">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E141" t="str">
             <v>CallAffectorValue</v>
@@ -8360,13 +8379,13 @@
         </row>
         <row r="142">
           <cell r="B142" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C142" t="str">
             <v/>
           </cell>
           <cell r="D142">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E142" t="str">
             <v>CallAffectorValue</v>
@@ -8380,13 +8399,13 @@
         </row>
         <row r="143">
           <cell r="B143" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C143" t="str">
             <v/>
           </cell>
           <cell r="D143">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="E143" t="str">
             <v>CallAffectorValue</v>
@@ -8400,13 +8419,13 @@
         </row>
         <row r="144">
           <cell r="B144" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C144" t="str">
             <v/>
           </cell>
           <cell r="D144">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="E144" t="str">
             <v>CallAffectorValue</v>
@@ -8420,233 +8439,218 @@
         </row>
         <row r="145">
           <cell r="B145" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C145" t="str">
             <v/>
           </cell>
           <cell r="D145">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E145" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H145" t="str">
             <v/>
-          </cell>
-          <cell r="I145">
-            <v>-1</v>
           </cell>
         </row>
         <row r="146">
           <cell r="B146" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C146" t="str">
             <v/>
           </cell>
           <cell r="D146">
-            <v>9</v>
+            <v>2</v>
           </cell>
           <cell r="E146" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H146" t="str">
             <v/>
-          </cell>
-          <cell r="I146">
-            <v>-1</v>
           </cell>
         </row>
         <row r="147">
           <cell r="B147" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C147" t="str">
             <v/>
           </cell>
           <cell r="D147">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E147" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H147" t="str">
             <v/>
-          </cell>
-          <cell r="I147">
-            <v>4.5</v>
           </cell>
         </row>
         <row r="148">
           <cell r="B148" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C148" t="str">
             <v/>
           </cell>
           <cell r="D148">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E148" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H148" t="str">
             <v/>
-          </cell>
-          <cell r="I148">
-            <v>4.5</v>
           </cell>
         </row>
         <row r="149">
           <cell r="B149" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C149" t="str">
             <v/>
           </cell>
           <cell r="D149">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E149" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H149" t="str">
             <v/>
-          </cell>
-          <cell r="I149">
-            <v>4.5</v>
           </cell>
         </row>
         <row r="150">
           <cell r="B150" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C150" t="str">
             <v/>
           </cell>
           <cell r="D150">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E150" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H150" t="str">
             <v/>
           </cell>
           <cell r="I150">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="151">
           <cell r="B151" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C151" t="str">
             <v/>
           </cell>
           <cell r="D151">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E151" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H151" t="str">
             <v/>
           </cell>
           <cell r="I151">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C152" t="str">
             <v/>
           </cell>
           <cell r="D152">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E152" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H152" t="str">
             <v/>
           </cell>
           <cell r="I152">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C153" t="str">
             <v/>
           </cell>
           <cell r="D153">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E153" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H153" t="str">
             <v/>
           </cell>
           <cell r="I153">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="154">
           <cell r="B154" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C154" t="str">
             <v/>
           </cell>
           <cell r="D154">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E154" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H154" t="str">
             <v/>
           </cell>
           <cell r="I154">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="155">
           <cell r="B155" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C155" t="str">
             <v/>
           </cell>
           <cell r="D155">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E155" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H155" t="str">
             <v/>
           </cell>
           <cell r="I155">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="156">
           <cell r="B156" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C156" t="str">
             <v/>
           </cell>
           <cell r="D156">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E156" t="str">
             <v>CallAffectorValue</v>
@@ -8660,13 +8664,13 @@
         </row>
         <row r="157">
           <cell r="B157" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C157" t="str">
             <v/>
           </cell>
           <cell r="D157">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E157" t="str">
             <v>CallAffectorValue</v>
@@ -8680,13 +8684,13 @@
         </row>
         <row r="158">
           <cell r="B158" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C158" t="str">
             <v/>
           </cell>
           <cell r="D158">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E158" t="str">
             <v>CallAffectorValue</v>
@@ -8700,53 +8704,53 @@
         </row>
         <row r="159">
           <cell r="B159" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C159" t="str">
             <v/>
           </cell>
           <cell r="D159">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E159" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H159" t="str">
             <v/>
           </cell>
           <cell r="I159">
-            <v>-1</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="160">
           <cell r="B160" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C160" t="str">
             <v/>
           </cell>
           <cell r="D160">
+            <v>2</v>
+          </cell>
+          <cell r="E160" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H160" t="str">
+            <v/>
+          </cell>
+          <cell r="I160">
             <v>5</v>
-          </cell>
-          <cell r="E160" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="H160" t="str">
-            <v/>
-          </cell>
-          <cell r="I160">
-            <v>-1</v>
           </cell>
         </row>
         <row r="161">
           <cell r="B161" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C161" t="str">
             <v/>
           </cell>
           <cell r="D161">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E161" t="str">
             <v>ChangeActorStatus</v>
@@ -8755,18 +8759,18 @@
             <v/>
           </cell>
           <cell r="I161">
-            <v>4.5</v>
+            <v>5.5</v>
           </cell>
         </row>
         <row r="162">
           <cell r="B162" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C162" t="str">
             <v/>
           </cell>
           <cell r="D162">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E162" t="str">
             <v>ChangeActorStatus</v>
@@ -8775,18 +8779,18 @@
             <v/>
           </cell>
           <cell r="I162">
-            <v>4.5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="163">
           <cell r="B163" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C163" t="str">
             <v/>
           </cell>
           <cell r="D163">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E163" t="str">
             <v>ChangeActorStatus</v>
@@ -8795,18 +8799,18 @@
             <v/>
           </cell>
           <cell r="I163">
-            <v>4.5</v>
+            <v>6.5</v>
           </cell>
         </row>
         <row r="164">
           <cell r="B164" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C164" t="str">
             <v/>
           </cell>
           <cell r="D164">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="E164" t="str">
             <v>ChangeActorStatus</v>
@@ -8815,18 +8819,18 @@
             <v/>
           </cell>
           <cell r="I164">
-            <v>4.5</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="165">
           <cell r="B165" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C165" t="str">
             <v/>
           </cell>
           <cell r="D165">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="E165" t="str">
             <v>ChangeActorStatus</v>
@@ -8835,58 +8839,58 @@
             <v/>
           </cell>
           <cell r="I165">
-            <v>4.5</v>
+            <v>7.5</v>
           </cell>
         </row>
         <row r="166">
           <cell r="B166" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C166" t="str">
             <v/>
           </cell>
           <cell r="D166">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E166" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H166" t="str">
             <v/>
           </cell>
           <cell r="I166">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="167">
           <cell r="B167" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C167" t="str">
             <v/>
           </cell>
           <cell r="D167">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="E167" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H167" t="str">
             <v/>
           </cell>
           <cell r="I167">
-            <v>-1</v>
+            <v>8.5</v>
           </cell>
         </row>
         <row r="168">
           <cell r="B168" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C168" t="str">
             <v/>
           </cell>
           <cell r="D168">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E168" t="str">
             <v>CallAffectorValue</v>
@@ -8900,13 +8904,13 @@
         </row>
         <row r="169">
           <cell r="B169" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C169" t="str">
             <v/>
           </cell>
           <cell r="D169">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E169" t="str">
             <v>CallAffectorValue</v>
@@ -8920,13 +8924,13 @@
         </row>
         <row r="170">
           <cell r="B170" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C170" t="str">
             <v/>
           </cell>
           <cell r="D170">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E170" t="str">
             <v>CallAffectorValue</v>
@@ -8940,138 +8944,153 @@
         </row>
         <row r="171">
           <cell r="B171" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C171" t="str">
             <v/>
           </cell>
           <cell r="D171">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E171" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H171" t="str">
             <v/>
+          </cell>
+          <cell r="I171">
+            <v>-1</v>
           </cell>
         </row>
         <row r="172">
           <cell r="B172" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C172" t="str">
             <v/>
           </cell>
           <cell r="D172">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E172" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H172" t="str">
             <v/>
+          </cell>
+          <cell r="I172">
+            <v>-1</v>
           </cell>
         </row>
         <row r="173">
           <cell r="B173" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C173" t="str">
             <v/>
           </cell>
           <cell r="D173">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E173" t="str">
-            <v>Heal</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H173" t="str">
             <v/>
+          </cell>
+          <cell r="I173">
+            <v>5</v>
           </cell>
         </row>
         <row r="174">
           <cell r="B174" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C174" t="str">
             <v/>
           </cell>
           <cell r="D174">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E174" t="str">
-            <v>Heal</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H174" t="str">
             <v/>
+          </cell>
+          <cell r="I174">
+            <v>6</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C175" t="str">
             <v/>
           </cell>
           <cell r="D175">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E175" t="str">
-            <v>Heal</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H175" t="str">
             <v/>
+          </cell>
+          <cell r="I175">
+            <v>7</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C176" t="str">
             <v/>
           </cell>
           <cell r="D176">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E176" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H176" t="str">
             <v/>
           </cell>
           <cell r="I176">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="177">
           <cell r="B177" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C177" t="str">
             <v/>
           </cell>
           <cell r="D177">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E177" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H177" t="str">
             <v/>
           </cell>
           <cell r="I177">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="178">
           <cell r="B178" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C178" t="str">
             <v/>
           </cell>
           <cell r="D178">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E178" t="str">
             <v>CallAffectorValue</v>
@@ -9085,13 +9104,13 @@
         </row>
         <row r="179">
           <cell r="B179" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C179" t="str">
             <v/>
           </cell>
           <cell r="D179">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E179" t="str">
             <v>CallAffectorValue</v>
@@ -9105,13 +9124,13 @@
         </row>
         <row r="180">
           <cell r="B180" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C180" t="str">
             <v/>
           </cell>
           <cell r="D180">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E180" t="str">
             <v>CallAffectorValue</v>
@@ -9125,47 +9144,53 @@
         </row>
         <row r="181">
           <cell r="B181" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C181" t="str">
             <v/>
           </cell>
           <cell r="D181">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E181" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H181" t="str">
             <v/>
+          </cell>
+          <cell r="I181">
+            <v>-1</v>
           </cell>
         </row>
         <row r="182">
           <cell r="B182" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C182" t="str">
             <v/>
           </cell>
           <cell r="D182">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E182" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H182" t="str">
             <v/>
+          </cell>
+          <cell r="I182">
+            <v>-1</v>
           </cell>
         </row>
         <row r="183">
           <cell r="B183" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C183" t="str">
             <v/>
           </cell>
           <cell r="D183">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E183" t="str">
             <v>Heal</v>
@@ -9176,13 +9201,13 @@
         </row>
         <row r="184">
           <cell r="B184" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C184" t="str">
             <v/>
           </cell>
           <cell r="D184">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E184" t="str">
             <v>Heal</v>
@@ -9193,13 +9218,13 @@
         </row>
         <row r="185">
           <cell r="B185" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C185" t="str">
             <v/>
           </cell>
           <cell r="D185">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E185" t="str">
             <v>Heal</v>
@@ -9210,53 +9235,47 @@
         </row>
         <row r="186">
           <cell r="B186" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C186" t="str">
             <v/>
           </cell>
           <cell r="D186">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E186" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H186" t="str">
             <v/>
-          </cell>
-          <cell r="I186">
-            <v>-1</v>
           </cell>
         </row>
         <row r="187">
           <cell r="B187" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C187" t="str">
             <v/>
           </cell>
           <cell r="D187">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E187" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H187" t="str">
             <v/>
-          </cell>
-          <cell r="I187">
-            <v>-1</v>
           </cell>
         </row>
         <row r="188">
           <cell r="B188" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C188" t="str">
             <v/>
           </cell>
           <cell r="D188">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E188" t="str">
             <v>CallAffectorValue</v>
@@ -9270,13 +9289,13 @@
         </row>
         <row r="189">
           <cell r="B189" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C189" t="str">
             <v/>
           </cell>
           <cell r="D189">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E189" t="str">
             <v>CallAffectorValue</v>
@@ -9290,13 +9309,13 @@
         </row>
         <row r="190">
           <cell r="B190" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C190" t="str">
             <v/>
           </cell>
           <cell r="D190">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E190" t="str">
             <v>CallAffectorValue</v>
@@ -9310,13 +9329,13 @@
         </row>
         <row r="191">
           <cell r="B191" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C191" t="str">
             <v/>
           </cell>
           <cell r="D191">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="E191" t="str">
             <v>CallAffectorValue</v>
@@ -9330,13 +9349,13 @@
         </row>
         <row r="192">
           <cell r="B192" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C192" t="str">
             <v/>
           </cell>
           <cell r="D192">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="E192" t="str">
             <v>CallAffectorValue</v>
@@ -9350,236 +9369,221 @@
         </row>
         <row r="193">
           <cell r="B193" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C193" t="str">
             <v/>
           </cell>
           <cell r="D193">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E193" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H193" t="str">
             <v/>
-          </cell>
-          <cell r="I193">
-            <v>-1</v>
           </cell>
         </row>
         <row r="194">
           <cell r="B194" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C194" t="str">
             <v/>
           </cell>
           <cell r="D194">
-            <v>9</v>
+            <v>2</v>
           </cell>
           <cell r="E194" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H194" t="str">
             <v/>
-          </cell>
-          <cell r="I194">
-            <v>-1</v>
           </cell>
         </row>
         <row r="195">
           <cell r="B195" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C195" t="str">
             <v/>
           </cell>
           <cell r="D195">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E195" t="str">
-            <v>HealOverTime</v>
+            <v>Heal</v>
           </cell>
           <cell r="H195" t="str">
             <v/>
-          </cell>
-          <cell r="I195">
-            <v>5</v>
           </cell>
         </row>
         <row r="196">
           <cell r="B196" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C196" t="str">
             <v/>
           </cell>
           <cell r="D196">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E196" t="str">
-            <v>HealOverTime</v>
+            <v>Heal</v>
           </cell>
           <cell r="H196" t="str">
             <v/>
-          </cell>
-          <cell r="I196">
-            <v>5</v>
           </cell>
         </row>
         <row r="197">
           <cell r="B197" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C197" t="str">
             <v/>
           </cell>
           <cell r="D197">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E197" t="str">
-            <v>HealOverTime</v>
+            <v>Heal</v>
           </cell>
           <cell r="H197" t="str">
             <v/>
-          </cell>
-          <cell r="I197">
-            <v>5</v>
           </cell>
         </row>
         <row r="198">
           <cell r="B198" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C198" t="str">
             <v/>
           </cell>
           <cell r="D198">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E198" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H198" t="str">
             <v/>
           </cell>
           <cell r="I198">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="199">
           <cell r="B199" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C199" t="str">
             <v/>
           </cell>
           <cell r="D199">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E199" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H199" t="str">
             <v/>
           </cell>
           <cell r="I199">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C200" t="str">
             <v/>
           </cell>
           <cell r="D200">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E200" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H200" t="str">
             <v/>
           </cell>
           <cell r="I200">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C201" t="str">
             <v/>
           </cell>
           <cell r="D201">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E201" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H201" t="str">
             <v/>
           </cell>
           <cell r="I201">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="202">
           <cell r="B202" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C202" t="str">
             <v/>
           </cell>
           <cell r="D202">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E202" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H202" t="str">
             <v/>
           </cell>
           <cell r="I202">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="203">
           <cell r="B203" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C203" t="str">
             <v/>
           </cell>
           <cell r="D203">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E203" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H203" t="str">
             <v/>
           </cell>
           <cell r="I203">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="204">
           <cell r="B204" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C204" t="str">
             <v/>
           </cell>
           <cell r="D204">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E204" t="str">
-            <v>ReflectDamage</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H204" t="str">
             <v/>
@@ -9590,16 +9594,16 @@
         </row>
         <row r="205">
           <cell r="B205" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C205" t="str">
             <v/>
           </cell>
           <cell r="D205">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E205" t="str">
-            <v>ReflectDamage</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H205" t="str">
             <v/>
@@ -9610,16 +9614,16 @@
         </row>
         <row r="206">
           <cell r="B206" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C206" t="str">
             <v/>
           </cell>
           <cell r="D206">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E206" t="str">
-            <v>ReflectDamage</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H206" t="str">
             <v/>
@@ -9630,196 +9634,196 @@
         </row>
         <row r="207">
           <cell r="B207" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C207" t="str">
             <v/>
           </cell>
           <cell r="D207">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E207" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H207" t="str">
             <v/>
           </cell>
           <cell r="I207">
-            <v>-1</v>
+            <v>5.0999999999999996</v>
           </cell>
         </row>
         <row r="208">
           <cell r="B208" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C208" t="str">
             <v/>
           </cell>
           <cell r="D208">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E208" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H208" t="str">
             <v/>
           </cell>
           <cell r="I208">
-            <v>-1</v>
+            <v>4.8499999999999996</v>
           </cell>
         </row>
         <row r="209">
           <cell r="B209" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C209" t="str">
             <v/>
           </cell>
           <cell r="D209">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E209" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H209" t="str">
             <v/>
           </cell>
           <cell r="I209">
-            <v>-1</v>
+            <v>4.5999999999999996</v>
           </cell>
         </row>
         <row r="210">
           <cell r="B210" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C210" t="str">
             <v/>
           </cell>
           <cell r="D210">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E210" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H210" t="str">
             <v/>
           </cell>
           <cell r="I210">
-            <v>-1</v>
+            <v>4.3499999999999988</v>
           </cell>
         </row>
         <row r="211">
           <cell r="B211" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C211" t="str">
             <v/>
           </cell>
           <cell r="D211">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E211" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H211" t="str">
             <v/>
           </cell>
           <cell r="I211">
-            <v>-1</v>
+            <v>4.0999999999999988</v>
           </cell>
         </row>
         <row r="212">
           <cell r="B212" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C212" t="str">
             <v/>
           </cell>
           <cell r="D212">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="E212" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H212" t="str">
             <v/>
           </cell>
           <cell r="I212">
-            <v>-1</v>
+            <v>3.8499999999999992</v>
           </cell>
         </row>
         <row r="213">
           <cell r="B213" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C213" t="str">
             <v/>
           </cell>
           <cell r="D213">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="E213" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H213" t="str">
             <v/>
           </cell>
           <cell r="I213">
-            <v>-1</v>
+            <v>3.5999999999999988</v>
           </cell>
         </row>
         <row r="214">
           <cell r="B214" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C214" t="str">
             <v/>
           </cell>
           <cell r="D214">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E214" t="str">
-            <v>AddAttackByHp</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H214" t="str">
             <v/>
           </cell>
           <cell r="I214">
-            <v>-1</v>
+            <v>3.3499999999999983</v>
           </cell>
         </row>
         <row r="215">
           <cell r="B215" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C215" t="str">
             <v/>
           </cell>
           <cell r="D215">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="E215" t="str">
-            <v>AddAttackByHp</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H215" t="str">
             <v/>
           </cell>
           <cell r="I215">
-            <v>-1</v>
+            <v>3.0999999999999983</v>
           </cell>
         </row>
         <row r="216">
           <cell r="B216" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C216" t="str">
             <v/>
           </cell>
           <cell r="D216">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E216" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H216" t="str">
             <v/>
@@ -9830,16 +9834,16 @@
         </row>
         <row r="217">
           <cell r="B217" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C217" t="str">
             <v/>
           </cell>
           <cell r="D217">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E217" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H217" t="str">
             <v/>
@@ -9850,16 +9854,16 @@
         </row>
         <row r="218">
           <cell r="B218" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C218" t="str">
             <v/>
           </cell>
           <cell r="D218">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E218" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H218" t="str">
             <v/>
@@ -9870,16 +9874,16 @@
         </row>
         <row r="219">
           <cell r="B219" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C219" t="str">
             <v/>
           </cell>
           <cell r="D219">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E219" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H219" t="str">
             <v/>
@@ -9890,16 +9894,16 @@
         </row>
         <row r="220">
           <cell r="B220" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C220" t="str">
             <v/>
           </cell>
           <cell r="D220">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E220" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H220" t="str">
             <v/>
@@ -9910,16 +9914,16 @@
         </row>
         <row r="221">
           <cell r="B221" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C221" t="str">
             <v/>
           </cell>
           <cell r="D221">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E221" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H221" t="str">
             <v/>
@@ -9930,16 +9934,16 @@
         </row>
         <row r="222">
           <cell r="B222" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C222" t="str">
             <v/>
           </cell>
           <cell r="D222">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E222" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H222" t="str">
             <v/>
@@ -9950,16 +9954,16 @@
         </row>
         <row r="223">
           <cell r="B223" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C223" t="str">
             <v/>
           </cell>
           <cell r="D223">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E223" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H223" t="str">
             <v/>
@@ -9970,16 +9974,16 @@
         </row>
         <row r="224">
           <cell r="B224" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C224" t="str">
             <v/>
           </cell>
           <cell r="D224">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E224" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H224" t="str">
             <v/>
@@ -9990,16 +9994,16 @@
         </row>
         <row r="225">
           <cell r="B225" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C225" t="str">
             <v/>
           </cell>
           <cell r="D225">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E225" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H225" t="str">
             <v/>
@@ -10010,7 +10014,7 @@
         </row>
         <row r="226">
           <cell r="B226" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C226" t="str">
             <v/>
@@ -10019,7 +10023,7 @@
             <v>1</v>
           </cell>
           <cell r="E226" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H226" t="str">
             <v/>
@@ -10030,7 +10034,7 @@
         </row>
         <row r="227">
           <cell r="B227" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C227" t="str">
             <v/>
@@ -10039,7 +10043,7 @@
             <v>2</v>
           </cell>
           <cell r="E227" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H227" t="str">
             <v/>
@@ -10050,7 +10054,7 @@
         </row>
         <row r="228">
           <cell r="B228" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C228" t="str">
             <v/>
@@ -10059,7 +10063,7 @@
             <v>3</v>
           </cell>
           <cell r="E228" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H228" t="str">
             <v/>
@@ -10070,7 +10074,7 @@
         </row>
         <row r="229">
           <cell r="B229" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C229" t="str">
             <v/>
@@ -10079,7 +10083,7 @@
             <v>4</v>
           </cell>
           <cell r="E229" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H229" t="str">
             <v/>
@@ -10090,7 +10094,7 @@
         </row>
         <row r="230">
           <cell r="B230" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C230" t="str">
             <v/>
@@ -10099,7 +10103,7 @@
             <v>5</v>
           </cell>
           <cell r="E230" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H230" t="str">
             <v/>
@@ -10110,16 +10114,16 @@
         </row>
         <row r="231">
           <cell r="B231" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C231" t="str">
             <v/>
           </cell>
           <cell r="D231">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E231" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H231" t="str">
             <v/>
@@ -10130,16 +10134,16 @@
         </row>
         <row r="232">
           <cell r="B232" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C232" t="str">
             <v/>
           </cell>
           <cell r="D232">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E232" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H232" t="str">
             <v/>
@@ -10150,16 +10154,16 @@
         </row>
         <row r="233">
           <cell r="B233" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C233" t="str">
             <v/>
           </cell>
           <cell r="D233">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E233" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H233" t="str">
             <v/>
@@ -10170,16 +10174,16 @@
         </row>
         <row r="234">
           <cell r="B234" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C234" t="str">
             <v/>
           </cell>
           <cell r="D234">
-            <v>9</v>
+            <v>1</v>
           </cell>
           <cell r="E234" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H234" t="str">
             <v/>
@@ -10190,16 +10194,16 @@
         </row>
         <row r="235">
           <cell r="B235" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C235" t="str">
             <v/>
           </cell>
           <cell r="D235">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E235" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H235" t="str">
             <v/>
@@ -10210,16 +10214,16 @@
         </row>
         <row r="236">
           <cell r="B236" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C236" t="str">
             <v/>
           </cell>
           <cell r="D236">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E236" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H236" t="str">
             <v/>
@@ -10230,16 +10234,16 @@
         </row>
         <row r="237">
           <cell r="B237" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="C237" t="str">
             <v/>
           </cell>
           <cell r="D237">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E237" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H237" t="str">
             <v/>
@@ -10250,13 +10254,13 @@
         </row>
         <row r="238">
           <cell r="B238" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C238" t="str">
             <v/>
           </cell>
           <cell r="D238">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E238" t="str">
             <v>InstantDeath</v>
@@ -10270,13 +10274,13 @@
         </row>
         <row r="239">
           <cell r="B239" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C239" t="str">
             <v/>
           </cell>
           <cell r="D239">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E239" t="str">
             <v>InstantDeath</v>
@@ -10290,16 +10294,16 @@
         </row>
         <row r="240">
           <cell r="B240" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C240" t="str">
             <v/>
           </cell>
           <cell r="D240">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E240" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H240" t="str">
             <v/>
@@ -10310,16 +10314,16 @@
         </row>
         <row r="241">
           <cell r="B241" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C241" t="str">
             <v/>
           </cell>
           <cell r="D241">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E241" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H241" t="str">
             <v/>
@@ -10330,16 +10334,16 @@
         </row>
         <row r="242">
           <cell r="B242" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C242" t="str">
             <v/>
           </cell>
           <cell r="D242">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E242" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H242" t="str">
             <v/>
@@ -10350,16 +10354,16 @@
         </row>
         <row r="243">
           <cell r="B243" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C243" t="str">
             <v/>
           </cell>
           <cell r="D243">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="E243" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H243" t="str">
             <v/>
@@ -10370,16 +10374,16 @@
         </row>
         <row r="244">
           <cell r="B244" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C244" t="str">
             <v/>
           </cell>
           <cell r="D244">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="E244" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H244" t="str">
             <v/>
@@ -10390,16 +10394,16 @@
         </row>
         <row r="245">
           <cell r="B245" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C245" t="str">
             <v/>
           </cell>
           <cell r="D245">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="E245" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H245" t="str">
             <v/>
@@ -10410,16 +10414,16 @@
         </row>
         <row r="246">
           <cell r="B246" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C246" t="str">
             <v/>
           </cell>
           <cell r="D246">
-            <v>7</v>
+            <v>9</v>
           </cell>
           <cell r="E246" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H246" t="str">
             <v/>
@@ -10430,16 +10434,16 @@
         </row>
         <row r="247">
           <cell r="B247" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C247" t="str">
             <v/>
           </cell>
           <cell r="D247">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E247" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H247" t="str">
             <v/>
@@ -10450,16 +10454,16 @@
         </row>
         <row r="248">
           <cell r="B248" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C248" t="str">
             <v/>
           </cell>
           <cell r="D248">
-            <v>9</v>
+            <v>2</v>
           </cell>
           <cell r="E248" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H248" t="str">
             <v/>
@@ -10470,16 +10474,16 @@
         </row>
         <row r="249">
           <cell r="B249" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C249" t="str">
             <v/>
           </cell>
           <cell r="D249">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E249" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H249" t="str">
             <v/>
@@ -10490,16 +10494,16 @@
         </row>
         <row r="250">
           <cell r="B250" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C250" t="str">
             <v/>
           </cell>
           <cell r="D250">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E250" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H250" t="str">
             <v/>
@@ -10510,16 +10514,16 @@
         </row>
         <row r="251">
           <cell r="B251" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C251" t="str">
             <v/>
           </cell>
           <cell r="D251">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E251" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H251" t="str">
             <v/>
@@ -10530,13 +10534,13 @@
         </row>
         <row r="252">
           <cell r="B252" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C252" t="str">
             <v/>
           </cell>
           <cell r="D252">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E252" t="str">
             <v>ImmortalWill</v>
@@ -10550,13 +10554,13 @@
         </row>
         <row r="253">
           <cell r="B253" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C253" t="str">
             <v/>
           </cell>
           <cell r="D253">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E253" t="str">
             <v>ImmortalWill</v>
@@ -10570,16 +10574,16 @@
         </row>
         <row r="254">
           <cell r="B254" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C254" t="str">
             <v/>
           </cell>
           <cell r="D254">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E254" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H254" t="str">
             <v/>
@@ -10590,16 +10594,16 @@
         </row>
         <row r="255">
           <cell r="B255" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C255" t="str">
             <v/>
           </cell>
           <cell r="D255">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E255" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H255" t="str">
             <v/>
@@ -10610,16 +10614,16 @@
         </row>
         <row r="256">
           <cell r="B256" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C256" t="str">
             <v/>
           </cell>
           <cell r="D256">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E256" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H256" t="str">
             <v/>
@@ -10630,16 +10634,16 @@
         </row>
         <row r="257">
           <cell r="B257" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C257" t="str">
             <v/>
           </cell>
           <cell r="D257">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="E257" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H257" t="str">
             <v/>
@@ -10650,16 +10654,16 @@
         </row>
         <row r="258">
           <cell r="B258" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C258" t="str">
             <v/>
           </cell>
           <cell r="D258">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="E258" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H258" t="str">
             <v/>
@@ -10670,16 +10674,16 @@
         </row>
         <row r="259">
           <cell r="B259" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C259" t="str">
             <v/>
           </cell>
           <cell r="D259">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="E259" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H259" t="str">
             <v/>
@@ -10690,109 +10694,127 @@
         </row>
         <row r="260">
           <cell r="B260" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C260" t="str">
             <v/>
           </cell>
           <cell r="D260">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E260" t="str">
-            <v>CreateHitObject</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H260" t="str">
             <v/>
+          </cell>
+          <cell r="I260">
+            <v>-1</v>
           </cell>
         </row>
         <row r="261">
           <cell r="B261" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C261" t="str">
             <v/>
           </cell>
           <cell r="D261">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E261" t="str">
-            <v>CreateHitObject</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H261" t="str">
             <v/>
+          </cell>
+          <cell r="I261">
+            <v>-1</v>
           </cell>
         </row>
         <row r="262">
           <cell r="B262" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C262" t="str">
             <v/>
           </cell>
           <cell r="D262">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E262" t="str">
-            <v>CreateHitObject</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H262" t="str">
             <v/>
+          </cell>
+          <cell r="I262">
+            <v>-1</v>
           </cell>
         </row>
         <row r="263">
           <cell r="B263" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C263" t="str">
             <v/>
           </cell>
           <cell r="D263">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E263" t="str">
-            <v>CreateHitObject</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H263" t="str">
             <v/>
+          </cell>
+          <cell r="I263">
+            <v>-1</v>
           </cell>
         </row>
         <row r="264">
           <cell r="B264" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C264" t="str">
             <v/>
           </cell>
           <cell r="D264">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E264" t="str">
-            <v>CreateHitObject</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H264" t="str">
             <v/>
+          </cell>
+          <cell r="I264">
+            <v>-1</v>
           </cell>
         </row>
         <row r="265">
           <cell r="B265" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C265" t="str">
             <v/>
           </cell>
           <cell r="D265">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E265" t="str">
-            <v>CreateHitObject</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H265" t="str">
             <v/>
+          </cell>
+          <cell r="I265">
+            <v>-1</v>
           </cell>
         </row>
         <row r="266">
           <cell r="B266" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C266" t="str">
             <v/>
@@ -10801,15 +10823,18 @@
             <v>1</v>
           </cell>
           <cell r="E266" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H266" t="str">
             <v/>
+          </cell>
+          <cell r="I266">
+            <v>-1</v>
           </cell>
         </row>
         <row r="267">
           <cell r="B267" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C267" t="str">
             <v/>
@@ -10818,15 +10843,18 @@
             <v>2</v>
           </cell>
           <cell r="E267" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H267" t="str">
             <v/>
+          </cell>
+          <cell r="I267">
+            <v>-1</v>
           </cell>
         </row>
         <row r="268">
           <cell r="B268" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C268" t="str">
             <v/>
@@ -10835,15 +10863,18 @@
             <v>3</v>
           </cell>
           <cell r="E268" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H268" t="str">
             <v/>
+          </cell>
+          <cell r="I268">
+            <v>-1</v>
           </cell>
         </row>
         <row r="269">
           <cell r="B269" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C269" t="str">
             <v/>
@@ -10852,15 +10883,18 @@
             <v>4</v>
           </cell>
           <cell r="E269" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H269" t="str">
             <v/>
+          </cell>
+          <cell r="I269">
+            <v>-1</v>
           </cell>
         </row>
         <row r="270">
           <cell r="B270" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C270" t="str">
             <v/>
@@ -10869,15 +10903,18 @@
             <v>5</v>
           </cell>
           <cell r="E270" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H270" t="str">
             <v/>
+          </cell>
+          <cell r="I270">
+            <v>-1</v>
           </cell>
         </row>
         <row r="271">
           <cell r="B271" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
@@ -10886,15 +10923,18 @@
             <v>6</v>
           </cell>
           <cell r="E271" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H271" t="str">
             <v/>
+          </cell>
+          <cell r="I271">
+            <v>-1</v>
           </cell>
         </row>
         <row r="272">
           <cell r="B272" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C272" t="str">
             <v/>
@@ -10903,18 +10943,15 @@
             <v>1</v>
           </cell>
           <cell r="E272" t="str">
-            <v>CallAffectorValue</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H272" t="str">
             <v/>
-          </cell>
-          <cell r="I272">
-            <v>-1</v>
           </cell>
         </row>
         <row r="273">
           <cell r="B273" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
@@ -10923,18 +10960,15 @@
             <v>2</v>
           </cell>
           <cell r="E273" t="str">
-            <v>CallAffectorValue</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H273" t="str">
             <v/>
-          </cell>
-          <cell r="I273">
-            <v>-1</v>
           </cell>
         </row>
         <row r="274">
           <cell r="B274" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
@@ -10943,18 +10977,15 @@
             <v>3</v>
           </cell>
           <cell r="E274" t="str">
-            <v>CallAffectorValue</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H274" t="str">
             <v/>
-          </cell>
-          <cell r="I274">
-            <v>-1</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C275" t="str">
             <v/>
@@ -10963,18 +10994,15 @@
             <v>4</v>
           </cell>
           <cell r="E275" t="str">
-            <v>CallAffectorValue</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H275" t="str">
             <v/>
-          </cell>
-          <cell r="I275">
-            <v>-1</v>
           </cell>
         </row>
         <row r="276">
           <cell r="B276" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C276" t="str">
             <v/>
@@ -10983,18 +11011,15 @@
             <v>5</v>
           </cell>
           <cell r="E276" t="str">
-            <v>CallAffectorValue</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H276" t="str">
             <v/>
-          </cell>
-          <cell r="I276">
-            <v>-1</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C277" t="str">
             <v/>
@@ -11003,18 +11028,15 @@
             <v>6</v>
           </cell>
           <cell r="E277" t="str">
-            <v>CallAffectorValue</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H277" t="str">
             <v/>
-          </cell>
-          <cell r="I277">
-            <v>-1</v>
           </cell>
         </row>
         <row r="278">
           <cell r="B278" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C278" t="str">
             <v/>
@@ -11023,18 +11045,15 @@
             <v>1</v>
           </cell>
           <cell r="E278" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H278" t="str">
             <v/>
-          </cell>
-          <cell r="I278">
-            <v>5</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
@@ -11043,18 +11062,15 @@
             <v>2</v>
           </cell>
           <cell r="E279" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H279" t="str">
             <v/>
-          </cell>
-          <cell r="I279">
-            <v>7</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
@@ -11063,18 +11079,15 @@
             <v>3</v>
           </cell>
           <cell r="E280" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H280" t="str">
             <v/>
-          </cell>
-          <cell r="I280">
-            <v>9</v>
           </cell>
         </row>
         <row r="281">
           <cell r="B281" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C281" t="str">
             <v/>
@@ -11083,18 +11096,15 @@
             <v>4</v>
           </cell>
           <cell r="E281" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H281" t="str">
             <v/>
-          </cell>
-          <cell r="I281">
-            <v>11</v>
           </cell>
         </row>
         <row r="282">
           <cell r="B282" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C282" t="str">
             <v/>
@@ -11103,18 +11113,15 @@
             <v>5</v>
           </cell>
           <cell r="E282" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H282" t="str">
             <v/>
-          </cell>
-          <cell r="I282">
-            <v>13</v>
           </cell>
         </row>
         <row r="283">
           <cell r="B283" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C283" t="str">
             <v/>
@@ -11123,18 +11130,15 @@
             <v>6</v>
           </cell>
           <cell r="E283" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="H283" t="str">
             <v/>
-          </cell>
-          <cell r="I283">
-            <v>15</v>
           </cell>
         </row>
         <row r="284">
           <cell r="B284" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C284" t="str">
             <v/>
@@ -11143,7 +11147,7 @@
             <v>1</v>
           </cell>
           <cell r="E284" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H284" t="str">
             <v/>
@@ -11154,7 +11158,7 @@
         </row>
         <row r="285">
           <cell r="B285" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
@@ -11163,7 +11167,7 @@
             <v>2</v>
           </cell>
           <cell r="E285" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H285" t="str">
             <v/>
@@ -11174,7 +11178,7 @@
         </row>
         <row r="286">
           <cell r="B286" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
@@ -11183,7 +11187,7 @@
             <v>3</v>
           </cell>
           <cell r="E286" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H286" t="str">
             <v/>
@@ -11194,7 +11198,7 @@
         </row>
         <row r="287">
           <cell r="B287" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C287" t="str">
             <v/>
@@ -11203,7 +11207,7 @@
             <v>4</v>
           </cell>
           <cell r="E287" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H287" t="str">
             <v/>
@@ -11214,7 +11218,7 @@
         </row>
         <row r="288">
           <cell r="B288" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C288" t="str">
             <v/>
@@ -11223,7 +11227,7 @@
             <v>5</v>
           </cell>
           <cell r="E288" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H288" t="str">
             <v/>
@@ -11234,7 +11238,7 @@
         </row>
         <row r="289">
           <cell r="B289" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C289" t="str">
             <v/>
@@ -11243,7 +11247,7 @@
             <v>6</v>
           </cell>
           <cell r="E289" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H289" t="str">
             <v/>
@@ -11254,7 +11258,7 @@
         </row>
         <row r="290">
           <cell r="B290" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C290" t="str">
             <v/>
@@ -11263,7 +11267,7 @@
             <v>1</v>
           </cell>
           <cell r="E290" t="str">
-            <v>CollisionDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H290" t="str">
             <v/>
@@ -11274,7 +11278,7 @@
         </row>
         <row r="291">
           <cell r="B291" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C291" t="str">
             <v/>
@@ -11283,18 +11287,18 @@
             <v>2</v>
           </cell>
           <cell r="E291" t="str">
-            <v>CollisionDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H291" t="str">
             <v/>
           </cell>
           <cell r="I291">
-            <v>6</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C292" t="str">
             <v/>
@@ -11303,18 +11307,18 @@
             <v>3</v>
           </cell>
           <cell r="E292" t="str">
-            <v>CollisionDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H292" t="str">
             <v/>
           </cell>
           <cell r="I292">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="293">
           <cell r="B293" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C293" t="str">
             <v/>
@@ -11323,18 +11327,18 @@
             <v>4</v>
           </cell>
           <cell r="E293" t="str">
-            <v>CollisionDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H293" t="str">
             <v/>
           </cell>
           <cell r="I293">
-            <v>8</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="294">
           <cell r="B294" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C294" t="str">
             <v/>
@@ -11343,18 +11347,18 @@
             <v>5</v>
           </cell>
           <cell r="E294" t="str">
-            <v>CollisionDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H294" t="str">
             <v/>
           </cell>
           <cell r="I294">
-            <v>9</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="295">
           <cell r="B295" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C295" t="str">
             <v/>
@@ -11363,18 +11367,18 @@
             <v>6</v>
           </cell>
           <cell r="E295" t="str">
-            <v>CollisionDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H295" t="str">
             <v/>
           </cell>
           <cell r="I295">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="296">
           <cell r="B296" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C296" t="str">
             <v/>
@@ -11383,7 +11387,7 @@
             <v>1</v>
           </cell>
           <cell r="E296" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H296" t="str">
             <v/>
@@ -11394,7 +11398,7 @@
         </row>
         <row r="297">
           <cell r="B297" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C297" t="str">
             <v/>
@@ -11403,7 +11407,7 @@
             <v>2</v>
           </cell>
           <cell r="E297" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H297" t="str">
             <v/>
@@ -11414,7 +11418,7 @@
         </row>
         <row r="298">
           <cell r="B298" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C298" t="str">
             <v/>
@@ -11423,7 +11427,7 @@
             <v>3</v>
           </cell>
           <cell r="E298" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H298" t="str">
             <v/>
@@ -11434,7 +11438,7 @@
         </row>
         <row r="299">
           <cell r="B299" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C299" t="str">
             <v/>
@@ -11443,7 +11447,7 @@
             <v>4</v>
           </cell>
           <cell r="E299" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H299" t="str">
             <v/>
@@ -11454,7 +11458,7 @@
         </row>
         <row r="300">
           <cell r="B300" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C300" t="str">
             <v/>
@@ -11463,7 +11467,7 @@
             <v>5</v>
           </cell>
           <cell r="E300" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H300" t="str">
             <v/>
@@ -11474,235 +11478,256 @@
         </row>
         <row r="301">
           <cell r="B301" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C301" t="str">
             <v/>
           </cell>
           <cell r="D301">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E301" t="str">
-            <v>CertainHpHitObject</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H301" t="str">
             <v/>
+          </cell>
+          <cell r="I301">
+            <v>-1</v>
           </cell>
         </row>
         <row r="302">
           <cell r="B302" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C302" t="str">
             <v/>
           </cell>
           <cell r="D302">
+            <v>1</v>
+          </cell>
+          <cell r="E302" t="str">
+            <v>CollisionDamage</v>
+          </cell>
+          <cell r="H302" t="str">
+            <v/>
+          </cell>
+          <cell r="I302">
             <v>2</v>
-          </cell>
-          <cell r="E302" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="H302" t="str">
-            <v/>
           </cell>
         </row>
         <row r="303">
           <cell r="B303" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C303" t="str">
             <v/>
           </cell>
           <cell r="D303">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E303" t="str">
-            <v>CertainHpHitObject</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H303" t="str">
             <v/>
+          </cell>
+          <cell r="I303">
+            <v>4</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C304" t="str">
             <v/>
           </cell>
           <cell r="D304">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E304" t="str">
-            <v>CertainHpHitObject</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H304" t="str">
             <v/>
+          </cell>
+          <cell r="I304">
+            <v>6</v>
           </cell>
         </row>
         <row r="305">
           <cell r="B305" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C305" t="str">
             <v/>
           </cell>
           <cell r="D305">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E305" t="str">
-            <v>CertainHpHitObject</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H305" t="str">
             <v/>
+          </cell>
+          <cell r="I305">
+            <v>8</v>
           </cell>
         </row>
         <row r="306">
           <cell r="B306" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C306" t="str">
             <v/>
           </cell>
           <cell r="D306">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E306" t="str">
-            <v>CannotAction</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H306" t="str">
             <v/>
           </cell>
           <cell r="I306">
-            <v>1.5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="307">
           <cell r="B307" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C307" t="str">
             <v/>
           </cell>
           <cell r="D307">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E307" t="str">
-            <v>CannotAction</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H307" t="str">
             <v/>
           </cell>
           <cell r="I307">
-            <v>1.8</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="308">
           <cell r="B308" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C308" t="str">
             <v/>
           </cell>
           <cell r="D308">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E308" t="str">
-            <v>CannotAction</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H308" t="str">
             <v/>
           </cell>
           <cell r="I308">
-            <v>2.1</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C309" t="str">
             <v/>
           </cell>
           <cell r="D309">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E309" t="str">
-            <v>CannotAction</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H309" t="str">
             <v/>
           </cell>
           <cell r="I309">
-            <v>2.4</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C310" t="str">
             <v/>
           </cell>
           <cell r="D310">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E310" t="str">
-            <v>CannotAction</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H310" t="str">
             <v/>
           </cell>
           <cell r="I310">
-            <v>2.7</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="311">
           <cell r="B311" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C311" t="str">
             <v/>
           </cell>
           <cell r="D311">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E311" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H311" t="str">
             <v/>
+          </cell>
+          <cell r="I311">
+            <v>-1</v>
           </cell>
         </row>
         <row r="312">
           <cell r="B312" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C312" t="str">
             <v/>
           </cell>
           <cell r="D312">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E312" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H312" t="str">
             <v/>
+          </cell>
+          <cell r="I312">
+            <v>-1</v>
           </cell>
         </row>
         <row r="313">
           <cell r="B313" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C313" t="str">
             <v/>
           </cell>
           <cell r="D313">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E313" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H313" t="str">
             <v/>
@@ -11710,16 +11735,16 @@
         </row>
         <row r="314">
           <cell r="B314" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C314" t="str">
             <v/>
           </cell>
           <cell r="D314">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E314" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H314" t="str">
             <v/>
@@ -11727,16 +11752,16 @@
         </row>
         <row r="315">
           <cell r="B315" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C315" t="str">
             <v/>
           </cell>
           <cell r="D315">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E315" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H315" t="str">
             <v/>
@@ -11744,150 +11769,150 @@
         </row>
         <row r="316">
           <cell r="B316" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C316" t="str">
             <v/>
           </cell>
           <cell r="D316">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E316" t="str">
-            <v>CannotMove</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H316" t="str">
             <v/>
-          </cell>
-          <cell r="I316">
-            <v>3</v>
           </cell>
         </row>
         <row r="317">
           <cell r="B317" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C317" t="str">
             <v/>
           </cell>
           <cell r="D317">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E317" t="str">
-            <v>CannotMove</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H317" t="str">
             <v/>
-          </cell>
-          <cell r="I317">
-            <v>3.5</v>
           </cell>
         </row>
         <row r="318">
           <cell r="B318" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C318" t="str">
             <v/>
           </cell>
           <cell r="D318">
+            <v>1</v>
+          </cell>
+          <cell r="E318" t="str">
+            <v>CannotAction</v>
+          </cell>
+          <cell r="H318" t="str">
+            <v/>
+          </cell>
+          <cell r="I318">
             <v>3</v>
-          </cell>
-          <cell r="E318" t="str">
-            <v>CannotMove</v>
-          </cell>
-          <cell r="H318" t="str">
-            <v/>
-          </cell>
-          <cell r="I318">
-            <v>4</v>
           </cell>
         </row>
         <row r="319">
           <cell r="B319" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C319" t="str">
             <v/>
           </cell>
           <cell r="D319">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E319" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H319" t="str">
             <v/>
           </cell>
           <cell r="I319">
-            <v>4.5</v>
+            <v>3.5</v>
           </cell>
         </row>
         <row r="320">
           <cell r="B320" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C320" t="str">
             <v/>
           </cell>
           <cell r="D320">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E320" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H320" t="str">
             <v/>
           </cell>
           <cell r="I320">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="321">
           <cell r="B321" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C321" t="str">
             <v/>
           </cell>
           <cell r="D321">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E321" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H321" t="str">
             <v/>
+          </cell>
+          <cell r="I321">
+            <v>4.5</v>
           </cell>
         </row>
         <row r="322">
           <cell r="B322" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C322" t="str">
             <v/>
           </cell>
           <cell r="D322">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E322" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H322" t="str">
             <v/>
+          </cell>
+          <cell r="I322">
+            <v>5</v>
           </cell>
         </row>
         <row r="323">
           <cell r="B323" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C323" t="str">
             <v/>
           </cell>
           <cell r="D323">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E323" t="str">
-            <v>TeleportingHitObject</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H323" t="str">
             <v/>
@@ -11895,16 +11920,16 @@
         </row>
         <row r="324">
           <cell r="B324" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C324" t="str">
             <v/>
           </cell>
           <cell r="D324">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E324" t="str">
-            <v>TeleportingHitObject</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H324" t="str">
             <v/>
@@ -11912,16 +11937,16 @@
         </row>
         <row r="325">
           <cell r="B325" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C325" t="str">
             <v/>
           </cell>
           <cell r="D325">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E325" t="str">
-            <v>TeleportingHitObject</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H325" t="str">
             <v/>
@@ -11929,253 +11954,226 @@
         </row>
         <row r="326">
           <cell r="B326" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C326" t="str">
             <v/>
           </cell>
           <cell r="D326">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E326" t="str">
-            <v>Teleported</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H326" t="str">
             <v/>
-          </cell>
-          <cell r="I326">
-            <v>5</v>
           </cell>
         </row>
         <row r="327">
           <cell r="B327" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C327" t="str">
             <v/>
           </cell>
           <cell r="D327">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E327" t="str">
-            <v>Teleported</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H327" t="str">
             <v/>
-          </cell>
-          <cell r="I327">
-            <v>6</v>
           </cell>
         </row>
         <row r="328">
           <cell r="B328" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C328" t="str">
             <v/>
           </cell>
           <cell r="D328">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E328" t="str">
-            <v>Teleported</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H328" t="str">
             <v/>
           </cell>
           <cell r="I328">
-            <v>7</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="329">
           <cell r="B329" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C329" t="str">
             <v/>
           </cell>
           <cell r="D329">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E329" t="str">
-            <v>Teleported</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H329" t="str">
             <v/>
           </cell>
           <cell r="I329">
-            <v>8</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="330">
           <cell r="B330" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C330" t="str">
             <v/>
           </cell>
           <cell r="D330">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E330" t="str">
-            <v>Teleported</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H330" t="str">
             <v/>
           </cell>
           <cell r="I330">
-            <v>9</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="331">
           <cell r="B331" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C331" t="str">
             <v/>
           </cell>
           <cell r="D331">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E331" t="str">
-            <v>CreateWall</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H331" t="str">
             <v/>
           </cell>
           <cell r="I331">
-            <v>-1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="332">
           <cell r="B332" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C332" t="str">
             <v/>
           </cell>
           <cell r="D332">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E332" t="str">
-            <v>CreateWall</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H332" t="str">
             <v/>
           </cell>
           <cell r="I332">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="333">
           <cell r="B333" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C333" t="str">
             <v/>
           </cell>
           <cell r="D333">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E333" t="str">
-            <v>CreateWall</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H333" t="str">
             <v/>
-          </cell>
-          <cell r="I333">
-            <v>-1</v>
           </cell>
         </row>
         <row r="334">
           <cell r="B334" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C334" t="str">
             <v/>
           </cell>
           <cell r="D334">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E334" t="str">
-            <v>CreateWall</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H334" t="str">
             <v/>
-          </cell>
-          <cell r="I334">
-            <v>-1</v>
           </cell>
         </row>
         <row r="335">
           <cell r="B335" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C335" t="str">
             <v/>
           </cell>
           <cell r="D335">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E335" t="str">
-            <v>CreateWall</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H335" t="str">
             <v/>
-          </cell>
-          <cell r="I335">
-            <v>-1</v>
           </cell>
         </row>
         <row r="336">
           <cell r="B336" t="str">
-            <v>PN_Magic2Times</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C336" t="str">
             <v/>
           </cell>
           <cell r="D336">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E336" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G336" t="str">
-            <v>DefenderSource==Magic</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H336" t="str">
             <v/>
-          </cell>
-          <cell r="I336">
-            <v>-1</v>
           </cell>
         </row>
         <row r="337">
           <cell r="B337" t="str">
-            <v>PN_Machine2Times</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C337" t="str">
             <v/>
           </cell>
           <cell r="D337">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E337" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G337" t="str">
-            <v>DefenderSource==Machine</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H337" t="str">
             <v/>
-          </cell>
-          <cell r="I337">
-            <v>-1</v>
           </cell>
         </row>
         <row r="338">
           <cell r="B338" t="str">
-            <v>PN_Nature2Times</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C338" t="str">
             <v/>
@@ -12184,38 +12182,284 @@
             <v>1</v>
           </cell>
           <cell r="E338" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G338" t="str">
-            <v>DefenderSource==Nature</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H338" t="str">
             <v/>
           </cell>
           <cell r="I338">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="339">
           <cell r="B339" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C339" t="str">
+            <v/>
+          </cell>
+          <cell r="D339">
+            <v>2</v>
+          </cell>
+          <cell r="E339" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="H339" t="str">
+            <v/>
+          </cell>
+          <cell r="I339">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C340" t="str">
+            <v/>
+          </cell>
+          <cell r="D340">
+            <v>3</v>
+          </cell>
+          <cell r="E340" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="H340" t="str">
+            <v/>
+          </cell>
+          <cell r="I340">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C341" t="str">
+            <v/>
+          </cell>
+          <cell r="D341">
+            <v>4</v>
+          </cell>
+          <cell r="E341" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="H341" t="str">
+            <v/>
+          </cell>
+          <cell r="I341">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C342" t="str">
+            <v/>
+          </cell>
+          <cell r="D342">
+            <v>5</v>
+          </cell>
+          <cell r="E342" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="H342" t="str">
+            <v/>
+          </cell>
+          <cell r="I342">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C343" t="str">
+            <v/>
+          </cell>
+          <cell r="D343">
+            <v>1</v>
+          </cell>
+          <cell r="E343" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H343" t="str">
+            <v/>
+          </cell>
+          <cell r="I343">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C344" t="str">
+            <v/>
+          </cell>
+          <cell r="D344">
+            <v>2</v>
+          </cell>
+          <cell r="E344" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H344" t="str">
+            <v/>
+          </cell>
+          <cell r="I344">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C345" t="str">
+            <v/>
+          </cell>
+          <cell r="D345">
+            <v>3</v>
+          </cell>
+          <cell r="E345" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H345" t="str">
+            <v/>
+          </cell>
+          <cell r="I345">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C346" t="str">
+            <v/>
+          </cell>
+          <cell r="D346">
+            <v>4</v>
+          </cell>
+          <cell r="E346" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H346" t="str">
+            <v/>
+          </cell>
+          <cell r="I346">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C347" t="str">
+            <v/>
+          </cell>
+          <cell r="D347">
+            <v>5</v>
+          </cell>
+          <cell r="E347" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H347" t="str">
+            <v/>
+          </cell>
+          <cell r="I347">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>PN_Magic2Times</v>
+          </cell>
+          <cell r="C348" t="str">
+            <v/>
+          </cell>
+          <cell r="D348">
+            <v>1</v>
+          </cell>
+          <cell r="E348" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G348" t="str">
+            <v>DefenderSource==Magic</v>
+          </cell>
+          <cell r="H348" t="str">
+            <v/>
+          </cell>
+          <cell r="I348">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>PN_Machine2Times</v>
+          </cell>
+          <cell r="C349" t="str">
+            <v/>
+          </cell>
+          <cell r="D349">
+            <v>1</v>
+          </cell>
+          <cell r="E349" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G349" t="str">
+            <v>DefenderSource==Machine</v>
+          </cell>
+          <cell r="H349" t="str">
+            <v/>
+          </cell>
+          <cell r="I349">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>PN_Nature2Times</v>
+          </cell>
+          <cell r="C350" t="str">
+            <v/>
+          </cell>
+          <cell r="D350">
+            <v>1</v>
+          </cell>
+          <cell r="E350" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G350" t="str">
+            <v>DefenderSource==Nature</v>
+          </cell>
+          <cell r="H350" t="str">
+            <v/>
+          </cell>
+          <cell r="I350">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
             <v>PN_Qigong2Times</v>
           </cell>
-          <cell r="C339" t="str">
-            <v/>
-          </cell>
-          <cell r="D339">
+          <cell r="C351" t="str">
+            <v/>
+          </cell>
+          <cell r="D351">
             <v>1</v>
           </cell>
-          <cell r="E339" t="str">
+          <cell r="E351" t="str">
             <v>EnlargeDamage</v>
           </cell>
-          <cell r="G339" t="str">
+          <cell r="G351" t="str">
             <v>DefenderSource==Qigong</v>
           </cell>
-          <cell r="H339" t="str">
-            <v/>
-          </cell>
-          <cell r="I339">
+          <cell r="H351" t="str">
+            <v/>
+          </cell>
+          <cell r="I351">
             <v>-1</v>
           </cell>
         </row>
@@ -12662,7 +12906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13922,16 +14166,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="4" max="8" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -13972,10 +14215,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -13986,17 +14229,17 @@
       </c>
       <c r="G2" s="2">
         <f>B2/(D2*F2)</f>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B2)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J2">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C2)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>120</v>
+        <v>100.00000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -14005,11 +14248,11 @@
       </c>
       <c r="B3" s="1">
         <f>B2*1.5</f>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C21" si="0">C2*1.5</f>
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D21" si="1">D2*E3</f>
@@ -14023,21 +14266,21 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G21" si="2">B3/(D3*F3)</f>
-        <v>1.2857142857142858</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H21" si="3">G3-G2</f>
-        <v>8.5714285714285854E-2</v>
+        <v>5.7142857142857051E-2</v>
       </c>
       <c r="I3">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B3)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="J3">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C3)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>139.99999999999997</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -14046,11 +14289,11 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B21" si="4">B3*1.5</f>
-        <v>1350</v>
+        <v>900</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>337.5</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
@@ -14065,21 +14308,21 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>1.372648703609558</v>
+        <v>0.91509913573970536</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>8.6934417895272231E-2</v>
+        <v>5.7956278596848265E-2</v>
       </c>
       <c r="I4">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B4)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>240.00000000000006</v>
+        <v>210</v>
       </c>
       <c r="J4">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C4)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>159.99999999999997</v>
+        <v>139.99999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -14088,11 +14331,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="4"/>
-        <v>2025</v>
+        <v>1350</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>506.25</v>
+        <v>337.5</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -14107,21 +14350,21 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>1.460264578308041</v>
+        <v>0.97350971887202731</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>8.7615874698482976E-2</v>
+        <v>5.8410583132321947E-2</v>
       </c>
       <c r="I5">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B5)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>269.99999999999994</v>
+        <v>240.00000000000006</v>
       </c>
       <c r="J5">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C5)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>179.99999999999997</v>
+        <v>159.99999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -14130,11 +14373,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="4"/>
-        <v>3037.5</v>
+        <v>2025</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>759.375</v>
+        <v>506.25</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
@@ -14149,21 +14392,21 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>1.5479836519166514</v>
+        <v>1.0319891012777678</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>8.7719073608610421E-2</v>
+        <v>5.8479382405740465E-2</v>
       </c>
       <c r="I6">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B6)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>300.00000000000006</v>
+        <v>269.99999999999994</v>
       </c>
       <c r="J6">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C6)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>199.99999999999997</v>
+        <v>179.99999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -14172,11 +14415,11 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="4"/>
-        <v>4556.25</v>
+        <v>3037.5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1139.0625</v>
+        <v>759.375</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
@@ -14191,21 +14434,21 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>1.635193998503506</v>
+        <v>1.0901293323356707</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>8.7210346586854559E-2</v>
+        <v>5.8140231057902891E-2</v>
       </c>
       <c r="I7">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B7)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>329.99999999999994</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="J7">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C7)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>219.99999999999997</v>
+        <v>199.99999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -14214,11 +14457,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="4"/>
-        <v>6834.375</v>
+        <v>4556.25</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>1708.59375</v>
+        <v>1139.0625</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
@@ -14233,21 +14476,21 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>1.721256840530007</v>
+        <v>1.147504560353338</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>8.6062842026501052E-2</v>
+        <v>5.7375228017667368E-2</v>
       </c>
       <c r="I8">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B8)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>359.99999999999983</v>
+        <v>329.99999999999994</v>
       </c>
       <c r="J8">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C8)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>239.99999999999997</v>
+        <v>219.99999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -14256,11 +14499,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="4"/>
-        <v>10251.5625</v>
+        <v>6834.375</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>2562.890625</v>
+        <v>1708.59375</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
@@ -14275,21 +14518,21 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>1.8055141683881202</v>
+        <v>1.2036761122587467</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>8.4257327858113129E-2</v>
+        <v>5.6171551905408679E-2</v>
       </c>
       <c r="I9">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B9)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>389.99999999999994</v>
+        <v>359.99999999999983</v>
       </c>
       <c r="J9">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C9)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>259.99999999999989</v>
+        <v>239.99999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -14298,11 +14541,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="4"/>
-        <v>15377.34375</v>
+        <v>10251.5625</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3844.3359375</v>
+        <v>2562.890625</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
@@ -14317,21 +14560,21 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>1.887297040126956</v>
+        <v>1.258198026751304</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>8.1782871738835805E-2</v>
+        <v>5.4521914492557277E-2</v>
       </c>
       <c r="I10">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B10)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>419.99999999999983</v>
+        <v>389.99999999999994</v>
       </c>
       <c r="J10">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C10)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>279.99999999999989</v>
+        <v>259.99999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -14340,11 +14583,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="4"/>
-        <v>23066.015625</v>
+        <v>15377.34375</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>5766.50390625</v>
+        <v>3844.3359375</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
@@ -14359,21 +14602,21 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>1.9659344167989139</v>
+        <v>1.3106229445326092</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>7.8637376671957915E-2</v>
+        <v>5.2424917781305203E-2</v>
       </c>
       <c r="I11">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B11)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>449.99999999999983</v>
+        <v>419.99999999999983</v>
       </c>
       <c r="J11">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C11)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>299.99999999999989</v>
+        <v>279.99999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -14382,11 +14625,11 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="4"/>
-        <v>34599.0234375</v>
+        <v>23066.015625</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>8649.755859375</v>
+        <v>5766.50390625</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
@@ -14401,21 +14644,21 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>2.0407623703794968</v>
+        <v>1.3605082469196645</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>7.4827953580582918E-2</v>
+        <v>4.9885302387055352E-2</v>
       </c>
       <c r="I12">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B12)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>479.99999999999983</v>
+        <v>449.99999999999983</v>
       </c>
       <c r="J12">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C12)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>319.99999999999989</v>
+        <v>299.99999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -14424,11 +14667,11 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="4"/>
-        <v>51898.53515625</v>
+        <v>34599.0234375</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>12974.6337890625</v>
+        <v>8649.755859375</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
@@ -14443,21 +14686,21 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>2.1111334865994813</v>
+        <v>1.407422324399654</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>7.0371116219984486E-2</v>
+        <v>4.6914077479989436E-2</v>
       </c>
       <c r="I13">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B13)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>509.99999999999983</v>
+        <v>479.99999999999983</v>
       </c>
       <c r="J13">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C13)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>339.99999999999989</v>
+        <v>319.99999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -14466,11 +14709,11 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="4"/>
-        <v>77847.802734375</v>
+        <v>51898.53515625</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>19461.95068359375</v>
+        <v>12974.6337890625</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -14485,21 +14728,21 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>2.1764262748448275</v>
+        <v>1.4509508498965518</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>6.5292788245346234E-2</v>
+        <v>4.3528525496897785E-2</v>
       </c>
       <c r="I14">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B14)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>539.99999999999977</v>
+        <v>509.99999999999983</v>
       </c>
       <c r="J14">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C14)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>359.99999999999989</v>
+        <v>339.99999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -14508,11 +14751,11 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="4"/>
-        <v>116771.7041015625</v>
+        <v>77847.802734375</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>29192.926025390625</v>
+        <v>19461.95068359375</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
@@ -14527,21 +14770,21 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>2.2360543919638665</v>
+        <v>1.4907029279759112</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>5.9628117119038926E-2</v>
+        <v>3.9752078079359432E-2</v>
       </c>
       <c r="I15">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B15)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>569.99999999999977</v>
+        <v>539.99999999999977</v>
       </c>
       <c r="J15">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C15)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>379.99999999999989</v>
+        <v>359.99999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -14550,11 +14793,11 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="4"/>
-        <v>175157.55615234375</v>
+        <v>116771.7041015625</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>43789.389038085938</v>
+        <v>29192.926025390625</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
@@ -14569,21 +14812,21 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>2.2894754866524254</v>
+        <v>1.5263169911016168</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>5.3421094688558934E-2</v>
+        <v>3.5614063125705586E-2</v>
       </c>
       <c r="I16">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B16)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>599.99999999999977</v>
+        <v>569.99999999999977</v>
       </c>
       <c r="J16">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C16)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>399.99999999999989</v>
+        <v>379.99999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -14592,11 +14835,11 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="4"/>
-        <v>262736.33422851563</v>
+        <v>175157.55615234375</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>65684.083557128906</v>
+        <v>43789.389038085938</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
@@ -14611,21 +14854,21 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>2.3361994761759468</v>
+        <v>1.5574663174506311</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>4.6723989523521414E-2</v>
+        <v>3.114932634901435E-2</v>
       </c>
       <c r="I17">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B17)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>629.99999999999977</v>
+        <v>599.99999999999977</v>
       </c>
       <c r="J17">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C17)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>419.99999999999989</v>
+        <v>399.99999999999989</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -14634,11 +14877,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="4"/>
-        <v>394104.50134277344</v>
+        <v>262736.33422851563</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>98526.125335693359</v>
+        <v>65684.083557128906</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
@@ -14653,21 +14896,21 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>2.3757960774670672</v>
+        <v>1.5838640516447116</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>3.9596601291120415E-2</v>
+        <v>2.6397734194080424E-2</v>
       </c>
       <c r="I18">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B18)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>659.99999999999977</v>
+        <v>629.99999999999977</v>
       </c>
       <c r="J18">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C18)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>439.99999999999989</v>
+        <v>419.99999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -14676,11 +14919,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="4"/>
-        <v>591156.75201416016</v>
+        <v>394104.50134277344</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>147789.18800354004</v>
+        <v>98526.125335693359</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
@@ -14695,21 +14938,21 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>2.4079014298652739</v>
+        <v>1.6052676199101825</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>3.2105352398206666E-2</v>
+        <v>2.1403568265470962E-2</v>
       </c>
       <c r="I19">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B19)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>689.99999999999977</v>
+        <v>659.99999999999977</v>
       </c>
       <c r="J19">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C19)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>459.99999999999977</v>
+        <v>439.99999999999989</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -14718,11 +14961,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="4"/>
-        <v>886735.12802124023</v>
+        <v>591156.75201416016</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>221683.78200531006</v>
+        <v>147789.18800354004</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
@@ -14737,21 +14980,21 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>2.4322236665305823</v>
+        <v>1.6214824443537217</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>2.4322236665308417E-2</v>
+        <v>1.6214824443539166E-2</v>
       </c>
       <c r="I20">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B20)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>719.99999999999977</v>
+        <v>689.99999999999977</v>
       </c>
       <c r="J20">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C20)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>479.99999999999989</v>
+        <v>459.99999999999977</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -14760,11 +15003,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="4"/>
-        <v>1330102.6920318604</v>
+        <v>886735.12802124023</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>332525.67300796509</v>
+        <v>221683.78200531006</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
@@ -14779,21 +15022,21 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>2.4485473152992481</v>
+        <v>1.6323648768661654</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1.6323648768665766E-2</v>
+        <v>1.0882432512443696E-2</v>
       </c>
       <c r="I21">
         <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B21)
 +VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>749.99999999999955</v>
+        <v>719.99999999999977</v>
       </c>
       <c r="J21">
         <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C21)
 +VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
-        <v>499.99999999999977</v>
+        <v>479.99999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35551E-3E2B-4F57-BAC6-65D34083A4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9645D5-C9CB-4617-B577-B04B1B3D342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="ActorTable" sheetId="1" r:id="rId1"/>
@@ -2615,11 +2615,11 @@
             <v>SystemUI_NeedPatch</v>
           </cell>
           <cell r="B6" t="str">
-            <v>새로운 패치가 있습니다.
+            <v>새로운 패치가 있습니다._x000D_
 &lt;color=cyan&gt;와이파이&lt;/color&gt;를 사용해서 다운로드 받으시길 권장합니다.</v>
           </cell>
           <cell r="C6" t="str">
-            <v>New Patch!
+            <v>New Patch!_x000D_
 Recommended to download with &lt;color=cyan&gt;WIFI&lt;/color&gt;</v>
           </cell>
         </row>
@@ -2628,11 +2628,11 @@
             <v>SystemUI_DisconnectServer</v>
           </cell>
           <cell r="B7" t="str">
-            <v>서버와의 접속이 원활하지 않습니다.
+            <v>서버와의 접속이 원활하지 않습니다._x000D_
 프로그램을 재시작합니다.</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Bad connection
+            <v>Bad connection_x000D_
 Restarting the app</v>
           </cell>
         </row>
@@ -2652,11 +2652,13 @@
             <v>SystemUI_MainternanceDetail</v>
           </cell>
           <cell r="B9" t="str">
-            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다.
+            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다._x000D_
+_x000D_
 감사합니다.</v>
           </cell>
           <cell r="C9" t="str">
-            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable.
+            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable._x000D_
+_x000D_
 Thank you for your patience.</v>
           </cell>
         </row>
@@ -3193,11 +3195,11 @@
             <v>GameUI_BackToLobbyDescription</v>
           </cell>
           <cell r="B58" t="str">
-            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
+            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다._x000D_
 전투를 중지하시겠습니까?</v>
           </cell>
           <cell r="C58" t="str">
-            <v>You cannot get gold, items you got til now.
+            <v>You cannot get gold, items you got til now._x000D_
 Sure to quit the battle?</v>
           </cell>
         </row>
@@ -3236,540 +3238,546 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GameUI_Shop</v>
+            <v>GameUI_GameSetting</v>
           </cell>
           <cell r="B62" t="str">
-            <v>상점</v>
+            <v>게임설정</v>
           </cell>
           <cell r="C62" t="str">
-            <v>Shop</v>
+            <v>Game Setting</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GameUI_Challenge</v>
+            <v>GameUI_EmptyLevelPack</v>
           </cell>
           <cell r="B63" t="str">
-            <v>도전</v>
+            <v>획득한 전투팩이 없습니다</v>
           </cell>
           <cell r="C63" t="str">
-            <v>Challenge</v>
+            <v>Empty Battle Pack</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GameUI_Revert</v>
+            <v>GameUI_SoundFX</v>
           </cell>
           <cell r="B64" t="str">
-            <v>환원</v>
+            <v>효과음</v>
           </cell>
           <cell r="C64" t="str">
-            <v>Revert</v>
+            <v>Sound FX</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GameUI_Swappable</v>
+            <v>GameUI_Music</v>
           </cell>
           <cell r="B65" t="str">
-            <v>교체 가능</v>
+            <v>BGM</v>
           </cell>
           <cell r="C65" t="str">
-            <v>Can be swapped</v>
+            <v>BGM</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>GameUI_EnterInfo</v>
+            <v>GameUI_UltimateWithDoubleTap</v>
           </cell>
           <cell r="B66" t="str">
-            <v>입장 안내</v>
+            <v>전투 중 더블탭으로 궁극기 사용</v>
           </cell>
           <cell r="C66" t="str">
-            <v>Entry Info</v>
+            <v>Use Ultimate Skill with double-tap during battle</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>GameUI_EnterInfoDesc</v>
+            <v>GameUI_FixUltimateIcon</v>
           </cell>
           <cell r="B67" t="str">
-            <v>현재 캐릭터의 파워레벨이 부족합니다
-캐릭터를 변경하시겠습니까?</v>
+            <v>궁극기 아이콘 위치 고정</v>
           </cell>
           <cell r="C67" t="str">
-            <v>In progress of translating…(67)</v>
+            <v>Fixed Ultimate Skill position</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>GameUI_EnterRecommendDesc</v>
+            <v>GameUI_SystemSetting</v>
           </cell>
           <cell r="B68" t="str">
-            <v>더 적합한 추천 캐릭터가 있습니다
-캐릭터를 변경하시겠습니까?</v>
+            <v>시스템설정</v>
           </cell>
           <cell r="C68" t="str">
-            <v>In progress of translating…(68)</v>
+            <v>System Setting</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GameUI_ChangeCharacter</v>
+            <v>GameUI_Language</v>
           </cell>
           <cell r="B69" t="str">
-            <v>캐릭터 교체</v>
+            <v>언어</v>
           </cell>
           <cell r="C69" t="str">
-            <v>Change Chracter</v>
+            <v>Language</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GameUI_Chapter</v>
+            <v>GameUI_Language_KOR</v>
           </cell>
           <cell r="B70" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>한국어</v>
           </cell>
           <cell r="C70" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>Korean</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GameUI_ChaosMode</v>
+            <v>GameUI_Language_ENG</v>
           </cell>
           <cell r="B71" t="str">
-            <v>카오스 모드</v>
+            <v>영어</v>
           </cell>
           <cell r="C71" t="str">
-            <v>Chaos Mode</v>
+            <v>English</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GameUI_SuggestedPowerLevel</v>
+            <v>GameUI_Confirm</v>
           </cell>
           <cell r="B72" t="str">
-            <v>권장 파워레벨 {0}</v>
+            <v>확인</v>
           </cell>
           <cell r="C72" t="str">
-            <v>Recommended Power Level {0}</v>
+            <v>Confirm</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GameUI_Power</v>
+            <v>GameUI_ChangeLanguageDesc</v>
           </cell>
           <cell r="B73" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>언어를 변경하시겠습니까?</v>
           </cell>
           <cell r="C73" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>Would you change the language?</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_Suggested</v>
+            <v>GameUI_Shop</v>
           </cell>
           <cell r="B74" t="str">
-            <v>추천캐릭터</v>
+            <v>상점</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Recommended</v>
+            <v>Shop</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_FirstSwapHealNotApplied</v>
+            <v>GameUI_Challenge</v>
           </cell>
           <cell r="B75" t="str">
-            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
+            <v>도전</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Characters already in combat will not recover HP/SP</v>
+            <v>Challenge</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_NowPlayingCharacter</v>
+            <v>GameUI_Revert</v>
           </cell>
           <cell r="B76" t="str">
-            <v>현재 플레이 중인 캐릭터입니다</v>
+            <v>환원</v>
           </cell>
           <cell r="C76" t="str">
-            <v>Now playing!</v>
+            <v>Revert</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_Swappable</v>
           </cell>
           <cell r="B77" t="str">
-            <v>무적</v>
+            <v>교체 가능</v>
           </cell>
           <cell r="C77" t="str">
-            <v>INVINCIBLE</v>
+            <v>Can be swapped</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_EnterInfo</v>
           </cell>
           <cell r="B78" t="str">
-            <v>빗맞음</v>
+            <v>입장 안내</v>
           </cell>
           <cell r="C78" t="str">
-            <v>MISS</v>
+            <v>Entry Info</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_EnterInfoDesc</v>
           </cell>
           <cell r="B79" t="str">
-            <v>즉사</v>
+            <v>현재 캐릭터의 파워레벨이 부족합니다_x000D_
+_x000D_
+캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C79" t="str">
-            <v>HEADSHOT</v>
+            <v>Not enough Power Level_x000D_
+_x000D_
+Change the player?</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>GameUI_EnterRecommendDesc</v>
           </cell>
           <cell r="B80" t="str">
-            <v>불사!</v>
+            <v>더 적합한 추천 캐릭터가 있습니다_x000D_
+_x000D_
+캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C80" t="str">
-            <v>IMMORTAL!</v>
+            <v>There is a more suitable recommended chracter_x000D_
+_x000D_
+Change the player?</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ChangeCharacter</v>
           </cell>
           <cell r="B81" t="str">
-            <v>소</v>
+            <v>캐릭터 교체</v>
           </cell>
           <cell r="C81" t="str">
-            <v>Low</v>
+            <v>Change Character</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>GameUI_Chapter</v>
           </cell>
           <cell r="B82" t="str">
-            <v>중</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C82" t="str">
-            <v>Medium</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>GameUI_ChaosMode</v>
           </cell>
           <cell r="B83" t="str">
-            <v>대</v>
+            <v>카오스 모드</v>
           </cell>
           <cell r="C83" t="str">
-            <v>High</v>
+            <v>Chaos Mode</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>GameUI_SuggestedPowerLevel</v>
           </cell>
           <cell r="B84" t="str">
-            <v>극대</v>
+            <v>권장 파워레벨</v>
           </cell>
           <cell r="C84" t="str">
-            <v>Ultra</v>
+            <v>Recommended Power Level {0}</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>GameUI_NumberRange</v>
           </cell>
           <cell r="B85" t="str">
-            <v>초극대</v>
+            <v>{0}~{1}</v>
           </cell>
           <cell r="C85" t="str">
-            <v>ExtraUltra</v>
+            <v>{0}-{1}</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>PowerSourceUI_ComeHere</v>
+            <v>GameUI_Power</v>
           </cell>
           <cell r="B86" t="str">
-            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C86" t="str">
-            <v>In progress of translating…(86)</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>GameUI_Suggested</v>
           </cell>
           <cell r="B87" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>추천캐릭터</v>
           </cell>
           <cell r="C87" t="str">
-            <v>The light of life flows from the power source</v>
+            <v>Recommended</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>GameUI_FirstSwapHealNotApplied</v>
           </cell>
           <cell r="B88" t="str">
-            <v>전투팩을 선택하세요</v>
+            <v>이미 전투에 참가했던 캐릭터는 회복되지 않습니다</v>
           </cell>
           <cell r="C88" t="str">
-            <v>Choose a Battle Pack</v>
+            <v>Characters already in combat will not recover</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_NowPlayingCharacter</v>
           </cell>
           <cell r="B89" t="str">
-            <v>공격력</v>
+            <v>현재 플레이 중인 캐릭터입니다</v>
           </cell>
           <cell r="C89" t="str">
-            <v>Low Attack Boost</v>
+            <v>Now playing!</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>무적</v>
           </cell>
           <cell r="C90" t="str">
-            <v>Medium Attack Boost</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B91" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C91" t="str">
-            <v>In progress of translating…(91)</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B92" t="str">
-            <v>공격 속도</v>
+            <v>즉사</v>
           </cell>
           <cell r="C92" t="str">
-            <v>In progress of translating…(92)</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>불사!</v>
           </cell>
           <cell r="C93" t="str">
-            <v>In progress of translating…(93)</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B94" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>소</v>
           </cell>
           <cell r="C94" t="str">
-            <v>In progress of translating…(94)</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B95" t="str">
-            <v>치명타 확률</v>
+            <v>중</v>
           </cell>
           <cell r="C95" t="str">
-            <v>In progress of translating…(95)</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>대</v>
           </cell>
           <cell r="C96" t="str">
-            <v>In progress of translating…(96)</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B97" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>극대</v>
           </cell>
           <cell r="C97" t="str">
-            <v>In progress of translating…(97)</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B98" t="str">
-            <v>최대 체력</v>
+            <v>초극대</v>
           </cell>
           <cell r="C98" t="str">
-            <v>In progress of translating…(98)</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>PowerSourceUI_ComeHere</v>
           </cell>
           <cell r="B99" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
           </cell>
           <cell r="C99" t="str">
-            <v>In progress of translating…(99)</v>
+            <v>Get close to be blessed from Power Source</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B100" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>힘의 원천으로부터 눈부신 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C100" t="str">
-            <v>In progress of translating…(100)</v>
+            <v>The bright light flows from Power Source</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B101" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>전투팩을 선택하세요</v>
           </cell>
           <cell r="C101" t="str">
-            <v>In progress of translating…(101)</v>
+            <v>Choose a Battle Pack</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>GameUI_BossClearReward</v>
           </cell>
           <cell r="B102" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>보스 클리어 보상</v>
           </cell>
           <cell r="C102" t="str">
-            <v>In progress of translating…(102)</v>
+            <v>Boss Clear Reward</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>GameUI_NoHitClearReward</v>
           </cell>
           <cell r="B103" t="str">
-            <v>골드 획득량 증가</v>
+            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 클리어 보상</v>
           </cell>
           <cell r="C103" t="str">
-            <v>In progress of translating…(103)</v>
+            <v>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Clear Reward</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>GameUI_LevelPack</v>
           </cell>
           <cell r="B104" t="str">
-            <v>아이템 확률 증가</v>
+            <v>전투팩</v>
           </cell>
           <cell r="C104" t="str">
-            <v>In progress of translating…(104)</v>
+            <v>Battle Pack</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>GameUI_NoHitLevelPack</v>
           </cell>
           <cell r="B105" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 전투팩</v>
           </cell>
           <cell r="C105" t="str">
-            <v>In progress of translating…(105)</v>
+            <v>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Battle Pack</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>공격력</v>
           </cell>
           <cell r="C106" t="str">
-            <v>In progress of translating…(106)</v>
+            <v>Attack Boost</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C107" t="str">
-            <v>In progress of translating…(107)</v>
+            <v>&lt;color=#FFC080&gt;Better&lt;/color&gt; Attack Boost</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C108" t="str">
-            <v>In progress of translating…(108)</v>
+            <v>&lt;color=#FFC080&gt;Best&lt;/color&gt; Attack Boost</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C109" t="str">
-            <v>In progress of translating…(109)</v>
+            <v>Attack Speed Boost</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -3777,10 +3785,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -3788,10 +3796,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B112" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -3799,10 +3807,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B113" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C113" t="str">
             <v>In progress of translating…(113)</v>
@@ -3810,10 +3818,10 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B114" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -3821,10 +3829,10 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B115" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -3832,11 +3840,10 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B116" t="str">
-            <v>적 조우 시
-공격 속도 증가</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -3844,11 +3851,10 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B117" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
-공격 속도 증가</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
@@ -3856,10 +3862,10 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B118" t="str">
-            <v>흡혈</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -3867,10 +3873,10 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B119" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -3878,10 +3884,10 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B120" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
@@ -3889,11 +3895,10 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B121" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
-HP 리젠</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
@@ -3901,10 +3906,10 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B122" t="str">
-            <v>피격 시 반사</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C122" t="str">
             <v>In progress of translating…(122)</v>
@@ -3912,10 +3917,10 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B123" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C123" t="str">
             <v>In progress of translating…(123)</v>
@@ -3923,11 +3928,10 @@
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHp</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B124" t="str">
-            <v>HP 낮을수록
-공격력 증가</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C124" t="str">
             <v>In progress of translating…(124)</v>
@@ -3935,11 +3939,10 @@
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B125" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
-공격력 증가</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
@@ -3947,11 +3950,10 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B126" t="str">
-            <v>적 HP 낮을수록
-치명타 대미지 증가</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -3959,11 +3961,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B127" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
-치명타 대미지 증가</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -3971,10 +3972,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_InstantKill</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B128" t="str">
-            <v>일정확률로 즉사</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -3982,10 +3983,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B129" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -3993,10 +3994,10 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B130" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -4004,10 +4005,10 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B131" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -4015,10 +4016,10 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_HealOnKillBetter</v>
           </cell>
           <cell r="B132" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -4026,11 +4027,11 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B133" t="str">
-            <v>피격 시
-이동 속도 증가</v>
+            <v>적 조우 시_x000D_
+공격 속도 증가</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -4038,10 +4039,11 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
+            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B134" t="str">
-            <v>이동 중 오브 설치</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시_x000D_
+공격 속도 증가</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -4049,10 +4051,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B135" t="str">
-            <v>발사체 속도 감소</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -4060,10 +4062,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B136" t="str">
-            <v>마비 효과</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -4071,10 +4073,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_RecoverOnAttacked</v>
           </cell>
           <cell r="B137" t="str">
-            <v>이동 불가 효과</v>
+            <v>피격 시 HP 리젠</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -4082,10 +4084,11 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B138" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시_x000D_
+HP 리젠</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -4093,10 +4096,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B139" t="str">
-            <v>쉴드 소환</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -4104,10 +4107,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -4115,10 +4118,11 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>HP 낮을수록_x000D_
+공격력 증가</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -4126,10 +4130,11 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록_x000D_
+공격력 증가</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -4137,10 +4142,11 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B143" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>적 HP 낮을수록_x000D_
+치명타 대미지 증가</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -4148,10 +4154,11 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B144" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록_x000D_
+치명타 대미지 증가</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -4159,10 +4166,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B145" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -4170,10 +4177,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B146" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -4181,10 +4188,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B147" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -4192,10 +4199,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B148" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -4203,10 +4210,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
           </cell>
           <cell r="B149" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>적 조우 시 회복지대</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -4214,10 +4221,11 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B150" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>피격 시_x000D_
+이동 속도 증가</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -4225,10 +4233,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B151" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -4236,10 +4244,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B152" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -4247,10 +4255,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B153" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -4258,10 +4266,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B154" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -4269,10 +4277,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B155" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -4280,10 +4288,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B156" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -4291,10 +4299,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -4302,10 +4310,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -4313,10 +4321,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -4324,10 +4332,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -4335,10 +4343,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -4346,10 +4354,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B162" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -4357,10 +4365,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B163" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -4368,10 +4376,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B164" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -4379,10 +4387,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -4390,10 +4398,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -4401,10 +4409,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -4412,10 +4420,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B168" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -4423,10 +4431,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B169" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -4434,10 +4442,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B170" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -4445,10 +4453,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B171" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -4456,10 +4464,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B172" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -4467,10 +4475,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B173" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -4478,10 +4486,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B174" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -4489,10 +4497,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B175" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -4500,10 +4508,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B176" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -4511,10 +4519,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B177" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -4522,10 +4530,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B178" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -4533,10 +4541,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B179" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -4544,10 +4552,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B180" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -4555,10 +4563,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B181" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -4566,10 +4574,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B182" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -4577,10 +4585,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B183" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -4588,10 +4596,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B184" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -4599,10 +4607,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B185" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -4610,10 +4618,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B186" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -4621,10 +4629,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B187" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -4632,10 +4640,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B188" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -4643,10 +4651,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B189" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -4654,10 +4662,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B190" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -4665,10 +4673,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -4676,10 +4684,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter2Name</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야2</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -4687,10 +4695,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter3Name</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야3</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -4698,10 +4706,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter4Name</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야4</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -4709,10 +4717,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter5Name</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야5</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -4720,10 +4728,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter6Name</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야6</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -4731,10 +4739,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter7Name</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야7</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -4742,10 +4750,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter8Name</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야8</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -4753,10 +4761,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter9Name</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야9</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -4764,10 +4772,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter10Name</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야10</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -4775,10 +4783,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter11Name</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야11</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -4786,10 +4794,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter12Name</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야12</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -4797,10 +4805,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter13Name</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야13</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -4808,10 +4816,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter14Name</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야14</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -4819,10 +4827,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter15Name</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야15</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -4830,10 +4838,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter16Name</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야16</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -4841,10 +4849,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter17Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야17</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -4852,10 +4860,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -4863,10 +4871,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -4874,10 +4882,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -4885,10 +4893,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -4896,10 +4904,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -4907,10 +4915,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -4918,10 +4926,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -4929,10 +4937,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -4940,10 +4948,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -4951,10 +4959,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B217" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -4962,10 +4970,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B218" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -4973,10 +4981,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B219" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -4984,10 +4992,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B220" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -4995,10 +5003,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -5006,10 +5014,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B222" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -5017,10 +5025,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B223" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -5028,10 +5036,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -5039,10 +5047,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B225" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -5050,10 +5058,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B226" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -5061,10 +5069,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -5072,10 +5080,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -5083,10 +5091,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -5094,10 +5102,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -5105,10 +5113,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -5116,10 +5124,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -5127,10 +5135,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -5138,10 +5146,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -5149,10 +5157,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -5160,10 +5168,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -5171,10 +5179,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -5182,10 +5190,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -5193,10 +5201,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -5204,10 +5212,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -5215,10 +5223,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -5226,10 +5234,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -5237,10 +5245,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -5248,10 +5256,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -5259,10 +5267,10 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
             <v>In progress of translating…(245)</v>
@@ -5270,10 +5278,10 @@
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B246" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C246" t="str">
             <v>In progress of translating…(246)</v>
@@ -5281,10 +5289,10 @@
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B247" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C247" t="str">
             <v>In progress of translating…(247)</v>
@@ -5292,10 +5300,10 @@
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B248" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C248" t="str">
             <v>In progress of translating…(248)</v>
@@ -5303,22 +5311,21 @@
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B249" t="str">
-            <v>간파울</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C249" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(249)</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>CharDesc_Ganfaul</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B250" t="str">
-            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
-강력한 단일 공격을 사용한다</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C250" t="str">
             <v>In progress of translating…(250)</v>
@@ -5326,22 +5333,21 @@
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>CharName_KeepSeries</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B251" t="str">
-            <v>킵시리즈</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C251" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(251)</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>CharDesc_KeepSeries</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B252" t="str">
-            <v>킵시리즈의 설명 우다다다
-간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C252" t="str">
             <v>In progress of translating…(252)</v>
@@ -5349,22 +5355,21 @@
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>CharName_BigBatSuccubus</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B253" t="str">
-            <v>빅뱃서큐버스</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C253" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(253)</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254" t="str">
-            <v>CharDesc_BigBatSuccubus</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B254" t="str">
-            <v>빅뱃서큐버스의 설명 우다다다
-연타 공격을 사용한다</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C254" t="str">
             <v>In progress of translating…(254)</v>
@@ -5372,22 +5377,21 @@
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>CharName_Bei</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B255" t="str">
-            <v>베이</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C255" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(255)</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>CharDesc_Bei</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B256" t="str">
-            <v>베이의 설명 우다다다
-장판 공격을 사용한다</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C256" t="str">
             <v>In progress of translating…(256)</v>
@@ -5395,43 +5399,43 @@
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>BossName_SlimeRabbit</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B257" t="str">
-            <v>초록 토끼귀 슬라임</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C257" t="str">
-            <v>Green Rabbit Slime</v>
+            <v>In progress of translating…(257)</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B258" t="str">
-            <v>붉은 토끼귀 슬라임</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C258" t="str">
-            <v>Red Rabbit Slime</v>
+            <v>In progress of translating…(258)</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>BossName_TerribleStump_Purple</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B259" t="str">
-            <v>나무귀신</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C259" t="str">
-            <v>Terrible Stump</v>
+            <v>In progress of translating…(259)</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B260" t="str">
-            <v>외뿔 풍뎅이</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C260" t="str">
             <v>In progress of translating…(260)</v>
@@ -5439,37 +5443,43 @@
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>BossName_SpiritKing</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B261" t="str">
-            <v>스피릿 킹</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C261" t="str">
-            <v>Spirit King</v>
+            <v>In progress of translating…(261)</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262" t="str">
-            <v>BossDesc_SlimeRabbit</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B262" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>In progress of translating…(262)</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B263" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>In progress of translating…(263)</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B264" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C264" t="str">
             <v>In progress of translating…(264)</v>
@@ -5477,10 +5487,10 @@
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B265" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C265" t="str">
             <v>In progress of translating…(265)</v>
@@ -5488,18 +5498,23 @@
         </row>
         <row r="266">
           <cell r="A266" t="str">
-            <v>BossDesc_SpiritKing</v>
+            <v>CharName_Ganfaul</v>
           </cell>
           <cell r="B266" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+            <v>간파울</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>Ganfaul</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>CharDesc_Ganfaul</v>
           </cell>
           <cell r="B267" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다._x000D_
+_x000D_
+강력한 단일 공격을 사용한다</v>
           </cell>
           <cell r="C267" t="str">
             <v>In progress of translating…(267)</v>
@@ -5507,21 +5522,23 @@
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>CharName_KeepSeries</v>
           </cell>
           <cell r="B268" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>킵시리즈</v>
           </cell>
           <cell r="C268" t="str">
-            <v>In progress of translating…(268)</v>
+            <v>KeepSeries</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>CharDesc_KeepSeries</v>
           </cell>
           <cell r="B269" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>킵시리즈의 설명 우다다다_x000D_
+_x000D_
+간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
           <cell r="C269" t="str">
             <v>In progress of translating…(269)</v>
@@ -5529,21 +5546,23 @@
         </row>
         <row r="270">
           <cell r="A270" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>CharName_BigBatSuccubus</v>
           </cell>
           <cell r="B270" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>빅뱃서큐버스</v>
           </cell>
           <cell r="C270" t="str">
-            <v>In progress of translating…(270)</v>
+            <v>BigBatSuccubus</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>CharDesc_BigBatSuccubus</v>
           </cell>
           <cell r="B271" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>빅뱃서큐버스의 설명 우다다다_x000D_
+_x000D_
+연타 공격을 사용한다</v>
           </cell>
           <cell r="C271" t="str">
             <v>In progress of translating…(271)</v>
@@ -5551,13 +5570,202 @@
         </row>
         <row r="272">
           <cell r="A272" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B272" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273" t="str">
+            <v>CharDesc_Bei</v>
+          </cell>
+          <cell r="B273" t="str">
+            <v>베이의 설명 우다다다_x000D_
+_x000D_
+장판 공격을 사용한다</v>
+          </cell>
+          <cell r="C273" t="str">
+            <v>In progress of translating…(273)</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274" t="str">
+            <v>BossName_SlimeRabbit</v>
+          </cell>
+          <cell r="B274" t="str">
+            <v>초록 토끼귀 슬라임</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v>Green Rabbit Slime</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275" t="str">
+            <v>BossName_SlimeRabbit_Red</v>
+          </cell>
+          <cell r="B275" t="str">
+            <v>붉은 토끼귀 슬라임</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v>Red Rabbit Slime</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276" t="str">
+            <v>BossName_TerribleStump_Purple</v>
+          </cell>
+          <cell r="B276" t="str">
+            <v>나무귀신</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v>Terrible Stump</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277" t="str">
+            <v>BossName_PolygonalMetalon_Red</v>
+          </cell>
+          <cell r="B277" t="str">
+            <v>외뿔 풍뎅이</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v>In progress of translating…(277)</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278" t="str">
+            <v>BossName_SpiritKing</v>
+          </cell>
+          <cell r="B278" t="str">
+            <v>스피릿 킹</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v>Spirit King</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279" t="str">
+            <v>BossDesc_SlimeRabbit</v>
+          </cell>
+          <cell r="B279" t="str">
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v>In progress of translating…(279)</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280" t="str">
+            <v>BossDesc_SlimeRabbit_Red</v>
+          </cell>
+          <cell r="B280" t="str">
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v>In progress of translating…(280)</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281" t="str">
+            <v>BossDesc_TerribleStump_Purple</v>
+          </cell>
+          <cell r="B281" t="str">
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v>In progress of translating…(281)</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282" t="str">
+            <v>BossDesc_PolygonalMetalon_Red</v>
+          </cell>
+          <cell r="B282" t="str">
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v>In progress of translating…(282)</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283" t="str">
+            <v>BossDesc_SpiritKing</v>
+          </cell>
+          <cell r="B283" t="str">
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v>In progress of translating…(283)</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284" t="str">
+            <v>PenaltyUIName_One</v>
+          </cell>
+          <cell r="B284" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v>In progress of translating…(284)</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285" t="str">
+            <v>PenaltyUIMind_One</v>
+          </cell>
+          <cell r="B285" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v>In progress of translating…(285)</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286" t="str">
+            <v>PenaltyUIRepre_OneOfTwo</v>
+          </cell>
+          <cell r="B286" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v>In progress of translating…(286)</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287" t="str">
+            <v>PenaltyUIName_Two</v>
+          </cell>
+          <cell r="B287" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v>In progress of translating…(287)</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288" t="str">
+            <v>PenaltyUIMind_Two</v>
+          </cell>
+          <cell r="B288" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v>In progress of translating…(288)</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289" t="str">
             <v>PenaltyUIRepre_TwoOfFour</v>
           </cell>
-          <cell r="B272" t="str">
+          <cell r="B289" t="str">
             <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
           </cell>
-          <cell r="C272" t="str">
-            <v>In progress of translating…(272)</v>
+          <cell r="C289" t="str">
+            <v>In progress of translating…(289)</v>
           </cell>
         </row>
       </sheetData>
@@ -5627,18 +5835,9 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>idForVlookup|String</v>
-          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -5666,11 +5865,11 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="F2" t="str">
-            <v>공격 어펙터의 가중치를 확률에 곱하여 적용 후 히트오브젝트를 부여함
-가중치가 1보다 크면 1로 하여 확률을 더 높이지 않고 사용</v>
+            <v>텔레포팅을 하는 히트오브젝트를 부여함(캐릭전용) 맵에 적이 하나 남으면 발동 안 됨
+맵에 적이 하나도 없으면 먼저 보낸 순서대로 하나가 바로 소환된다</v>
           </cell>
           <cell r="G2"/>
           <cell r="H2"/>
@@ -11818,7 +12017,7 @@
             <v/>
           </cell>
           <cell r="I318">
-            <v>3</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="319">
@@ -11838,7 +12037,7 @@
             <v/>
           </cell>
           <cell r="I319">
-            <v>3.5</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="320">
@@ -11858,7 +12057,7 @@
             <v/>
           </cell>
           <cell r="I320">
-            <v>4</v>
+            <v>2.1</v>
           </cell>
         </row>
         <row r="321">
@@ -11878,7 +12077,7 @@
             <v/>
           </cell>
           <cell r="I321">
-            <v>4.5</v>
+            <v>2.4</v>
           </cell>
         </row>
         <row r="322">
@@ -11898,7 +12097,7 @@
             <v/>
           </cell>
           <cell r="I322">
-            <v>5</v>
+            <v>2.7</v>
           </cell>
         </row>
         <row r="323">
@@ -12532,7 +12731,7 @@
             <v>SpDecreaseRate</v>
           </cell>
           <cell r="C6">
-            <v>0.7</v>
+            <v>0.3</v>
           </cell>
         </row>
         <row r="7">
@@ -12906,19 +13105,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.75" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
     <col min="19" max="19" width="19.25" customWidth="1"/>
     <col min="20" max="20" width="15.625" customWidth="1"/>
   </cols>
@@ -13010,7 +13209,8 @@
 IFERROR(VLOOKUP(C2,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C2,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$B$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+        <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다._x000D_
+_x000D_
 강력한 단일 공격을 사용한다</v>
       </c>
       <c r="F2">
@@ -13091,7 +13291,8 @@
 IFERROR(VLOOKUP(C3,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C3,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$B$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>킵시리즈의 설명 우다다다
+        <v>킵시리즈의 설명 우다다다_x000D_
+_x000D_
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
       </c>
       <c r="F3">
@@ -13172,7 +13373,8 @@
 IFERROR(VLOOKUP(C4,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C4,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$B$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>빅뱃서큐버스의 설명 우다다다
+        <v>빅뱃서큐버스의 설명 우다다다_x000D_
+_x000D_
 연타 공격을 사용한다</v>
       </c>
       <c r="F4">
@@ -13195,7 +13397,7 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -13206,7 +13408,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>1.41</v>
+        <v>1.8128571428571429</v>
       </c>
       <c r="O4">
         <v>3.5</v>
@@ -13218,7 +13420,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S4" t="s">
         <v>36</v>
@@ -13253,7 +13455,8 @@
 IFERROR(VLOOKUP(C5,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C5,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$B$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>베이의 설명 우다다다
+        <v>베이의 설명 우다다다_x000D_
+_x000D_
 장판 공격을 사용한다</v>
       </c>
       <c r="F5">
@@ -14117,7 +14320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87214D-1A43-40DA-9E02-1F2E1AE17FC3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14166,7 +14371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7891103-E659-4FB7-ABB7-FDA905A379A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09990EE6-A62E-4035-9AAB-FA2AEAE63181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2532,6 +2532,4167 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="InApkStringTable"/>
+      <sheetName val="StringTable"/>
+      <sheetName val="FontTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>중복카운트</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>kor|String</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>eng|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>CommonUI_Ok</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>확인</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OK</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CommonUI_Cancel</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>취소</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Cancel</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CommonUI_Yes</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>예</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Yes</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CommonUI_No</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>아니오</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>No</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SystemUI_NeedPatch</v>
+          </cell>
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>새로운 패치가 있습니다.
+&lt;color=cyan&gt;와이파이&lt;/color&gt;를 사용해서 다운로드 받으시길 권장합니다.</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>New Patch!
+Recommended to download with &lt;color=cyan&gt;WIFI&lt;/color&gt;</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SystemUI_DisconnectServer</v>
+          </cell>
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>서버와의 접속이 원활하지 않습니다.
+프로그램을 재시작합니다.</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Bad connection
+Restarting the app</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SystemUI_Mainternance</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>서버 점검 중입니다.</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>We're on a mainternance</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>SystemUI_MainternanceDetail</v>
+          </cell>
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다.
+감사합니다.</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable.
+Thank you for your patience.</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>SystemUI_Downloading</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>다운로드 중</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Downloading</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>GameUI_RomanNumber1</v>
+          </cell>
+          <cell r="B11">
+            <v>1</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>I</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>I</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>GameUI_RomanNumber2</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>II</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>II</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>GameUI_RomanNumber3</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>III</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>III</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>GameUI_RomanNumber4</v>
+          </cell>
+          <cell r="B14">
+            <v>1</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>IV</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>IV</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>GameUI_RomanNumber5</v>
+          </cell>
+          <cell r="B15">
+            <v>1</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>GameUI_RomanNumber6</v>
+          </cell>
+          <cell r="B16">
+            <v>1</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>VI</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>VI</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>GameUI_RomanNumber7</v>
+          </cell>
+          <cell r="B17">
+            <v>1</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>VII</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>VII</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>GameUI_RomanNumber8</v>
+          </cell>
+          <cell r="B18">
+            <v>1</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>VIII</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>VIII</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>GameUI_RomanNumber9</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>IX</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>IX</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>GameUI_RomanNumber10</v>
+          </cell>
+          <cell r="B20">
+            <v>1</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>X</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>GameUI_RomanNumber11</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>XI</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>XI</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>GameUI_RomanNumber12</v>
+          </cell>
+          <cell r="B22">
+            <v>1</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>XII</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>XII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>GameUI_RomanNumber13</v>
+          </cell>
+          <cell r="B23">
+            <v>1</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>XIII</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>XIII</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>GameUI_RomanNumber14</v>
+          </cell>
+          <cell r="B24">
+            <v>1</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>XIV</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>XIV</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>GameUI_RomanNumber15</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>XV</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>XV</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>GameUI_RomanNumber16</v>
+          </cell>
+          <cell r="B26">
+            <v>1</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>XVI</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>XVI</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>GameUI_RomanNumber17</v>
+          </cell>
+          <cell r="B27">
+            <v>1</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>XVII</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>XVII</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>GameUI_RomanNumber18</v>
+          </cell>
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>XVIII</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>XVIII</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>GameUI_RomanNumber19</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>XIX</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>XIX</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>GameUI_RomanNumber20</v>
+          </cell>
+          <cell r="B30">
+            <v>1</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>XX</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>XX</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>GameUI_RomanNumber21</v>
+          </cell>
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>XXI</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>XXI</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>GameUI_RomanNumber22</v>
+          </cell>
+          <cell r="B32">
+            <v>1</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>XXII</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>XXII</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>GameUI_RomanNumber23</v>
+          </cell>
+          <cell r="B33">
+            <v>1</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>XXIII</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>XXIII</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>GameUI_RomanNumber24</v>
+          </cell>
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>XXIV</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>XXIV</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>GameUI_RomanNumber25</v>
+          </cell>
+          <cell r="B35">
+            <v>1</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>XXV</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>XXV</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>GameUI_RomanNumber26</v>
+          </cell>
+          <cell r="B36">
+            <v>1</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>XXVI</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>XXVI</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>GameUI_RomanNumber27</v>
+          </cell>
+          <cell r="B37">
+            <v>1</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>XXVII</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>XXVII</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>GameUI_RomanNumber28</v>
+          </cell>
+          <cell r="B38">
+            <v>1</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>XXVIII</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>XXVIII</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>GameUI_RomanNumber29</v>
+          </cell>
+          <cell r="B39">
+            <v>1</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>XXIX</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>XXIX</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>GameUI_RomanNumber30</v>
+          </cell>
+          <cell r="B40">
+            <v>1</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>XXX</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>XXX</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>GameUI_Magic</v>
+          </cell>
+          <cell r="B41">
+            <v>1</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>마법</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Magic</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>GameUI_Machine</v>
+          </cell>
+          <cell r="B42">
+            <v>1</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>기계</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Machine</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>GameUI_Nature</v>
+          </cell>
+          <cell r="B43">
+            <v>1</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>자연</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Nature</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>GameUI_Qigong</v>
+          </cell>
+          <cell r="B44">
+            <v>1</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>기공</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Qigong</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>GameUI_CharGrade0</v>
+          </cell>
+          <cell r="B45">
+            <v>1</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>일반</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Normal</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>GameUI_CharGrade1</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>영웅</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Heroic</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>GameUI_CharGrade2</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>전설</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Legendary</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>GameUI_EquipGrade0</v>
+          </cell>
+          <cell r="B48">
+            <v>1</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>일반</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Normal</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>GameUI_EquipGrade1</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>희귀</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Rare</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>GameUI_EquipGrade2</v>
+          </cell>
+          <cell r="B50">
+            <v>1</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>영웅</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Heroic</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>GameUI_EquipGrade3</v>
+          </cell>
+          <cell r="B51">
+            <v>1</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>에픽</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Epic</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>GameUI_EquipGrade4</v>
+          </cell>
+          <cell r="B52">
+            <v>1</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>전설</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Legendary</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>GameUI_Lv</v>
+          </cell>
+          <cell r="B53">
+            <v>1</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Lv. {0}</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Lv. {0}</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>GameUI_LevelPackLv</v>
+          </cell>
+          <cell r="B54">
+            <v>1</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>GameUI_ExitGame</v>
+          </cell>
+          <cell r="B55">
+            <v>1</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>GameUI_ExitGameDescription</v>
+          </cell>
+          <cell r="B56">
+            <v>1</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>게임을 종료하시겠습니까?</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Quit the game?</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>GameUI_BackToLobby</v>
+          </cell>
+          <cell r="B57">
+            <v>1</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>GameUI_BackToLobbyDescription</v>
+          </cell>
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
+전투를 중지하시겠습니까?</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>You cannot get gold, items you got til now.
+Sure to quit the battle?</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>GameUI_TouchToMove</v>
+          </cell>
+          <cell r="B59">
+            <v>1</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>터치하여 이동하세요</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Touch to move</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>GameUI_BossReady</v>
+          </cell>
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>보스에 대비하세요</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Prepare for the boss</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>GameUI_PossibleAfterTraining</v>
+          </cell>
+          <cell r="B61">
+            <v>1</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>훈련 챕터 클리어 후 진행 가능</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>Possible to play after the training chapter</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>GameUI_GameSetting</v>
+          </cell>
+          <cell r="B62">
+            <v>1</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>게임설정</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Game Setting</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>GameUI_EmptyLevelPack</v>
+          </cell>
+          <cell r="B63">
+            <v>1</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>획득한 전투팩이 없습니다</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Empty Battle Pack</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>GameUI_SoundFX</v>
+          </cell>
+          <cell r="B64">
+            <v>1</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>효과음</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Sound FX</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>GameUI_Music</v>
+          </cell>
+          <cell r="B65">
+            <v>1</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>BGM</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>BGM</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>GameUI_UltimateWithDoubleTap</v>
+          </cell>
+          <cell r="B66">
+            <v>1</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>전투 중 더블탭으로 궁극기 사용</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Use Ultimate Skill with double-tap during battle</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>GameUI_FixUltimateIcon</v>
+          </cell>
+          <cell r="B67">
+            <v>1</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>궁극기 아이콘 위치 고정</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Fixed Ultimate Skill position</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>GameUI_SystemSetting</v>
+          </cell>
+          <cell r="B68">
+            <v>1</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>시스템설정</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>System Setting</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>GameUI_Language</v>
+          </cell>
+          <cell r="B69">
+            <v>1</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>언어</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Language</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>GameUI_Language_KOR</v>
+          </cell>
+          <cell r="B70">
+            <v>1</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>한국어</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Korean</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>GameUI_Language_ENG</v>
+          </cell>
+          <cell r="B71">
+            <v>1</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>영어</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>English</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>GameUI_Confirm</v>
+          </cell>
+          <cell r="B72">
+            <v>1</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>확인</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Confirm</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>GameUI_ChangeLanguageDesc</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>언어를 변경하시겠습니까?</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>Would you change the language?</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>GameUI_Shop</v>
+          </cell>
+          <cell r="B74">
+            <v>1</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>상점</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>Shop</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>GameUI_Challenge</v>
+          </cell>
+          <cell r="B75">
+            <v>1</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>도전</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>Challenge</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>GameUI_Revert</v>
+          </cell>
+          <cell r="B76">
+            <v>1</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>환원</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>Revert</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>GameUI_Swappable</v>
+          </cell>
+          <cell r="B77">
+            <v>1</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>교체 가능</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>Can be swapped</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>GameUI_EnterInfo</v>
+          </cell>
+          <cell r="B78">
+            <v>1</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>입장 안내</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>Entry Info</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>GameUI_EnterInfoDesc</v>
+          </cell>
+          <cell r="B79">
+            <v>1</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>현재 캐릭터의 파워레벨이 부족합니다
+캐릭터를 변경하시겠습니까?</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>Not enough Power Level
+Change the player?</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>GameUI_EnterRecommendDesc</v>
+          </cell>
+          <cell r="B80">
+            <v>1</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>더 적합한 추천 캐릭터가 있습니다
+캐릭터를 변경하시겠습니까?</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>There is a more suitable recommended chracter
+Change the player?</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>GameUI_ChangeCharacter</v>
+          </cell>
+          <cell r="B81">
+            <v>1</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>캐릭터 교체</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>Change Character</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>GameUI_Chapter</v>
+          </cell>
+          <cell r="B82">
+            <v>1</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>GameUI_ChaosMode</v>
+          </cell>
+          <cell r="B83">
+            <v>1</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>카오스 모드</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>Chaos Mode</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>GameUI_SuggestedPowerLevel</v>
+          </cell>
+          <cell r="B84">
+            <v>1</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>권장 파워레벨</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>Recommended Power Level {0}</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>GameUI_NumberRange</v>
+          </cell>
+          <cell r="B85">
+            <v>1</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>{0}~{1}</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>{0}-{1}</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>GameUI_Power</v>
+          </cell>
+          <cell r="B86">
+            <v>1</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>GameUI_Suggested</v>
+          </cell>
+          <cell r="B87">
+            <v>1</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>추천캐릭터</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>Recommended</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>GameUI_FirstSwapHealNotApplied</v>
+          </cell>
+          <cell r="B88">
+            <v>1</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>이미 전투에 참가했던 캐릭터는 회복되지 않습니다</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>Characters already in combat will not recover</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>GameUI_NowPlayingCharacter</v>
+          </cell>
+          <cell r="B89">
+            <v>1</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>현재 플레이 중인 캐릭터입니다</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>Now playing!</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>GameUI_Invincible</v>
+          </cell>
+          <cell r="B90">
+            <v>1</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>무적</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>INVINCIBLE</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>GameUI_Miss</v>
+          </cell>
+          <cell r="B91">
+            <v>1</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>빗맞음</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>MISS</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>GameUI_Headshot</v>
+          </cell>
+          <cell r="B92">
+            <v>1</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>즉사</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>HEADSHOT</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>GameUI_ImmortalWill</v>
+          </cell>
+          <cell r="B93">
+            <v>1</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>불사!</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>IMMORTAL!</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>TimeSpaceUI_Low</v>
+          </cell>
+          <cell r="B94">
+            <v>1</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>소</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>Low</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>TimeSpaceUI_Medium</v>
+          </cell>
+          <cell r="B95">
+            <v>1</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>중</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>Medium</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>TimeSpaceUI_High</v>
+          </cell>
+          <cell r="B96">
+            <v>1</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>대</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>High</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>TimeSpaceUI_Ultra</v>
+          </cell>
+          <cell r="B97">
+            <v>1</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>극대</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>Ultra</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>TimeSpaceUI_ExtraUltra</v>
+          </cell>
+          <cell r="B98">
+            <v>1</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>초극대</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>ExtraUltra</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>PowerSourceUI_ComeHere</v>
+          </cell>
+          <cell r="B99">
+            <v>1</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>Get close to be blessed from Power Source</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>PowerSourceUI_Heal</v>
+          </cell>
+          <cell r="B100">
+            <v>1</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>힘의 원천으로부터 눈부신 빛이 흘러나옵니다</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>The bright light flows from Power Source</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>GameUI_SelectLevelPack</v>
+          </cell>
+          <cell r="B101">
+            <v>1</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>전투팩을 선택하세요</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>Choose a Battle Pack</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>GameUI_BossClearReward</v>
+          </cell>
+          <cell r="B102">
+            <v>1</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>보스 클리어 보상</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>Boss Clear Reward</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>GameUI_NoHitClearReward</v>
+          </cell>
+          <cell r="B103">
+            <v>1</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 클리어 보상</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Clear Reward</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>GameUI_LevelPack</v>
+          </cell>
+          <cell r="B104">
+            <v>1</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>전투팩</v>
+          </cell>
+          <cell r="D104" t="str">
+            <v>Battle Pack</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>GameUI_NoHitLevelPack</v>
+          </cell>
+          <cell r="B105">
+            <v>1</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 전투팩</v>
+          </cell>
+          <cell r="D105" t="str">
+            <v>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Battle Pack</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>LevelPackUIName_Atk</v>
+          </cell>
+          <cell r="B106">
+            <v>1</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>공격력</v>
+          </cell>
+          <cell r="D106" t="str">
+            <v>Attack Boost</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>LevelPackUIName_AtkBetter</v>
+          </cell>
+          <cell r="B107">
+            <v>1</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>&lt;color=#FFC080&gt;Better&lt;/color&gt; Attack Boost</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>LevelPackUIName_AtkBest</v>
+          </cell>
+          <cell r="B108">
+            <v>1</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>&lt;color=#FFC080&gt;Best&lt;/color&gt; Attack Boost</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>LevelPackUIName_AtkSpeed</v>
+          </cell>
+          <cell r="B109">
+            <v>1</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>공격 속도</v>
+          </cell>
+          <cell r="D109" t="str">
+            <v>Attack Speed Boost</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>LevelPackUIName_AtkSpeedBetter</v>
+          </cell>
+          <cell r="B110">
+            <v>1</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>In progress of translating…(110)</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>LevelPackUIName_AtkSpeedBest</v>
+          </cell>
+          <cell r="B111">
+            <v>1</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>In progress of translating…(111)</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>LevelPackUIName_Crit</v>
+          </cell>
+          <cell r="B112">
+            <v>1</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>치명타 확률</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>In progress of translating…(112)</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>LevelPackUIName_CritBetter</v>
+          </cell>
+          <cell r="B113">
+            <v>1</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>In progress of translating…(113)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>LevelPackUIName_CritBest</v>
+          </cell>
+          <cell r="B114">
+            <v>1</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+          </cell>
+          <cell r="D114" t="str">
+            <v>In progress of translating…(114)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>LevelPackUIName_MaxHp</v>
+          </cell>
+          <cell r="B115">
+            <v>1</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>최대 체력</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>In progress of translating…(115)</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>LevelPackUIName_MaxHpBetter</v>
+          </cell>
+          <cell r="B116">
+            <v>1</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>In progress of translating…(116)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>LevelPackUIName_MaxHpBest</v>
+          </cell>
+          <cell r="B117">
+            <v>1</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+          </cell>
+          <cell r="D117" t="str">
+            <v>In progress of translating…(117)</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
+          </cell>
+          <cell r="B118">
+            <v>1</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>발사체 대미지 감소</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>In progress of translating…(118)</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>LevelPackUIName_ReduceDmgClose</v>
+          </cell>
+          <cell r="B119">
+            <v>1</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>충돌 대미지 감소</v>
+          </cell>
+          <cell r="D119" t="str">
+            <v>In progress of translating…(119)</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>LevelPackUIName_ExtraGold</v>
+          </cell>
+          <cell r="B120">
+            <v>1</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>골드 획득량 증가</v>
+          </cell>
+          <cell r="D120" t="str">
+            <v>In progress of translating…(120)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>LevelPackUIName_ItemChanceBoost</v>
+          </cell>
+          <cell r="B121">
+            <v>1</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>아이템 확률 증가</v>
+          </cell>
+          <cell r="D121" t="str">
+            <v>In progress of translating…(121)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>LevelPackUIName_HealChanceBoost</v>
+          </cell>
+          <cell r="B122">
+            <v>1</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>회복구슬 확률 증가</v>
+          </cell>
+          <cell r="D122" t="str">
+            <v>In progress of translating…(122)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>LevelPackUIName_MonsterThrough</v>
+          </cell>
+          <cell r="B123">
+            <v>1</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>LevelPackUIName_Ricochet</v>
+          </cell>
+          <cell r="B124">
+            <v>1</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D124" t="str">
+            <v>In progress of translating…(124)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>LevelPackUIName_BounceWallQuad</v>
+          </cell>
+          <cell r="B125">
+            <v>1</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D125" t="str">
+            <v>In progress of translating…(125)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>LevelPackUIName_Parallel</v>
+          </cell>
+          <cell r="B126">
+            <v>1</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D126" t="str">
+            <v>In progress of translating…(126)</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="B127">
+            <v>1</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D127" t="str">
+            <v>In progress of translating…(127)</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="B128">
+            <v>1</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D128" t="str">
+            <v>In progress of translating…(128)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>LevelPackUIName_BackNwayGenerator</v>
+          </cell>
+          <cell r="B129">
+            <v>1</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+          </cell>
+          <cell r="D129" t="str">
+            <v>In progress of translating…(129)</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>LevelPackUIName_Repeat</v>
+          </cell>
+          <cell r="B130">
+            <v>1</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+          </cell>
+          <cell r="D130" t="str">
+            <v>In progress of translating…(130)</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>LevelPackUIName_HealOnKill</v>
+          </cell>
+          <cell r="B131">
+            <v>1</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="D131" t="str">
+            <v>In progress of translating…(131)</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B132">
+            <v>1</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="D132" t="str">
+            <v>In progress of translating…(132)</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
+          </cell>
+          <cell r="B133">
+            <v>1</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>적 조우 시
+공격 속도 증가</v>
+          </cell>
+          <cell r="D133" t="str">
+            <v>In progress of translating…(133)</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
+          </cell>
+          <cell r="B134">
+            <v>1</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
+공격 속도 증가</v>
+          </cell>
+          <cell r="D134" t="str">
+            <v>In progress of translating…(134)</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>LevelPackUIName_VampireOnAttack</v>
+          </cell>
+          <cell r="B135">
+            <v>1</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>흡혈</v>
+          </cell>
+          <cell r="D135" t="str">
+            <v>In progress of translating…(135)</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
+          </cell>
+          <cell r="B136">
+            <v>1</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+          </cell>
+          <cell r="D136" t="str">
+            <v>In progress of translating…(136)</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B137">
+            <v>1</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="D137" t="str">
+            <v>In progress of translating…(137)</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
+          </cell>
+          <cell r="B138">
+            <v>1</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
+HP 리젠</v>
+          </cell>
+          <cell r="D138" t="str">
+            <v>In progress of translating…(138)</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>LevelPackUIName_ReflectOnAttacked</v>
+          </cell>
+          <cell r="B139">
+            <v>1</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>피격 시 반사</v>
+          </cell>
+          <cell r="D139" t="str">
+            <v>In progress of translating…(139)</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B140">
+            <v>1</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="D140" t="str">
+            <v>In progress of translating…(140)</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>LevelPackUIName_AtkUpOnLowerHp</v>
+          </cell>
+          <cell r="B141">
+            <v>1</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>HP 낮을수록
+공격력 증가</v>
+          </cell>
+          <cell r="D141" t="str">
+            <v>In progress of translating…(141)</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B142">
+            <v>1</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
+공격력 증가</v>
+          </cell>
+          <cell r="D142" t="str">
+            <v>In progress of translating…(142)</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
+          </cell>
+          <cell r="B143">
+            <v>1</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>적 HP 낮을수록
+치명타 대미지 증가</v>
+          </cell>
+          <cell r="D143" t="str">
+            <v>In progress of translating…(143)</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B144">
+            <v>1</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
+치명타 대미지 증가</v>
+          </cell>
+          <cell r="D144" t="str">
+            <v>In progress of translating…(144)</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>LevelPackUIName_InstantKill</v>
+          </cell>
+          <cell r="B145">
+            <v>1</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>일정확률로 즉사</v>
+          </cell>
+          <cell r="D145" t="str">
+            <v>In progress of translating…(145)</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>LevelPackUIName_InstantKillBetter</v>
+          </cell>
+          <cell r="B146">
+            <v>1</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+          </cell>
+          <cell r="D146" t="str">
+            <v>In progress of translating…(146)</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>LevelPackUIName_ImmortalWill</v>
+          </cell>
+          <cell r="B147">
+            <v>1</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>불사의 의지</v>
+          </cell>
+          <cell r="D147" t="str">
+            <v>In progress of translating…(147)</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>LevelPackUIName_ImmortalWillBetter</v>
+          </cell>
+          <cell r="B148">
+            <v>1</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+          </cell>
+          <cell r="D148" t="str">
+            <v>In progress of translating…(148)</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B149">
+            <v>1</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="D149" t="str">
+            <v>In progress of translating…(149)</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
+          </cell>
+          <cell r="B150">
+            <v>1</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>피격 시
+이동 속도 증가</v>
+          </cell>
+          <cell r="D150" t="str">
+            <v>In progress of translating…(150)</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>LevelPackUIName_MineOnMove</v>
+          </cell>
+          <cell r="B151">
+            <v>1</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>이동 중 오브 설치</v>
+          </cell>
+          <cell r="D151" t="str">
+            <v>In progress of translating…(151)</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>LevelPackUIName_SlowHitObject</v>
+          </cell>
+          <cell r="B152">
+            <v>1</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>발사체 속도 감소</v>
+          </cell>
+          <cell r="D152" t="str">
+            <v>In progress of translating…(152)</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>LevelPackUIName_Paralyze</v>
+          </cell>
+          <cell r="B153">
+            <v>1</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>마비 효과</v>
+          </cell>
+          <cell r="D153" t="str">
+            <v>In progress of translating…(153)</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>LevelPackUIName_Hold</v>
+          </cell>
+          <cell r="B154">
+            <v>1</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>이동 불가 효과</v>
+          </cell>
+          <cell r="D154" t="str">
+            <v>In progress of translating…(154)</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>LevelPackUIName_Transport</v>
+          </cell>
+          <cell r="B155">
+            <v>1</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>몬스터 전이 효과</v>
+          </cell>
+          <cell r="D155" t="str">
+            <v>In progress of translating…(155)</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>LevelPackUIName_SummonShield</v>
+          </cell>
+          <cell r="B156">
+            <v>1</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>쉴드 소환</v>
+          </cell>
+          <cell r="D156" t="str">
+            <v>In progress of translating…(156)</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>LevelPackUIDesc_Atk</v>
+          </cell>
+          <cell r="B157">
+            <v>1</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>공격력이 증가합니다</v>
+          </cell>
+          <cell r="D157" t="str">
+            <v>In progress of translating…(157)</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>LevelPackUIDesc_AtkBetter</v>
+          </cell>
+          <cell r="B158">
+            <v>1</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>공격력이 많이 증가합니다</v>
+          </cell>
+          <cell r="D158" t="str">
+            <v>In progress of translating…(158)</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>LevelPackUIDesc_AtkBest</v>
+          </cell>
+          <cell r="B159">
+            <v>1</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>공격력이 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="D159" t="str">
+            <v>In progress of translating…(159)</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>LevelPackUIDesc_AtkSpeed</v>
+          </cell>
+          <cell r="B160">
+            <v>1</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>공격 속도가 증가합니다</v>
+          </cell>
+          <cell r="D160" t="str">
+            <v>In progress of translating…(160)</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+          </cell>
+          <cell r="B161">
+            <v>1</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>공격 속도가 많이 증가합니다</v>
+          </cell>
+          <cell r="D161" t="str">
+            <v>In progress of translating…(161)</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
+          </cell>
+          <cell r="B162">
+            <v>1</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>공격 속도가 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="D162" t="str">
+            <v>In progress of translating…(162)</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>LevelPackUIDesc_Crit</v>
+          </cell>
+          <cell r="B163">
+            <v>1</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>치명타 확률이 증가합니다</v>
+          </cell>
+          <cell r="D163" t="str">
+            <v>In progress of translating…(163)</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>LevelPackUIDesc_CritBetter</v>
+          </cell>
+          <cell r="B164">
+            <v>1</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>치명타 확률이 많이 증가합니다</v>
+          </cell>
+          <cell r="D164" t="str">
+            <v>In progress of translating…(164)</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>LevelPackUIDesc_CritBest</v>
+          </cell>
+          <cell r="B165">
+            <v>1</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>치명타 확률이 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="D165" t="str">
+            <v>In progress of translating…(165)</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>LevelPackUIDesc_MaxHp</v>
+          </cell>
+          <cell r="B166">
+            <v>1</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>최대 체력이 증가합니다</v>
+          </cell>
+          <cell r="D166" t="str">
+            <v>In progress of translating…(166)</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>LevelPackUIDesc_MaxHpBetter</v>
+          </cell>
+          <cell r="B167">
+            <v>1</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>최대 체력이 많이 증가합니다</v>
+          </cell>
+          <cell r="D167" t="str">
+            <v>In progress of translating…(167)</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>LevelPackUIDesc_MaxHpBest</v>
+          </cell>
+          <cell r="B168">
+            <v>1</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>최대 체력이 매우 많이 증가합니다</v>
+          </cell>
+          <cell r="D168" t="str">
+            <v>In progress of translating…(168)</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+          </cell>
+          <cell r="B169">
+            <v>1</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>발사체의 대미지가 감소합니다</v>
+          </cell>
+          <cell r="D169" t="str">
+            <v>In progress of translating…(169)</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
+          </cell>
+          <cell r="B170">
+            <v>1</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+          </cell>
+          <cell r="D170" t="str">
+            <v>In progress of translating…(170)</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>LevelPackUIDesc_ExtraGold</v>
+          </cell>
+          <cell r="B171">
+            <v>1</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>골드 획득량이 증가합니다</v>
+          </cell>
+          <cell r="D171" t="str">
+            <v>In progress of translating…(171)</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
+          </cell>
+          <cell r="B172">
+            <v>1</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>아이템 획득 확률이 증가합니다</v>
+          </cell>
+          <cell r="D172" t="str">
+            <v>In progress of translating…(172)</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>LevelPackUIDesc_HealChanceBoost</v>
+          </cell>
+          <cell r="B173">
+            <v>1</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>회복구슬 획득 확률이 증가합니다</v>
+          </cell>
+          <cell r="D173" t="str">
+            <v>In progress of translating…(173)</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>LevelPackUIDesc_MonsterThrough</v>
+          </cell>
+          <cell r="B174">
+            <v>1</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>평타 공격이 몬스터를 관통합니다</v>
+          </cell>
+          <cell r="D174" t="str">
+            <v>In progress of translating…(174)</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>LevelPackUIDesc_Ricochet</v>
+          </cell>
+          <cell r="B175">
+            <v>1</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+          </cell>
+          <cell r="D175" t="str">
+            <v>In progress of translating…(175)</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>LevelPackUIDesc_BounceWallQuad</v>
+          </cell>
+          <cell r="B176">
+            <v>1</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+          </cell>
+          <cell r="D176" t="str">
+            <v>In progress of translating…(176)</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>LevelPackUIDesc_Parallel</v>
+          </cell>
+          <cell r="B177">
+            <v>1</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
+          </cell>
+          <cell r="D177" t="str">
+            <v>In progress of translating…(177)</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="B178">
+            <v>1</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
+          </cell>
+          <cell r="D178" t="str">
+            <v>In progress of translating…(178)</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="B179">
+            <v>1</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
+          </cell>
+          <cell r="D179" t="str">
+            <v>In progress of translating…(179)</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
+          </cell>
+          <cell r="B180">
+            <v>1</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
+          </cell>
+          <cell r="D180" t="str">
+            <v>In progress of translating…(180)</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>LevelPackUIDesc_Repeat</v>
+          </cell>
+          <cell r="B181">
+            <v>1</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>평타 공격이 한 번 더 반복됩니다</v>
+          </cell>
+          <cell r="D181" t="str">
+            <v>In progress of translating…(181)</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>LevelPackUIDesc_HealOnKill</v>
+          </cell>
+          <cell r="B182">
+            <v>1</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>몬스터를 죽일 때 회복합니다</v>
+          </cell>
+          <cell r="D182" t="str">
+            <v>In progress of translating…(182)</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
+          </cell>
+          <cell r="B183">
+            <v>1</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+          </cell>
+          <cell r="D183" t="str">
+            <v>In progress of translating…(183)</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+          </cell>
+          <cell r="B184">
+            <v>1</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+          </cell>
+          <cell r="D184" t="str">
+            <v>In progress of translating…(184)</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+          </cell>
+          <cell r="B185">
+            <v>1</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+          </cell>
+          <cell r="D185" t="str">
+            <v>In progress of translating…(185)</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>LevelPackUIDesc_VampireOnAttack</v>
+          </cell>
+          <cell r="B186">
+            <v>1</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+          </cell>
+          <cell r="D186" t="str">
+            <v>In progress of translating…(186)</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+          </cell>
+          <cell r="B187">
+            <v>1</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+          </cell>
+          <cell r="D187" t="str">
+            <v>In progress of translating…(187)</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B188">
+            <v>1</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+          </cell>
+          <cell r="D188" t="str">
+            <v>In progress of translating…(188)</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+          </cell>
+          <cell r="B189">
+            <v>1</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+          </cell>
+          <cell r="D189" t="str">
+            <v>In progress of translating…(189)</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+          </cell>
+          <cell r="B190">
+            <v>1</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+          </cell>
+          <cell r="D190" t="str">
+            <v>In progress of translating…(190)</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B191">
+            <v>1</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+          </cell>
+          <cell r="D191" t="str">
+            <v>In progress of translating…(191)</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+          </cell>
+          <cell r="B192">
+            <v>1</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
+          </cell>
+          <cell r="D192" t="str">
+            <v>In progress of translating…(192)</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B193">
+            <v>1</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+          </cell>
+          <cell r="D193" t="str">
+            <v>In progress of translating…(193)</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+          </cell>
+          <cell r="B194">
+            <v>1</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+          </cell>
+          <cell r="D194" t="str">
+            <v>In progress of translating…(194)</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+          </cell>
+          <cell r="B195">
+            <v>1</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+          </cell>
+          <cell r="D195" t="str">
+            <v>In progress of translating…(195)</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>LevelPackUIDesc_InstantKill</v>
+          </cell>
+          <cell r="B196">
+            <v>1</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
+          </cell>
+          <cell r="D196" t="str">
+            <v>In progress of translating…(196)</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>LevelPackUIDesc_InstantKillBetter</v>
+          </cell>
+          <cell r="B197">
+            <v>1</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+          </cell>
+          <cell r="D197" t="str">
+            <v>In progress of translating…(197)</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>LevelPackUIDesc_ImmortalWill</v>
+          </cell>
+          <cell r="B198">
+            <v>1</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+          </cell>
+          <cell r="D198" t="str">
+            <v>In progress of translating…(198)</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+          </cell>
+          <cell r="B199">
+            <v>1</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+          </cell>
+          <cell r="D199" t="str">
+            <v>In progress of translating…(199)</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B200">
+            <v>1</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+          </cell>
+          <cell r="D200" t="str">
+            <v>In progress of translating…(200)</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+          </cell>
+          <cell r="B201">
+            <v>1</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+          </cell>
+          <cell r="D201" t="str">
+            <v>In progress of translating…(201)</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>LevelPackUIDesc_MineOnMove</v>
+          </cell>
+          <cell r="B202">
+            <v>1</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>이동 시 공격구체를 설치합니다</v>
+          </cell>
+          <cell r="D202" t="str">
+            <v>In progress of translating…(202)</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>LevelPackUIDesc_SlowHitObject</v>
+          </cell>
+          <cell r="B203">
+            <v>1</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+          </cell>
+          <cell r="D203" t="str">
+            <v>In progress of translating…(203)</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204" t="str">
+            <v>LevelPackUIDesc_Paralyze</v>
+          </cell>
+          <cell r="B204">
+            <v>1</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>공격에 마비 효과를 부여합니다</v>
+          </cell>
+          <cell r="D204" t="str">
+            <v>In progress of translating…(204)</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205" t="str">
+            <v>LevelPackUIDesc_Hold</v>
+          </cell>
+          <cell r="B205">
+            <v>1</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>공격에 이동 불가 효과를 부여합니다</v>
+          </cell>
+          <cell r="D205" t="str">
+            <v>In progress of translating…(205)</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206" t="str">
+            <v>LevelPackUIDesc_Transport</v>
+          </cell>
+          <cell r="B206">
+            <v>1</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+          </cell>
+          <cell r="D206" t="str">
+            <v>In progress of translating…(206)</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207" t="str">
+            <v>LevelPackUIDesc_SummonShield</v>
+          </cell>
+          <cell r="B207">
+            <v>1</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+          </cell>
+          <cell r="D207" t="str">
+            <v>In progress of translating…(207)</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208" t="str">
+            <v>Chapter1Name</v>
+          </cell>
+          <cell r="B208">
+            <v>1</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>드넓은 평야</v>
+          </cell>
+          <cell r="D208" t="str">
+            <v>In progress of translating…(208)</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209" t="str">
+            <v>Chapter2Name</v>
+          </cell>
+          <cell r="B209">
+            <v>1</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>드넓은 평야2</v>
+          </cell>
+          <cell r="D209" t="str">
+            <v>In progress of translating…(209)</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210" t="str">
+            <v>Chapter3Name</v>
+          </cell>
+          <cell r="B210">
+            <v>1</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>드넓은 평야3</v>
+          </cell>
+          <cell r="D210" t="str">
+            <v>In progress of translating…(210)</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211" t="str">
+            <v>Chapter4Name</v>
+          </cell>
+          <cell r="B211">
+            <v>1</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>드넓은 평야4</v>
+          </cell>
+          <cell r="D211" t="str">
+            <v>In progress of translating…(211)</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212" t="str">
+            <v>Chapter5Name</v>
+          </cell>
+          <cell r="B212">
+            <v>1</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>드넓은 평야5</v>
+          </cell>
+          <cell r="D212" t="str">
+            <v>In progress of translating…(212)</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213" t="str">
+            <v>Chapter6Name</v>
+          </cell>
+          <cell r="B213">
+            <v>1</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>드넓은 평야6</v>
+          </cell>
+          <cell r="D213" t="str">
+            <v>In progress of translating…(213)</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214" t="str">
+            <v>Chapter7Name</v>
+          </cell>
+          <cell r="B214">
+            <v>1</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>드넓은 평야7</v>
+          </cell>
+          <cell r="D214" t="str">
+            <v>In progress of translating…(214)</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215" t="str">
+            <v>Chapter8Name</v>
+          </cell>
+          <cell r="B215">
+            <v>1</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>드넓은 평야8</v>
+          </cell>
+          <cell r="D215" t="str">
+            <v>In progress of translating…(215)</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216" t="str">
+            <v>Chapter9Name</v>
+          </cell>
+          <cell r="B216">
+            <v>1</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>드넓은 평야9</v>
+          </cell>
+          <cell r="D216" t="str">
+            <v>In progress of translating…(216)</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217" t="str">
+            <v>Chapter10Name</v>
+          </cell>
+          <cell r="B217">
+            <v>1</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>드넓은 평야10</v>
+          </cell>
+          <cell r="D217" t="str">
+            <v>In progress of translating…(217)</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218" t="str">
+            <v>Chapter11Name</v>
+          </cell>
+          <cell r="B218">
+            <v>1</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>드넓은 평야11</v>
+          </cell>
+          <cell r="D218" t="str">
+            <v>In progress of translating…(218)</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219" t="str">
+            <v>Chapter12Name</v>
+          </cell>
+          <cell r="B219">
+            <v>1</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>드넓은 평야12</v>
+          </cell>
+          <cell r="D219" t="str">
+            <v>In progress of translating…(219)</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220" t="str">
+            <v>Chapter13Name</v>
+          </cell>
+          <cell r="B220">
+            <v>1</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>드넓은 평야13</v>
+          </cell>
+          <cell r="D220" t="str">
+            <v>In progress of translating…(220)</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221" t="str">
+            <v>Chapter14Name</v>
+          </cell>
+          <cell r="B221">
+            <v>1</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>드넓은 평야14</v>
+          </cell>
+          <cell r="D221" t="str">
+            <v>In progress of translating…(221)</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222" t="str">
+            <v>Chapter15Name</v>
+          </cell>
+          <cell r="B222">
+            <v>1</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>드넓은 평야15</v>
+          </cell>
+          <cell r="D222" t="str">
+            <v>In progress of translating…(222)</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223" t="str">
+            <v>Chapter16Name</v>
+          </cell>
+          <cell r="B223">
+            <v>1</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>드넓은 평야16</v>
+          </cell>
+          <cell r="D223" t="str">
+            <v>In progress of translating…(223)</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224" t="str">
+            <v>Chapter17Name</v>
+          </cell>
+          <cell r="B224">
+            <v>1</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>드넓은 평야17</v>
+          </cell>
+          <cell r="D224" t="str">
+            <v>In progress of translating…(224)</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225" t="str">
+            <v>Chapter18Name</v>
+          </cell>
+          <cell r="B225">
+            <v>1</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>드넓은 평야18</v>
+          </cell>
+          <cell r="D225" t="str">
+            <v>In progress of translating…(225)</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226" t="str">
+            <v>Chapter19Name</v>
+          </cell>
+          <cell r="B226">
+            <v>1</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>드넓은 평야19</v>
+          </cell>
+          <cell r="D226" t="str">
+            <v>In progress of translating…(226)</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227" t="str">
+            <v>Chapter20Name</v>
+          </cell>
+          <cell r="B227">
+            <v>1</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>드넓은 평야20</v>
+          </cell>
+          <cell r="D227" t="str">
+            <v>In progress of translating…(227)</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228" t="str">
+            <v>Chapter21Name</v>
+          </cell>
+          <cell r="B228">
+            <v>1</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>드넓은 평야21</v>
+          </cell>
+          <cell r="D228" t="str">
+            <v>In progress of translating…(228)</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229" t="str">
+            <v>Chapter22Name</v>
+          </cell>
+          <cell r="B229">
+            <v>1</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>드넓은 평야22</v>
+          </cell>
+          <cell r="D229" t="str">
+            <v>In progress of translating…(229)</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230" t="str">
+            <v>Chapter23Name</v>
+          </cell>
+          <cell r="B230">
+            <v>1</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>드넓은 평야23</v>
+          </cell>
+          <cell r="D230" t="str">
+            <v>In progress of translating…(230)</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231" t="str">
+            <v>Chapter24Name</v>
+          </cell>
+          <cell r="B231">
+            <v>1</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>드넓은 평야24</v>
+          </cell>
+          <cell r="D231" t="str">
+            <v>In progress of translating…(231)</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232" t="str">
+            <v>Chapter25Name</v>
+          </cell>
+          <cell r="B232">
+            <v>1</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>드넓은 평야25</v>
+          </cell>
+          <cell r="D232" t="str">
+            <v>In progress of translating…(232)</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233" t="str">
+            <v>Chapter26Name</v>
+          </cell>
+          <cell r="B233">
+            <v>1</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>드넓은 평야26</v>
+          </cell>
+          <cell r="D233" t="str">
+            <v>In progress of translating…(233)</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234" t="str">
+            <v>Chapter27Name</v>
+          </cell>
+          <cell r="B234">
+            <v>1</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>드넓은 평야27</v>
+          </cell>
+          <cell r="D234" t="str">
+            <v>In progress of translating…(234)</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235" t="str">
+            <v>Chapter28Name</v>
+          </cell>
+          <cell r="B235">
+            <v>1</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>드넓은 평야28</v>
+          </cell>
+          <cell r="D235" t="str">
+            <v>In progress of translating…(235)</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236" t="str">
+            <v>Chapter29Name</v>
+          </cell>
+          <cell r="B236">
+            <v>1</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>드넓은 평야29</v>
+          </cell>
+          <cell r="D236" t="str">
+            <v>In progress of translating…(236)</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237" t="str">
+            <v>Chapter1Desc</v>
+          </cell>
+          <cell r="B237">
+            <v>1</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+          </cell>
+          <cell r="D237" t="str">
+            <v>In progress of translating…(237)</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238" t="str">
+            <v>Chapter2Desc</v>
+          </cell>
+          <cell r="B238">
+            <v>1</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D238" t="str">
+            <v>In progress of translating…(238)</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239" t="str">
+            <v>Chapter3Desc</v>
+          </cell>
+          <cell r="B239">
+            <v>1</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D239" t="str">
+            <v>In progress of translating…(239)</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240" t="str">
+            <v>Chapter4Desc</v>
+          </cell>
+          <cell r="B240">
+            <v>1</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D240" t="str">
+            <v>In progress of translating…(240)</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241" t="str">
+            <v>Chapter5Desc</v>
+          </cell>
+          <cell r="B241">
+            <v>1</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D241" t="str">
+            <v>In progress of translating…(241)</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242" t="str">
+            <v>Chapter6Desc</v>
+          </cell>
+          <cell r="B242">
+            <v>1</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D242" t="str">
+            <v>In progress of translating…(242)</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243" t="str">
+            <v>Chapter7Desc</v>
+          </cell>
+          <cell r="B243">
+            <v>1</v>
+          </cell>
+          <cell r="C243" t="str">
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D243" t="str">
+            <v>In progress of translating…(243)</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244" t="str">
+            <v>Chapter8Desc</v>
+          </cell>
+          <cell r="B244">
+            <v>1</v>
+          </cell>
+          <cell r="C244" t="str">
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D244" t="str">
+            <v>In progress of translating…(244)</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245" t="str">
+            <v>Chapter9Desc</v>
+          </cell>
+          <cell r="B245">
+            <v>1</v>
+          </cell>
+          <cell r="C245" t="str">
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D245" t="str">
+            <v>In progress of translating…(245)</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246" t="str">
+            <v>Chapter10Desc</v>
+          </cell>
+          <cell r="B246">
+            <v>1</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D246" t="str">
+            <v>In progress of translating…(246)</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247" t="str">
+            <v>Chapter11Desc</v>
+          </cell>
+          <cell r="B247">
+            <v>1</v>
+          </cell>
+          <cell r="C247" t="str">
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D247" t="str">
+            <v>In progress of translating…(247)</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248" t="str">
+            <v>Chapter12Desc</v>
+          </cell>
+          <cell r="B248">
+            <v>1</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D248" t="str">
+            <v>In progress of translating…(248)</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
+            <v>Chapter13Desc</v>
+          </cell>
+          <cell r="B249">
+            <v>1</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D249" t="str">
+            <v>In progress of translating…(249)</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
+            <v>Chapter14Desc</v>
+          </cell>
+          <cell r="B250">
+            <v>1</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D250" t="str">
+            <v>In progress of translating…(250)</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
+            <v>Chapter15Desc</v>
+          </cell>
+          <cell r="B251">
+            <v>1</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D251" t="str">
+            <v>In progress of translating…(251)</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
+            <v>Chapter16Desc</v>
+          </cell>
+          <cell r="B252">
+            <v>1</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D252" t="str">
+            <v>In progress of translating…(252)</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
+            <v>Chapter17Desc</v>
+          </cell>
+          <cell r="B253">
+            <v>1</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D253" t="str">
+            <v>In progress of translating…(253)</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
+            <v>Chapter18Desc</v>
+          </cell>
+          <cell r="B254">
+            <v>1</v>
+          </cell>
+          <cell r="C254" t="str">
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D254" t="str">
+            <v>In progress of translating…(254)</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255" t="str">
+            <v>Chapter19Desc</v>
+          </cell>
+          <cell r="B255">
+            <v>1</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D255" t="str">
+            <v>In progress of translating…(255)</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256" t="str">
+            <v>Chapter20Desc</v>
+          </cell>
+          <cell r="B256">
+            <v>1</v>
+          </cell>
+          <cell r="C256" t="str">
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D256" t="str">
+            <v>In progress of translating…(256)</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257" t="str">
+            <v>Chapter21Desc</v>
+          </cell>
+          <cell r="B257">
+            <v>1</v>
+          </cell>
+          <cell r="C257" t="str">
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D257" t="str">
+            <v>In progress of translating…(257)</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258" t="str">
+            <v>Chapter22Desc</v>
+          </cell>
+          <cell r="B258">
+            <v>1</v>
+          </cell>
+          <cell r="C258" t="str">
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D258" t="str">
+            <v>In progress of translating…(258)</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="A259" t="str">
+            <v>Chapter23Desc</v>
+          </cell>
+          <cell r="B259">
+            <v>1</v>
+          </cell>
+          <cell r="C259" t="str">
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D259" t="str">
+            <v>In progress of translating…(259)</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="A260" t="str">
+            <v>Chapter24Desc</v>
+          </cell>
+          <cell r="B260">
+            <v>1</v>
+          </cell>
+          <cell r="C260" t="str">
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D260" t="str">
+            <v>In progress of translating…(260)</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261" t="str">
+            <v>Chapter25Desc</v>
+          </cell>
+          <cell r="B261">
+            <v>1</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D261" t="str">
+            <v>In progress of translating…(261)</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262" t="str">
+            <v>Chapter26Desc</v>
+          </cell>
+          <cell r="B262">
+            <v>1</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D262" t="str">
+            <v>In progress of translating…(262)</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263" t="str">
+            <v>Chapter27Desc</v>
+          </cell>
+          <cell r="B263">
+            <v>1</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D263" t="str">
+            <v>In progress of translating…(263)</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264" t="str">
+            <v>Chapter28Desc</v>
+          </cell>
+          <cell r="B264">
+            <v>1</v>
+          </cell>
+          <cell r="C264" t="str">
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D264" t="str">
+            <v>In progress of translating…(264)</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265" t="str">
+            <v>Chapter29Desc</v>
+          </cell>
+          <cell r="B265">
+            <v>1</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+          </cell>
+          <cell r="D265" t="str">
+            <v>In progress of translating…(265)</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B266">
+            <v>1</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="D266" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267" t="str">
+            <v>CharDesc_Ganfaul</v>
+          </cell>
+          <cell r="B267">
+            <v>1</v>
+          </cell>
+          <cell r="C267" t="str">
+            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+강력한 단일 공격을 사용한다</v>
+          </cell>
+          <cell r="D267" t="str">
+            <v>In progress of translating…(267)</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B268">
+            <v>1</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="D268" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269" t="str">
+            <v>CharDesc_KeepSeries</v>
+          </cell>
+          <cell r="B269">
+            <v>1</v>
+          </cell>
+          <cell r="C269" t="str">
+            <v>킵시리즈의 설명 우다다다
+간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+          </cell>
+          <cell r="D269" t="str">
+            <v>In progress of translating…(269)</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B270">
+            <v>1</v>
+          </cell>
+          <cell r="C270" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="D270" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271" t="str">
+            <v>CharDesc_BigBatSuccubus</v>
+          </cell>
+          <cell r="B271">
+            <v>1</v>
+          </cell>
+          <cell r="C271" t="str">
+            <v>빅뱃서큐버스의 설명 우다다다
+연타 공격을 사용한다</v>
+          </cell>
+          <cell r="D271" t="str">
+            <v>In progress of translating…(271)</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B272">
+            <v>1</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="D272" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273" t="str">
+            <v>CharDesc_Bei</v>
+          </cell>
+          <cell r="B273">
+            <v>1</v>
+          </cell>
+          <cell r="C273" t="str">
+            <v>베이의 설명 우다다다
+장판 공격을 사용한다</v>
+          </cell>
+          <cell r="D273" t="str">
+            <v>In progress of translating…(273)</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274" t="str">
+            <v>CharName_JellyFishGirl</v>
+          </cell>
+          <cell r="B274">
+            <v>1</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v>젤리피쉬걸</v>
+          </cell>
+          <cell r="D274" t="str">
+            <v>JellyFIshGirl</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275" t="str">
+            <v>CharDesc_JellyFishGirl</v>
+          </cell>
+          <cell r="B275">
+            <v>1</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v>젤리피쉬걸의 설명 우다다다
+곡사로 공격한다</v>
+          </cell>
+          <cell r="D275" t="str">
+            <v>In progress of translating…(275)</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276" t="str">
+            <v>BossName_SlimeRabbit</v>
+          </cell>
+          <cell r="B276">
+            <v>1</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v>초록 토끼귀 슬라임</v>
+          </cell>
+          <cell r="D276" t="str">
+            <v>Green Rabbit Slime</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277" t="str">
+            <v>BossName_SlimeRabbit_Red</v>
+          </cell>
+          <cell r="B277">
+            <v>1</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v>붉은 토끼귀 슬라임</v>
+          </cell>
+          <cell r="D277" t="str">
+            <v>Red Rabbit Slime</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278" t="str">
+            <v>BossName_TerribleStump_Purple</v>
+          </cell>
+          <cell r="B278">
+            <v>1</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v>나무귀신</v>
+          </cell>
+          <cell r="D278" t="str">
+            <v>Terrible Stump</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279" t="str">
+            <v>BossName_PolygonalMetalon_Red</v>
+          </cell>
+          <cell r="B279">
+            <v>1</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v>외뿔 풍뎅이</v>
+          </cell>
+          <cell r="D279" t="str">
+            <v>In progress of translating…(279)</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280" t="str">
+            <v>BossName_SpiritKing</v>
+          </cell>
+          <cell r="B280">
+            <v>1</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v>스피릿 킹</v>
+          </cell>
+          <cell r="D280" t="str">
+            <v>Spirit King</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281" t="str">
+            <v>BossDesc_SlimeRabbit</v>
+          </cell>
+          <cell r="B281">
+            <v>1</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+          </cell>
+          <cell r="D281" t="str">
+            <v>In progress of translating…(281)</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282" t="str">
+            <v>BossDesc_SlimeRabbit_Red</v>
+          </cell>
+          <cell r="B282">
+            <v>1</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+          </cell>
+          <cell r="D282" t="str">
+            <v>In progress of translating…(282)</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283" t="str">
+            <v>BossDesc_TerribleStump_Purple</v>
+          </cell>
+          <cell r="B283">
+            <v>1</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="D283" t="str">
+            <v>In progress of translating…(283)</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284" t="str">
+            <v>BossDesc_PolygonalMetalon_Red</v>
+          </cell>
+          <cell r="B284">
+            <v>1</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="D284" t="str">
+            <v>In progress of translating…(284)</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285" t="str">
+            <v>BossDesc_SpiritKing</v>
+          </cell>
+          <cell r="B285">
+            <v>1</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+          </cell>
+          <cell r="D285" t="str">
+            <v>In progress of translating…(285)</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286" t="str">
+            <v>PenaltyUIName_One</v>
+          </cell>
+          <cell r="B286">
+            <v>1</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D286" t="str">
+            <v>In progress of translating…(286)</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287" t="str">
+            <v>PenaltyUIMind_One</v>
+          </cell>
+          <cell r="B287">
+            <v>1</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="D287" t="str">
+            <v>In progress of translating…(287)</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288" t="str">
+            <v>PenaltyUIRepre_OneOfTwo</v>
+          </cell>
+          <cell r="B288">
+            <v>1</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D288" t="str">
+            <v>In progress of translating…(288)</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289" t="str">
+            <v>PenaltyUIName_Two</v>
+          </cell>
+          <cell r="B289">
+            <v>1</v>
+          </cell>
+          <cell r="C289" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D289" t="str">
+            <v>In progress of translating…(289)</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="A290" t="str">
+            <v>PenaltyUIMind_Two</v>
+          </cell>
+          <cell r="B290">
+            <v>1</v>
+          </cell>
+          <cell r="C290" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="D290" t="str">
+            <v>In progress of translating…(290)</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="A291" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B291">
+            <v>1</v>
+          </cell>
+          <cell r="C291" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D291" t="str">
+            <v>In progress of translating…(291)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>kor|String</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>eng|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Skill_ActiveOne001_Name</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>하트가 폭발한다</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Hearts exploding!</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Skill_ActiveOne001_Description</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Skill_ActiveOne002_Description</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="AffectorValueTable"/>
       <sheetName val="AffectorValueLevelTable"/>
       <sheetName val="ActorStateTable"/>
@@ -2539,9 +6700,18 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="1">
+          <cell r="A1" t="str">
+            <v>idForVlookup|String</v>
+          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -2575,6 +6745,8 @@
             <v>텔레포팅을 하는 히트오브젝트를 부여함(캐릭전용) 맵에 적이 하나 남으면 발동 안 됨
 맵에 적이 하나도 없으면 먼저 보낸 순서대로 하나가 바로 소환된다</v>
           </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
             <v/>
           </cell>
@@ -9393,7 +13565,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -9523,4167 +13695,6 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="InApkStringTable"/>
-      <sheetName val="StringTable"/>
-      <sheetName val="FontTable"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>중복카운트</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>kor|String</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>eng|String</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>CommonUI_Ok</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>확인</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OK</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>CommonUI_Cancel</v>
-          </cell>
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>취소</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Cancel</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>CommonUI_Yes</v>
-          </cell>
-          <cell r="B4">
-            <v>1</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>예</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Yes</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>CommonUI_No</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>아니오</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>No</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>SystemUI_NeedPatch</v>
-          </cell>
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>새로운 패치가 있습니다.
-&lt;color=cyan&gt;와이파이&lt;/color&gt;를 사용해서 다운로드 받으시길 권장합니다.</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>New Patch!
-Recommended to download with &lt;color=cyan&gt;WIFI&lt;/color&gt;</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>SystemUI_DisconnectServer</v>
-          </cell>
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>서버와의 접속이 원활하지 않습니다.
-프로그램을 재시작합니다.</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Bad connection
-Restarting the app</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SystemUI_Mainternance</v>
-          </cell>
-          <cell r="B8">
-            <v>1</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>서버 점검 중입니다.</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>We're on a mainternance</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>SystemUI_MainternanceDetail</v>
-          </cell>
-          <cell r="B9">
-            <v>1</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다.
-감사합니다.</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable.
-Thank you for your patience.</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>SystemUI_Downloading</v>
-          </cell>
-          <cell r="B10">
-            <v>1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>다운로드 중</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Downloading</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>GameUI_RomanNumber1</v>
-          </cell>
-          <cell r="B11">
-            <v>1</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>I</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>I</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>GameUI_RomanNumber2</v>
-          </cell>
-          <cell r="B12">
-            <v>1</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>II</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>II</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>GameUI_RomanNumber3</v>
-          </cell>
-          <cell r="B13">
-            <v>1</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>III</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>III</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>GameUI_RomanNumber4</v>
-          </cell>
-          <cell r="B14">
-            <v>1</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>IV</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>IV</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>GameUI_RomanNumber5</v>
-          </cell>
-          <cell r="B15">
-            <v>1</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>V</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>GameUI_RomanNumber6</v>
-          </cell>
-          <cell r="B16">
-            <v>1</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>VI</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>VI</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>GameUI_RomanNumber7</v>
-          </cell>
-          <cell r="B17">
-            <v>1</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>VII</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>VII</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>GameUI_RomanNumber8</v>
-          </cell>
-          <cell r="B18">
-            <v>1</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>VIII</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>VIII</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>GameUI_RomanNumber9</v>
-          </cell>
-          <cell r="B19">
-            <v>1</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>IX</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>IX</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>GameUI_RomanNumber10</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>X</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>X</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>GameUI_RomanNumber11</v>
-          </cell>
-          <cell r="B21">
-            <v>1</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>XI</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>XI</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>GameUI_RomanNumber12</v>
-          </cell>
-          <cell r="B22">
-            <v>1</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>XII</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>XII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>GameUI_RomanNumber13</v>
-          </cell>
-          <cell r="B23">
-            <v>1</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>XIII</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>XIII</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>GameUI_RomanNumber14</v>
-          </cell>
-          <cell r="B24">
-            <v>1</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>XIV</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>XIV</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>GameUI_RomanNumber15</v>
-          </cell>
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>XV</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>XV</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>GameUI_RomanNumber16</v>
-          </cell>
-          <cell r="B26">
-            <v>1</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>XVI</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>XVI</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>GameUI_RomanNumber17</v>
-          </cell>
-          <cell r="B27">
-            <v>1</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>XVII</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>XVII</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>GameUI_RomanNumber18</v>
-          </cell>
-          <cell r="B28">
-            <v>1</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>XVIII</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>XVIII</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>GameUI_RomanNumber19</v>
-          </cell>
-          <cell r="B29">
-            <v>1</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>XIX</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>XIX</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>GameUI_RomanNumber20</v>
-          </cell>
-          <cell r="B30">
-            <v>1</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>XX</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>XX</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>GameUI_RomanNumber21</v>
-          </cell>
-          <cell r="B31">
-            <v>1</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>XXI</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>XXI</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>GameUI_RomanNumber22</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>XXII</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>XXII</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>GameUI_RomanNumber23</v>
-          </cell>
-          <cell r="B33">
-            <v>1</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>XXIII</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>XXIII</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>GameUI_RomanNumber24</v>
-          </cell>
-          <cell r="B34">
-            <v>1</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>XXIV</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>XXIV</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>GameUI_RomanNumber25</v>
-          </cell>
-          <cell r="B35">
-            <v>1</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>XXV</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>XXV</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>GameUI_RomanNumber26</v>
-          </cell>
-          <cell r="B36">
-            <v>1</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>XXVI</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>XXVI</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>GameUI_RomanNumber27</v>
-          </cell>
-          <cell r="B37">
-            <v>1</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>XXVII</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>XXVII</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>GameUI_RomanNumber28</v>
-          </cell>
-          <cell r="B38">
-            <v>1</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>XXVIII</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>XXVIII</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>GameUI_RomanNumber29</v>
-          </cell>
-          <cell r="B39">
-            <v>1</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>XXIX</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>XXIX</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>GameUI_RomanNumber30</v>
-          </cell>
-          <cell r="B40">
-            <v>1</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>XXX</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>XXX</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>GameUI_Magic</v>
-          </cell>
-          <cell r="B41">
-            <v>1</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>마법</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>Magic</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>GameUI_Machine</v>
-          </cell>
-          <cell r="B42">
-            <v>1</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>기계</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>Machine</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>GameUI_Nature</v>
-          </cell>
-          <cell r="B43">
-            <v>1</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>자연</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>Nature</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>GameUI_Qigong</v>
-          </cell>
-          <cell r="B44">
-            <v>1</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>기공</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>Qigong</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>GameUI_CharGrade0</v>
-          </cell>
-          <cell r="B45">
-            <v>1</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>일반</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>Normal</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>GameUI_CharGrade1</v>
-          </cell>
-          <cell r="B46">
-            <v>1</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>영웅</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>Heroic</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>GameUI_CharGrade2</v>
-          </cell>
-          <cell r="B47">
-            <v>1</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>전설</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>Legendary</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>GameUI_EquipGrade0</v>
-          </cell>
-          <cell r="B48">
-            <v>1</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>일반</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>Normal</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>GameUI_EquipGrade1</v>
-          </cell>
-          <cell r="B49">
-            <v>1</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>희귀</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>Rare</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>GameUI_EquipGrade2</v>
-          </cell>
-          <cell r="B50">
-            <v>1</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>영웅</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>Heroic</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>GameUI_EquipGrade3</v>
-          </cell>
-          <cell r="B51">
-            <v>1</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>에픽</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>Epic</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>GameUI_EquipGrade4</v>
-          </cell>
-          <cell r="B52">
-            <v>1</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>전설</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>Legendary</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>GameUI_Lv</v>
-          </cell>
-          <cell r="B53">
-            <v>1</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Lv. {0}</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>Lv. {0}</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>GameUI_LevelPackLv</v>
-          </cell>
-          <cell r="B54">
-            <v>1</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>GameUI_ExitGame</v>
-          </cell>
-          <cell r="B55">
-            <v>1</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>나가기</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>Exit</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>GameUI_ExitGameDescription</v>
-          </cell>
-          <cell r="B56">
-            <v>1</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>게임을 종료하시겠습니까?</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>Quit the game?</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>GameUI_BackToLobby</v>
-          </cell>
-          <cell r="B57">
-            <v>1</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>나가기</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>Exit</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>GameUI_BackToLobbyDescription</v>
-          </cell>
-          <cell r="B58">
-            <v>1</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
-전투를 중지하시겠습니까?</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>You cannot get gold, items you got til now.
-Sure to quit the battle?</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>GameUI_TouchToMove</v>
-          </cell>
-          <cell r="B59">
-            <v>1</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>터치하여 이동하세요</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>Touch to move</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>GameUI_BossReady</v>
-          </cell>
-          <cell r="B60">
-            <v>1</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>보스에 대비하세요</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>Prepare for the boss</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>GameUI_PossibleAfterTraining</v>
-          </cell>
-          <cell r="B61">
-            <v>1</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>훈련 챕터 클리어 후 진행 가능</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>Possible to play after the training chapter</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>GameUI_GameSetting</v>
-          </cell>
-          <cell r="B62">
-            <v>1</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>게임설정</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>Game Setting</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>GameUI_EmptyLevelPack</v>
-          </cell>
-          <cell r="B63">
-            <v>1</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>획득한 전투팩이 없습니다</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>Empty Battle Pack</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>GameUI_SoundFX</v>
-          </cell>
-          <cell r="B64">
-            <v>1</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>효과음</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>Sound FX</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>GameUI_Music</v>
-          </cell>
-          <cell r="B65">
-            <v>1</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>BGM</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>BGM</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>GameUI_UltimateWithDoubleTap</v>
-          </cell>
-          <cell r="B66">
-            <v>1</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>전투 중 더블탭으로 궁극기 사용</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>Use Ultimate Skill with double-tap during battle</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>GameUI_FixUltimateIcon</v>
-          </cell>
-          <cell r="B67">
-            <v>1</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>궁극기 아이콘 위치 고정</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>Fixed Ultimate Skill position</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>GameUI_SystemSetting</v>
-          </cell>
-          <cell r="B68">
-            <v>1</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>시스템설정</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>System Setting</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>GameUI_Language</v>
-          </cell>
-          <cell r="B69">
-            <v>1</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>언어</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>Language</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>GameUI_Language_KOR</v>
-          </cell>
-          <cell r="B70">
-            <v>1</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>한국어</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>Korean</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>GameUI_Language_ENG</v>
-          </cell>
-          <cell r="B71">
-            <v>1</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>영어</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>English</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>GameUI_Confirm</v>
-          </cell>
-          <cell r="B72">
-            <v>1</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>확인</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>Confirm</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>GameUI_ChangeLanguageDesc</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>언어를 변경하시겠습니까?</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>Would you change the language?</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>GameUI_Shop</v>
-          </cell>
-          <cell r="B74">
-            <v>1</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>상점</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>Shop</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>GameUI_Challenge</v>
-          </cell>
-          <cell r="B75">
-            <v>1</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>도전</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>Challenge</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>GameUI_Revert</v>
-          </cell>
-          <cell r="B76">
-            <v>1</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>환원</v>
-          </cell>
-          <cell r="D76" t="str">
-            <v>Revert</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>GameUI_Swappable</v>
-          </cell>
-          <cell r="B77">
-            <v>1</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>교체 가능</v>
-          </cell>
-          <cell r="D77" t="str">
-            <v>Can be swapped</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>GameUI_EnterInfo</v>
-          </cell>
-          <cell r="B78">
-            <v>1</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>입장 안내</v>
-          </cell>
-          <cell r="D78" t="str">
-            <v>Entry Info</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>GameUI_EnterInfoDesc</v>
-          </cell>
-          <cell r="B79">
-            <v>1</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>현재 캐릭터의 파워레벨이 부족합니다
-캐릭터를 변경하시겠습니까?</v>
-          </cell>
-          <cell r="D79" t="str">
-            <v>Not enough Power Level
-Change the player?</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>GameUI_EnterRecommendDesc</v>
-          </cell>
-          <cell r="B80">
-            <v>1</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>더 적합한 추천 캐릭터가 있습니다
-캐릭터를 변경하시겠습니까?</v>
-          </cell>
-          <cell r="D80" t="str">
-            <v>There is a more suitable recommended chracter
-Change the player?</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>GameUI_ChangeCharacter</v>
-          </cell>
-          <cell r="B81">
-            <v>1</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>캐릭터 교체</v>
-          </cell>
-          <cell r="D81" t="str">
-            <v>Change Character</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>GameUI_Chapter</v>
-          </cell>
-          <cell r="B82">
-            <v>1</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
-          </cell>
-          <cell r="D82" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>GameUI_ChaosMode</v>
-          </cell>
-          <cell r="B83">
-            <v>1</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>카오스 모드</v>
-          </cell>
-          <cell r="D83" t="str">
-            <v>Chaos Mode</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>GameUI_SuggestedPowerLevel</v>
-          </cell>
-          <cell r="B84">
-            <v>1</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>권장 파워레벨</v>
-          </cell>
-          <cell r="D84" t="str">
-            <v>Recommended Power Level {0}</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>GameUI_NumberRange</v>
-          </cell>
-          <cell r="B85">
-            <v>1</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>{0}~{1}</v>
-          </cell>
-          <cell r="D85" t="str">
-            <v>{0}-{1}</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>GameUI_Power</v>
-          </cell>
-          <cell r="B86">
-            <v>1</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>GameUI_Suggested</v>
-          </cell>
-          <cell r="B87">
-            <v>1</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>추천캐릭터</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>Recommended</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>GameUI_FirstSwapHealNotApplied</v>
-          </cell>
-          <cell r="B88">
-            <v>1</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>이미 전투에 참가했던 캐릭터는 회복되지 않습니다</v>
-          </cell>
-          <cell r="D88" t="str">
-            <v>Characters already in combat will not recover</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>GameUI_NowPlayingCharacter</v>
-          </cell>
-          <cell r="B89">
-            <v>1</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>현재 플레이 중인 캐릭터입니다</v>
-          </cell>
-          <cell r="D89" t="str">
-            <v>Now playing!</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>GameUI_Invincible</v>
-          </cell>
-          <cell r="B90">
-            <v>1</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>무적</v>
-          </cell>
-          <cell r="D90" t="str">
-            <v>INVINCIBLE</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>GameUI_Miss</v>
-          </cell>
-          <cell r="B91">
-            <v>1</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>빗맞음</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>MISS</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>GameUI_Headshot</v>
-          </cell>
-          <cell r="B92">
-            <v>1</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>즉사</v>
-          </cell>
-          <cell r="D92" t="str">
-            <v>HEADSHOT</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>GameUI_ImmortalWill</v>
-          </cell>
-          <cell r="B93">
-            <v>1</v>
-          </cell>
-          <cell r="C93" t="str">
-            <v>불사!</v>
-          </cell>
-          <cell r="D93" t="str">
-            <v>IMMORTAL!</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>TimeSpaceUI_Low</v>
-          </cell>
-          <cell r="B94">
-            <v>1</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>소</v>
-          </cell>
-          <cell r="D94" t="str">
-            <v>Low</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>TimeSpaceUI_Medium</v>
-          </cell>
-          <cell r="B95">
-            <v>1</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>중</v>
-          </cell>
-          <cell r="D95" t="str">
-            <v>Medium</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>TimeSpaceUI_High</v>
-          </cell>
-          <cell r="B96">
-            <v>1</v>
-          </cell>
-          <cell r="C96" t="str">
-            <v>대</v>
-          </cell>
-          <cell r="D96" t="str">
-            <v>High</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>TimeSpaceUI_Ultra</v>
-          </cell>
-          <cell r="B97">
-            <v>1</v>
-          </cell>
-          <cell r="C97" t="str">
-            <v>극대</v>
-          </cell>
-          <cell r="D97" t="str">
-            <v>Ultra</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
-          </cell>
-          <cell r="B98">
-            <v>1</v>
-          </cell>
-          <cell r="C98" t="str">
-            <v>초극대</v>
-          </cell>
-          <cell r="D98" t="str">
-            <v>ExtraUltra</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>PowerSourceUI_ComeHere</v>
-          </cell>
-          <cell r="B99">
-            <v>1</v>
-          </cell>
-          <cell r="C99" t="str">
-            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
-          </cell>
-          <cell r="D99" t="str">
-            <v>Get close to be blessed from Power Source</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>PowerSourceUI_Heal</v>
-          </cell>
-          <cell r="B100">
-            <v>1</v>
-          </cell>
-          <cell r="C100" t="str">
-            <v>힘의 원천으로부터 눈부신 빛이 흘러나옵니다</v>
-          </cell>
-          <cell r="D100" t="str">
-            <v>The bright light flows from Power Source</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>GameUI_SelectLevelPack</v>
-          </cell>
-          <cell r="B101">
-            <v>1</v>
-          </cell>
-          <cell r="C101" t="str">
-            <v>전투팩을 선택하세요</v>
-          </cell>
-          <cell r="D101" t="str">
-            <v>Choose a Battle Pack</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>GameUI_BossClearReward</v>
-          </cell>
-          <cell r="B102">
-            <v>1</v>
-          </cell>
-          <cell r="C102" t="str">
-            <v>보스 클리어 보상</v>
-          </cell>
-          <cell r="D102" t="str">
-            <v>Boss Clear Reward</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>GameUI_NoHitClearReward</v>
-          </cell>
-          <cell r="B103">
-            <v>1</v>
-          </cell>
-          <cell r="C103" t="str">
-            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 클리어 보상</v>
-          </cell>
-          <cell r="D103" t="str">
-            <v>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Clear Reward</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>GameUI_LevelPack</v>
-          </cell>
-          <cell r="B104">
-            <v>1</v>
-          </cell>
-          <cell r="C104" t="str">
-            <v>전투팩</v>
-          </cell>
-          <cell r="D104" t="str">
-            <v>Battle Pack</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>GameUI_NoHitLevelPack</v>
-          </cell>
-          <cell r="B105">
-            <v>1</v>
-          </cell>
-          <cell r="C105" t="str">
-            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 전투팩</v>
-          </cell>
-          <cell r="D105" t="str">
-            <v>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Battle Pack</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>LevelPackUIName_Atk</v>
-          </cell>
-          <cell r="B106">
-            <v>1</v>
-          </cell>
-          <cell r="C106" t="str">
-            <v>공격력</v>
-          </cell>
-          <cell r="D106" t="str">
-            <v>Attack Boost</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
-          </cell>
-          <cell r="B107">
-            <v>1</v>
-          </cell>
-          <cell r="C107" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
-          </cell>
-          <cell r="D107" t="str">
-            <v>&lt;color=#FFC080&gt;Better&lt;/color&gt; Attack Boost</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>LevelPackUIName_AtkBest</v>
-          </cell>
-          <cell r="B108">
-            <v>1</v>
-          </cell>
-          <cell r="C108" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
-          </cell>
-          <cell r="D108" t="str">
-            <v>&lt;color=#FFC080&gt;Best&lt;/color&gt; Attack Boost</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
-          </cell>
-          <cell r="B109">
-            <v>1</v>
-          </cell>
-          <cell r="C109" t="str">
-            <v>공격 속도</v>
-          </cell>
-          <cell r="D109" t="str">
-            <v>Attack Speed Boost</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
-          </cell>
-          <cell r="B110">
-            <v>1</v>
-          </cell>
-          <cell r="C110" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
-          </cell>
-          <cell r="D110" t="str">
-            <v>In progress of translating…(110)</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
-          </cell>
-          <cell r="B111">
-            <v>1</v>
-          </cell>
-          <cell r="C111" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
-          </cell>
-          <cell r="D111" t="str">
-            <v>In progress of translating…(111)</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>LevelPackUIName_Crit</v>
-          </cell>
-          <cell r="B112">
-            <v>1</v>
-          </cell>
-          <cell r="C112" t="str">
-            <v>치명타 확률</v>
-          </cell>
-          <cell r="D112" t="str">
-            <v>In progress of translating…(112)</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>LevelPackUIName_CritBetter</v>
-          </cell>
-          <cell r="B113">
-            <v>1</v>
-          </cell>
-          <cell r="C113" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
-          </cell>
-          <cell r="D113" t="str">
-            <v>In progress of translating…(113)</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>LevelPackUIName_CritBest</v>
-          </cell>
-          <cell r="B114">
-            <v>1</v>
-          </cell>
-          <cell r="C114" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
-          </cell>
-          <cell r="D114" t="str">
-            <v>In progress of translating…(114)</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>LevelPackUIName_MaxHp</v>
-          </cell>
-          <cell r="B115">
-            <v>1</v>
-          </cell>
-          <cell r="C115" t="str">
-            <v>최대 체력</v>
-          </cell>
-          <cell r="D115" t="str">
-            <v>In progress of translating…(115)</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
-          </cell>
-          <cell r="B116">
-            <v>1</v>
-          </cell>
-          <cell r="C116" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
-          </cell>
-          <cell r="D116" t="str">
-            <v>In progress of translating…(116)</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
-          </cell>
-          <cell r="B117">
-            <v>1</v>
-          </cell>
-          <cell r="C117" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
-          </cell>
-          <cell r="D117" t="str">
-            <v>In progress of translating…(117)</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
-          </cell>
-          <cell r="B118">
-            <v>1</v>
-          </cell>
-          <cell r="C118" t="str">
-            <v>발사체 대미지 감소</v>
-          </cell>
-          <cell r="D118" t="str">
-            <v>In progress of translating…(118)</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
-          </cell>
-          <cell r="B119">
-            <v>1</v>
-          </cell>
-          <cell r="C119" t="str">
-            <v>충돌 대미지 감소</v>
-          </cell>
-          <cell r="D119" t="str">
-            <v>In progress of translating…(119)</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
-          </cell>
-          <cell r="B120">
-            <v>1</v>
-          </cell>
-          <cell r="C120" t="str">
-            <v>골드 획득량 증가</v>
-          </cell>
-          <cell r="D120" t="str">
-            <v>In progress of translating…(120)</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
-          </cell>
-          <cell r="B121">
-            <v>1</v>
-          </cell>
-          <cell r="C121" t="str">
-            <v>아이템 확률 증가</v>
-          </cell>
-          <cell r="D121" t="str">
-            <v>In progress of translating…(121)</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
-          </cell>
-          <cell r="B122">
-            <v>1</v>
-          </cell>
-          <cell r="C122" t="str">
-            <v>회복구슬 확률 증가</v>
-          </cell>
-          <cell r="D122" t="str">
-            <v>In progress of translating…(122)</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
-          </cell>
-          <cell r="B123">
-            <v>1</v>
-          </cell>
-          <cell r="C123" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>LevelPackUIName_Ricochet</v>
-          </cell>
-          <cell r="B124">
-            <v>1</v>
-          </cell>
-          <cell r="C124" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D124" t="str">
-            <v>In progress of translating…(124)</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
-          </cell>
-          <cell r="B125">
-            <v>1</v>
-          </cell>
-          <cell r="C125" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D125" t="str">
-            <v>In progress of translating…(125)</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>LevelPackUIName_Parallel</v>
-          </cell>
-          <cell r="B126">
-            <v>1</v>
-          </cell>
-          <cell r="C126" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D126" t="str">
-            <v>In progress of translating…(126)</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
-          </cell>
-          <cell r="B127">
-            <v>1</v>
-          </cell>
-          <cell r="C127" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D127" t="str">
-            <v>In progress of translating…(127)</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
-          </cell>
-          <cell r="B128">
-            <v>1</v>
-          </cell>
-          <cell r="C128" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D128" t="str">
-            <v>In progress of translating…(128)</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
-          </cell>
-          <cell r="B129">
-            <v>1</v>
-          </cell>
-          <cell r="C129" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
-          </cell>
-          <cell r="D129" t="str">
-            <v>In progress of translating…(129)</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>LevelPackUIName_Repeat</v>
-          </cell>
-          <cell r="B130">
-            <v>1</v>
-          </cell>
-          <cell r="C130" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
-          </cell>
-          <cell r="D130" t="str">
-            <v>In progress of translating…(130)</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
-          </cell>
-          <cell r="B131">
-            <v>1</v>
-          </cell>
-          <cell r="C131" t="str">
-            <v>몬스터 킬 시 회복</v>
-          </cell>
-          <cell r="D131" t="str">
-            <v>In progress of translating…(131)</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
-          </cell>
-          <cell r="B132">
-            <v>1</v>
-          </cell>
-          <cell r="C132" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
-          </cell>
-          <cell r="D132" t="str">
-            <v>In progress of translating…(132)</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
-          </cell>
-          <cell r="B133">
-            <v>1</v>
-          </cell>
-          <cell r="C133" t="str">
-            <v>적 조우 시
-공격 속도 증가</v>
-          </cell>
-          <cell r="D133" t="str">
-            <v>In progress of translating…(133)</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
-          </cell>
-          <cell r="B134">
-            <v>1</v>
-          </cell>
-          <cell r="C134" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
-공격 속도 증가</v>
-          </cell>
-          <cell r="D134" t="str">
-            <v>In progress of translating…(134)</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B135">
-            <v>1</v>
-          </cell>
-          <cell r="C135" t="str">
-            <v>흡혈</v>
-          </cell>
-          <cell r="D135" t="str">
-            <v>In progress of translating…(135)</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
-          </cell>
-          <cell r="B136">
-            <v>1</v>
-          </cell>
-          <cell r="C136" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
-          </cell>
-          <cell r="D136" t="str">
-            <v>In progress of translating…(136)</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
-          </cell>
-          <cell r="B137">
-            <v>1</v>
-          </cell>
-          <cell r="C137" t="str">
-            <v>피격 시 HP 리젠</v>
-          </cell>
-          <cell r="D137" t="str">
-            <v>In progress of translating…(137)</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
-          </cell>
-          <cell r="B138">
-            <v>1</v>
-          </cell>
-          <cell r="C138" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
-HP 리젠</v>
-          </cell>
-          <cell r="D138" t="str">
-            <v>In progress of translating…(138)</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B139">
-            <v>1</v>
-          </cell>
-          <cell r="C139" t="str">
-            <v>피격 시 반사</v>
-          </cell>
-          <cell r="D139" t="str">
-            <v>In progress of translating…(139)</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
-          </cell>
-          <cell r="B140">
-            <v>1</v>
-          </cell>
-          <cell r="C140" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
-          </cell>
-          <cell r="D140" t="str">
-            <v>In progress of translating…(140)</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHp</v>
-          </cell>
-          <cell r="B141">
-            <v>1</v>
-          </cell>
-          <cell r="C141" t="str">
-            <v>HP 낮을수록
-공격력 증가</v>
-          </cell>
-          <cell r="D141" t="str">
-            <v>In progress of translating…(141)</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
-          </cell>
-          <cell r="B142">
-            <v>1</v>
-          </cell>
-          <cell r="C142" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
-공격력 증가</v>
-          </cell>
-          <cell r="D142" t="str">
-            <v>In progress of translating…(142)</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
-          </cell>
-          <cell r="B143">
-            <v>1</v>
-          </cell>
-          <cell r="C143" t="str">
-            <v>적 HP 낮을수록
-치명타 대미지 증가</v>
-          </cell>
-          <cell r="D143" t="str">
-            <v>In progress of translating…(143)</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
-          </cell>
-          <cell r="B144">
-            <v>1</v>
-          </cell>
-          <cell r="C144" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
-치명타 대미지 증가</v>
-          </cell>
-          <cell r="D144" t="str">
-            <v>In progress of translating…(144)</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B145">
-            <v>1</v>
-          </cell>
-          <cell r="C145" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
-          <cell r="D145" t="str">
-            <v>In progress of translating…(145)</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
-          </cell>
-          <cell r="B146">
-            <v>1</v>
-          </cell>
-          <cell r="C146" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
-          </cell>
-          <cell r="D146" t="str">
-            <v>In progress of translating…(146)</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
-          </cell>
-          <cell r="B147">
-            <v>1</v>
-          </cell>
-          <cell r="C147" t="str">
-            <v>불사의 의지</v>
-          </cell>
-          <cell r="D147" t="str">
-            <v>In progress of translating…(147)</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
-          </cell>
-          <cell r="B148">
-            <v>1</v>
-          </cell>
-          <cell r="C148" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
-          </cell>
-          <cell r="D148" t="str">
-            <v>In progress of translating…(148)</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
-          </cell>
-          <cell r="B149">
-            <v>1</v>
-          </cell>
-          <cell r="C149" t="str">
-            <v>적 조우 시 회복지대</v>
-          </cell>
-          <cell r="D149" t="str">
-            <v>In progress of translating…(149)</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
-          </cell>
-          <cell r="B150">
-            <v>1</v>
-          </cell>
-          <cell r="C150" t="str">
-            <v>피격 시
-이동 속도 증가</v>
-          </cell>
-          <cell r="D150" t="str">
-            <v>In progress of translating…(150)</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B151">
-            <v>1</v>
-          </cell>
-          <cell r="C151" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
-          <cell r="D151" t="str">
-            <v>In progress of translating…(151)</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
-          </cell>
-          <cell r="B152">
-            <v>1</v>
-          </cell>
-          <cell r="C152" t="str">
-            <v>발사체 속도 감소</v>
-          </cell>
-          <cell r="D152" t="str">
-            <v>In progress of translating…(152)</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>LevelPackUIName_Paralyze</v>
-          </cell>
-          <cell r="B153">
-            <v>1</v>
-          </cell>
-          <cell r="C153" t="str">
-            <v>마비 효과</v>
-          </cell>
-          <cell r="D153" t="str">
-            <v>In progress of translating…(153)</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>LevelPackUIName_Hold</v>
-          </cell>
-          <cell r="B154">
-            <v>1</v>
-          </cell>
-          <cell r="C154" t="str">
-            <v>이동 불가 효과</v>
-          </cell>
-          <cell r="D154" t="str">
-            <v>In progress of translating…(154)</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>LevelPackUIName_Transport</v>
-          </cell>
-          <cell r="B155">
-            <v>1</v>
-          </cell>
-          <cell r="C155" t="str">
-            <v>몬스터 전이 효과</v>
-          </cell>
-          <cell r="D155" t="str">
-            <v>In progress of translating…(155)</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>LevelPackUIName_SummonShield</v>
-          </cell>
-          <cell r="B156">
-            <v>1</v>
-          </cell>
-          <cell r="C156" t="str">
-            <v>쉴드 소환</v>
-          </cell>
-          <cell r="D156" t="str">
-            <v>In progress of translating…(156)</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>LevelPackUIDesc_Atk</v>
-          </cell>
-          <cell r="B157">
-            <v>1</v>
-          </cell>
-          <cell r="C157" t="str">
-            <v>공격력이 증가합니다</v>
-          </cell>
-          <cell r="D157" t="str">
-            <v>In progress of translating…(157)</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
-          </cell>
-          <cell r="B158">
-            <v>1</v>
-          </cell>
-          <cell r="C158" t="str">
-            <v>공격력이 많이 증가합니다</v>
-          </cell>
-          <cell r="D158" t="str">
-            <v>In progress of translating…(158)</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
-          </cell>
-          <cell r="B159">
-            <v>1</v>
-          </cell>
-          <cell r="C159" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
-          </cell>
-          <cell r="D159" t="str">
-            <v>In progress of translating…(159)</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
-          </cell>
-          <cell r="B160">
-            <v>1</v>
-          </cell>
-          <cell r="C160" t="str">
-            <v>공격 속도가 증가합니다</v>
-          </cell>
-          <cell r="D160" t="str">
-            <v>In progress of translating…(160)</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
-          </cell>
-          <cell r="B161">
-            <v>1</v>
-          </cell>
-          <cell r="C161" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
-          </cell>
-          <cell r="D161" t="str">
-            <v>In progress of translating…(161)</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
-          </cell>
-          <cell r="B162">
-            <v>1</v>
-          </cell>
-          <cell r="C162" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
-          </cell>
-          <cell r="D162" t="str">
-            <v>In progress of translating…(162)</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>LevelPackUIDesc_Crit</v>
-          </cell>
-          <cell r="B163">
-            <v>1</v>
-          </cell>
-          <cell r="C163" t="str">
-            <v>치명타 확률이 증가합니다</v>
-          </cell>
-          <cell r="D163" t="str">
-            <v>In progress of translating…(163)</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
-          </cell>
-          <cell r="B164">
-            <v>1</v>
-          </cell>
-          <cell r="C164" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
-          </cell>
-          <cell r="D164" t="str">
-            <v>In progress of translating…(164)</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
-          </cell>
-          <cell r="B165">
-            <v>1</v>
-          </cell>
-          <cell r="C165" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
-          </cell>
-          <cell r="D165" t="str">
-            <v>In progress of translating…(165)</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
-          </cell>
-          <cell r="B166">
-            <v>1</v>
-          </cell>
-          <cell r="C166" t="str">
-            <v>최대 체력이 증가합니다</v>
-          </cell>
-          <cell r="D166" t="str">
-            <v>In progress of translating…(166)</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
-          </cell>
-          <cell r="B167">
-            <v>1</v>
-          </cell>
-          <cell r="C167" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
-          </cell>
-          <cell r="D167" t="str">
-            <v>In progress of translating…(167)</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
-          </cell>
-          <cell r="B168">
-            <v>1</v>
-          </cell>
-          <cell r="C168" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
-          </cell>
-          <cell r="D168" t="str">
-            <v>In progress of translating…(168)</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
-          </cell>
-          <cell r="B169">
-            <v>1</v>
-          </cell>
-          <cell r="C169" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
-          </cell>
-          <cell r="D169" t="str">
-            <v>In progress of translating…(169)</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
-          </cell>
-          <cell r="B170">
-            <v>1</v>
-          </cell>
-          <cell r="C170" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
-          </cell>
-          <cell r="D170" t="str">
-            <v>In progress of translating…(170)</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
-          </cell>
-          <cell r="B171">
-            <v>1</v>
-          </cell>
-          <cell r="C171" t="str">
-            <v>골드 획득량이 증가합니다</v>
-          </cell>
-          <cell r="D171" t="str">
-            <v>In progress of translating…(171)</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
-          </cell>
-          <cell r="B172">
-            <v>1</v>
-          </cell>
-          <cell r="C172" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
-          </cell>
-          <cell r="D172" t="str">
-            <v>In progress of translating…(172)</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
-          </cell>
-          <cell r="B173">
-            <v>1</v>
-          </cell>
-          <cell r="C173" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
-          </cell>
-          <cell r="D173" t="str">
-            <v>In progress of translating…(173)</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
-          </cell>
-          <cell r="B174">
-            <v>1</v>
-          </cell>
-          <cell r="C174" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
-          </cell>
-          <cell r="D174" t="str">
-            <v>In progress of translating…(174)</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
-          </cell>
-          <cell r="B175">
-            <v>1</v>
-          </cell>
-          <cell r="C175" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
-          </cell>
-          <cell r="D175" t="str">
-            <v>In progress of translating…(175)</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
-          </cell>
-          <cell r="B176">
-            <v>1</v>
-          </cell>
-          <cell r="C176" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
-          </cell>
-          <cell r="D176" t="str">
-            <v>In progress of translating…(176)</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
-          </cell>
-          <cell r="B177">
-            <v>1</v>
-          </cell>
-          <cell r="C177" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
-          </cell>
-          <cell r="D177" t="str">
-            <v>In progress of translating…(177)</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
-          </cell>
-          <cell r="B178">
-            <v>1</v>
-          </cell>
-          <cell r="C178" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
-          </cell>
-          <cell r="D178" t="str">
-            <v>In progress of translating…(178)</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
-          </cell>
-          <cell r="B179">
-            <v>1</v>
-          </cell>
-          <cell r="C179" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
-          </cell>
-          <cell r="D179" t="str">
-            <v>In progress of translating…(179)</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
-          </cell>
-          <cell r="B180">
-            <v>1</v>
-          </cell>
-          <cell r="C180" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
-          </cell>
-          <cell r="D180" t="str">
-            <v>In progress of translating…(180)</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
-          </cell>
-          <cell r="B181">
-            <v>1</v>
-          </cell>
-          <cell r="C181" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
-          </cell>
-          <cell r="D181" t="str">
-            <v>In progress of translating…(181)</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
-          </cell>
-          <cell r="B182">
-            <v>1</v>
-          </cell>
-          <cell r="C182" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
-          </cell>
-          <cell r="D182" t="str">
-            <v>In progress of translating…(182)</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
-          </cell>
-          <cell r="B183">
-            <v>1</v>
-          </cell>
-          <cell r="C183" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
-          </cell>
-          <cell r="D183" t="str">
-            <v>In progress of translating…(183)</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
-          </cell>
-          <cell r="B184">
-            <v>1</v>
-          </cell>
-          <cell r="C184" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
-          </cell>
-          <cell r="D184" t="str">
-            <v>In progress of translating…(184)</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
-          </cell>
-          <cell r="B185">
-            <v>1</v>
-          </cell>
-          <cell r="C185" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
-          </cell>
-          <cell r="D185" t="str">
-            <v>In progress of translating…(185)</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
-          </cell>
-          <cell r="B186">
-            <v>1</v>
-          </cell>
-          <cell r="C186" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
-          </cell>
-          <cell r="D186" t="str">
-            <v>In progress of translating…(186)</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
-          </cell>
-          <cell r="B187">
-            <v>1</v>
-          </cell>
-          <cell r="C187" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
-          </cell>
-          <cell r="D187" t="str">
-            <v>In progress of translating…(187)</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
-          </cell>
-          <cell r="B188">
-            <v>1</v>
-          </cell>
-          <cell r="C188" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
-          </cell>
-          <cell r="D188" t="str">
-            <v>In progress of translating…(188)</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
-          </cell>
-          <cell r="B189">
-            <v>1</v>
-          </cell>
-          <cell r="C189" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
-          </cell>
-          <cell r="D189" t="str">
-            <v>In progress of translating…(189)</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B190">
-            <v>1</v>
-          </cell>
-          <cell r="C190" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
-          </cell>
-          <cell r="D190" t="str">
-            <v>In progress of translating…(190)</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
-          </cell>
-          <cell r="B191">
-            <v>1</v>
-          </cell>
-          <cell r="C191" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
-          </cell>
-          <cell r="D191" t="str">
-            <v>In progress of translating…(191)</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
-          </cell>
-          <cell r="B192">
-            <v>1</v>
-          </cell>
-          <cell r="C192" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
-          </cell>
-          <cell r="D192" t="str">
-            <v>In progress of translating…(192)</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
-          </cell>
-          <cell r="B193">
-            <v>1</v>
-          </cell>
-          <cell r="C193" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
-          </cell>
-          <cell r="D193" t="str">
-            <v>In progress of translating…(193)</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
-          </cell>
-          <cell r="B194">
-            <v>1</v>
-          </cell>
-          <cell r="C194" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
-          </cell>
-          <cell r="D194" t="str">
-            <v>In progress of translating…(194)</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
-          </cell>
-          <cell r="B195">
-            <v>1</v>
-          </cell>
-          <cell r="C195" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
-          </cell>
-          <cell r="D195" t="str">
-            <v>In progress of translating…(195)</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
-          </cell>
-          <cell r="B196">
-            <v>1</v>
-          </cell>
-          <cell r="C196" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
-          </cell>
-          <cell r="D196" t="str">
-            <v>In progress of translating…(196)</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
-          </cell>
-          <cell r="B197">
-            <v>1</v>
-          </cell>
-          <cell r="C197" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
-          </cell>
-          <cell r="D197" t="str">
-            <v>In progress of translating…(197)</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
-          </cell>
-          <cell r="B198">
-            <v>1</v>
-          </cell>
-          <cell r="C198" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
-          </cell>
-          <cell r="D198" t="str">
-            <v>In progress of translating…(198)</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
-          </cell>
-          <cell r="B199">
-            <v>1</v>
-          </cell>
-          <cell r="C199" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
-          </cell>
-          <cell r="D199" t="str">
-            <v>In progress of translating…(199)</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
-          </cell>
-          <cell r="B200">
-            <v>1</v>
-          </cell>
-          <cell r="C200" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
-          </cell>
-          <cell r="D200" t="str">
-            <v>In progress of translating…(200)</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
-          </cell>
-          <cell r="B201">
-            <v>1</v>
-          </cell>
-          <cell r="C201" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
-          </cell>
-          <cell r="D201" t="str">
-            <v>In progress of translating…(201)</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
-          </cell>
-          <cell r="B202">
-            <v>1</v>
-          </cell>
-          <cell r="C202" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
-          </cell>
-          <cell r="D202" t="str">
-            <v>In progress of translating…(202)</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
-          </cell>
-          <cell r="B203">
-            <v>1</v>
-          </cell>
-          <cell r="C203" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
-          </cell>
-          <cell r="D203" t="str">
-            <v>In progress of translating…(203)</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
-          </cell>
-          <cell r="B204">
-            <v>1</v>
-          </cell>
-          <cell r="C204" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
-          </cell>
-          <cell r="D204" t="str">
-            <v>In progress of translating…(204)</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205" t="str">
-            <v>LevelPackUIDesc_Hold</v>
-          </cell>
-          <cell r="B205">
-            <v>1</v>
-          </cell>
-          <cell r="C205" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
-          </cell>
-          <cell r="D205" t="str">
-            <v>In progress of translating…(205)</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206" t="str">
-            <v>LevelPackUIDesc_Transport</v>
-          </cell>
-          <cell r="B206">
-            <v>1</v>
-          </cell>
-          <cell r="C206" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
-          </cell>
-          <cell r="D206" t="str">
-            <v>In progress of translating…(206)</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
-          </cell>
-          <cell r="B207">
-            <v>1</v>
-          </cell>
-          <cell r="C207" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
-          </cell>
-          <cell r="D207" t="str">
-            <v>In progress of translating…(207)</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208" t="str">
-            <v>Chapter1Name</v>
-          </cell>
-          <cell r="B208">
-            <v>1</v>
-          </cell>
-          <cell r="C208" t="str">
-            <v>드넓은 평야</v>
-          </cell>
-          <cell r="D208" t="str">
-            <v>In progress of translating…(208)</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209" t="str">
-            <v>Chapter2Name</v>
-          </cell>
-          <cell r="B209">
-            <v>1</v>
-          </cell>
-          <cell r="C209" t="str">
-            <v>드넓은 평야2</v>
-          </cell>
-          <cell r="D209" t="str">
-            <v>In progress of translating…(209)</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210" t="str">
-            <v>Chapter3Name</v>
-          </cell>
-          <cell r="B210">
-            <v>1</v>
-          </cell>
-          <cell r="C210" t="str">
-            <v>드넓은 평야3</v>
-          </cell>
-          <cell r="D210" t="str">
-            <v>In progress of translating…(210)</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211" t="str">
-            <v>Chapter4Name</v>
-          </cell>
-          <cell r="B211">
-            <v>1</v>
-          </cell>
-          <cell r="C211" t="str">
-            <v>드넓은 평야4</v>
-          </cell>
-          <cell r="D211" t="str">
-            <v>In progress of translating…(211)</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212" t="str">
-            <v>Chapter5Name</v>
-          </cell>
-          <cell r="B212">
-            <v>1</v>
-          </cell>
-          <cell r="C212" t="str">
-            <v>드넓은 평야5</v>
-          </cell>
-          <cell r="D212" t="str">
-            <v>In progress of translating…(212)</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213" t="str">
-            <v>Chapter6Name</v>
-          </cell>
-          <cell r="B213">
-            <v>1</v>
-          </cell>
-          <cell r="C213" t="str">
-            <v>드넓은 평야6</v>
-          </cell>
-          <cell r="D213" t="str">
-            <v>In progress of translating…(213)</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214" t="str">
-            <v>Chapter7Name</v>
-          </cell>
-          <cell r="B214">
-            <v>1</v>
-          </cell>
-          <cell r="C214" t="str">
-            <v>드넓은 평야7</v>
-          </cell>
-          <cell r="D214" t="str">
-            <v>In progress of translating…(214)</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215" t="str">
-            <v>Chapter8Name</v>
-          </cell>
-          <cell r="B215">
-            <v>1</v>
-          </cell>
-          <cell r="C215" t="str">
-            <v>드넓은 평야8</v>
-          </cell>
-          <cell r="D215" t="str">
-            <v>In progress of translating…(215)</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216" t="str">
-            <v>Chapter9Name</v>
-          </cell>
-          <cell r="B216">
-            <v>1</v>
-          </cell>
-          <cell r="C216" t="str">
-            <v>드넓은 평야9</v>
-          </cell>
-          <cell r="D216" t="str">
-            <v>In progress of translating…(216)</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217" t="str">
-            <v>Chapter10Name</v>
-          </cell>
-          <cell r="B217">
-            <v>1</v>
-          </cell>
-          <cell r="C217" t="str">
-            <v>드넓은 평야10</v>
-          </cell>
-          <cell r="D217" t="str">
-            <v>In progress of translating…(217)</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218" t="str">
-            <v>Chapter11Name</v>
-          </cell>
-          <cell r="B218">
-            <v>1</v>
-          </cell>
-          <cell r="C218" t="str">
-            <v>드넓은 평야11</v>
-          </cell>
-          <cell r="D218" t="str">
-            <v>In progress of translating…(218)</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219" t="str">
-            <v>Chapter12Name</v>
-          </cell>
-          <cell r="B219">
-            <v>1</v>
-          </cell>
-          <cell r="C219" t="str">
-            <v>드넓은 평야12</v>
-          </cell>
-          <cell r="D219" t="str">
-            <v>In progress of translating…(219)</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220" t="str">
-            <v>Chapter13Name</v>
-          </cell>
-          <cell r="B220">
-            <v>1</v>
-          </cell>
-          <cell r="C220" t="str">
-            <v>드넓은 평야13</v>
-          </cell>
-          <cell r="D220" t="str">
-            <v>In progress of translating…(220)</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221" t="str">
-            <v>Chapter14Name</v>
-          </cell>
-          <cell r="B221">
-            <v>1</v>
-          </cell>
-          <cell r="C221" t="str">
-            <v>드넓은 평야14</v>
-          </cell>
-          <cell r="D221" t="str">
-            <v>In progress of translating…(221)</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222" t="str">
-            <v>Chapter15Name</v>
-          </cell>
-          <cell r="B222">
-            <v>1</v>
-          </cell>
-          <cell r="C222" t="str">
-            <v>드넓은 평야15</v>
-          </cell>
-          <cell r="D222" t="str">
-            <v>In progress of translating…(222)</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223" t="str">
-            <v>Chapter16Name</v>
-          </cell>
-          <cell r="B223">
-            <v>1</v>
-          </cell>
-          <cell r="C223" t="str">
-            <v>드넓은 평야16</v>
-          </cell>
-          <cell r="D223" t="str">
-            <v>In progress of translating…(223)</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224" t="str">
-            <v>Chapter17Name</v>
-          </cell>
-          <cell r="B224">
-            <v>1</v>
-          </cell>
-          <cell r="C224" t="str">
-            <v>드넓은 평야17</v>
-          </cell>
-          <cell r="D224" t="str">
-            <v>In progress of translating…(224)</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225" t="str">
-            <v>Chapter18Name</v>
-          </cell>
-          <cell r="B225">
-            <v>1</v>
-          </cell>
-          <cell r="C225" t="str">
-            <v>드넓은 평야18</v>
-          </cell>
-          <cell r="D225" t="str">
-            <v>In progress of translating…(225)</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226" t="str">
-            <v>Chapter19Name</v>
-          </cell>
-          <cell r="B226">
-            <v>1</v>
-          </cell>
-          <cell r="C226" t="str">
-            <v>드넓은 평야19</v>
-          </cell>
-          <cell r="D226" t="str">
-            <v>In progress of translating…(226)</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227" t="str">
-            <v>Chapter20Name</v>
-          </cell>
-          <cell r="B227">
-            <v>1</v>
-          </cell>
-          <cell r="C227" t="str">
-            <v>드넓은 평야20</v>
-          </cell>
-          <cell r="D227" t="str">
-            <v>In progress of translating…(227)</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228" t="str">
-            <v>Chapter21Name</v>
-          </cell>
-          <cell r="B228">
-            <v>1</v>
-          </cell>
-          <cell r="C228" t="str">
-            <v>드넓은 평야21</v>
-          </cell>
-          <cell r="D228" t="str">
-            <v>In progress of translating…(228)</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229" t="str">
-            <v>Chapter22Name</v>
-          </cell>
-          <cell r="B229">
-            <v>1</v>
-          </cell>
-          <cell r="C229" t="str">
-            <v>드넓은 평야22</v>
-          </cell>
-          <cell r="D229" t="str">
-            <v>In progress of translating…(229)</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230" t="str">
-            <v>Chapter23Name</v>
-          </cell>
-          <cell r="B230">
-            <v>1</v>
-          </cell>
-          <cell r="C230" t="str">
-            <v>드넓은 평야23</v>
-          </cell>
-          <cell r="D230" t="str">
-            <v>In progress of translating…(230)</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231" t="str">
-            <v>Chapter24Name</v>
-          </cell>
-          <cell r="B231">
-            <v>1</v>
-          </cell>
-          <cell r="C231" t="str">
-            <v>드넓은 평야24</v>
-          </cell>
-          <cell r="D231" t="str">
-            <v>In progress of translating…(231)</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232" t="str">
-            <v>Chapter25Name</v>
-          </cell>
-          <cell r="B232">
-            <v>1</v>
-          </cell>
-          <cell r="C232" t="str">
-            <v>드넓은 평야25</v>
-          </cell>
-          <cell r="D232" t="str">
-            <v>In progress of translating…(232)</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233" t="str">
-            <v>Chapter26Name</v>
-          </cell>
-          <cell r="B233">
-            <v>1</v>
-          </cell>
-          <cell r="C233" t="str">
-            <v>드넓은 평야26</v>
-          </cell>
-          <cell r="D233" t="str">
-            <v>In progress of translating…(233)</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234" t="str">
-            <v>Chapter27Name</v>
-          </cell>
-          <cell r="B234">
-            <v>1</v>
-          </cell>
-          <cell r="C234" t="str">
-            <v>드넓은 평야27</v>
-          </cell>
-          <cell r="D234" t="str">
-            <v>In progress of translating…(234)</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235" t="str">
-            <v>Chapter28Name</v>
-          </cell>
-          <cell r="B235">
-            <v>1</v>
-          </cell>
-          <cell r="C235" t="str">
-            <v>드넓은 평야28</v>
-          </cell>
-          <cell r="D235" t="str">
-            <v>In progress of translating…(235)</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236" t="str">
-            <v>Chapter29Name</v>
-          </cell>
-          <cell r="B236">
-            <v>1</v>
-          </cell>
-          <cell r="C236" t="str">
-            <v>드넓은 평야29</v>
-          </cell>
-          <cell r="D236" t="str">
-            <v>In progress of translating…(236)</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237" t="str">
-            <v>Chapter1Desc</v>
-          </cell>
-          <cell r="B237">
-            <v>1</v>
-          </cell>
-          <cell r="C237" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
-          </cell>
-          <cell r="D237" t="str">
-            <v>In progress of translating…(237)</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238" t="str">
-            <v>Chapter2Desc</v>
-          </cell>
-          <cell r="B238">
-            <v>1</v>
-          </cell>
-          <cell r="C238" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D238" t="str">
-            <v>In progress of translating…(238)</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239" t="str">
-            <v>Chapter3Desc</v>
-          </cell>
-          <cell r="B239">
-            <v>1</v>
-          </cell>
-          <cell r="C239" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D239" t="str">
-            <v>In progress of translating…(239)</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240" t="str">
-            <v>Chapter4Desc</v>
-          </cell>
-          <cell r="B240">
-            <v>1</v>
-          </cell>
-          <cell r="C240" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D240" t="str">
-            <v>In progress of translating…(240)</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241" t="str">
-            <v>Chapter5Desc</v>
-          </cell>
-          <cell r="B241">
-            <v>1</v>
-          </cell>
-          <cell r="C241" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D241" t="str">
-            <v>In progress of translating…(241)</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242" t="str">
-            <v>Chapter6Desc</v>
-          </cell>
-          <cell r="B242">
-            <v>1</v>
-          </cell>
-          <cell r="C242" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D242" t="str">
-            <v>In progress of translating…(242)</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243" t="str">
-            <v>Chapter7Desc</v>
-          </cell>
-          <cell r="B243">
-            <v>1</v>
-          </cell>
-          <cell r="C243" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D243" t="str">
-            <v>In progress of translating…(243)</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244" t="str">
-            <v>Chapter8Desc</v>
-          </cell>
-          <cell r="B244">
-            <v>1</v>
-          </cell>
-          <cell r="C244" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D244" t="str">
-            <v>In progress of translating…(244)</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245" t="str">
-            <v>Chapter9Desc</v>
-          </cell>
-          <cell r="B245">
-            <v>1</v>
-          </cell>
-          <cell r="C245" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D245" t="str">
-            <v>In progress of translating…(245)</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246" t="str">
-            <v>Chapter10Desc</v>
-          </cell>
-          <cell r="B246">
-            <v>1</v>
-          </cell>
-          <cell r="C246" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D246" t="str">
-            <v>In progress of translating…(246)</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247" t="str">
-            <v>Chapter11Desc</v>
-          </cell>
-          <cell r="B247">
-            <v>1</v>
-          </cell>
-          <cell r="C247" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D247" t="str">
-            <v>In progress of translating…(247)</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248" t="str">
-            <v>Chapter12Desc</v>
-          </cell>
-          <cell r="B248">
-            <v>1</v>
-          </cell>
-          <cell r="C248" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D248" t="str">
-            <v>In progress of translating…(248)</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249" t="str">
-            <v>Chapter13Desc</v>
-          </cell>
-          <cell r="B249">
-            <v>1</v>
-          </cell>
-          <cell r="C249" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D249" t="str">
-            <v>In progress of translating…(249)</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250" t="str">
-            <v>Chapter14Desc</v>
-          </cell>
-          <cell r="B250">
-            <v>1</v>
-          </cell>
-          <cell r="C250" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D250" t="str">
-            <v>In progress of translating…(250)</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251" t="str">
-            <v>Chapter15Desc</v>
-          </cell>
-          <cell r="B251">
-            <v>1</v>
-          </cell>
-          <cell r="C251" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D251" t="str">
-            <v>In progress of translating…(251)</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252" t="str">
-            <v>Chapter16Desc</v>
-          </cell>
-          <cell r="B252">
-            <v>1</v>
-          </cell>
-          <cell r="C252" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D252" t="str">
-            <v>In progress of translating…(252)</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253" t="str">
-            <v>Chapter17Desc</v>
-          </cell>
-          <cell r="B253">
-            <v>1</v>
-          </cell>
-          <cell r="C253" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D253" t="str">
-            <v>In progress of translating…(253)</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254" t="str">
-            <v>Chapter18Desc</v>
-          </cell>
-          <cell r="B254">
-            <v>1</v>
-          </cell>
-          <cell r="C254" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D254" t="str">
-            <v>In progress of translating…(254)</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255" t="str">
-            <v>Chapter19Desc</v>
-          </cell>
-          <cell r="B255">
-            <v>1</v>
-          </cell>
-          <cell r="C255" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D255" t="str">
-            <v>In progress of translating…(255)</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256" t="str">
-            <v>Chapter20Desc</v>
-          </cell>
-          <cell r="B256">
-            <v>1</v>
-          </cell>
-          <cell r="C256" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D256" t="str">
-            <v>In progress of translating…(256)</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257" t="str">
-            <v>Chapter21Desc</v>
-          </cell>
-          <cell r="B257">
-            <v>1</v>
-          </cell>
-          <cell r="C257" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D257" t="str">
-            <v>In progress of translating…(257)</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258" t="str">
-            <v>Chapter22Desc</v>
-          </cell>
-          <cell r="B258">
-            <v>1</v>
-          </cell>
-          <cell r="C258" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D258" t="str">
-            <v>In progress of translating…(258)</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259" t="str">
-            <v>Chapter23Desc</v>
-          </cell>
-          <cell r="B259">
-            <v>1</v>
-          </cell>
-          <cell r="C259" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D259" t="str">
-            <v>In progress of translating…(259)</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260" t="str">
-            <v>Chapter24Desc</v>
-          </cell>
-          <cell r="B260">
-            <v>1</v>
-          </cell>
-          <cell r="C260" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D260" t="str">
-            <v>In progress of translating…(260)</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261" t="str">
-            <v>Chapter25Desc</v>
-          </cell>
-          <cell r="B261">
-            <v>1</v>
-          </cell>
-          <cell r="C261" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D261" t="str">
-            <v>In progress of translating…(261)</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262" t="str">
-            <v>Chapter26Desc</v>
-          </cell>
-          <cell r="B262">
-            <v>1</v>
-          </cell>
-          <cell r="C262" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D262" t="str">
-            <v>In progress of translating…(262)</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263" t="str">
-            <v>Chapter27Desc</v>
-          </cell>
-          <cell r="B263">
-            <v>1</v>
-          </cell>
-          <cell r="C263" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D263" t="str">
-            <v>In progress of translating…(263)</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264" t="str">
-            <v>Chapter28Desc</v>
-          </cell>
-          <cell r="B264">
-            <v>1</v>
-          </cell>
-          <cell r="C264" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D264" t="str">
-            <v>In progress of translating…(264)</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265" t="str">
-            <v>Chapter29Desc</v>
-          </cell>
-          <cell r="B265">
-            <v>1</v>
-          </cell>
-          <cell r="C265" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
-          </cell>
-          <cell r="D265" t="str">
-            <v>In progress of translating…(265)</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266" t="str">
-            <v>CharName_Ganfaul</v>
-          </cell>
-          <cell r="B266">
-            <v>1</v>
-          </cell>
-          <cell r="C266" t="str">
-            <v>간파울</v>
-          </cell>
-          <cell r="D266" t="str">
-            <v>Ganfaul</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267" t="str">
-            <v>CharDesc_Ganfaul</v>
-          </cell>
-          <cell r="B267">
-            <v>1</v>
-          </cell>
-          <cell r="C267" t="str">
-            <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
-강력한 단일 공격을 사용한다</v>
-          </cell>
-          <cell r="D267" t="str">
-            <v>In progress of translating…(267)</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B268">
-            <v>1</v>
-          </cell>
-          <cell r="C268" t="str">
-            <v>킵시리즈</v>
-          </cell>
-          <cell r="D268" t="str">
-            <v>KeepSeries</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269" t="str">
-            <v>CharDesc_KeepSeries</v>
-          </cell>
-          <cell r="B269">
-            <v>1</v>
-          </cell>
-          <cell r="C269" t="str">
-            <v>킵시리즈의 설명 우다다다
-간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
-          </cell>
-          <cell r="D269" t="str">
-            <v>In progress of translating…(269)</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B270">
-            <v>1</v>
-          </cell>
-          <cell r="C270" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
-          <cell r="D270" t="str">
-            <v>BigBatSuccubus</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271" t="str">
-            <v>CharDesc_BigBatSuccubus</v>
-          </cell>
-          <cell r="B271">
-            <v>1</v>
-          </cell>
-          <cell r="C271" t="str">
-            <v>빅뱃서큐버스의 설명 우다다다
-연타 공격을 사용한다</v>
-          </cell>
-          <cell r="D271" t="str">
-            <v>In progress of translating…(271)</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B272">
-            <v>1</v>
-          </cell>
-          <cell r="C272" t="str">
-            <v>베이</v>
-          </cell>
-          <cell r="D272" t="str">
-            <v>Bei</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273" t="str">
-            <v>CharDesc_Bei</v>
-          </cell>
-          <cell r="B273">
-            <v>1</v>
-          </cell>
-          <cell r="C273" t="str">
-            <v>베이의 설명 우다다다
-장판 공격을 사용한다</v>
-          </cell>
-          <cell r="D273" t="str">
-            <v>In progress of translating…(273)</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274" t="str">
-            <v>CharName_JellyFishGirl</v>
-          </cell>
-          <cell r="B274">
-            <v>1</v>
-          </cell>
-          <cell r="C274" t="str">
-            <v>젤리피쉬걸</v>
-          </cell>
-          <cell r="D274" t="str">
-            <v>JellyFIshGirl</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275" t="str">
-            <v>CharDesc_JellyFishGirl</v>
-          </cell>
-          <cell r="B275">
-            <v>1</v>
-          </cell>
-          <cell r="C275" t="str">
-            <v>젤리피쉬걸의 설명 우다다다
-곡사로 공격한다</v>
-          </cell>
-          <cell r="D275" t="str">
-            <v>In progress of translating…(275)</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276" t="str">
-            <v>BossName_SlimeRabbit</v>
-          </cell>
-          <cell r="B276">
-            <v>1</v>
-          </cell>
-          <cell r="C276" t="str">
-            <v>초록 토끼귀 슬라임</v>
-          </cell>
-          <cell r="D276" t="str">
-            <v>Green Rabbit Slime</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
-          </cell>
-          <cell r="B277">
-            <v>1</v>
-          </cell>
-          <cell r="C277" t="str">
-            <v>붉은 토끼귀 슬라임</v>
-          </cell>
-          <cell r="D277" t="str">
-            <v>Red Rabbit Slime</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278" t="str">
-            <v>BossName_TerribleStump_Purple</v>
-          </cell>
-          <cell r="B278">
-            <v>1</v>
-          </cell>
-          <cell r="C278" t="str">
-            <v>나무귀신</v>
-          </cell>
-          <cell r="D278" t="str">
-            <v>Terrible Stump</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
-          </cell>
-          <cell r="B279">
-            <v>1</v>
-          </cell>
-          <cell r="C279" t="str">
-            <v>외뿔 풍뎅이</v>
-          </cell>
-          <cell r="D279" t="str">
-            <v>In progress of translating…(279)</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280" t="str">
-            <v>BossName_SpiritKing</v>
-          </cell>
-          <cell r="B280">
-            <v>1</v>
-          </cell>
-          <cell r="C280" t="str">
-            <v>스피릿 킹</v>
-          </cell>
-          <cell r="D280" t="str">
-            <v>Spirit King</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281" t="str">
-            <v>BossDesc_SlimeRabbit</v>
-          </cell>
-          <cell r="B281">
-            <v>1</v>
-          </cell>
-          <cell r="C281" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
-          </cell>
-          <cell r="D281" t="str">
-            <v>In progress of translating…(281)</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
-          </cell>
-          <cell r="B282">
-            <v>1</v>
-          </cell>
-          <cell r="C282" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
-          </cell>
-          <cell r="D282" t="str">
-            <v>In progress of translating…(282)</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
-          </cell>
-          <cell r="B283">
-            <v>1</v>
-          </cell>
-          <cell r="C283" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
-          </cell>
-          <cell r="D283" t="str">
-            <v>In progress of translating…(283)</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
-          </cell>
-          <cell r="B284">
-            <v>1</v>
-          </cell>
-          <cell r="C284" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
-          </cell>
-          <cell r="D284" t="str">
-            <v>In progress of translating…(284)</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285" t="str">
-            <v>BossDesc_SpiritKing</v>
-          </cell>
-          <cell r="B285">
-            <v>1</v>
-          </cell>
-          <cell r="C285" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
-          </cell>
-          <cell r="D285" t="str">
-            <v>In progress of translating…(285)</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286" t="str">
-            <v>PenaltyUIName_One</v>
-          </cell>
-          <cell r="B286">
-            <v>1</v>
-          </cell>
-          <cell r="C286" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="D286" t="str">
-            <v>In progress of translating…(286)</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287" t="str">
-            <v>PenaltyUIMind_One</v>
-          </cell>
-          <cell r="B287">
-            <v>1</v>
-          </cell>
-          <cell r="C287" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
-          </cell>
-          <cell r="D287" t="str">
-            <v>In progress of translating…(287)</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
-          </cell>
-          <cell r="B288">
-            <v>1</v>
-          </cell>
-          <cell r="C288" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="D288" t="str">
-            <v>In progress of translating…(288)</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289" t="str">
-            <v>PenaltyUIName_Two</v>
-          </cell>
-          <cell r="B289">
-            <v>1</v>
-          </cell>
-          <cell r="C289" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="D289" t="str">
-            <v>In progress of translating…(289)</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290" t="str">
-            <v>PenaltyUIMind_Two</v>
-          </cell>
-          <cell r="B290">
-            <v>1</v>
-          </cell>
-          <cell r="C290" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
-          </cell>
-          <cell r="D290" t="str">
-            <v>In progress of translating…(290)</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
-          </cell>
-          <cell r="B291">
-            <v>1</v>
-          </cell>
-          <cell r="C291" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="D291" t="str">
-            <v>In progress of translating…(291)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>kor|String</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>eng|String</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Skill_ActiveOne001_Name</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>하트가 폭발한다</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Hearts exploding!</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Skill_ActiveOne001_Description</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Deal &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Skill_ActiveOne002_Description</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Deal &lt;color=#FFFF00&gt;{0}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14087,15 +14098,15 @@
       </c>
       <c r="D2" t="str">
         <f>IF(ISBLANK(B2),"",
-IFERROR(VLOOKUP(B2,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B2,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B2,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B2,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>간파울</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(C2),"",
-IFERROR(VLOOKUP(C2,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C2,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C2,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C2,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
@@ -14112,7 +14123,7 @@
       <c r="I2">
         <f>IF(ISBLANK(B2),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B2,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B2,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v>1</v>
       </c>
       <c r="J2">
@@ -14140,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -14173,15 +14184,15 @@
       </c>
       <c r="D3" t="str">
         <f>IF(ISBLANK(B3),"",
-IFERROR(VLOOKUP(B3,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B3,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B3,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B3,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>킵시리즈</v>
       </c>
       <c r="E3" t="str">
         <f>IF(ISBLANK(C3),"",
-IFERROR(VLOOKUP(C3,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C3,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C3,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C3,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
@@ -14198,7 +14209,7 @@
       <c r="I3">
         <f>IF(ISBLANK(B3),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B3,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B3,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v>0.5625</v>
       </c>
       <c r="J3">
@@ -14226,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -14259,15 +14270,15 @@
       </c>
       <c r="D4" t="str">
         <f>IF(ISBLANK(B4),"",
-IFERROR(VLOOKUP(B4,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B4,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B4,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B4,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>빅뱃서큐버스</v>
       </c>
       <c r="E4" t="str">
         <f>IF(ISBLANK(C4),"",
-IFERROR(VLOOKUP(C4,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C4,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C4,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C4,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
@@ -14284,7 +14295,7 @@
       <c r="I4">
         <f>IF(ISBLANK(B4),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B4,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B4,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v>0.47</v>
       </c>
       <c r="J4">
@@ -14312,7 +14323,7 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R4">
         <v>8</v>
@@ -14345,15 +14356,15 @@
       </c>
       <c r="D5" t="str">
         <f>IF(ISBLANK(B5),"",
-IFERROR(VLOOKUP(B5,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B5,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B5,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B5,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>베이</v>
       </c>
       <c r="E5" t="str">
         <f>IF(ISBLANK(C5),"",
-IFERROR(VLOOKUP(C5,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C5,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C5,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C5,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
@@ -14370,7 +14381,7 @@
       <c r="I5">
         <f>IF(ISBLANK(B5),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B5,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B5,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v>0.3</v>
       </c>
       <c r="J5">
@@ -14398,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -14431,15 +14442,15 @@
       </c>
       <c r="D6" t="str">
         <f>IF(ISBLANK(B6),"",
-IFERROR(VLOOKUP(B6,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B6,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B6,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B6,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>젤리피쉬걸</v>
       </c>
       <c r="E6" t="str">
         <f>IF(ISBLANK(C6),"",
-IFERROR(VLOOKUP(C6,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C6,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C6,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C6,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>젤리피쉬걸의 설명 우다다다
 곡사로 공격한다</v>
@@ -14456,7 +14467,7 @@
       <c r="I6">
         <f>IF(ISBLANK(B6),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B6,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B6,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="J6">
@@ -14484,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -14509,15 +14520,15 @@
       </c>
       <c r="D7" t="str">
         <f>IF(ISBLANK(B7),"",
-IFERROR(VLOOKUP(B7,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B7,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B7,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B7,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E7" t="str">
         <f>IF(ISBLANK(C7),"",
-IFERROR(VLOOKUP(C7,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C7,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C7,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C7,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14533,7 +14544,7 @@
       <c r="I7" t="str">
         <f>IF(ISBLANK(B7),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B7,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B7,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J7">
@@ -14558,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -14573,15 +14584,15 @@
       </c>
       <c r="D8" t="str">
         <f>IF(ISBLANK(B8),"",
-IFERROR(VLOOKUP(B8,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B8,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B8,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B8,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E8" t="str">
         <f>IF(ISBLANK(C8),"",
-IFERROR(VLOOKUP(C8,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C8,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C8,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C8,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14597,7 +14608,7 @@
       <c r="I8" t="str">
         <f>IF(ISBLANK(B8),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B8,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B8,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J8">
@@ -14622,7 +14633,7 @@
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -14637,15 +14648,15 @@
       </c>
       <c r="D9" t="str">
         <f>IF(ISBLANK(B9),"",
-IFERROR(VLOOKUP(B9,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B9,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B9,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B9,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E9" t="str">
         <f>IF(ISBLANK(C9),"",
-IFERROR(VLOOKUP(C9,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C9,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C9,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C9,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14661,7 +14672,7 @@
       <c r="I9" t="str">
         <f>IF(ISBLANK(B9),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B9,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B9,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J9">
@@ -14686,7 +14697,7 @@
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -14701,15 +14712,15 @@
       </c>
       <c r="D10" t="str">
         <f>IF(ISBLANK(B10),"",
-IFERROR(VLOOKUP(B10,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B10,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B10,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B10,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E10" t="str">
         <f>IF(ISBLANK(C10),"",
-IFERROR(VLOOKUP(C10,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C10,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C10,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C10,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14725,7 +14736,7 @@
       <c r="I10" t="str">
         <f>IF(ISBLANK(B10),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B10,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B10,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J10">
@@ -14750,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -14765,15 +14776,15 @@
       </c>
       <c r="D11" t="str">
         <f>IF(ISBLANK(B11),"",
-IFERROR(VLOOKUP(B11,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B11,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B11,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B11,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E11" t="str">
         <f>IF(ISBLANK(C11),"",
-IFERROR(VLOOKUP(C11,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C11,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C11,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C11,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14789,7 +14800,7 @@
       <c r="I11" t="str">
         <f>IF(ISBLANK(B11),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B11,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B11,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J11">
@@ -14814,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -14829,15 +14840,15 @@
       </c>
       <c r="D12" t="str">
         <f>IF(ISBLANK(B12),"",
-IFERROR(VLOOKUP(B12,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B12,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B12,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B12,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(C12),"",
-IFERROR(VLOOKUP(C12,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C12,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C12,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C12,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14853,7 +14864,7 @@
       <c r="I12" t="str">
         <f>IF(ISBLANK(B12),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B12,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B12,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J12">
@@ -14878,7 +14889,7 @@
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -14893,15 +14904,15 @@
       </c>
       <c r="D13" t="str">
         <f>IF(ISBLANK(B13),"",
-IFERROR(VLOOKUP(B13,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B13,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B13,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B13,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E13" t="str">
         <f>IF(ISBLANK(C13),"",
-IFERROR(VLOOKUP(C13,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C13,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C13,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C13,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14917,7 +14928,7 @@
       <c r="I13" t="str">
         <f>IF(ISBLANK(B13),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B13,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B13,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J13">
@@ -14942,7 +14953,7 @@
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -14957,15 +14968,15 @@
       </c>
       <c r="D14" t="str">
         <f>IF(ISBLANK(B14),"",
-IFERROR(VLOOKUP(B14,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B14,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B14,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B14,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E14" t="str">
         <f>IF(ISBLANK(C14),"",
-IFERROR(VLOOKUP(C14,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C14,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C14,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C14,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -14981,7 +14992,7 @@
       <c r="I14" t="str">
         <f>IF(ISBLANK(B14),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B14,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B14,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J14">
@@ -15006,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -15021,15 +15032,15 @@
       </c>
       <c r="D15" t="str">
         <f>IF(ISBLANK(B15),"",
-IFERROR(VLOOKUP(B15,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B15,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B15,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B15,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(C15),"",
-IFERROR(VLOOKUP(C15,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C15,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C15,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C15,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -15045,7 +15056,7 @@
       <c r="I15" t="str">
         <f>IF(ISBLANK(B15),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B15,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B15,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J15">
@@ -15070,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -15085,15 +15096,15 @@
       </c>
       <c r="D16" t="str">
         <f>IF(ISBLANK(B16),"",
-IFERROR(VLOOKUP(B16,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B16,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B16,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B16,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E16" t="str">
         <f>IF(ISBLANK(C16),"",
-IFERROR(VLOOKUP(C16,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C16,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C16,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C16,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -15109,7 +15120,7 @@
       <c r="I16" t="str">
         <f>IF(ISBLANK(B16),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B16,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B16,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J16">
@@ -15134,7 +15145,7 @@
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -15149,15 +15160,15 @@
       </c>
       <c r="D17" t="str">
         <f>IF(ISBLANK(B17),"",
-IFERROR(VLOOKUP(B17,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B17,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B17,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B17,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E17" t="str">
         <f>IF(ISBLANK(C17),"",
-IFERROR(VLOOKUP(C17,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C17,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C17,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C17,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -15173,7 +15184,7 @@
       <c r="I17" t="str">
         <f>IF(ISBLANK(B17),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B17,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B17,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J17">
@@ -15198,7 +15209,7 @@
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -15213,15 +15224,15 @@
       </c>
       <c r="D18" t="str">
         <f>IF(ISBLANK(B18),"",
-IFERROR(VLOOKUP(B18,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(B18,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B18,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(B18,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
       <c r="E18" t="str">
         <f>IF(ISBLANK(C18),"",
-IFERROR(VLOOKUP(C18,[3]StringTable!$1:$1048576,MATCH([3]StringTable!$B$1,[3]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(C18,[3]InApkStringTable!$1:$1048576,MATCH([3]InApkStringTable!$C$1,[3]InApkStringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C18,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(C18,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v/>
       </c>
@@ -15237,7 +15248,7 @@
       <c r="I18" t="str">
         <f>IF(ISBLANK(B18),"",
 IFERROR(
-VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B18,"CharName_",""),[1]AffectorValueLevelTable!$B:$I,MATCH([1]AffectorValueLevelTable!$I$1,[1]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
+VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B18,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
         <v/>
       </c>
       <c r="J18">
@@ -15262,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -15400,13 +15411,13 @@
         <v>0.8</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B2)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B2)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>150</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C2)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C2)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>100.00000000000003</v>
       </c>
     </row>
@@ -15441,13 +15452,13 @@
         <v>5.7142857142857051E-2</v>
       </c>
       <c r="I3">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B3)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B3)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>180</v>
       </c>
       <c r="J3">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C3)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C3)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>120</v>
       </c>
     </row>
@@ -15483,13 +15494,13 @@
         <v>5.7956278596848265E-2</v>
       </c>
       <c r="I4">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B4)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B4)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>210</v>
       </c>
       <c r="J4">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C4)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C4)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>139.99999999999997</v>
       </c>
     </row>
@@ -15525,13 +15536,13 @@
         <v>5.8410583132321947E-2</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B5)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B5)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>240.00000000000006</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C5)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C5)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>159.99999999999997</v>
       </c>
     </row>
@@ -15567,13 +15578,13 @@
         <v>5.8479382405740465E-2</v>
       </c>
       <c r="I6">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B6)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B6)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>269.99999999999994</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C6)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C6)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>179.99999999999997</v>
       </c>
     </row>
@@ -15609,13 +15620,13 @@
         <v>5.8140231057902891E-2</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B7)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B7)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>300.00000000000006</v>
       </c>
       <c r="J7">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C7)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C7)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>199.99999999999997</v>
       </c>
     </row>
@@ -15651,13 +15662,13 @@
         <v>5.7375228017667368E-2</v>
       </c>
       <c r="I8">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B8)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B8)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>329.99999999999994</v>
       </c>
       <c r="J8">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C8)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C8)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>219.99999999999997</v>
       </c>
     </row>
@@ -15693,13 +15704,13 @@
         <v>5.6171551905408679E-2</v>
       </c>
       <c r="I9">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B9)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B9)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>359.99999999999983</v>
       </c>
       <c r="J9">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C9)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C9)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>239.99999999999997</v>
       </c>
     </row>
@@ -15735,13 +15746,13 @@
         <v>5.4521914492557277E-2</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B10)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B10)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>389.99999999999994</v>
       </c>
       <c r="J10">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C10)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C10)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>259.99999999999989</v>
       </c>
     </row>
@@ -15777,13 +15788,13 @@
         <v>5.2424917781305203E-2</v>
       </c>
       <c r="I11">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B11)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B11)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>419.99999999999983</v>
       </c>
       <c r="J11">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C11)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C11)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>279.99999999999989</v>
       </c>
     </row>
@@ -15819,13 +15830,13 @@
         <v>4.9885302387055352E-2</v>
       </c>
       <c r="I12">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B12)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B12)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>449.99999999999983</v>
       </c>
       <c r="J12">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C12)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C12)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>299.99999999999989</v>
       </c>
     </row>
@@ -15861,13 +15872,13 @@
         <v>4.6914077479989436E-2</v>
       </c>
       <c r="I13">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B13)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B13)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>479.99999999999983</v>
       </c>
       <c r="J13">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C13)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C13)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>319.99999999999989</v>
       </c>
     </row>
@@ -15903,13 +15914,13 @@
         <v>4.3528525496897785E-2</v>
       </c>
       <c r="I14">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B14)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B14)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>509.99999999999983</v>
       </c>
       <c r="J14">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C14)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C14)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>339.99999999999989</v>
       </c>
     </row>
@@ -15945,13 +15956,13 @@
         <v>3.9752078079359432E-2</v>
       </c>
       <c r="I15">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B15)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B15)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>539.99999999999977</v>
       </c>
       <c r="J15">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C15)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C15)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>359.99999999999989</v>
       </c>
     </row>
@@ -15987,13 +15998,13 @@
         <v>3.5614063125705586E-2</v>
       </c>
       <c r="I16">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B16)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B16)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>569.99999999999977</v>
       </c>
       <c r="J16">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C16)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C16)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>379.99999999999989</v>
       </c>
     </row>
@@ -16029,13 +16040,13 @@
         <v>3.114932634901435E-2</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B17)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B17)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>599.99999999999977</v>
       </c>
       <c r="J17">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C17)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C17)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>399.99999999999989</v>
       </c>
     </row>
@@ -16071,13 +16082,13 @@
         <v>2.6397734194080424E-2</v>
       </c>
       <c r="I18">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B18)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B18)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>629.99999999999977</v>
       </c>
       <c r="J18">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C18)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C18)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>419.99999999999989</v>
       </c>
     </row>
@@ -16113,13 +16124,13 @@
         <v>2.1403568265470962E-2</v>
       </c>
       <c r="I19">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B19)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B19)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>659.99999999999977</v>
       </c>
       <c r="J19">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C19)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C19)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>439.99999999999989</v>
       </c>
     </row>
@@ -16155,13 +16166,13 @@
         <v>1.6214824443539166E-2</v>
       </c>
       <c r="I20">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B20)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B20)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>689.99999999999977</v>
       </c>
       <c r="J20">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C20)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C20)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>459.99999999999977</v>
       </c>
     </row>
@@ -16197,13 +16208,13 @@
         <v>1.0882432512443696E-2</v>
       </c>
       <c r="I21">
-        <f>VLOOKUP("LnHpConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(B21)
-+VLOOKUP("LnHpConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnHpConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(B21)
++VLOOKUP("LnHpConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>719.99999999999977</v>
       </c>
       <c r="J21">
-        <f>VLOOKUP("LnAtkConstant1",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)*LN(C21)
-+VLOOKUP("LnAtkConstant2",[2]GlobalConstantFloatTable!$A:$C,MATCH([2]GlobalConstantFloatTable!$C$1,[2]GlobalConstantFloatTable!$1:$1,0),0)</f>
+        <f>VLOOKUP("LnAtkConstant1",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)*LN(C21)
++VLOOKUP("LnAtkConstant2",[3]GlobalConstantFloatTable!$A:$C,MATCH([3]GlobalConstantFloatTable!$C$1,[3]GlobalConstantFloatTable!$1:$1,0),0)</f>
         <v>479.99999999999989</v>
       </c>
     </row>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09990EE6-A62E-4035-9AAB-FA2AEAE63181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29F67C-5DA5-40BF-898B-CAF4ACC2942E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2219,7 +2219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2444,6 +2444,18 @@
     <t>flying|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EarthMage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DynaMob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryChan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6412,55 +6424,45 @@
         </row>
         <row r="276">
           <cell r="A276" t="str">
-            <v>BossName_SlimeRabbit</v>
-          </cell>
-          <cell r="B276">
-            <v>1</v>
+            <v>CharName_QueryChan</v>
           </cell>
           <cell r="C276" t="str">
-            <v>초록 토끼귀 슬라임</v>
+            <v>쿼리짱</v>
           </cell>
           <cell r="D276" t="str">
-            <v>Green Rabbit Slime</v>
+            <v>QueryChan</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
-          </cell>
-          <cell r="B277">
-            <v>1</v>
+            <v>CharDesc_QueryChan</v>
           </cell>
           <cell r="C277" t="str">
-            <v>붉은 토끼귀 슬라임</v>
+            <v>쿼리짱의 설명 우다다다
+리코셰가 기본 장착 라이트닝 볼트</v>
           </cell>
           <cell r="D277" t="str">
-            <v>Red Rabbit Slime</v>
+            <v>In progress of translating…(277)</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278" t="str">
-            <v>BossName_TerribleStump_Purple</v>
-          </cell>
-          <cell r="B278">
-            <v>1</v>
+            <v>CharName_EarthMage</v>
           </cell>
           <cell r="C278" t="str">
-            <v>나무귀신</v>
+            <v>어스메이지</v>
           </cell>
           <cell r="D278" t="str">
-            <v>Terrible Stump</v>
+            <v>EarthMage</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
-          </cell>
-          <cell r="B279">
-            <v>1</v>
+            <v>CharDesc_EarthMage</v>
           </cell>
           <cell r="C279" t="str">
-            <v>외뿔 풍뎅이</v>
+            <v>어스메이지의 설명 우다다다
+적의 미스를 무마시키는 백발백중 캐릭터</v>
           </cell>
           <cell r="D279" t="str">
             <v>In progress of translating…(279)</v>
@@ -6468,27 +6470,22 @@
         </row>
         <row r="280">
           <cell r="A280" t="str">
-            <v>BossName_SpiritKing</v>
-          </cell>
-          <cell r="B280">
-            <v>1</v>
+            <v>CharName_DynaMob</v>
           </cell>
           <cell r="C280" t="str">
-            <v>스피릿 킹</v>
+            <v>다이나몹</v>
           </cell>
           <cell r="D280" t="str">
-            <v>Spirit King</v>
+            <v>DynaMob</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>BossDesc_SlimeRabbit</v>
-          </cell>
-          <cell r="B281">
-            <v>1</v>
+            <v>CharDesc_DynaMob</v>
           </cell>
           <cell r="C281" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>다이나몹의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D281" t="str">
             <v>In progress of translating…(281)</v>
@@ -6496,55 +6493,55 @@
         </row>
         <row r="282">
           <cell r="A282" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
+            <v>BossName_SlimeRabbit</v>
           </cell>
           <cell r="B282">
             <v>1</v>
           </cell>
           <cell r="C282" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>초록 토끼귀 슬라임</v>
           </cell>
           <cell r="D282" t="str">
-            <v>In progress of translating…(282)</v>
+            <v>Green Rabbit Slime</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
+            <v>BossName_SlimeRabbit_Red</v>
           </cell>
           <cell r="B283">
             <v>1</v>
           </cell>
           <cell r="C283" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>붉은 토끼귀 슬라임</v>
           </cell>
           <cell r="D283" t="str">
-            <v>In progress of translating…(283)</v>
+            <v>Red Rabbit Slime</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
+            <v>BossName_TerribleStump_Purple</v>
           </cell>
           <cell r="B284">
             <v>1</v>
           </cell>
           <cell r="C284" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>나무귀신</v>
           </cell>
           <cell r="D284" t="str">
-            <v>In progress of translating…(284)</v>
+            <v>Terrible Stump</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>BossDesc_SpiritKing</v>
+            <v>BossName_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B285">
             <v>1</v>
           </cell>
           <cell r="C285" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+            <v>외뿔 풍뎅이</v>
           </cell>
           <cell r="D285" t="str">
             <v>In progress of translating…(285)</v>
@@ -6552,27 +6549,27 @@
         </row>
         <row r="286">
           <cell r="A286" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossName_SpiritKing</v>
           </cell>
           <cell r="B286">
             <v>1</v>
           </cell>
           <cell r="C286" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>스피릿 킹</v>
           </cell>
           <cell r="D286" t="str">
-            <v>In progress of translating…(286)</v>
+            <v>Spirit King</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>BossDesc_SlimeRabbit</v>
           </cell>
           <cell r="B287">
             <v>1</v>
           </cell>
           <cell r="C287" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="D287" t="str">
             <v>In progress of translating…(287)</v>
@@ -6580,13 +6577,13 @@
         </row>
         <row r="288">
           <cell r="A288" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>BossDesc_SlimeRabbit_Red</v>
           </cell>
           <cell r="B288">
             <v>1</v>
           </cell>
           <cell r="C288" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="D288" t="str">
             <v>In progress of translating…(288)</v>
@@ -6594,13 +6591,13 @@
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>BossDesc_TerribleStump_Purple</v>
           </cell>
           <cell r="B289">
             <v>1</v>
           </cell>
           <cell r="C289" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
           </cell>
           <cell r="D289" t="str">
             <v>In progress of translating…(289)</v>
@@ -6608,13 +6605,13 @@
         </row>
         <row r="290">
           <cell r="A290" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>BossDesc_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B290">
             <v>1</v>
           </cell>
           <cell r="C290" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
           </cell>
           <cell r="D290" t="str">
             <v>In progress of translating…(290)</v>
@@ -6622,16 +6619,100 @@
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>BossDesc_SpiritKing</v>
           </cell>
           <cell r="B291">
             <v>1</v>
           </cell>
           <cell r="C291" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
           </cell>
           <cell r="D291" t="str">
             <v>In progress of translating…(291)</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="A292" t="str">
+            <v>PenaltyUIName_One</v>
+          </cell>
+          <cell r="B292">
+            <v>1</v>
+          </cell>
+          <cell r="C292" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D292" t="str">
+            <v>In progress of translating…(292)</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="A293" t="str">
+            <v>PenaltyUIMind_One</v>
+          </cell>
+          <cell r="B293">
+            <v>1</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="D293" t="str">
+            <v>In progress of translating…(293)</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="A294" t="str">
+            <v>PenaltyUIRepre_OneOfTwo</v>
+          </cell>
+          <cell r="B294">
+            <v>1</v>
+          </cell>
+          <cell r="C294" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D294" t="str">
+            <v>In progress of translating…(294)</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="A295" t="str">
+            <v>PenaltyUIName_Two</v>
+          </cell>
+          <cell r="B295">
+            <v>1</v>
+          </cell>
+          <cell r="C295" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D295" t="str">
+            <v>In progress of translating…(295)</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="A296" t="str">
+            <v>PenaltyUIMind_Two</v>
+          </cell>
+          <cell r="B296">
+            <v>1</v>
+          </cell>
+          <cell r="C296" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="D296" t="str">
+            <v>In progress of translating…(296)</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="A297" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B297">
+            <v>1</v>
+          </cell>
+          <cell r="C297" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D297" t="str">
+            <v>In progress of translating…(297)</v>
           </cell>
         </row>
       </sheetData>
@@ -6683,7 +6764,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6700,18 +6781,9 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>idForVlookup|String</v>
-          </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
@@ -6745,8 +6817,6 @@
             <v>텔레포팅을 하는 히트오브젝트를 부여함(캐릭전용) 맵에 적이 하나 남으면 발동 안 됨
 맵에 적이 하나도 없으면 먼저 보낸 순서대로 하나가 바로 소환된다</v>
           </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
           <cell r="I2" t="str">
             <v/>
           </cell>
@@ -6970,7 +7040,7 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackQueryChan</v>
           </cell>
           <cell r="C14" t="str">
             <v/>
@@ -6979,18 +7049,18 @@
             <v>1</v>
           </cell>
           <cell r="E14" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H14" t="str">
             <v/>
           </cell>
           <cell r="I14">
-            <v>-1</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>InvincibleTortoise</v>
+            <v>NormalAttackEarthMage</v>
           </cell>
           <cell r="C15" t="str">
             <v/>
@@ -6999,18 +7069,18 @@
             <v>1</v>
           </cell>
           <cell r="E15" t="str">
-            <v>InvincibleTortoise</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H15" t="str">
             <v/>
           </cell>
           <cell r="I15">
-            <v>3</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>CountBarrier5Times</v>
+            <v>NormalAttackDynaMob</v>
           </cell>
           <cell r="C16" t="str">
             <v/>
@@ -7019,18 +7089,18 @@
             <v>1</v>
           </cell>
           <cell r="E16" t="str">
-            <v>CountBarrier</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H16" t="str">
             <v/>
           </cell>
           <cell r="I16">
-            <v>-1</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C17" t="str">
             <v/>
@@ -7050,7 +7120,7 @@
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="C18" t="str">
             <v/>
@@ -7059,7 +7129,7 @@
             <v>1</v>
           </cell>
           <cell r="E18" t="str">
-            <v>Burrow</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="H18" t="str">
             <v/>
@@ -7070,7 +7140,7 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>LP_Atk</v>
+            <v>CountBarrier5Times</v>
           </cell>
           <cell r="C19" t="str">
             <v/>
@@ -7079,7 +7149,7 @@
             <v>1</v>
           </cell>
           <cell r="E19" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CountBarrier</v>
           </cell>
           <cell r="H19" t="str">
             <v/>
@@ -7090,16 +7160,16 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>LP_Atk</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
           <cell r="C20" t="str">
             <v/>
           </cell>
           <cell r="D20">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E20" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H20" t="str">
             <v/>
@@ -7110,22 +7180,22 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>LP_Atk</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C21" t="str">
             <v/>
           </cell>
           <cell r="D21">
+            <v>1</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Burrow</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v/>
+          </cell>
+          <cell r="I21">
             <v>3</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v/>
-          </cell>
-          <cell r="I21">
-            <v>-1</v>
           </cell>
         </row>
         <row r="22">
@@ -7136,7 +7206,7 @@
             <v/>
           </cell>
           <cell r="D22">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E22" t="str">
             <v>ChangeActorStatus</v>
@@ -7156,7 +7226,7 @@
             <v/>
           </cell>
           <cell r="D23">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E23" t="str">
             <v>ChangeActorStatus</v>
@@ -7176,7 +7246,7 @@
             <v/>
           </cell>
           <cell r="D24">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E24" t="str">
             <v>ChangeActorStatus</v>
@@ -7196,7 +7266,7 @@
             <v/>
           </cell>
           <cell r="D25">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E25" t="str">
             <v>ChangeActorStatus</v>
@@ -7216,7 +7286,7 @@
             <v/>
           </cell>
           <cell r="D26">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E26" t="str">
             <v>ChangeActorStatus</v>
@@ -7236,7 +7306,7 @@
             <v/>
           </cell>
           <cell r="D27">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E27" t="str">
             <v>ChangeActorStatus</v>
@@ -7250,13 +7320,13 @@
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C28" t="str">
             <v/>
           </cell>
           <cell r="D28">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E28" t="str">
             <v>ChangeActorStatus</v>
@@ -7270,13 +7340,13 @@
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C29" t="str">
             <v/>
           </cell>
           <cell r="D29">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E29" t="str">
             <v>ChangeActorStatus</v>
@@ -7290,13 +7360,13 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C30" t="str">
             <v/>
           </cell>
           <cell r="D30">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E30" t="str">
             <v>ChangeActorStatus</v>
@@ -7316,7 +7386,7 @@
             <v/>
           </cell>
           <cell r="D31">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E31" t="str">
             <v>ChangeActorStatus</v>
@@ -7336,7 +7406,7 @@
             <v/>
           </cell>
           <cell r="D32">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E32" t="str">
             <v>ChangeActorStatus</v>
@@ -7356,7 +7426,7 @@
             <v/>
           </cell>
           <cell r="D33">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E33" t="str">
             <v>ChangeActorStatus</v>
@@ -7376,7 +7446,7 @@
             <v/>
           </cell>
           <cell r="D34">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E34" t="str">
             <v>ChangeActorStatus</v>
@@ -7396,7 +7466,7 @@
             <v/>
           </cell>
           <cell r="D35">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E35" t="str">
             <v>ChangeActorStatus</v>
@@ -7416,7 +7486,7 @@
             <v/>
           </cell>
           <cell r="D36">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E36" t="str">
             <v>ChangeActorStatus</v>
@@ -7430,13 +7500,13 @@
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C37" t="str">
             <v/>
           </cell>
           <cell r="D37">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E37" t="str">
             <v>ChangeActorStatus</v>
@@ -7450,13 +7520,13 @@
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C38" t="str">
             <v/>
           </cell>
           <cell r="D38">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E38" t="str">
             <v>ChangeActorStatus</v>
@@ -7470,13 +7540,13 @@
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C39" t="str">
             <v/>
           </cell>
           <cell r="D39">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E39" t="str">
             <v>ChangeActorStatus</v>
@@ -7490,7 +7560,7 @@
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C40" t="str">
             <v/>
@@ -7510,7 +7580,7 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C41" t="str">
             <v/>
@@ -7530,7 +7600,7 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C42" t="str">
             <v/>
@@ -7556,7 +7626,7 @@
             <v/>
           </cell>
           <cell r="D43">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E43" t="str">
             <v>ChangeActorStatus</v>
@@ -7576,7 +7646,7 @@
             <v/>
           </cell>
           <cell r="D44">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E44" t="str">
             <v>ChangeActorStatus</v>
@@ -7596,7 +7666,7 @@
             <v/>
           </cell>
           <cell r="D45">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E45" t="str">
             <v>ChangeActorStatus</v>
@@ -7616,7 +7686,7 @@
             <v/>
           </cell>
           <cell r="D46">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E46" t="str">
             <v>ChangeActorStatus</v>
@@ -7636,7 +7706,7 @@
             <v/>
           </cell>
           <cell r="D47">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E47" t="str">
             <v>ChangeActorStatus</v>
@@ -7656,7 +7726,7 @@
             <v/>
           </cell>
           <cell r="D48">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E48" t="str">
             <v>ChangeActorStatus</v>
@@ -7670,13 +7740,13 @@
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C49" t="str">
             <v/>
           </cell>
           <cell r="D49">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E49" t="str">
             <v>ChangeActorStatus</v>
@@ -7690,13 +7760,13 @@
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C50" t="str">
             <v/>
           </cell>
           <cell r="D50">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E50" t="str">
             <v>ChangeActorStatus</v>
@@ -7710,13 +7780,13 @@
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C51" t="str">
             <v/>
           </cell>
           <cell r="D51">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E51" t="str">
             <v>ChangeActorStatus</v>
@@ -7736,7 +7806,7 @@
             <v/>
           </cell>
           <cell r="D52">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E52" t="str">
             <v>ChangeActorStatus</v>
@@ -7756,7 +7826,7 @@
             <v/>
           </cell>
           <cell r="D53">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E53" t="str">
             <v>ChangeActorStatus</v>
@@ -7776,7 +7846,7 @@
             <v/>
           </cell>
           <cell r="D54">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E54" t="str">
             <v>ChangeActorStatus</v>
@@ -7796,7 +7866,7 @@
             <v/>
           </cell>
           <cell r="D55">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E55" t="str">
             <v>ChangeActorStatus</v>
@@ -7816,7 +7886,7 @@
             <v/>
           </cell>
           <cell r="D56">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E56" t="str">
             <v>ChangeActorStatus</v>
@@ -7836,7 +7906,7 @@
             <v/>
           </cell>
           <cell r="D57">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E57" t="str">
             <v>ChangeActorStatus</v>
@@ -7850,13 +7920,13 @@
         </row>
         <row r="58">
           <cell r="B58" t="str">
-            <v>LP_AtkSpeedBest</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C58" t="str">
             <v/>
           </cell>
           <cell r="D58">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E58" t="str">
             <v>ChangeActorStatus</v>
@@ -7870,13 +7940,13 @@
         </row>
         <row r="59">
           <cell r="B59" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C59" t="str">
             <v/>
           </cell>
           <cell r="D59">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E59" t="str">
             <v>ChangeActorStatus</v>
@@ -7890,13 +7960,13 @@
         </row>
         <row r="60">
           <cell r="B60" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C60" t="str">
             <v/>
           </cell>
           <cell r="D60">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="E60" t="str">
             <v>ChangeActorStatus</v>
@@ -7910,13 +7980,13 @@
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBest</v>
           </cell>
           <cell r="C61" t="str">
             <v/>
           </cell>
           <cell r="D61">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E61" t="str">
             <v>ChangeActorStatus</v>
@@ -7936,7 +8006,7 @@
             <v/>
           </cell>
           <cell r="D62">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E62" t="str">
             <v>ChangeActorStatus</v>
@@ -7956,7 +8026,7 @@
             <v/>
           </cell>
           <cell r="D63">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E63" t="str">
             <v>ChangeActorStatus</v>
@@ -7976,7 +8046,7 @@
             <v/>
           </cell>
           <cell r="D64">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E64" t="str">
             <v>ChangeActorStatus</v>
@@ -7990,13 +8060,13 @@
         </row>
         <row r="65">
           <cell r="B65" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C65" t="str">
             <v/>
           </cell>
           <cell r="D65">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E65" t="str">
             <v>ChangeActorStatus</v>
@@ -8010,13 +8080,13 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C66" t="str">
             <v/>
           </cell>
           <cell r="D66">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E66" t="str">
             <v>ChangeActorStatus</v>
@@ -8030,13 +8100,13 @@
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C67" t="str">
             <v/>
           </cell>
           <cell r="D67">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E67" t="str">
             <v>ChangeActorStatus</v>
@@ -8050,7 +8120,7 @@
         </row>
         <row r="68">
           <cell r="B68" t="str">
-            <v>LP_CritBest</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C68" t="str">
             <v/>
@@ -8070,13 +8140,13 @@
         </row>
         <row r="69">
           <cell r="B69" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C69" t="str">
             <v/>
           </cell>
           <cell r="D69">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E69" t="str">
             <v>ChangeActorStatus</v>
@@ -8090,13 +8160,13 @@
         </row>
         <row r="70">
           <cell r="B70" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C70" t="str">
             <v/>
           </cell>
           <cell r="D70">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E70" t="str">
             <v>ChangeActorStatus</v>
@@ -8110,13 +8180,13 @@
         </row>
         <row r="71">
           <cell r="B71" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBest</v>
           </cell>
           <cell r="C71" t="str">
             <v/>
           </cell>
           <cell r="D71">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E71" t="str">
             <v>ChangeActorStatus</v>
@@ -8136,7 +8206,7 @@
             <v/>
           </cell>
           <cell r="D72">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E72" t="str">
             <v>ChangeActorStatus</v>
@@ -8156,7 +8226,7 @@
             <v/>
           </cell>
           <cell r="D73">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E73" t="str">
             <v>ChangeActorStatus</v>
@@ -8176,7 +8246,7 @@
             <v/>
           </cell>
           <cell r="D74">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E74" t="str">
             <v>ChangeActorStatus</v>
@@ -8196,7 +8266,7 @@
             <v/>
           </cell>
           <cell r="D75">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E75" t="str">
             <v>ChangeActorStatus</v>
@@ -8216,7 +8286,7 @@
             <v/>
           </cell>
           <cell r="D76">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E76" t="str">
             <v>ChangeActorStatus</v>
@@ -8236,7 +8306,7 @@
             <v/>
           </cell>
           <cell r="D77">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E77" t="str">
             <v>ChangeActorStatus</v>
@@ -8250,13 +8320,13 @@
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C78" t="str">
             <v/>
           </cell>
           <cell r="D78">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E78" t="str">
             <v>ChangeActorStatus</v>
@@ -8270,13 +8340,13 @@
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C79" t="str">
             <v/>
           </cell>
           <cell r="D79">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E79" t="str">
             <v>ChangeActorStatus</v>
@@ -8290,13 +8360,13 @@
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C80" t="str">
             <v/>
           </cell>
           <cell r="D80">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E80" t="str">
             <v>ChangeActorStatus</v>
@@ -8316,7 +8386,7 @@
             <v/>
           </cell>
           <cell r="D81">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E81" t="str">
             <v>ChangeActorStatus</v>
@@ -8336,7 +8406,7 @@
             <v/>
           </cell>
           <cell r="D82">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E82" t="str">
             <v>ChangeActorStatus</v>
@@ -8356,7 +8426,7 @@
             <v/>
           </cell>
           <cell r="D83">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E83" t="str">
             <v>ChangeActorStatus</v>
@@ -8376,7 +8446,7 @@
             <v/>
           </cell>
           <cell r="D84">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E84" t="str">
             <v>ChangeActorStatus</v>
@@ -8396,7 +8466,7 @@
             <v/>
           </cell>
           <cell r="D85">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E85" t="str">
             <v>ChangeActorStatus</v>
@@ -8416,7 +8486,7 @@
             <v/>
           </cell>
           <cell r="D86">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E86" t="str">
             <v>ChangeActorStatus</v>
@@ -8430,13 +8500,13 @@
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C87" t="str">
             <v/>
           </cell>
           <cell r="D87">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E87" t="str">
             <v>ChangeActorStatus</v>
@@ -8450,13 +8520,13 @@
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C88" t="str">
             <v/>
           </cell>
           <cell r="D88">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E88" t="str">
             <v>ChangeActorStatus</v>
@@ -8470,13 +8540,13 @@
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C89" t="str">
             <v/>
           </cell>
           <cell r="D89">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E89" t="str">
             <v>ChangeActorStatus</v>
@@ -8496,7 +8566,7 @@
             <v/>
           </cell>
           <cell r="D90">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E90" t="str">
             <v>ChangeActorStatus</v>
@@ -8516,7 +8586,7 @@
             <v/>
           </cell>
           <cell r="D91">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E91" t="str">
             <v>ChangeActorStatus</v>
@@ -8530,16 +8600,16 @@
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C92" t="str">
             <v/>
           </cell>
           <cell r="D92">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E92" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H92" t="str">
             <v/>
@@ -8550,16 +8620,16 @@
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C93" t="str">
             <v/>
           </cell>
           <cell r="D93">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E93" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H93" t="str">
             <v/>
@@ -8570,16 +8640,16 @@
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C94" t="str">
             <v/>
           </cell>
           <cell r="D94">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E94" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H94" t="str">
             <v/>
@@ -8596,7 +8666,7 @@
             <v/>
           </cell>
           <cell r="D95">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E95" t="str">
             <v>ReduceDamage</v>
@@ -8616,7 +8686,7 @@
             <v/>
           </cell>
           <cell r="D96">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E96" t="str">
             <v>ReduceDamage</v>
@@ -8636,7 +8706,7 @@
             <v/>
           </cell>
           <cell r="D97">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E97" t="str">
             <v>ReduceDamage</v>
@@ -8656,7 +8726,7 @@
             <v/>
           </cell>
           <cell r="D98">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E98" t="str">
             <v>ReduceDamage</v>
@@ -8676,7 +8746,7 @@
             <v/>
           </cell>
           <cell r="D99">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E99" t="str">
             <v>ReduceDamage</v>
@@ -8696,7 +8766,7 @@
             <v/>
           </cell>
           <cell r="D100">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E100" t="str">
             <v>ReduceDamage</v>
@@ -8710,13 +8780,13 @@
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C101" t="str">
             <v/>
           </cell>
           <cell r="D101">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E101" t="str">
             <v>ReduceDamage</v>
@@ -8730,13 +8800,13 @@
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C102" t="str">
             <v/>
           </cell>
           <cell r="D102">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E102" t="str">
             <v>ReduceDamage</v>
@@ -8750,13 +8820,13 @@
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C103" t="str">
             <v/>
           </cell>
           <cell r="D103">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E103" t="str">
             <v>ReduceDamage</v>
@@ -8776,7 +8846,7 @@
             <v/>
           </cell>
           <cell r="D104">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E104" t="str">
             <v>ReduceDamage</v>
@@ -8796,7 +8866,7 @@
             <v/>
           </cell>
           <cell r="D105">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E105" t="str">
             <v>ReduceDamage</v>
@@ -8816,7 +8886,7 @@
             <v/>
           </cell>
           <cell r="D106">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E106" t="str">
             <v>ReduceDamage</v>
@@ -8836,7 +8906,7 @@
             <v/>
           </cell>
           <cell r="D107">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E107" t="str">
             <v>ReduceDamage</v>
@@ -8856,7 +8926,7 @@
             <v/>
           </cell>
           <cell r="D108">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E108" t="str">
             <v>ReduceDamage</v>
@@ -8876,7 +8946,7 @@
             <v/>
           </cell>
           <cell r="D109">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E109" t="str">
             <v>ReduceDamage</v>
@@ -8890,64 +8960,73 @@
         </row>
         <row r="110">
           <cell r="B110" t="str">
-            <v>LP_ExtraGold</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C110" t="str">
             <v/>
           </cell>
           <cell r="D110">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E110" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H110" t="str">
             <v/>
+          </cell>
+          <cell r="I110">
+            <v>-1</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>LP_ItemChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C111" t="str">
             <v/>
           </cell>
           <cell r="D111">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E111" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H111" t="str">
             <v/>
+          </cell>
+          <cell r="I111">
+            <v>-1</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C112" t="str">
             <v/>
           </cell>
           <cell r="D112">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E112" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H112" t="str">
             <v/>
+          </cell>
+          <cell r="I112">
+            <v>-1</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ExtraGold</v>
           </cell>
           <cell r="C113" t="str">
             <v/>
           </cell>
           <cell r="D113">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E113" t="str">
             <v>DropAdjust</v>
@@ -8958,13 +9037,13 @@
         </row>
         <row r="114">
           <cell r="B114" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
           <cell r="C114" t="str">
             <v/>
           </cell>
           <cell r="D114">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E114" t="str">
             <v>DropAdjust</v>
@@ -8975,7 +9054,7 @@
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C115" t="str">
             <v/>
@@ -8984,7 +9063,7 @@
             <v>1</v>
           </cell>
           <cell r="E115" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H115" t="str">
             <v/>
@@ -8992,7 +9071,7 @@
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C116" t="str">
             <v/>
@@ -9001,7 +9080,7 @@
             <v>2</v>
           </cell>
           <cell r="E116" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H116" t="str">
             <v/>
@@ -9009,16 +9088,16 @@
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C117" t="str">
             <v/>
           </cell>
           <cell r="D117">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E117" t="str">
-            <v>RicochetHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H117" t="str">
             <v/>
@@ -9026,16 +9105,16 @@
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C118" t="str">
             <v/>
           </cell>
           <cell r="D118">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E118" t="str">
-            <v>RicochetHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H118" t="str">
             <v/>
@@ -9043,16 +9122,16 @@
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C119" t="str">
             <v/>
           </cell>
           <cell r="D119">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E119" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H119" t="str">
             <v/>
@@ -9060,16 +9139,16 @@
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C120" t="str">
             <v/>
           </cell>
           <cell r="D120">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E120" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H120" t="str">
             <v/>
@@ -9077,16 +9156,16 @@
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C121" t="str">
             <v/>
           </cell>
           <cell r="D121">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E121" t="str">
-            <v>ParallelHitObject</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H121" t="str">
             <v/>
@@ -9094,16 +9173,16 @@
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C122" t="str">
             <v/>
           </cell>
           <cell r="D122">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E122" t="str">
-            <v>ParallelHitObject</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H122" t="str">
             <v/>
@@ -9111,16 +9190,16 @@
         </row>
         <row r="123">
           <cell r="B123" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C123" t="str">
             <v/>
           </cell>
           <cell r="D123">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E123" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H123" t="str">
             <v/>
@@ -9128,16 +9207,16 @@
         </row>
         <row r="124">
           <cell r="B124" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C124" t="str">
             <v/>
           </cell>
           <cell r="D124">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E124" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H124" t="str">
             <v/>
@@ -9145,16 +9224,16 @@
         </row>
         <row r="125">
           <cell r="B125" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C125" t="str">
             <v/>
           </cell>
           <cell r="D125">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E125" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H125" t="str">
             <v/>
@@ -9162,16 +9241,16 @@
         </row>
         <row r="126">
           <cell r="B126" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C126" t="str">
             <v/>
           </cell>
           <cell r="D126">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E126" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H126" t="str">
             <v/>
@@ -9179,16 +9258,16 @@
         </row>
         <row r="127">
           <cell r="B127" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C127" t="str">
             <v/>
           </cell>
           <cell r="D127">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E127" t="str">
-            <v>BackNwayGenerator</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H127" t="str">
             <v/>
@@ -9196,16 +9275,16 @@
         </row>
         <row r="128">
           <cell r="B128" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C128" t="str">
             <v/>
           </cell>
           <cell r="D128">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E128" t="str">
-            <v>BackNwayGenerator</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H128" t="str">
             <v/>
@@ -9213,16 +9292,16 @@
         </row>
         <row r="129">
           <cell r="B129" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C129" t="str">
             <v/>
           </cell>
           <cell r="D129">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E129" t="str">
-            <v>RepeatHitObject</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H129" t="str">
             <v/>
@@ -9230,16 +9309,16 @@
         </row>
         <row r="130">
           <cell r="B130" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C130" t="str">
             <v/>
           </cell>
           <cell r="D130">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E130" t="str">
-            <v>RepeatHitObject</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H130" t="str">
             <v/>
@@ -9247,62 +9326,53 @@
         </row>
         <row r="131">
           <cell r="B131" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C131" t="str">
             <v/>
           </cell>
           <cell r="D131">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E131" t="str">
-            <v>CallAffectorValue</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H131" t="str">
             <v/>
-          </cell>
-          <cell r="I131">
-            <v>-1</v>
           </cell>
         </row>
         <row r="132">
           <cell r="B132" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C132" t="str">
             <v/>
           </cell>
           <cell r="D132">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E132" t="str">
-            <v>CallAffectorValue</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H132" t="str">
             <v/>
-          </cell>
-          <cell r="I132">
-            <v>-1</v>
           </cell>
         </row>
         <row r="133">
           <cell r="B133" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C133" t="str">
             <v/>
           </cell>
           <cell r="D133">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E133" t="str">
-            <v>CallAffectorValue</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H133" t="str">
             <v/>
-          </cell>
-          <cell r="I133">
-            <v>-1</v>
           </cell>
         </row>
         <row r="134">
@@ -9313,7 +9383,7 @@
             <v/>
           </cell>
           <cell r="D134">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E134" t="str">
             <v>CallAffectorValue</v>
@@ -9333,7 +9403,7 @@
             <v/>
           </cell>
           <cell r="D135">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E135" t="str">
             <v>CallAffectorValue</v>
@@ -9347,53 +9417,62 @@
         </row>
         <row r="136">
           <cell r="B136" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C136" t="str">
             <v/>
           </cell>
           <cell r="D136">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E136" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H136" t="str">
             <v/>
+          </cell>
+          <cell r="I136">
+            <v>-1</v>
           </cell>
         </row>
         <row r="137">
           <cell r="B137" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C137" t="str">
             <v/>
           </cell>
           <cell r="D137">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E137" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H137" t="str">
             <v/>
+          </cell>
+          <cell r="I137">
+            <v>-1</v>
           </cell>
         </row>
         <row r="138">
           <cell r="B138" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C138" t="str">
             <v/>
           </cell>
           <cell r="D138">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E138" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H138" t="str">
             <v/>
+          </cell>
+          <cell r="I138">
+            <v>-1</v>
           </cell>
         </row>
         <row r="139">
@@ -9404,7 +9483,7 @@
             <v/>
           </cell>
           <cell r="D139">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E139" t="str">
             <v>Heal</v>
@@ -9421,7 +9500,7 @@
             <v/>
           </cell>
           <cell r="D140">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E140" t="str">
             <v>Heal</v>
@@ -9432,62 +9511,53 @@
         </row>
         <row r="141">
           <cell r="B141" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C141" t="str">
             <v/>
           </cell>
           <cell r="D141">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E141" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H141" t="str">
             <v/>
-          </cell>
-          <cell r="I141">
-            <v>-1</v>
           </cell>
         </row>
         <row r="142">
           <cell r="B142" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C142" t="str">
             <v/>
           </cell>
           <cell r="D142">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E142" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H142" t="str">
             <v/>
-          </cell>
-          <cell r="I142">
-            <v>-1</v>
           </cell>
         </row>
         <row r="143">
           <cell r="B143" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C143" t="str">
             <v/>
           </cell>
           <cell r="D143">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E143" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H143" t="str">
             <v/>
-          </cell>
-          <cell r="I143">
-            <v>-1</v>
           </cell>
         </row>
         <row r="144">
@@ -9498,7 +9568,7 @@
             <v/>
           </cell>
           <cell r="D144">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E144" t="str">
             <v>CallAffectorValue</v>
@@ -9518,7 +9588,7 @@
             <v/>
           </cell>
           <cell r="D145">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E145" t="str">
             <v>CallAffectorValue</v>
@@ -9532,53 +9602,62 @@
         </row>
         <row r="146">
           <cell r="B146" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C146" t="str">
             <v/>
           </cell>
           <cell r="D146">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E146" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H146" t="str">
             <v/>
+          </cell>
+          <cell r="I146">
+            <v>-1</v>
           </cell>
         </row>
         <row r="147">
           <cell r="B147" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C147" t="str">
             <v/>
           </cell>
           <cell r="D147">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E147" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H147" t="str">
             <v/>
+          </cell>
+          <cell r="I147">
+            <v>-1</v>
           </cell>
         </row>
         <row r="148">
           <cell r="B148" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C148" t="str">
             <v/>
           </cell>
           <cell r="D148">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E148" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H148" t="str">
             <v/>
+          </cell>
+          <cell r="I148">
+            <v>-1</v>
           </cell>
         </row>
         <row r="149">
@@ -9589,7 +9668,7 @@
             <v/>
           </cell>
           <cell r="D149">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E149" t="str">
             <v>Heal</v>
@@ -9606,7 +9685,7 @@
             <v/>
           </cell>
           <cell r="D150">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E150" t="str">
             <v>Heal</v>
@@ -9617,62 +9696,53 @@
         </row>
         <row r="151">
           <cell r="B151" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C151" t="str">
             <v/>
           </cell>
           <cell r="D151">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E151" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H151" t="str">
             <v/>
-          </cell>
-          <cell r="I151">
-            <v>-1</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C152" t="str">
             <v/>
           </cell>
           <cell r="D152">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E152" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H152" t="str">
             <v/>
-          </cell>
-          <cell r="I152">
-            <v>-1</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C153" t="str">
             <v/>
           </cell>
           <cell r="D153">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E153" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H153" t="str">
             <v/>
-          </cell>
-          <cell r="I153">
-            <v>-1</v>
           </cell>
         </row>
         <row r="154">
@@ -9683,7 +9753,7 @@
             <v/>
           </cell>
           <cell r="D154">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E154" t="str">
             <v>CallAffectorValue</v>
@@ -9703,7 +9773,7 @@
             <v/>
           </cell>
           <cell r="D155">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E155" t="str">
             <v>CallAffectorValue</v>
@@ -9723,7 +9793,7 @@
             <v/>
           </cell>
           <cell r="D156">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E156" t="str">
             <v>CallAffectorValue</v>
@@ -9743,7 +9813,7 @@
             <v/>
           </cell>
           <cell r="D157">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E157" t="str">
             <v>CallAffectorValue</v>
@@ -9763,7 +9833,7 @@
             <v/>
           </cell>
           <cell r="D158">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E158" t="str">
             <v>CallAffectorValue</v>
@@ -9783,7 +9853,7 @@
             <v/>
           </cell>
           <cell r="D159">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E159" t="str">
             <v>CallAffectorValue</v>
@@ -9797,62 +9867,62 @@
         </row>
         <row r="160">
           <cell r="B160" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C160" t="str">
             <v/>
           </cell>
           <cell r="D160">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E160" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H160" t="str">
             <v/>
           </cell>
           <cell r="I160">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="161">
           <cell r="B161" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C161" t="str">
             <v/>
           </cell>
           <cell r="D161">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E161" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H161" t="str">
             <v/>
           </cell>
           <cell r="I161">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="162">
           <cell r="B162" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C162" t="str">
             <v/>
           </cell>
           <cell r="D162">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E162" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H162" t="str">
             <v/>
           </cell>
           <cell r="I162">
-            <v>5.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="163">
@@ -9863,7 +9933,7 @@
             <v/>
           </cell>
           <cell r="D163">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E163" t="str">
             <v>ChangeActorStatus</v>
@@ -9872,7 +9942,7 @@
             <v/>
           </cell>
           <cell r="I163">
-            <v>6</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="164">
@@ -9883,7 +9953,7 @@
             <v/>
           </cell>
           <cell r="D164">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E164" t="str">
             <v>ChangeActorStatus</v>
@@ -9892,7 +9962,7 @@
             <v/>
           </cell>
           <cell r="I164">
-            <v>6.5</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="165">
@@ -9903,7 +9973,7 @@
             <v/>
           </cell>
           <cell r="D165">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E165" t="str">
             <v>ChangeActorStatus</v>
@@ -9912,7 +9982,7 @@
             <v/>
           </cell>
           <cell r="I165">
-            <v>7</v>
+            <v>5.5</v>
           </cell>
         </row>
         <row r="166">
@@ -9923,7 +9993,7 @@
             <v/>
           </cell>
           <cell r="D166">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E166" t="str">
             <v>ChangeActorStatus</v>
@@ -9932,7 +10002,7 @@
             <v/>
           </cell>
           <cell r="I166">
-            <v>7.5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="167">
@@ -9943,7 +10013,7 @@
             <v/>
           </cell>
           <cell r="D167">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E167" t="str">
             <v>ChangeActorStatus</v>
@@ -9952,7 +10022,7 @@
             <v/>
           </cell>
           <cell r="I167">
-            <v>8</v>
+            <v>6.5</v>
           </cell>
         </row>
         <row r="168">
@@ -9963,7 +10033,7 @@
             <v/>
           </cell>
           <cell r="D168">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E168" t="str">
             <v>ChangeActorStatus</v>
@@ -9972,67 +10042,67 @@
             <v/>
           </cell>
           <cell r="I168">
-            <v>8.5</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="169">
           <cell r="B169" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C169" t="str">
             <v/>
           </cell>
           <cell r="D169">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E169" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H169" t="str">
             <v/>
           </cell>
           <cell r="I169">
-            <v>-1</v>
+            <v>7.5</v>
           </cell>
         </row>
         <row r="170">
           <cell r="B170" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C170" t="str">
             <v/>
           </cell>
           <cell r="D170">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E170" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H170" t="str">
             <v/>
           </cell>
           <cell r="I170">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="171">
           <cell r="B171" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C171" t="str">
             <v/>
           </cell>
           <cell r="D171">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E171" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H171" t="str">
             <v/>
           </cell>
           <cell r="I171">
-            <v>-1</v>
+            <v>8.5</v>
           </cell>
         </row>
         <row r="172">
@@ -10043,7 +10113,7 @@
             <v/>
           </cell>
           <cell r="D172">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E172" t="str">
             <v>CallAffectorValue</v>
@@ -10063,7 +10133,7 @@
             <v/>
           </cell>
           <cell r="D173">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E173" t="str">
             <v>CallAffectorValue</v>
@@ -10077,62 +10147,62 @@
         </row>
         <row r="174">
           <cell r="B174" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C174" t="str">
             <v/>
           </cell>
           <cell r="D174">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E174" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H174" t="str">
             <v/>
           </cell>
           <cell r="I174">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C175" t="str">
             <v/>
           </cell>
           <cell r="D175">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E175" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H175" t="str">
             <v/>
           </cell>
           <cell r="I175">
-            <v>6</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C176" t="str">
             <v/>
           </cell>
           <cell r="D176">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E176" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H176" t="str">
             <v/>
           </cell>
           <cell r="I176">
-            <v>7</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="177">
@@ -10143,7 +10213,7 @@
             <v/>
           </cell>
           <cell r="D177">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E177" t="str">
             <v>ChangeActorStatus</v>
@@ -10152,7 +10222,7 @@
             <v/>
           </cell>
           <cell r="I177">
-            <v>8</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="178">
@@ -10163,7 +10233,7 @@
             <v/>
           </cell>
           <cell r="D178">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E178" t="str">
             <v>ChangeActorStatus</v>
@@ -10172,67 +10242,67 @@
             <v/>
           </cell>
           <cell r="I178">
-            <v>9</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="179">
           <cell r="B179" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C179" t="str">
             <v/>
           </cell>
           <cell r="D179">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E179" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H179" t="str">
             <v/>
           </cell>
           <cell r="I179">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="180">
           <cell r="B180" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C180" t="str">
             <v/>
           </cell>
           <cell r="D180">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E180" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H180" t="str">
             <v/>
           </cell>
           <cell r="I180">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="181">
           <cell r="B181" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C181" t="str">
             <v/>
           </cell>
           <cell r="D181">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E181" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H181" t="str">
             <v/>
           </cell>
           <cell r="I181">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="182">
@@ -10243,7 +10313,7 @@
             <v/>
           </cell>
           <cell r="D182">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E182" t="str">
             <v>CallAffectorValue</v>
@@ -10263,7 +10333,7 @@
             <v/>
           </cell>
           <cell r="D183">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E183" t="str">
             <v>CallAffectorValue</v>
@@ -10277,53 +10347,62 @@
         </row>
         <row r="184">
           <cell r="B184" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C184" t="str">
             <v/>
           </cell>
           <cell r="D184">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E184" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H184" t="str">
             <v/>
+          </cell>
+          <cell r="I184">
+            <v>-1</v>
           </cell>
         </row>
         <row r="185">
           <cell r="B185" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C185" t="str">
             <v/>
           </cell>
           <cell r="D185">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E185" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H185" t="str">
             <v/>
+          </cell>
+          <cell r="I185">
+            <v>-1</v>
           </cell>
         </row>
         <row r="186">
           <cell r="B186" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C186" t="str">
             <v/>
           </cell>
           <cell r="D186">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E186" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H186" t="str">
             <v/>
+          </cell>
+          <cell r="I186">
+            <v>-1</v>
           </cell>
         </row>
         <row r="187">
@@ -10334,7 +10413,7 @@
             <v/>
           </cell>
           <cell r="D187">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E187" t="str">
             <v>Heal</v>
@@ -10351,7 +10430,7 @@
             <v/>
           </cell>
           <cell r="D188">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E188" t="str">
             <v>Heal</v>
@@ -10362,62 +10441,53 @@
         </row>
         <row r="189">
           <cell r="B189" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C189" t="str">
             <v/>
           </cell>
           <cell r="D189">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E189" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H189" t="str">
             <v/>
-          </cell>
-          <cell r="I189">
-            <v>-1</v>
           </cell>
         </row>
         <row r="190">
           <cell r="B190" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C190" t="str">
             <v/>
           </cell>
           <cell r="D190">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E190" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H190" t="str">
             <v/>
-          </cell>
-          <cell r="I190">
-            <v>-1</v>
           </cell>
         </row>
         <row r="191">
           <cell r="B191" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C191" t="str">
             <v/>
           </cell>
           <cell r="D191">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E191" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H191" t="str">
             <v/>
-          </cell>
-          <cell r="I191">
-            <v>-1</v>
           </cell>
         </row>
         <row r="192">
@@ -10428,7 +10498,7 @@
             <v/>
           </cell>
           <cell r="D192">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E192" t="str">
             <v>CallAffectorValue</v>
@@ -10448,7 +10518,7 @@
             <v/>
           </cell>
           <cell r="D193">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E193" t="str">
             <v>CallAffectorValue</v>
@@ -10462,53 +10532,62 @@
         </row>
         <row r="194">
           <cell r="B194" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C194" t="str">
             <v/>
           </cell>
           <cell r="D194">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E194" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H194" t="str">
             <v/>
+          </cell>
+          <cell r="I194">
+            <v>-1</v>
           </cell>
         </row>
         <row r="195">
           <cell r="B195" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C195" t="str">
             <v/>
           </cell>
           <cell r="D195">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E195" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H195" t="str">
             <v/>
+          </cell>
+          <cell r="I195">
+            <v>-1</v>
           </cell>
         </row>
         <row r="196">
           <cell r="B196" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C196" t="str">
             <v/>
           </cell>
           <cell r="D196">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E196" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H196" t="str">
             <v/>
+          </cell>
+          <cell r="I196">
+            <v>-1</v>
           </cell>
         </row>
         <row r="197">
@@ -10519,7 +10598,7 @@
             <v/>
           </cell>
           <cell r="D197">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E197" t="str">
             <v>Heal</v>
@@ -10536,7 +10615,7 @@
             <v/>
           </cell>
           <cell r="D198">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E198" t="str">
             <v>Heal</v>
@@ -10547,62 +10626,53 @@
         </row>
         <row r="199">
           <cell r="B199" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C199" t="str">
             <v/>
           </cell>
           <cell r="D199">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E199" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H199" t="str">
             <v/>
-          </cell>
-          <cell r="I199">
-            <v>-1</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C200" t="str">
             <v/>
           </cell>
           <cell r="D200">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E200" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H200" t="str">
             <v/>
-          </cell>
-          <cell r="I200">
-            <v>-1</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C201" t="str">
             <v/>
           </cell>
           <cell r="D201">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E201" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H201" t="str">
             <v/>
-          </cell>
-          <cell r="I201">
-            <v>-1</v>
           </cell>
         </row>
         <row r="202">
@@ -10613,7 +10683,7 @@
             <v/>
           </cell>
           <cell r="D202">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E202" t="str">
             <v>CallAffectorValue</v>
@@ -10633,7 +10703,7 @@
             <v/>
           </cell>
           <cell r="D203">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E203" t="str">
             <v>CallAffectorValue</v>
@@ -10653,7 +10723,7 @@
             <v/>
           </cell>
           <cell r="D204">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E204" t="str">
             <v>CallAffectorValue</v>
@@ -10673,7 +10743,7 @@
             <v/>
           </cell>
           <cell r="D205">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E205" t="str">
             <v>CallAffectorValue</v>
@@ -10693,7 +10763,7 @@
             <v/>
           </cell>
           <cell r="D206">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E206" t="str">
             <v>CallAffectorValue</v>
@@ -10713,7 +10783,7 @@
             <v/>
           </cell>
           <cell r="D207">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E207" t="str">
             <v>CallAffectorValue</v>
@@ -10727,62 +10797,62 @@
         </row>
         <row r="208">
           <cell r="B208" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C208" t="str">
             <v/>
           </cell>
           <cell r="D208">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E208" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H208" t="str">
             <v/>
           </cell>
           <cell r="I208">
-            <v>5.0999999999999996</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="209">
           <cell r="B209" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C209" t="str">
             <v/>
           </cell>
           <cell r="D209">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E209" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H209" t="str">
             <v/>
           </cell>
           <cell r="I209">
-            <v>4.8499999999999996</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="210">
           <cell r="B210" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C210" t="str">
             <v/>
           </cell>
           <cell r="D210">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E210" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H210" t="str">
             <v/>
           </cell>
           <cell r="I210">
-            <v>4.5999999999999996</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="211">
@@ -10793,7 +10863,7 @@
             <v/>
           </cell>
           <cell r="D211">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E211" t="str">
             <v>HealOverTime</v>
@@ -10802,7 +10872,7 @@
             <v/>
           </cell>
           <cell r="I211">
-            <v>4.3499999999999988</v>
+            <v>5.0999999999999996</v>
           </cell>
         </row>
         <row r="212">
@@ -10813,7 +10883,7 @@
             <v/>
           </cell>
           <cell r="D212">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E212" t="str">
             <v>HealOverTime</v>
@@ -10822,7 +10892,7 @@
             <v/>
           </cell>
           <cell r="I212">
-            <v>4.0999999999999988</v>
+            <v>4.8499999999999996</v>
           </cell>
         </row>
         <row r="213">
@@ -10833,7 +10903,7 @@
             <v/>
           </cell>
           <cell r="D213">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E213" t="str">
             <v>HealOverTime</v>
@@ -10842,7 +10912,7 @@
             <v/>
           </cell>
           <cell r="I213">
-            <v>3.8499999999999992</v>
+            <v>4.5999999999999996</v>
           </cell>
         </row>
         <row r="214">
@@ -10853,7 +10923,7 @@
             <v/>
           </cell>
           <cell r="D214">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E214" t="str">
             <v>HealOverTime</v>
@@ -10862,7 +10932,7 @@
             <v/>
           </cell>
           <cell r="I214">
-            <v>3.5999999999999988</v>
+            <v>4.3499999999999988</v>
           </cell>
         </row>
         <row r="215">
@@ -10873,7 +10943,7 @@
             <v/>
           </cell>
           <cell r="D215">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E215" t="str">
             <v>HealOverTime</v>
@@ -10882,7 +10952,7 @@
             <v/>
           </cell>
           <cell r="I215">
-            <v>3.3499999999999983</v>
+            <v>4.0999999999999988</v>
           </cell>
         </row>
         <row r="216">
@@ -10893,7 +10963,7 @@
             <v/>
           </cell>
           <cell r="D216">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E216" t="str">
             <v>HealOverTime</v>
@@ -10902,67 +10972,67 @@
             <v/>
           </cell>
           <cell r="I216">
-            <v>3.0999999999999983</v>
+            <v>3.8499999999999992</v>
           </cell>
         </row>
         <row r="217">
           <cell r="B217" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C217" t="str">
             <v/>
           </cell>
           <cell r="D217">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E217" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H217" t="str">
             <v/>
           </cell>
           <cell r="I217">
-            <v>-1</v>
+            <v>3.5999999999999988</v>
           </cell>
         </row>
         <row r="218">
           <cell r="B218" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C218" t="str">
             <v/>
           </cell>
           <cell r="D218">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E218" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H218" t="str">
             <v/>
           </cell>
           <cell r="I218">
-            <v>-1</v>
+            <v>3.3499999999999983</v>
           </cell>
         </row>
         <row r="219">
           <cell r="B219" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C219" t="str">
             <v/>
           </cell>
           <cell r="D219">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E219" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H219" t="str">
             <v/>
           </cell>
           <cell r="I219">
-            <v>-1</v>
+            <v>3.0999999999999983</v>
           </cell>
         </row>
         <row r="220">
@@ -10973,7 +11043,7 @@
             <v/>
           </cell>
           <cell r="D220">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E220" t="str">
             <v>ReflectDamage</v>
@@ -10993,7 +11063,7 @@
             <v/>
           </cell>
           <cell r="D221">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E221" t="str">
             <v>ReflectDamage</v>
@@ -11007,13 +11077,13 @@
         </row>
         <row r="222">
           <cell r="B222" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C222" t="str">
             <v/>
           </cell>
           <cell r="D222">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E222" t="str">
             <v>ReflectDamage</v>
@@ -11027,13 +11097,13 @@
         </row>
         <row r="223">
           <cell r="B223" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C223" t="str">
             <v/>
           </cell>
           <cell r="D223">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E223" t="str">
             <v>ReflectDamage</v>
@@ -11047,13 +11117,13 @@
         </row>
         <row r="224">
           <cell r="B224" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C224" t="str">
             <v/>
           </cell>
           <cell r="D224">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E224" t="str">
             <v>ReflectDamage</v>
@@ -11073,7 +11143,7 @@
             <v/>
           </cell>
           <cell r="D225">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E225" t="str">
             <v>ReflectDamage</v>
@@ -11093,7 +11163,7 @@
             <v/>
           </cell>
           <cell r="D226">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E226" t="str">
             <v>ReflectDamage</v>
@@ -11107,16 +11177,16 @@
         </row>
         <row r="227">
           <cell r="B227" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C227" t="str">
             <v/>
           </cell>
           <cell r="D227">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E227" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H227" t="str">
             <v/>
@@ -11127,16 +11197,16 @@
         </row>
         <row r="228">
           <cell r="B228" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C228" t="str">
             <v/>
           </cell>
           <cell r="D228">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E228" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H228" t="str">
             <v/>
@@ -11147,16 +11217,16 @@
         </row>
         <row r="229">
           <cell r="B229" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C229" t="str">
             <v/>
           </cell>
           <cell r="D229">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E229" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H229" t="str">
             <v/>
@@ -11173,7 +11243,7 @@
             <v/>
           </cell>
           <cell r="D230">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E230" t="str">
             <v>AddAttackByHp</v>
@@ -11193,7 +11263,7 @@
             <v/>
           </cell>
           <cell r="D231">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E231" t="str">
             <v>AddAttackByHp</v>
@@ -11207,13 +11277,13 @@
         </row>
         <row r="232">
           <cell r="B232" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C232" t="str">
             <v/>
           </cell>
           <cell r="D232">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E232" t="str">
             <v>AddAttackByHp</v>
@@ -11227,13 +11297,13 @@
         </row>
         <row r="233">
           <cell r="B233" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C233" t="str">
             <v/>
           </cell>
           <cell r="D233">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E233" t="str">
             <v>AddAttackByHp</v>
@@ -11247,13 +11317,13 @@
         </row>
         <row r="234">
           <cell r="B234" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C234" t="str">
             <v/>
           </cell>
           <cell r="D234">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E234" t="str">
             <v>AddAttackByHp</v>
@@ -11267,7 +11337,7 @@
         </row>
         <row r="235">
           <cell r="B235" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C235" t="str">
             <v/>
@@ -11276,7 +11346,7 @@
             <v>1</v>
           </cell>
           <cell r="E235" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H235" t="str">
             <v/>
@@ -11287,7 +11357,7 @@
         </row>
         <row r="236">
           <cell r="B236" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C236" t="str">
             <v/>
@@ -11296,7 +11366,7 @@
             <v>2</v>
           </cell>
           <cell r="E236" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H236" t="str">
             <v/>
@@ -11307,7 +11377,7 @@
         </row>
         <row r="237">
           <cell r="B237" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C237" t="str">
             <v/>
@@ -11316,7 +11386,7 @@
             <v>3</v>
           </cell>
           <cell r="E237" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H237" t="str">
             <v/>
@@ -11327,7 +11397,7 @@
         </row>
         <row r="238">
           <cell r="B238" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C238" t="str">
             <v/>
@@ -11347,16 +11417,16 @@
         </row>
         <row r="239">
           <cell r="B239" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C239" t="str">
             <v/>
           </cell>
           <cell r="D239">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E239" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H239" t="str">
             <v/>
@@ -11367,16 +11437,16 @@
         </row>
         <row r="240">
           <cell r="B240" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C240" t="str">
             <v/>
           </cell>
           <cell r="D240">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E240" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H240" t="str">
             <v/>
@@ -11387,16 +11457,16 @@
         </row>
         <row r="241">
           <cell r="B241" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="C241" t="str">
             <v/>
           </cell>
           <cell r="D241">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E241" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H241" t="str">
             <v/>
@@ -11413,7 +11483,7 @@
             <v/>
           </cell>
           <cell r="D242">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E242" t="str">
             <v>InstantDeath</v>
@@ -11433,7 +11503,7 @@
             <v/>
           </cell>
           <cell r="D243">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E243" t="str">
             <v>InstantDeath</v>
@@ -11453,7 +11523,7 @@
             <v/>
           </cell>
           <cell r="D244">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E244" t="str">
             <v>InstantDeath</v>
@@ -11473,7 +11543,7 @@
             <v/>
           </cell>
           <cell r="D245">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E245" t="str">
             <v>InstantDeath</v>
@@ -11493,7 +11563,7 @@
             <v/>
           </cell>
           <cell r="D246">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E246" t="str">
             <v>InstantDeath</v>
@@ -11513,7 +11583,7 @@
             <v/>
           </cell>
           <cell r="D247">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E247" t="str">
             <v>InstantDeath</v>
@@ -11527,13 +11597,13 @@
         </row>
         <row r="248">
           <cell r="B248" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C248" t="str">
             <v/>
           </cell>
           <cell r="D248">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E248" t="str">
             <v>InstantDeath</v>
@@ -11547,13 +11617,13 @@
         </row>
         <row r="249">
           <cell r="B249" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C249" t="str">
             <v/>
           </cell>
           <cell r="D249">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E249" t="str">
             <v>InstantDeath</v>
@@ -11567,13 +11637,13 @@
         </row>
         <row r="250">
           <cell r="B250" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C250" t="str">
             <v/>
           </cell>
           <cell r="D250">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E250" t="str">
             <v>InstantDeath</v>
@@ -11593,7 +11663,7 @@
             <v/>
           </cell>
           <cell r="D251">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E251" t="str">
             <v>InstantDeath</v>
@@ -11613,7 +11683,7 @@
             <v/>
           </cell>
           <cell r="D252">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E252" t="str">
             <v>InstantDeath</v>
@@ -11627,16 +11697,16 @@
         </row>
         <row r="253">
           <cell r="B253" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C253" t="str">
             <v/>
           </cell>
           <cell r="D253">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E253" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H253" t="str">
             <v/>
@@ -11647,16 +11717,16 @@
         </row>
         <row r="254">
           <cell r="B254" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C254" t="str">
             <v/>
           </cell>
           <cell r="D254">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E254" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H254" t="str">
             <v/>
@@ -11667,16 +11737,16 @@
         </row>
         <row r="255">
           <cell r="B255" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C255" t="str">
             <v/>
           </cell>
           <cell r="D255">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E255" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H255" t="str">
             <v/>
@@ -11693,7 +11763,7 @@
             <v/>
           </cell>
           <cell r="D256">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E256" t="str">
             <v>ImmortalWill</v>
@@ -11713,7 +11783,7 @@
             <v/>
           </cell>
           <cell r="D257">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E257" t="str">
             <v>ImmortalWill</v>
@@ -11733,7 +11803,7 @@
             <v/>
           </cell>
           <cell r="D258">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E258" t="str">
             <v>ImmortalWill</v>
@@ -11753,7 +11823,7 @@
             <v/>
           </cell>
           <cell r="D259">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E259" t="str">
             <v>ImmortalWill</v>
@@ -11773,7 +11843,7 @@
             <v/>
           </cell>
           <cell r="D260">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="E260" t="str">
             <v>ImmortalWill</v>
@@ -11793,7 +11863,7 @@
             <v/>
           </cell>
           <cell r="D261">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="E261" t="str">
             <v>ImmortalWill</v>
@@ -11807,13 +11877,13 @@
         </row>
         <row r="262">
           <cell r="B262" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C262" t="str">
             <v/>
           </cell>
           <cell r="D262">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E262" t="str">
             <v>ImmortalWill</v>
@@ -11827,13 +11897,13 @@
         </row>
         <row r="263">
           <cell r="B263" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C263" t="str">
             <v/>
           </cell>
           <cell r="D263">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E263" t="str">
             <v>ImmortalWill</v>
@@ -11847,13 +11917,13 @@
         </row>
         <row r="264">
           <cell r="B264" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C264" t="str">
             <v/>
           </cell>
           <cell r="D264">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E264" t="str">
             <v>ImmortalWill</v>
@@ -11873,7 +11943,7 @@
             <v/>
           </cell>
           <cell r="D265">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E265" t="str">
             <v>ImmortalWill</v>
@@ -11893,7 +11963,7 @@
             <v/>
           </cell>
           <cell r="D266">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E266" t="str">
             <v>ImmortalWill</v>
@@ -11907,16 +11977,16 @@
         </row>
         <row r="267">
           <cell r="B267" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C267" t="str">
             <v/>
           </cell>
           <cell r="D267">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E267" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H267" t="str">
             <v/>
@@ -11927,16 +11997,16 @@
         </row>
         <row r="268">
           <cell r="B268" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C268" t="str">
             <v/>
           </cell>
           <cell r="D268">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E268" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H268" t="str">
             <v/>
@@ -11947,16 +12017,16 @@
         </row>
         <row r="269">
           <cell r="B269" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C269" t="str">
             <v/>
           </cell>
           <cell r="D269">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E269" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H269" t="str">
             <v/>
@@ -11973,7 +12043,7 @@
             <v/>
           </cell>
           <cell r="D270">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E270" t="str">
             <v>CallAffectorValue</v>
@@ -11993,7 +12063,7 @@
             <v/>
           </cell>
           <cell r="D271">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E271" t="str">
             <v>CallAffectorValue</v>
@@ -12013,7 +12083,7 @@
             <v/>
           </cell>
           <cell r="D272">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E272" t="str">
             <v>CallAffectorValue</v>
@@ -12027,53 +12097,62 @@
         </row>
         <row r="273">
           <cell r="B273" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
           </cell>
           <cell r="D273">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E273" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H273" t="str">
             <v/>
+          </cell>
+          <cell r="I273">
+            <v>-1</v>
           </cell>
         </row>
         <row r="274">
           <cell r="B274" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
           </cell>
           <cell r="D274">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E274" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H274" t="str">
             <v/>
+          </cell>
+          <cell r="I274">
+            <v>-1</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C275" t="str">
             <v/>
           </cell>
           <cell r="D275">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E275" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H275" t="str">
             <v/>
+          </cell>
+          <cell r="I275">
+            <v>-1</v>
           </cell>
         </row>
         <row r="276">
@@ -12084,7 +12163,7 @@
             <v/>
           </cell>
           <cell r="D276">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E276" t="str">
             <v>CreateHitObject</v>
@@ -12101,7 +12180,7 @@
             <v/>
           </cell>
           <cell r="D277">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E277" t="str">
             <v>CreateHitObject</v>
@@ -12118,7 +12197,7 @@
             <v/>
           </cell>
           <cell r="D278">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E278" t="str">
             <v>CreateHitObject</v>
@@ -12129,16 +12208,16 @@
         </row>
         <row r="279">
           <cell r="B279" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
           </cell>
           <cell r="D279">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E279" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H279" t="str">
             <v/>
@@ -12146,16 +12225,16 @@
         </row>
         <row r="280">
           <cell r="B280" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
           </cell>
           <cell r="D280">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E280" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H280" t="str">
             <v/>
@@ -12163,16 +12242,16 @@
         </row>
         <row r="281">
           <cell r="B281" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C281" t="str">
             <v/>
           </cell>
           <cell r="D281">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E281" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H281" t="str">
             <v/>
@@ -12186,7 +12265,7 @@
             <v/>
           </cell>
           <cell r="D282">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E282" t="str">
             <v>Heal</v>
@@ -12203,7 +12282,7 @@
             <v/>
           </cell>
           <cell r="D283">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E283" t="str">
             <v>Heal</v>
@@ -12220,7 +12299,7 @@
             <v/>
           </cell>
           <cell r="D284">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E284" t="str">
             <v>Heal</v>
@@ -12231,62 +12310,53 @@
         </row>
         <row r="285">
           <cell r="B285" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
           </cell>
           <cell r="D285">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E285" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H285" t="str">
             <v/>
-          </cell>
-          <cell r="I285">
-            <v>-1</v>
           </cell>
         </row>
         <row r="286">
           <cell r="B286" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
           </cell>
           <cell r="D286">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E286" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H286" t="str">
             <v/>
-          </cell>
-          <cell r="I286">
-            <v>-1</v>
           </cell>
         </row>
         <row r="287">
           <cell r="B287" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C287" t="str">
             <v/>
           </cell>
           <cell r="D287">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E287" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H287" t="str">
             <v/>
-          </cell>
-          <cell r="I287">
-            <v>-1</v>
           </cell>
         </row>
         <row r="288">
@@ -12297,7 +12367,7 @@
             <v/>
           </cell>
           <cell r="D288">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E288" t="str">
             <v>CallAffectorValue</v>
@@ -12317,7 +12387,7 @@
             <v/>
           </cell>
           <cell r="D289">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E289" t="str">
             <v>CallAffectorValue</v>
@@ -12337,7 +12407,7 @@
             <v/>
           </cell>
           <cell r="D290">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E290" t="str">
             <v>CallAffectorValue</v>
@@ -12351,62 +12421,62 @@
         </row>
         <row r="291">
           <cell r="B291" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C291" t="str">
             <v/>
           </cell>
           <cell r="D291">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E291" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H291" t="str">
             <v/>
           </cell>
           <cell r="I291">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C292" t="str">
             <v/>
           </cell>
           <cell r="D292">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E292" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H292" t="str">
             <v/>
           </cell>
           <cell r="I292">
-            <v>7</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="293">
           <cell r="B293" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C293" t="str">
             <v/>
           </cell>
           <cell r="D293">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E293" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H293" t="str">
             <v/>
           </cell>
           <cell r="I293">
-            <v>9</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="294">
@@ -12417,7 +12487,7 @@
             <v/>
           </cell>
           <cell r="D294">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E294" t="str">
             <v>ChangeActorStatus</v>
@@ -12426,7 +12496,7 @@
             <v/>
           </cell>
           <cell r="I294">
-            <v>11</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="295">
@@ -12437,7 +12507,7 @@
             <v/>
           </cell>
           <cell r="D295">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E295" t="str">
             <v>ChangeActorStatus</v>
@@ -12446,7 +12516,7 @@
             <v/>
           </cell>
           <cell r="I295">
-            <v>13</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="296">
@@ -12457,7 +12527,7 @@
             <v/>
           </cell>
           <cell r="D296">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E296" t="str">
             <v>ChangeActorStatus</v>
@@ -12466,67 +12536,67 @@
             <v/>
           </cell>
           <cell r="I296">
-            <v>15</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="297">
           <cell r="B297" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C297" t="str">
             <v/>
           </cell>
           <cell r="D297">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E297" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H297" t="str">
             <v/>
           </cell>
           <cell r="I297">
-            <v>-1</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="298">
           <cell r="B298" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C298" t="str">
             <v/>
           </cell>
           <cell r="D298">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E298" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H298" t="str">
             <v/>
           </cell>
           <cell r="I298">
-            <v>-1</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="299">
           <cell r="B299" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C299" t="str">
             <v/>
           </cell>
           <cell r="D299">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E299" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H299" t="str">
             <v/>
           </cell>
           <cell r="I299">
-            <v>-1</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="300">
@@ -12537,7 +12607,7 @@
             <v/>
           </cell>
           <cell r="D300">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E300" t="str">
             <v>CreateHitObjectMoving</v>
@@ -12557,7 +12627,7 @@
             <v/>
           </cell>
           <cell r="D301">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E301" t="str">
             <v>CreateHitObjectMoving</v>
@@ -12577,7 +12647,7 @@
             <v/>
           </cell>
           <cell r="D302">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E302" t="str">
             <v>CreateHitObjectMoving</v>
@@ -12591,62 +12661,62 @@
         </row>
         <row r="303">
           <cell r="B303" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C303" t="str">
             <v/>
           </cell>
           <cell r="D303">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E303" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H303" t="str">
             <v/>
           </cell>
           <cell r="I303">
-            <v>2</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C304" t="str">
             <v/>
           </cell>
           <cell r="D304">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E304" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H304" t="str">
             <v/>
           </cell>
           <cell r="I304">
-            <v>4</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="305">
           <cell r="B305" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C305" t="str">
             <v/>
           </cell>
           <cell r="D305">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E305" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H305" t="str">
             <v/>
           </cell>
           <cell r="I305">
-            <v>6</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="306">
@@ -12657,7 +12727,7 @@
             <v/>
           </cell>
           <cell r="D306">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E306" t="str">
             <v>CollisionDamage</v>
@@ -12666,7 +12736,7 @@
             <v/>
           </cell>
           <cell r="I306">
-            <v>8</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="307">
@@ -12677,7 +12747,7 @@
             <v/>
           </cell>
           <cell r="D307">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E307" t="str">
             <v>CollisionDamage</v>
@@ -12686,7 +12756,7 @@
             <v/>
           </cell>
           <cell r="I307">
-            <v>10</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="308">
@@ -12697,7 +12767,7 @@
             <v/>
           </cell>
           <cell r="D308">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E308" t="str">
             <v>CollisionDamage</v>
@@ -12706,67 +12776,67 @@
             <v/>
           </cell>
           <cell r="I308">
-            <v>12</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C309" t="str">
             <v/>
           </cell>
           <cell r="D309">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E309" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H309" t="str">
             <v/>
           </cell>
           <cell r="I309">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C310" t="str">
             <v/>
           </cell>
           <cell r="D310">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E310" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H310" t="str">
             <v/>
           </cell>
           <cell r="I310">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="311">
           <cell r="B311" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C311" t="str">
             <v/>
           </cell>
           <cell r="D311">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E311" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H311" t="str">
             <v/>
           </cell>
           <cell r="I311">
-            <v>-1</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="312">
@@ -12777,7 +12847,7 @@
             <v/>
           </cell>
           <cell r="D312">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E312" t="str">
             <v>SlowHitObjectSpeed</v>
@@ -12797,7 +12867,7 @@
             <v/>
           </cell>
           <cell r="D313">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E313" t="str">
             <v>SlowHitObjectSpeed</v>
@@ -12811,53 +12881,62 @@
         </row>
         <row r="314">
           <cell r="B314" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C314" t="str">
             <v/>
           </cell>
           <cell r="D314">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E314" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H314" t="str">
             <v/>
+          </cell>
+          <cell r="I314">
+            <v>-1</v>
           </cell>
         </row>
         <row r="315">
           <cell r="B315" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C315" t="str">
             <v/>
           </cell>
           <cell r="D315">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E315" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H315" t="str">
             <v/>
+          </cell>
+          <cell r="I315">
+            <v>-1</v>
           </cell>
         </row>
         <row r="316">
           <cell r="B316" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C316" t="str">
             <v/>
           </cell>
           <cell r="D316">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E316" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H316" t="str">
             <v/>
+          </cell>
+          <cell r="I316">
+            <v>-1</v>
           </cell>
         </row>
         <row r="317">
@@ -12868,7 +12947,7 @@
             <v/>
           </cell>
           <cell r="D317">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E317" t="str">
             <v>CertainHpHitObject</v>
@@ -12885,7 +12964,7 @@
             <v/>
           </cell>
           <cell r="D318">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E318" t="str">
             <v>CertainHpHitObject</v>
@@ -12896,62 +12975,53 @@
         </row>
         <row r="319">
           <cell r="B319" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C319" t="str">
             <v/>
           </cell>
           <cell r="D319">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E319" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H319" t="str">
             <v/>
-          </cell>
-          <cell r="I319">
-            <v>1.5</v>
           </cell>
         </row>
         <row r="320">
           <cell r="B320" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C320" t="str">
             <v/>
           </cell>
           <cell r="D320">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E320" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H320" t="str">
             <v/>
-          </cell>
-          <cell r="I320">
-            <v>1.8</v>
           </cell>
         </row>
         <row r="321">
           <cell r="B321" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C321" t="str">
             <v/>
           </cell>
           <cell r="D321">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E321" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H321" t="str">
             <v/>
-          </cell>
-          <cell r="I321">
-            <v>2.1</v>
           </cell>
         </row>
         <row r="322">
@@ -12962,7 +13032,7 @@
             <v/>
           </cell>
           <cell r="D322">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E322" t="str">
             <v>CannotAction</v>
@@ -12971,7 +13041,7 @@
             <v/>
           </cell>
           <cell r="I322">
-            <v>2.4</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="323">
@@ -12982,7 +13052,7 @@
             <v/>
           </cell>
           <cell r="D323">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E323" t="str">
             <v>CannotAction</v>
@@ -12991,58 +13061,67 @@
             <v/>
           </cell>
           <cell r="I323">
-            <v>2.7</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="324">
           <cell r="B324" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C324" t="str">
             <v/>
           </cell>
           <cell r="D324">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E324" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H324" t="str">
             <v/>
+          </cell>
+          <cell r="I324">
+            <v>2.1</v>
           </cell>
         </row>
         <row r="325">
           <cell r="B325" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C325" t="str">
             <v/>
           </cell>
           <cell r="D325">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E325" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H325" t="str">
             <v/>
+          </cell>
+          <cell r="I325">
+            <v>2.4</v>
           </cell>
         </row>
         <row r="326">
           <cell r="B326" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C326" t="str">
             <v/>
           </cell>
           <cell r="D326">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E326" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H326" t="str">
             <v/>
+          </cell>
+          <cell r="I326">
+            <v>2.7</v>
           </cell>
         </row>
         <row r="327">
@@ -13053,7 +13132,7 @@
             <v/>
           </cell>
           <cell r="D327">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E327" t="str">
             <v>AttackWeightHitObject</v>
@@ -13070,7 +13149,7 @@
             <v/>
           </cell>
           <cell r="D328">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E328" t="str">
             <v>AttackWeightHitObject</v>
@@ -13081,62 +13160,53 @@
         </row>
         <row r="329">
           <cell r="B329" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C329" t="str">
             <v/>
           </cell>
           <cell r="D329">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E329" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H329" t="str">
             <v/>
-          </cell>
-          <cell r="I329">
-            <v>1</v>
           </cell>
         </row>
         <row r="330">
           <cell r="B330" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C330" t="str">
             <v/>
           </cell>
           <cell r="D330">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E330" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H330" t="str">
             <v/>
-          </cell>
-          <cell r="I330">
-            <v>2</v>
           </cell>
         </row>
         <row r="331">
           <cell r="B331" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C331" t="str">
             <v/>
           </cell>
           <cell r="D331">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E331" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H331" t="str">
             <v/>
-          </cell>
-          <cell r="I331">
-            <v>3</v>
           </cell>
         </row>
         <row r="332">
@@ -13147,7 +13217,7 @@
             <v/>
           </cell>
           <cell r="D332">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E332" t="str">
             <v>CannotMove</v>
@@ -13156,7 +13226,7 @@
             <v/>
           </cell>
           <cell r="I332">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="333">
@@ -13167,7 +13237,7 @@
             <v/>
           </cell>
           <cell r="D333">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E333" t="str">
             <v>CannotMove</v>
@@ -13176,58 +13246,67 @@
             <v/>
           </cell>
           <cell r="I333">
-            <v>5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="334">
           <cell r="B334" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C334" t="str">
             <v/>
           </cell>
           <cell r="D334">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E334" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H334" t="str">
             <v/>
+          </cell>
+          <cell r="I334">
+            <v>3</v>
           </cell>
         </row>
         <row r="335">
           <cell r="B335" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C335" t="str">
             <v/>
           </cell>
           <cell r="D335">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E335" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H335" t="str">
             <v/>
+          </cell>
+          <cell r="I335">
+            <v>4</v>
           </cell>
         </row>
         <row r="336">
           <cell r="B336" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C336" t="str">
             <v/>
           </cell>
           <cell r="D336">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E336" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H336" t="str">
             <v/>
+          </cell>
+          <cell r="I336">
+            <v>5</v>
           </cell>
         </row>
         <row r="337">
@@ -13238,7 +13317,7 @@
             <v/>
           </cell>
           <cell r="D337">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E337" t="str">
             <v>TeleportingHitObject</v>
@@ -13255,7 +13334,7 @@
             <v/>
           </cell>
           <cell r="D338">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E338" t="str">
             <v>TeleportingHitObject</v>
@@ -13266,62 +13345,53 @@
         </row>
         <row r="339">
           <cell r="B339" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C339" t="str">
             <v/>
           </cell>
           <cell r="D339">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E339" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H339" t="str">
             <v/>
-          </cell>
-          <cell r="I339">
-            <v>10</v>
           </cell>
         </row>
         <row r="340">
           <cell r="B340" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C340" t="str">
             <v/>
           </cell>
           <cell r="D340">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E340" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H340" t="str">
             <v/>
-          </cell>
-          <cell r="I340">
-            <v>10</v>
           </cell>
         </row>
         <row r="341">
           <cell r="B341" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C341" t="str">
             <v/>
           </cell>
           <cell r="D341">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E341" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H341" t="str">
             <v/>
-          </cell>
-          <cell r="I341">
-            <v>10</v>
           </cell>
         </row>
         <row r="342">
@@ -13332,7 +13402,7 @@
             <v/>
           </cell>
           <cell r="D342">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E342" t="str">
             <v>Teleported</v>
@@ -13352,7 +13422,7 @@
             <v/>
           </cell>
           <cell r="D343">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E343" t="str">
             <v>Teleported</v>
@@ -13366,62 +13436,62 @@
         </row>
         <row r="344">
           <cell r="B344" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C344" t="str">
             <v/>
           </cell>
           <cell r="D344">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E344" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H344" t="str">
             <v/>
           </cell>
           <cell r="I344">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="345">
           <cell r="B345" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C345" t="str">
             <v/>
           </cell>
           <cell r="D345">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E345" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H345" t="str">
             <v/>
           </cell>
           <cell r="I345">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="346">
           <cell r="B346" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C346" t="str">
             <v/>
           </cell>
           <cell r="D346">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E346" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H346" t="str">
             <v/>
           </cell>
           <cell r="I346">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="347">
@@ -13432,7 +13502,7 @@
             <v/>
           </cell>
           <cell r="D347">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E347" t="str">
             <v>CreateWall</v>
@@ -13452,7 +13522,7 @@
             <v/>
           </cell>
           <cell r="D348">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E348" t="str">
             <v>CreateWall</v>
@@ -13466,19 +13536,16 @@
         </row>
         <row r="349">
           <cell r="B349" t="str">
-            <v>PN_Magic2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C349" t="str">
             <v/>
           </cell>
           <cell r="D349">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E349" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G349" t="str">
-            <v>DefenderSource==Magic</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H349" t="str">
             <v/>
@@ -13489,19 +13556,16 @@
         </row>
         <row r="350">
           <cell r="B350" t="str">
-            <v>PN_Machine2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C350" t="str">
             <v/>
           </cell>
           <cell r="D350">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E350" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G350" t="str">
-            <v>DefenderSource==Machine</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H350" t="str">
             <v/>
@@ -13512,19 +13576,16 @@
         </row>
         <row r="351">
           <cell r="B351" t="str">
-            <v>PN_Nature2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C351" t="str">
             <v/>
           </cell>
           <cell r="D351">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E351" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G351" t="str">
-            <v>DefenderSource==Nature</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H351" t="str">
             <v/>
@@ -13535,7 +13596,7 @@
         </row>
         <row r="352">
           <cell r="B352" t="str">
-            <v>PN_Qigong2Times</v>
+            <v>PN_Magic2Times</v>
           </cell>
           <cell r="C352" t="str">
             <v/>
@@ -13547,19 +13608,88 @@
             <v>EnlargeDamage</v>
           </cell>
           <cell r="G352" t="str">
+            <v>DefenderSource==Magic</v>
+          </cell>
+          <cell r="H352" t="str">
+            <v/>
+          </cell>
+          <cell r="I352">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>PN_Machine2Times</v>
+          </cell>
+          <cell r="C353" t="str">
+            <v/>
+          </cell>
+          <cell r="D353">
+            <v>1</v>
+          </cell>
+          <cell r="E353" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G353" t="str">
+            <v>DefenderSource==Machine</v>
+          </cell>
+          <cell r="H353" t="str">
+            <v/>
+          </cell>
+          <cell r="I353">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>PN_Nature2Times</v>
+          </cell>
+          <cell r="C354" t="str">
+            <v/>
+          </cell>
+          <cell r="D354">
+            <v>1</v>
+          </cell>
+          <cell r="E354" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G354" t="str">
+            <v>DefenderSource==Nature</v>
+          </cell>
+          <cell r="H354" t="str">
+            <v/>
+          </cell>
+          <cell r="I354">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>PN_Qigong2Times</v>
+          </cell>
+          <cell r="C355" t="str">
+            <v/>
+          </cell>
+          <cell r="D355">
+            <v>1</v>
+          </cell>
+          <cell r="E355" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G355" t="str">
             <v>DefenderSource==Qigong</v>
           </cell>
-          <cell r="H352" t="str">
-            <v/>
-          </cell>
-          <cell r="I352">
+          <cell r="H355" t="str">
+            <v/>
+          </cell>
+          <cell r="I355">
             <v>-1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13625,7 +13755,7 @@
             <v>SpDecreaseRate</v>
           </cell>
           <cell r="C6">
-            <v>0.3</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="7">
@@ -14160,7 +14290,7 @@
         <v>33</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T6" si="1">"Portrait_"&amp;S2</f>
+        <f t="shared" ref="T2:T9" si="1">"Portrait_"&amp;S2</f>
         <v>Portrait_Ganfaul</v>
       </c>
       <c r="U2">
@@ -14175,11 +14305,11 @@
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B6" si="2">"CharName_"&amp;S3</f>
+        <f t="shared" ref="B3:B9" si="2">"CharName_"&amp;S3</f>
         <v>CharName_KeepSeries</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C6" si="3">"CharDesc_"&amp;S3</f>
+        <f t="shared" ref="C3:C9" si="3">"CharDesc_"&amp;S3</f>
         <v>CharDesc_KeepSeries</v>
       </c>
       <c r="D3" t="str">
@@ -14518,22 +14648,31 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_QueryChan</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_QueryChan</v>
+      </c>
       <c r="D7" t="str">
         <f>IF(ISBLANK(B7),"",
 IFERROR(VLOOKUP(B7,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B7,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>쿼리짱</v>
       </c>
       <c r="E7" t="str">
         <f>IF(ISBLANK(C7),"",
 IFERROR(VLOOKUP(C7,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C7,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>쿼리짱의 설명 우다다다
+리코셰가 기본 장착 라이트닝 볼트</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -14541,38 +14680,51 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7">
         <f>IF(ISBLANK(B7),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B7,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J18" si="6">IF(ISNUMBER(I7),H7*I7,0)</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K7">
         <v>0.7</v>
       </c>
+      <c r="L7">
+        <v>2.8</v>
+      </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>50</v>
       </c>
       <c r="R7">
         <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_QueryChan</v>
+      </c>
+      <c r="U7">
+        <v>0.05</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -14581,20 +14733,29 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_EarthMage</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_EarthMage</v>
       </c>
       <c r="D8" t="str">
         <f>IF(ISBLANK(B8),"",
 IFERROR(VLOOKUP(B8,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B8,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>어스메이지</v>
       </c>
       <c r="E8" t="str">
         <f>IF(ISBLANK(C8),"",
 IFERROR(VLOOKUP(C8,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C8,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>어스메이지의 설명 우다다다
+적의 미스를 무마시키는 백발백중 캐릭터</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -14605,38 +14766,51 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8">
         <f>IF(ISBLANK(B8),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B8,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K8">
         <v>0.7</v>
       </c>
+      <c r="L8">
+        <v>1.9</v>
+      </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="O8">
         <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>50</v>
       </c>
       <c r="R8">
         <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_EarthMage</v>
+      </c>
+      <c r="U8">
+        <v>0.05</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -14645,20 +14819,29 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_DynaMob</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_DynaMob</v>
       </c>
       <c r="D9" t="str">
         <f>IF(ISBLANK(B9),"",
 IFERROR(VLOOKUP(B9,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B9,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>다이나몹</v>
       </c>
       <c r="E9" t="str">
         <f>IF(ISBLANK(C9),"",
 IFERROR(VLOOKUP(C9,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C9,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>다이나몹의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14669,38 +14852,51 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9">
         <f>IF(ISBLANK(B9),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B9,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K9">
         <v>0.7</v>
       </c>
+      <c r="L9">
+        <v>2.4</v>
+      </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8857142857142859</v>
       </c>
       <c r="O9">
         <v>3.5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>50</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_DynaMob</v>
+      </c>
+      <c r="U9">
+        <v>0.05</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29F67C-5DA5-40BF-898B-CAF4ACC2942E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DCF7D-5376-49FD-B5BE-97BAC35F7415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2219,7 +2219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2456,6 +2456,26 @@
     <t>QueryChan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SciFiWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaosElemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperHero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meryl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreekWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3732,7 +3752,7 @@
             <v>권장 파워레벨</v>
           </cell>
           <cell r="D84" t="str">
-            <v>Recommended Power Level {0}</v>
+            <v>Recommended Power Level</v>
           </cell>
         </row>
         <row r="85">
@@ -6300,7 +6320,7 @@
           </cell>
           <cell r="C267" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
-강력한 단일 공격을 사용한다</v>
+적을 꿰뚫어버리는 강력한 한 방의 마법을 구사하며 전용 전투팩으로 관통샷과 최상급 공격력을 가지고 있다.</v>
           </cell>
           <cell r="D267" t="str">
             <v>In progress of translating…(267)</v>
@@ -6328,8 +6348,8 @@
             <v>1</v>
           </cell>
           <cell r="C269" t="str">
-            <v>킵시리즈의 설명 우다다다
-간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+            <v>아이돌을 꿈꾸던 소녀였는데 결류자가 세상을 멸망시키려 하면서 꿈이 사라져버렸다. 간파울 아저씨가 구조한 첫번째 생존자.
+간파울 아저씨가 구해온 플라즈마탄이 장착된 총을 사용한다.</v>
           </cell>
           <cell r="D269" t="str">
             <v>In progress of translating…(269)</v>
@@ -6346,7 +6366,7 @@
             <v>빅뱃서큐버스</v>
           </cell>
           <cell r="D270" t="str">
-            <v>BigBatSuccubus</v>
+            <v>Succubus</v>
           </cell>
         </row>
         <row r="271">
@@ -6426,6 +6446,9 @@
           <cell r="A276" t="str">
             <v>CharName_QueryChan</v>
           </cell>
+          <cell r="B276">
+            <v>1</v>
+          </cell>
           <cell r="C276" t="str">
             <v>쿼리짱</v>
           </cell>
@@ -6437,6 +6460,9 @@
           <cell r="A277" t="str">
             <v>CharDesc_QueryChan</v>
           </cell>
+          <cell r="B277">
+            <v>1</v>
+          </cell>
           <cell r="C277" t="str">
             <v>쿼리짱의 설명 우다다다
 리코셰가 기본 장착 라이트닝 볼트</v>
@@ -6449,6 +6475,9 @@
           <cell r="A278" t="str">
             <v>CharName_EarthMage</v>
           </cell>
+          <cell r="B278">
+            <v>1</v>
+          </cell>
           <cell r="C278" t="str">
             <v>어스메이지</v>
           </cell>
@@ -6460,6 +6489,9 @@
           <cell r="A279" t="str">
             <v>CharDesc_EarthMage</v>
           </cell>
+          <cell r="B279">
+            <v>1</v>
+          </cell>
           <cell r="C279" t="str">
             <v>어스메이지의 설명 우다다다
 적의 미스를 무마시키는 백발백중 캐릭터</v>
@@ -6472,6 +6504,9 @@
           <cell r="A280" t="str">
             <v>CharName_DynaMob</v>
           </cell>
+          <cell r="B280">
+            <v>1</v>
+          </cell>
           <cell r="C280" t="str">
             <v>다이나몹</v>
           </cell>
@@ -6483,9 +6518,12 @@
           <cell r="A281" t="str">
             <v>CharDesc_DynaMob</v>
           </cell>
+          <cell r="B281">
+            <v>1</v>
+          </cell>
           <cell r="C281" t="str">
-            <v>다이나몹의 설명 우다다다
-멀티타겟 프리셋으로 공격한다</v>
+            <v>배터리 공장에서 33년 근무한 베테랑 공돌이 아저씨. 세상이 망하던 날 야근하고 있던 중 테슬라 코일을 즉석에서 만들어냈다. 공장 주변에 출몰한 몬스터 무리들을 돌파하여 이미 아내와 아이들이 있다던 대피소로 가지만 이미 사람들은 몬스터의 습격을 피해 다시 이주한 상황. 가족들을 찾는 여행은 계속 된다.
+테슬라 코일을 사용하여 근거리 내 모든 적을 공격할 수 있다. 전용 전투팩으로 상급 공격력을 가지고 있다.</v>
           </cell>
           <cell r="D281" t="str">
             <v>In progress of translating…(281)</v>
@@ -6493,55 +6531,57 @@
         </row>
         <row r="282">
           <cell r="A282" t="str">
-            <v>BossName_SlimeRabbit</v>
+            <v>CharName_SciFiWarrior</v>
           </cell>
           <cell r="B282">
             <v>1</v>
           </cell>
           <cell r="C282" t="str">
-            <v>초록 토끼귀 슬라임</v>
+            <v>SF워리어</v>
           </cell>
           <cell r="D282" t="str">
-            <v>Green Rabbit Slime</v>
+            <v>SFWarrior</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
+            <v>CharDesc_SciFiWarrior</v>
           </cell>
           <cell r="B283">
             <v>1</v>
           </cell>
           <cell r="C283" t="str">
-            <v>붉은 토끼귀 슬라임</v>
+            <v>SF워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D283" t="str">
-            <v>Red Rabbit Slime</v>
+            <v>In progress of translating…(283)</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284" t="str">
-            <v>BossName_TerribleStump_Purple</v>
+            <v>CharName_ChaosElemental</v>
           </cell>
           <cell r="B284">
             <v>1</v>
           </cell>
           <cell r="C284" t="str">
-            <v>나무귀신</v>
+            <v>카오스엘리멘탈</v>
           </cell>
           <cell r="D284" t="str">
-            <v>Terrible Stump</v>
+            <v>ChaosElemental</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
+            <v>CharDesc_ChaosElemental</v>
           </cell>
           <cell r="B285">
             <v>1</v>
           </cell>
           <cell r="C285" t="str">
-            <v>외뿔 풍뎅이</v>
+            <v>카오스엘리멘탈의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D285" t="str">
             <v>In progress of translating…(285)</v>
@@ -6549,27 +6589,28 @@
         </row>
         <row r="286">
           <cell r="A286" t="str">
-            <v>BossName_SpiritKing</v>
+            <v>CharName_SuperHero</v>
           </cell>
           <cell r="B286">
             <v>1</v>
           </cell>
           <cell r="C286" t="str">
-            <v>스피릿 킹</v>
+            <v>슈퍼히어로</v>
           </cell>
           <cell r="D286" t="str">
-            <v>Spirit King</v>
+            <v>SuperHero</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>BossDesc_SlimeRabbit</v>
+            <v>CharDesc_SuperHero</v>
           </cell>
           <cell r="B287">
             <v>1</v>
           </cell>
           <cell r="C287" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>슈퍼히어로의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D287" t="str">
             <v>In progress of translating…(287)</v>
@@ -6577,27 +6618,28 @@
         </row>
         <row r="288">
           <cell r="A288" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
+            <v>CharName_Meryl</v>
           </cell>
           <cell r="B288">
             <v>1</v>
           </cell>
           <cell r="C288" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>메릴</v>
           </cell>
           <cell r="D288" t="str">
-            <v>In progress of translating…(288)</v>
+            <v>Meryl</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
+            <v>CharDesc_Meryl</v>
           </cell>
           <cell r="B289">
             <v>1</v>
           </cell>
           <cell r="C289" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>메릴의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D289" t="str">
             <v>In progress of translating…(289)</v>
@@ -6605,27 +6647,28 @@
         </row>
         <row r="290">
           <cell r="A290" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
+            <v>CharName_GreekWarrior</v>
           </cell>
           <cell r="B290">
             <v>1</v>
           </cell>
           <cell r="C290" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>그릭워리어</v>
           </cell>
           <cell r="D290" t="str">
-            <v>In progress of translating…(290)</v>
+            <v>GreekWarrior</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>BossDesc_SpiritKing</v>
+            <v>CharDesc_GreekWarrior</v>
           </cell>
           <cell r="B291">
             <v>1</v>
           </cell>
           <cell r="C291" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+            <v>그릭워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D291" t="str">
             <v>In progress of translating…(291)</v>
@@ -6633,55 +6676,55 @@
         </row>
         <row r="292">
           <cell r="A292" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossName_SlimeRabbit</v>
           </cell>
           <cell r="B292">
             <v>1</v>
           </cell>
           <cell r="C292" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>초록 토끼귀 슬라임</v>
           </cell>
           <cell r="D292" t="str">
-            <v>In progress of translating…(292)</v>
+            <v>Green Rabbit Slime</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>BossName_SlimeRabbit_Red</v>
           </cell>
           <cell r="B293">
             <v>1</v>
           </cell>
           <cell r="C293" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>붉은 토끼귀 슬라임</v>
           </cell>
           <cell r="D293" t="str">
-            <v>In progress of translating…(293)</v>
+            <v>Red Rabbit Slime</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>BossName_TerribleStump_Purple</v>
           </cell>
           <cell r="B294">
             <v>1</v>
           </cell>
           <cell r="C294" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>나무귀신</v>
           </cell>
           <cell r="D294" t="str">
-            <v>In progress of translating…(294)</v>
+            <v>Terrible Stump</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>BossName_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B295">
             <v>1</v>
           </cell>
           <cell r="C295" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>외뿔 풍뎅이</v>
           </cell>
           <cell r="D295" t="str">
             <v>In progress of translating…(295)</v>
@@ -6689,30 +6732,170 @@
         </row>
         <row r="296">
           <cell r="A296" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>BossName_SpiritKing</v>
           </cell>
           <cell r="B296">
             <v>1</v>
           </cell>
           <cell r="C296" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>스피릿 킹</v>
           </cell>
           <cell r="D296" t="str">
-            <v>In progress of translating…(296)</v>
+            <v>Spirit King</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>BossDesc_SlimeRabbit</v>
           </cell>
           <cell r="B297">
             <v>1</v>
           </cell>
           <cell r="C297" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="D297" t="str">
             <v>In progress of translating…(297)</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="A298" t="str">
+            <v>BossDesc_SlimeRabbit_Red</v>
+          </cell>
+          <cell r="B298">
+            <v>1</v>
+          </cell>
+          <cell r="C298" t="str">
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+          </cell>
+          <cell r="D298" t="str">
+            <v>In progress of translating…(298)</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="A299" t="str">
+            <v>BossDesc_TerribleStump_Purple</v>
+          </cell>
+          <cell r="B299">
+            <v>1</v>
+          </cell>
+          <cell r="C299" t="str">
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="D299" t="str">
+            <v>In progress of translating…(299)</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="A300" t="str">
+            <v>BossDesc_PolygonalMetalon_Red</v>
+          </cell>
+          <cell r="B300">
+            <v>1</v>
+          </cell>
+          <cell r="C300" t="str">
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="D300" t="str">
+            <v>In progress of translating…(300)</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="A301" t="str">
+            <v>BossDesc_SpiritKing</v>
+          </cell>
+          <cell r="B301">
+            <v>1</v>
+          </cell>
+          <cell r="C301" t="str">
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+          </cell>
+          <cell r="D301" t="str">
+            <v>In progress of translating…(301)</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302" t="str">
+            <v>PenaltyUIName_One</v>
+          </cell>
+          <cell r="B302">
+            <v>1</v>
+          </cell>
+          <cell r="C302" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D302" t="str">
+            <v>In progress of translating…(302)</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="A303" t="str">
+            <v>PenaltyUIMind_One</v>
+          </cell>
+          <cell r="B303">
+            <v>1</v>
+          </cell>
+          <cell r="C303" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="D303" t="str">
+            <v>In progress of translating…(303)</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="A304" t="str">
+            <v>PenaltyUIRepre_OneOfTwo</v>
+          </cell>
+          <cell r="B304">
+            <v>1</v>
+          </cell>
+          <cell r="C304" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D304" t="str">
+            <v>In progress of translating…(304)</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="A305" t="str">
+            <v>PenaltyUIName_Two</v>
+          </cell>
+          <cell r="B305">
+            <v>1</v>
+          </cell>
+          <cell r="C305" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D305" t="str">
+            <v>In progress of translating…(305)</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="A306" t="str">
+            <v>PenaltyUIMind_Two</v>
+          </cell>
+          <cell r="B306">
+            <v>1</v>
+          </cell>
+          <cell r="C306" t="str">
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+          </cell>
+          <cell r="D306" t="str">
+            <v>In progress of translating…(306)</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="A307" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B307">
+            <v>1</v>
+          </cell>
+          <cell r="C307" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="D307" t="str">
+            <v>In progress of translating…(307)</v>
           </cell>
         </row>
       </sheetData>
@@ -6764,7 +6947,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6781,7 +6964,7 @@
       <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="B1" t="str">
@@ -7100,7 +7283,7 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackSciFiWarrior</v>
           </cell>
           <cell r="C17" t="str">
             <v/>
@@ -7109,18 +7292,18 @@
             <v>1</v>
           </cell>
           <cell r="E17" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H17" t="str">
             <v/>
           </cell>
           <cell r="I17">
-            <v>-1</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>InvincibleTortoise</v>
+            <v>NormalAttackChaosElemental</v>
           </cell>
           <cell r="C18" t="str">
             <v/>
@@ -7129,18 +7312,18 @@
             <v>1</v>
           </cell>
           <cell r="E18" t="str">
-            <v>InvincibleTortoise</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H18" t="str">
             <v/>
           </cell>
           <cell r="I18">
-            <v>3</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>CountBarrier5Times</v>
+            <v>NormalAttackSuperHero</v>
           </cell>
           <cell r="C19" t="str">
             <v/>
@@ -7149,18 +7332,18 @@
             <v>1</v>
           </cell>
           <cell r="E19" t="str">
-            <v>CountBarrier</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H19" t="str">
             <v/>
           </cell>
           <cell r="I19">
-            <v>-1</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>NormalAttackMeryl</v>
           </cell>
           <cell r="C20" t="str">
             <v/>
@@ -7169,18 +7352,18 @@
             <v>1</v>
           </cell>
           <cell r="E20" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H20" t="str">
             <v/>
           </cell>
           <cell r="I20">
-            <v>-1</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>NormalAttackGreekWarrior</v>
           </cell>
           <cell r="C21" t="str">
             <v/>
@@ -7189,18 +7372,18 @@
             <v>1</v>
           </cell>
           <cell r="E21" t="str">
-            <v>Burrow</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H21" t="str">
             <v/>
           </cell>
           <cell r="I21">
-            <v>3</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>LP_Atk</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C22" t="str">
             <v/>
@@ -7209,7 +7392,7 @@
             <v>1</v>
           </cell>
           <cell r="E22" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H22" t="str">
             <v/>
@@ -7220,36 +7403,36 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>LP_Atk</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="C23" t="str">
             <v/>
           </cell>
           <cell r="D23">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E23" t="str">
-            <v>ChangeActorStatus</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="H23" t="str">
             <v/>
           </cell>
           <cell r="I23">
-            <v>-1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>LP_Atk</v>
+            <v>CountBarrier5Times</v>
           </cell>
           <cell r="C24" t="str">
             <v/>
           </cell>
           <cell r="D24">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E24" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CountBarrier</v>
           </cell>
           <cell r="H24" t="str">
             <v/>
@@ -7260,16 +7443,16 @@
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>LP_Atk</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
           <cell r="C25" t="str">
             <v/>
           </cell>
           <cell r="D25">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E25" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H25" t="str">
             <v/>
@@ -7280,22 +7463,22 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>LP_Atk</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C26" t="str">
             <v/>
           </cell>
           <cell r="D26">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E26" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Burrow</v>
           </cell>
           <cell r="H26" t="str">
             <v/>
           </cell>
           <cell r="I26">
-            <v>-1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="27">
@@ -7306,7 +7489,7 @@
             <v/>
           </cell>
           <cell r="D27">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E27" t="str">
             <v>ChangeActorStatus</v>
@@ -7326,7 +7509,7 @@
             <v/>
           </cell>
           <cell r="D28">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E28" t="str">
             <v>ChangeActorStatus</v>
@@ -7346,7 +7529,7 @@
             <v/>
           </cell>
           <cell r="D29">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E29" t="str">
             <v>ChangeActorStatus</v>
@@ -7366,7 +7549,7 @@
             <v/>
           </cell>
           <cell r="D30">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E30" t="str">
             <v>ChangeActorStatus</v>
@@ -7380,13 +7563,13 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C31" t="str">
             <v/>
           </cell>
           <cell r="D31">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E31" t="str">
             <v>ChangeActorStatus</v>
@@ -7400,13 +7583,13 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C32" t="str">
             <v/>
           </cell>
           <cell r="D32">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E32" t="str">
             <v>ChangeActorStatus</v>
@@ -7420,13 +7603,13 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C33" t="str">
             <v/>
           </cell>
           <cell r="D33">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E33" t="str">
             <v>ChangeActorStatus</v>
@@ -7440,13 +7623,13 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C34" t="str">
             <v/>
           </cell>
           <cell r="D34">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E34" t="str">
             <v>ChangeActorStatus</v>
@@ -7460,13 +7643,13 @@
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C35" t="str">
             <v/>
           </cell>
           <cell r="D35">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E35" t="str">
             <v>ChangeActorStatus</v>
@@ -7486,7 +7669,7 @@
             <v/>
           </cell>
           <cell r="D36">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E36" t="str">
             <v>ChangeActorStatus</v>
@@ -7506,7 +7689,7 @@
             <v/>
           </cell>
           <cell r="D37">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E37" t="str">
             <v>ChangeActorStatus</v>
@@ -7526,7 +7709,7 @@
             <v/>
           </cell>
           <cell r="D38">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E38" t="str">
             <v>ChangeActorStatus</v>
@@ -7546,7 +7729,7 @@
             <v/>
           </cell>
           <cell r="D39">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E39" t="str">
             <v>ChangeActorStatus</v>
@@ -7560,13 +7743,13 @@
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C40" t="str">
             <v/>
           </cell>
           <cell r="D40">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E40" t="str">
             <v>ChangeActorStatus</v>
@@ -7580,13 +7763,13 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C41" t="str">
             <v/>
           </cell>
           <cell r="D41">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E41" t="str">
             <v>ChangeActorStatus</v>
@@ -7600,13 +7783,13 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C42" t="str">
             <v/>
           </cell>
           <cell r="D42">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E42" t="str">
             <v>ChangeActorStatus</v>
@@ -7620,13 +7803,13 @@
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C43" t="str">
             <v/>
           </cell>
           <cell r="D43">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E43" t="str">
             <v>ChangeActorStatus</v>
@@ -7640,13 +7823,13 @@
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C44" t="str">
             <v/>
           </cell>
           <cell r="D44">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="E44" t="str">
             <v>ChangeActorStatus</v>
@@ -7660,13 +7843,13 @@
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C45" t="str">
             <v/>
           </cell>
           <cell r="D45">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E45" t="str">
             <v>ChangeActorStatus</v>
@@ -7680,13 +7863,13 @@
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C46" t="str">
             <v/>
           </cell>
           <cell r="D46">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E46" t="str">
             <v>ChangeActorStatus</v>
@@ -7700,13 +7883,13 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C47" t="str">
             <v/>
           </cell>
           <cell r="D47">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E47" t="str">
             <v>ChangeActorStatus</v>
@@ -7726,7 +7909,7 @@
             <v/>
           </cell>
           <cell r="D48">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E48" t="str">
             <v>ChangeActorStatus</v>
@@ -7746,7 +7929,7 @@
             <v/>
           </cell>
           <cell r="D49">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E49" t="str">
             <v>ChangeActorStatus</v>
@@ -7766,7 +7949,7 @@
             <v/>
           </cell>
           <cell r="D50">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E50" t="str">
             <v>ChangeActorStatus</v>
@@ -7786,7 +7969,7 @@
             <v/>
           </cell>
           <cell r="D51">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E51" t="str">
             <v>ChangeActorStatus</v>
@@ -7800,13 +7983,13 @@
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C52" t="str">
             <v/>
           </cell>
           <cell r="D52">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E52" t="str">
             <v>ChangeActorStatus</v>
@@ -7820,13 +8003,13 @@
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C53" t="str">
             <v/>
           </cell>
           <cell r="D53">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E53" t="str">
             <v>ChangeActorStatus</v>
@@ -7840,13 +8023,13 @@
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C54" t="str">
             <v/>
           </cell>
           <cell r="D54">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E54" t="str">
             <v>ChangeActorStatus</v>
@@ -7860,13 +8043,13 @@
         </row>
         <row r="55">
           <cell r="B55" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C55" t="str">
             <v/>
           </cell>
           <cell r="D55">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E55" t="str">
             <v>ChangeActorStatus</v>
@@ -7880,13 +8063,13 @@
         </row>
         <row r="56">
           <cell r="B56" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C56" t="str">
             <v/>
           </cell>
           <cell r="D56">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E56" t="str">
             <v>ChangeActorStatus</v>
@@ -7906,7 +8089,7 @@
             <v/>
           </cell>
           <cell r="D57">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E57" t="str">
             <v>ChangeActorStatus</v>
@@ -7926,7 +8109,7 @@
             <v/>
           </cell>
           <cell r="D58">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E58" t="str">
             <v>ChangeActorStatus</v>
@@ -7946,7 +8129,7 @@
             <v/>
           </cell>
           <cell r="D59">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E59" t="str">
             <v>ChangeActorStatus</v>
@@ -7966,7 +8149,7 @@
             <v/>
           </cell>
           <cell r="D60">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E60" t="str">
             <v>ChangeActorStatus</v>
@@ -7980,13 +8163,13 @@
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>LP_AtkSpeedBest</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C61" t="str">
             <v/>
           </cell>
           <cell r="D61">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E61" t="str">
             <v>ChangeActorStatus</v>
@@ -8000,13 +8183,13 @@
         </row>
         <row r="62">
           <cell r="B62" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C62" t="str">
             <v/>
           </cell>
           <cell r="D62">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E62" t="str">
             <v>ChangeActorStatus</v>
@@ -8020,13 +8203,13 @@
         </row>
         <row r="63">
           <cell r="B63" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C63" t="str">
             <v/>
           </cell>
           <cell r="D63">
-            <v>2</v>
+            <v>7</v>
           </cell>
           <cell r="E63" t="str">
             <v>ChangeActorStatus</v>
@@ -8040,13 +8223,13 @@
         </row>
         <row r="64">
           <cell r="B64" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C64" t="str">
             <v/>
           </cell>
           <cell r="D64">
-            <v>3</v>
+            <v>8</v>
           </cell>
           <cell r="E64" t="str">
             <v>ChangeActorStatus</v>
@@ -8060,13 +8243,13 @@
         </row>
         <row r="65">
           <cell r="B65" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C65" t="str">
             <v/>
           </cell>
           <cell r="D65">
-            <v>4</v>
+            <v>9</v>
           </cell>
           <cell r="E65" t="str">
             <v>ChangeActorStatus</v>
@@ -8080,13 +8263,13 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBest</v>
           </cell>
           <cell r="C66" t="str">
             <v/>
           </cell>
           <cell r="D66">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E66" t="str">
             <v>ChangeActorStatus</v>
@@ -8106,7 +8289,7 @@
             <v/>
           </cell>
           <cell r="D67">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E67" t="str">
             <v>ChangeActorStatus</v>
@@ -8120,13 +8303,13 @@
         </row>
         <row r="68">
           <cell r="B68" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C68" t="str">
             <v/>
           </cell>
           <cell r="D68">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E68" t="str">
             <v>ChangeActorStatus</v>
@@ -8140,13 +8323,13 @@
         </row>
         <row r="69">
           <cell r="B69" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C69" t="str">
             <v/>
           </cell>
           <cell r="D69">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E69" t="str">
             <v>ChangeActorStatus</v>
@@ -8160,13 +8343,13 @@
         </row>
         <row r="70">
           <cell r="B70" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C70" t="str">
             <v/>
           </cell>
           <cell r="D70">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E70" t="str">
             <v>ChangeActorStatus</v>
@@ -8180,13 +8363,13 @@
         </row>
         <row r="71">
           <cell r="B71" t="str">
-            <v>LP_CritBest</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C71" t="str">
             <v/>
           </cell>
           <cell r="D71">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E71" t="str">
             <v>ChangeActorStatus</v>
@@ -8200,13 +8383,13 @@
         </row>
         <row r="72">
           <cell r="B72" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C72" t="str">
             <v/>
           </cell>
           <cell r="D72">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E72" t="str">
             <v>ChangeActorStatus</v>
@@ -8220,13 +8403,13 @@
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C73" t="str">
             <v/>
           </cell>
           <cell r="D73">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E73" t="str">
             <v>ChangeActorStatus</v>
@@ -8240,13 +8423,13 @@
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C74" t="str">
             <v/>
           </cell>
           <cell r="D74">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E74" t="str">
             <v>ChangeActorStatus</v>
@@ -8260,13 +8443,13 @@
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C75" t="str">
             <v/>
           </cell>
           <cell r="D75">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E75" t="str">
             <v>ChangeActorStatus</v>
@@ -8280,13 +8463,13 @@
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBest</v>
           </cell>
           <cell r="C76" t="str">
             <v/>
           </cell>
           <cell r="D76">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E76" t="str">
             <v>ChangeActorStatus</v>
@@ -8306,7 +8489,7 @@
             <v/>
           </cell>
           <cell r="D77">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E77" t="str">
             <v>ChangeActorStatus</v>
@@ -8326,7 +8509,7 @@
             <v/>
           </cell>
           <cell r="D78">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E78" t="str">
             <v>ChangeActorStatus</v>
@@ -8346,7 +8529,7 @@
             <v/>
           </cell>
           <cell r="D79">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E79" t="str">
             <v>ChangeActorStatus</v>
@@ -8366,7 +8549,7 @@
             <v/>
           </cell>
           <cell r="D80">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E80" t="str">
             <v>ChangeActorStatus</v>
@@ -8380,13 +8563,13 @@
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C81" t="str">
             <v/>
           </cell>
           <cell r="D81">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E81" t="str">
             <v>ChangeActorStatus</v>
@@ -8400,13 +8583,13 @@
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C82" t="str">
             <v/>
           </cell>
           <cell r="D82">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E82" t="str">
             <v>ChangeActorStatus</v>
@@ -8420,13 +8603,13 @@
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C83" t="str">
             <v/>
           </cell>
           <cell r="D83">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E83" t="str">
             <v>ChangeActorStatus</v>
@@ -8440,13 +8623,13 @@
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C84" t="str">
             <v/>
           </cell>
           <cell r="D84">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E84" t="str">
             <v>ChangeActorStatus</v>
@@ -8460,13 +8643,13 @@
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C85" t="str">
             <v/>
           </cell>
           <cell r="D85">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E85" t="str">
             <v>ChangeActorStatus</v>
@@ -8486,7 +8669,7 @@
             <v/>
           </cell>
           <cell r="D86">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E86" t="str">
             <v>ChangeActorStatus</v>
@@ -8506,7 +8689,7 @@
             <v/>
           </cell>
           <cell r="D87">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E87" t="str">
             <v>ChangeActorStatus</v>
@@ -8526,7 +8709,7 @@
             <v/>
           </cell>
           <cell r="D88">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E88" t="str">
             <v>ChangeActorStatus</v>
@@ -8546,7 +8729,7 @@
             <v/>
           </cell>
           <cell r="D89">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E89" t="str">
             <v>ChangeActorStatus</v>
@@ -8560,13 +8743,13 @@
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C90" t="str">
             <v/>
           </cell>
           <cell r="D90">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E90" t="str">
             <v>ChangeActorStatus</v>
@@ -8580,13 +8763,13 @@
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C91" t="str">
             <v/>
           </cell>
           <cell r="D91">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E91" t="str">
             <v>ChangeActorStatus</v>
@@ -8600,13 +8783,13 @@
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C92" t="str">
             <v/>
           </cell>
           <cell r="D92">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E92" t="str">
             <v>ChangeActorStatus</v>
@@ -8620,13 +8803,13 @@
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C93" t="str">
             <v/>
           </cell>
           <cell r="D93">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E93" t="str">
             <v>ChangeActorStatus</v>
@@ -8640,13 +8823,13 @@
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C94" t="str">
             <v/>
           </cell>
           <cell r="D94">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E94" t="str">
             <v>ChangeActorStatus</v>
@@ -8660,7 +8843,7 @@
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C95" t="str">
             <v/>
@@ -8669,7 +8852,7 @@
             <v>1</v>
           </cell>
           <cell r="E95" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H95" t="str">
             <v/>
@@ -8680,7 +8863,7 @@
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C96" t="str">
             <v/>
@@ -8689,7 +8872,7 @@
             <v>2</v>
           </cell>
           <cell r="E96" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H96" t="str">
             <v/>
@@ -8700,7 +8883,7 @@
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C97" t="str">
             <v/>
@@ -8709,7 +8892,7 @@
             <v>3</v>
           </cell>
           <cell r="E97" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H97" t="str">
             <v/>
@@ -8720,7 +8903,7 @@
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C98" t="str">
             <v/>
@@ -8729,7 +8912,7 @@
             <v>4</v>
           </cell>
           <cell r="E98" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H98" t="str">
             <v/>
@@ -8740,7 +8923,7 @@
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C99" t="str">
             <v/>
@@ -8749,7 +8932,7 @@
             <v>5</v>
           </cell>
           <cell r="E99" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H99" t="str">
             <v/>
@@ -8766,7 +8949,7 @@
             <v/>
           </cell>
           <cell r="D100">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E100" t="str">
             <v>ReduceDamage</v>
@@ -8786,7 +8969,7 @@
             <v/>
           </cell>
           <cell r="D101">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E101" t="str">
             <v>ReduceDamage</v>
@@ -8806,7 +8989,7 @@
             <v/>
           </cell>
           <cell r="D102">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E102" t="str">
             <v>ReduceDamage</v>
@@ -8826,7 +9009,7 @@
             <v/>
           </cell>
           <cell r="D103">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E103" t="str">
             <v>ReduceDamage</v>
@@ -8840,13 +9023,13 @@
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C104" t="str">
             <v/>
           </cell>
           <cell r="D104">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E104" t="str">
             <v>ReduceDamage</v>
@@ -8860,13 +9043,13 @@
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C105" t="str">
             <v/>
           </cell>
           <cell r="D105">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E105" t="str">
             <v>ReduceDamage</v>
@@ -8880,13 +9063,13 @@
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C106" t="str">
             <v/>
           </cell>
           <cell r="D106">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E106" t="str">
             <v>ReduceDamage</v>
@@ -8900,13 +9083,13 @@
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C107" t="str">
             <v/>
           </cell>
           <cell r="D107">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E107" t="str">
             <v>ReduceDamage</v>
@@ -8920,13 +9103,13 @@
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C108" t="str">
             <v/>
           </cell>
           <cell r="D108">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E108" t="str">
             <v>ReduceDamage</v>
@@ -8946,7 +9129,7 @@
             <v/>
           </cell>
           <cell r="D109">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E109" t="str">
             <v>ReduceDamage</v>
@@ -8966,7 +9149,7 @@
             <v/>
           </cell>
           <cell r="D110">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E110" t="str">
             <v>ReduceDamage</v>
@@ -8986,7 +9169,7 @@
             <v/>
           </cell>
           <cell r="D111">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E111" t="str">
             <v>ReduceDamage</v>
@@ -9006,7 +9189,7 @@
             <v/>
           </cell>
           <cell r="D112">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E112" t="str">
             <v>ReduceDamage</v>
@@ -9020,92 +9203,107 @@
         </row>
         <row r="113">
           <cell r="B113" t="str">
-            <v>LP_ExtraGold</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C113" t="str">
             <v/>
           </cell>
           <cell r="D113">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E113" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H113" t="str">
             <v/>
+          </cell>
+          <cell r="I113">
+            <v>-1</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114" t="str">
-            <v>LP_ItemChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C114" t="str">
             <v/>
           </cell>
           <cell r="D114">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E114" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H114" t="str">
             <v/>
+          </cell>
+          <cell r="I114">
+            <v>-1</v>
           </cell>
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C115" t="str">
             <v/>
           </cell>
           <cell r="D115">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E115" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H115" t="str">
             <v/>
+          </cell>
+          <cell r="I115">
+            <v>-1</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C116" t="str">
             <v/>
           </cell>
           <cell r="D116">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="E116" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H116" t="str">
             <v/>
+          </cell>
+          <cell r="I116">
+            <v>-1</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C117" t="str">
             <v/>
           </cell>
           <cell r="D117">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="E117" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H117" t="str">
             <v/>
+          </cell>
+          <cell r="I117">
+            <v>-1</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_ExtraGold</v>
           </cell>
           <cell r="C118" t="str">
             <v/>
@@ -9114,7 +9312,7 @@
             <v>1</v>
           </cell>
           <cell r="E118" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H118" t="str">
             <v/>
@@ -9122,16 +9320,16 @@
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
           <cell r="C119" t="str">
             <v/>
           </cell>
           <cell r="D119">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E119" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H119" t="str">
             <v/>
@@ -9139,7 +9337,7 @@
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C120" t="str">
             <v/>
@@ -9148,7 +9346,7 @@
             <v>1</v>
           </cell>
           <cell r="E120" t="str">
-            <v>RicochetHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H120" t="str">
             <v/>
@@ -9156,7 +9354,7 @@
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C121" t="str">
             <v/>
@@ -9165,7 +9363,7 @@
             <v>2</v>
           </cell>
           <cell r="E121" t="str">
-            <v>RicochetHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H121" t="str">
             <v/>
@@ -9173,16 +9371,16 @@
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C122" t="str">
             <v/>
           </cell>
           <cell r="D122">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E122" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H122" t="str">
             <v/>
@@ -9190,16 +9388,16 @@
         </row>
         <row r="123">
           <cell r="B123" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C123" t="str">
             <v/>
           </cell>
           <cell r="D123">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E123" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H123" t="str">
             <v/>
@@ -9207,16 +9405,16 @@
         </row>
         <row r="124">
           <cell r="B124" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C124" t="str">
             <v/>
           </cell>
           <cell r="D124">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E124" t="str">
-            <v>ParallelHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H124" t="str">
             <v/>
@@ -9224,16 +9422,16 @@
         </row>
         <row r="125">
           <cell r="B125" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C125" t="str">
             <v/>
           </cell>
           <cell r="D125">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E125" t="str">
-            <v>ParallelHitObject</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H125" t="str">
             <v/>
@@ -9241,16 +9439,16 @@
         </row>
         <row r="126">
           <cell r="B126" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C126" t="str">
             <v/>
           </cell>
           <cell r="D126">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E126" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H126" t="str">
             <v/>
@@ -9258,16 +9456,16 @@
         </row>
         <row r="127">
           <cell r="B127" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C127" t="str">
             <v/>
           </cell>
           <cell r="D127">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E127" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H127" t="str">
             <v/>
@@ -9275,16 +9473,16 @@
         </row>
         <row r="128">
           <cell r="B128" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C128" t="str">
             <v/>
           </cell>
           <cell r="D128">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E128" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H128" t="str">
             <v/>
@@ -9292,16 +9490,16 @@
         </row>
         <row r="129">
           <cell r="B129" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C129" t="str">
             <v/>
           </cell>
           <cell r="D129">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E129" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H129" t="str">
             <v/>
@@ -9309,16 +9507,16 @@
         </row>
         <row r="130">
           <cell r="B130" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C130" t="str">
             <v/>
           </cell>
           <cell r="D130">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E130" t="str">
-            <v>BackNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H130" t="str">
             <v/>
@@ -9326,16 +9524,16 @@
         </row>
         <row r="131">
           <cell r="B131" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C131" t="str">
             <v/>
           </cell>
           <cell r="D131">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E131" t="str">
-            <v>BackNwayGenerator</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H131" t="str">
             <v/>
@@ -9343,16 +9541,16 @@
         </row>
         <row r="132">
           <cell r="B132" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C132" t="str">
             <v/>
           </cell>
           <cell r="D132">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E132" t="str">
-            <v>RepeatHitObject</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H132" t="str">
             <v/>
@@ -9360,16 +9558,16 @@
         </row>
         <row r="133">
           <cell r="B133" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C133" t="str">
             <v/>
           </cell>
           <cell r="D133">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E133" t="str">
-            <v>RepeatHitObject</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H133" t="str">
             <v/>
@@ -9377,107 +9575,92 @@
         </row>
         <row r="134">
           <cell r="B134" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C134" t="str">
             <v/>
           </cell>
           <cell r="D134">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E134" t="str">
-            <v>CallAffectorValue</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H134" t="str">
             <v/>
-          </cell>
-          <cell r="I134">
-            <v>-1</v>
           </cell>
         </row>
         <row r="135">
           <cell r="B135" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C135" t="str">
             <v/>
           </cell>
           <cell r="D135">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E135" t="str">
-            <v>CallAffectorValue</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H135" t="str">
             <v/>
-          </cell>
-          <cell r="I135">
-            <v>-1</v>
           </cell>
         </row>
         <row r="136">
           <cell r="B136" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C136" t="str">
             <v/>
           </cell>
           <cell r="D136">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E136" t="str">
-            <v>CallAffectorValue</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H136" t="str">
             <v/>
-          </cell>
-          <cell r="I136">
-            <v>-1</v>
           </cell>
         </row>
         <row r="137">
           <cell r="B137" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C137" t="str">
             <v/>
           </cell>
           <cell r="D137">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E137" t="str">
-            <v>CallAffectorValue</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H137" t="str">
             <v/>
-          </cell>
-          <cell r="I137">
-            <v>-1</v>
           </cell>
         </row>
         <row r="138">
           <cell r="B138" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C138" t="str">
             <v/>
           </cell>
           <cell r="D138">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E138" t="str">
-            <v>CallAffectorValue</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H138" t="str">
             <v/>
-          </cell>
-          <cell r="I138">
-            <v>-1</v>
           </cell>
         </row>
         <row r="139">
           <cell r="B139" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C139" t="str">
             <v/>
@@ -9486,15 +9669,18 @@
             <v>1</v>
           </cell>
           <cell r="E139" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H139" t="str">
             <v/>
+          </cell>
+          <cell r="I139">
+            <v>-1</v>
           </cell>
         </row>
         <row r="140">
           <cell r="B140" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C140" t="str">
             <v/>
@@ -9503,15 +9689,18 @@
             <v>2</v>
           </cell>
           <cell r="E140" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H140" t="str">
             <v/>
+          </cell>
+          <cell r="I140">
+            <v>-1</v>
           </cell>
         </row>
         <row r="141">
           <cell r="B141" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C141" t="str">
             <v/>
@@ -9520,15 +9709,18 @@
             <v>3</v>
           </cell>
           <cell r="E141" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H141" t="str">
             <v/>
+          </cell>
+          <cell r="I141">
+            <v>-1</v>
           </cell>
         </row>
         <row r="142">
           <cell r="B142" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C142" t="str">
             <v/>
@@ -9537,15 +9729,18 @@
             <v>4</v>
           </cell>
           <cell r="E142" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H142" t="str">
             <v/>
+          </cell>
+          <cell r="I142">
+            <v>-1</v>
           </cell>
         </row>
         <row r="143">
           <cell r="B143" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
           <cell r="C143" t="str">
             <v/>
@@ -9554,15 +9749,18 @@
             <v>5</v>
           </cell>
           <cell r="E143" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H143" t="str">
             <v/>
+          </cell>
+          <cell r="I143">
+            <v>-1</v>
           </cell>
         </row>
         <row r="144">
           <cell r="B144" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C144" t="str">
             <v/>
@@ -9571,18 +9769,15 @@
             <v>1</v>
           </cell>
           <cell r="E144" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H144" t="str">
             <v/>
-          </cell>
-          <cell r="I144">
-            <v>-1</v>
           </cell>
         </row>
         <row r="145">
           <cell r="B145" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C145" t="str">
             <v/>
@@ -9591,18 +9786,15 @@
             <v>2</v>
           </cell>
           <cell r="E145" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H145" t="str">
             <v/>
-          </cell>
-          <cell r="I145">
-            <v>-1</v>
           </cell>
         </row>
         <row r="146">
           <cell r="B146" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C146" t="str">
             <v/>
@@ -9611,18 +9803,15 @@
             <v>3</v>
           </cell>
           <cell r="E146" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H146" t="str">
             <v/>
-          </cell>
-          <cell r="I146">
-            <v>-1</v>
           </cell>
         </row>
         <row r="147">
           <cell r="B147" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C147" t="str">
             <v/>
@@ -9631,18 +9820,15 @@
             <v>4</v>
           </cell>
           <cell r="E147" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H147" t="str">
             <v/>
-          </cell>
-          <cell r="I147">
-            <v>-1</v>
           </cell>
         </row>
         <row r="148">
           <cell r="B148" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C148" t="str">
             <v/>
@@ -9651,18 +9837,15 @@
             <v>5</v>
           </cell>
           <cell r="E148" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H148" t="str">
             <v/>
-          </cell>
-          <cell r="I148">
-            <v>-1</v>
           </cell>
         </row>
         <row r="149">
           <cell r="B149" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C149" t="str">
             <v/>
@@ -9671,15 +9854,18 @@
             <v>1</v>
           </cell>
           <cell r="E149" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H149" t="str">
             <v/>
+          </cell>
+          <cell r="I149">
+            <v>-1</v>
           </cell>
         </row>
         <row r="150">
           <cell r="B150" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C150" t="str">
             <v/>
@@ -9688,15 +9874,18 @@
             <v>2</v>
           </cell>
           <cell r="E150" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H150" t="str">
             <v/>
+          </cell>
+          <cell r="I150">
+            <v>-1</v>
           </cell>
         </row>
         <row r="151">
           <cell r="B151" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C151" t="str">
             <v/>
@@ -9705,15 +9894,18 @@
             <v>3</v>
           </cell>
           <cell r="E151" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H151" t="str">
             <v/>
+          </cell>
+          <cell r="I151">
+            <v>-1</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C152" t="str">
             <v/>
@@ -9722,15 +9914,18 @@
             <v>4</v>
           </cell>
           <cell r="E152" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H152" t="str">
             <v/>
+          </cell>
+          <cell r="I152">
+            <v>-1</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
           <cell r="C153" t="str">
             <v/>
@@ -9739,15 +9934,18 @@
             <v>5</v>
           </cell>
           <cell r="E153" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H153" t="str">
             <v/>
+          </cell>
+          <cell r="I153">
+            <v>-1</v>
           </cell>
         </row>
         <row r="154">
           <cell r="B154" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C154" t="str">
             <v/>
@@ -9756,18 +9954,15 @@
             <v>1</v>
           </cell>
           <cell r="E154" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H154" t="str">
             <v/>
-          </cell>
-          <cell r="I154">
-            <v>-1</v>
           </cell>
         </row>
         <row r="155">
           <cell r="B155" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C155" t="str">
             <v/>
@@ -9776,18 +9971,15 @@
             <v>2</v>
           </cell>
           <cell r="E155" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H155" t="str">
             <v/>
-          </cell>
-          <cell r="I155">
-            <v>-1</v>
           </cell>
         </row>
         <row r="156">
           <cell r="B156" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C156" t="str">
             <v/>
@@ -9796,18 +9988,15 @@
             <v>3</v>
           </cell>
           <cell r="E156" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H156" t="str">
             <v/>
-          </cell>
-          <cell r="I156">
-            <v>-1</v>
           </cell>
         </row>
         <row r="157">
           <cell r="B157" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C157" t="str">
             <v/>
@@ -9816,18 +10005,15 @@
             <v>4</v>
           </cell>
           <cell r="E157" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H157" t="str">
             <v/>
-          </cell>
-          <cell r="I157">
-            <v>-1</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C158" t="str">
             <v/>
@@ -9836,13 +10022,10 @@
             <v>5</v>
           </cell>
           <cell r="E158" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H158" t="str">
             <v/>
-          </cell>
-          <cell r="I158">
-            <v>-1</v>
           </cell>
         </row>
         <row r="159">
@@ -9853,7 +10036,7 @@
             <v/>
           </cell>
           <cell r="D159">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E159" t="str">
             <v>CallAffectorValue</v>
@@ -9873,7 +10056,7 @@
             <v/>
           </cell>
           <cell r="D160">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E160" t="str">
             <v>CallAffectorValue</v>
@@ -9893,7 +10076,7 @@
             <v/>
           </cell>
           <cell r="D161">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E161" t="str">
             <v>CallAffectorValue</v>
@@ -9913,7 +10096,7 @@
             <v/>
           </cell>
           <cell r="D162">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E162" t="str">
             <v>CallAffectorValue</v>
@@ -9927,102 +10110,102 @@
         </row>
         <row r="163">
           <cell r="B163" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C163" t="str">
             <v/>
           </cell>
           <cell r="D163">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E163" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H163" t="str">
             <v/>
           </cell>
           <cell r="I163">
-            <v>4.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="164">
           <cell r="B164" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C164" t="str">
             <v/>
           </cell>
           <cell r="D164">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E164" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H164" t="str">
             <v/>
           </cell>
           <cell r="I164">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="165">
           <cell r="B165" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C165" t="str">
             <v/>
           </cell>
           <cell r="D165">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E165" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H165" t="str">
             <v/>
           </cell>
           <cell r="I165">
-            <v>5.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="166">
           <cell r="B166" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C166" t="str">
             <v/>
           </cell>
           <cell r="D166">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E166" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H166" t="str">
             <v/>
           </cell>
           <cell r="I166">
-            <v>6</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="167">
           <cell r="B167" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="C167" t="str">
             <v/>
           </cell>
           <cell r="D167">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E167" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H167" t="str">
             <v/>
           </cell>
           <cell r="I167">
-            <v>6.5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="168">
@@ -10033,7 +10216,7 @@
             <v/>
           </cell>
           <cell r="D168">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E168" t="str">
             <v>ChangeActorStatus</v>
@@ -10042,7 +10225,7 @@
             <v/>
           </cell>
           <cell r="I168">
-            <v>7</v>
+            <v>4.5</v>
           </cell>
         </row>
         <row r="169">
@@ -10053,7 +10236,7 @@
             <v/>
           </cell>
           <cell r="D169">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E169" t="str">
             <v>ChangeActorStatus</v>
@@ -10062,7 +10245,7 @@
             <v/>
           </cell>
           <cell r="I169">
-            <v>7.5</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="170">
@@ -10073,7 +10256,7 @@
             <v/>
           </cell>
           <cell r="D170">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E170" t="str">
             <v>ChangeActorStatus</v>
@@ -10082,7 +10265,7 @@
             <v/>
           </cell>
           <cell r="I170">
-            <v>8</v>
+            <v>5.5</v>
           </cell>
         </row>
         <row r="171">
@@ -10093,7 +10276,7 @@
             <v/>
           </cell>
           <cell r="D171">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E171" t="str">
             <v>ChangeActorStatus</v>
@@ -10102,112 +10285,112 @@
             <v/>
           </cell>
           <cell r="I171">
-            <v>8.5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="172">
           <cell r="B172" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C172" t="str">
             <v/>
           </cell>
           <cell r="D172">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E172" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H172" t="str">
             <v/>
           </cell>
           <cell r="I172">
-            <v>-1</v>
+            <v>6.5</v>
           </cell>
         </row>
         <row r="173">
           <cell r="B173" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C173" t="str">
             <v/>
           </cell>
           <cell r="D173">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E173" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H173" t="str">
             <v/>
           </cell>
           <cell r="I173">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="174">
           <cell r="B174" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C174" t="str">
             <v/>
           </cell>
           <cell r="D174">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E174" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H174" t="str">
             <v/>
           </cell>
           <cell r="I174">
-            <v>-1</v>
+            <v>7.5</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C175" t="str">
             <v/>
           </cell>
           <cell r="D175">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E175" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H175" t="str">
             <v/>
           </cell>
           <cell r="I175">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C176" t="str">
             <v/>
           </cell>
           <cell r="D176">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E176" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H176" t="str">
             <v/>
           </cell>
           <cell r="I176">
-            <v>-1</v>
+            <v>8.5</v>
           </cell>
         </row>
         <row r="177">
           <cell r="B177" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C177" t="str">
             <v/>
@@ -10216,18 +10399,18 @@
             <v>1</v>
           </cell>
           <cell r="E177" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H177" t="str">
             <v/>
           </cell>
           <cell r="I177">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="178">
           <cell r="B178" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C178" t="str">
             <v/>
@@ -10236,18 +10419,18 @@
             <v>2</v>
           </cell>
           <cell r="E178" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H178" t="str">
             <v/>
           </cell>
           <cell r="I178">
-            <v>6</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="179">
           <cell r="B179" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C179" t="str">
             <v/>
@@ -10256,18 +10439,18 @@
             <v>3</v>
           </cell>
           <cell r="E179" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H179" t="str">
             <v/>
           </cell>
           <cell r="I179">
-            <v>7</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="180">
           <cell r="B180" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C180" t="str">
             <v/>
@@ -10276,18 +10459,18 @@
             <v>4</v>
           </cell>
           <cell r="E180" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H180" t="str">
             <v/>
           </cell>
           <cell r="I180">
-            <v>8</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="181">
           <cell r="B181" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="C181" t="str">
             <v/>
@@ -10296,18 +10479,18 @@
             <v>5</v>
           </cell>
           <cell r="E181" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H181" t="str">
             <v/>
           </cell>
           <cell r="I181">
-            <v>9</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="182">
           <cell r="B182" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C182" t="str">
             <v/>
@@ -10316,18 +10499,18 @@
             <v>1</v>
           </cell>
           <cell r="E182" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H182" t="str">
             <v/>
           </cell>
           <cell r="I182">
-            <v>-1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="183">
           <cell r="B183" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C183" t="str">
             <v/>
@@ -10336,18 +10519,18 @@
             <v>2</v>
           </cell>
           <cell r="E183" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H183" t="str">
             <v/>
           </cell>
           <cell r="I183">
-            <v>-1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="184">
           <cell r="B184" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C184" t="str">
             <v/>
@@ -10356,18 +10539,18 @@
             <v>3</v>
           </cell>
           <cell r="E184" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H184" t="str">
             <v/>
           </cell>
           <cell r="I184">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="185">
           <cell r="B185" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C185" t="str">
             <v/>
@@ -10376,18 +10559,18 @@
             <v>4</v>
           </cell>
           <cell r="E185" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H185" t="str">
             <v/>
           </cell>
           <cell r="I185">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="186">
           <cell r="B186" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C186" t="str">
             <v/>
@@ -10396,18 +10579,18 @@
             <v>5</v>
           </cell>
           <cell r="E186" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H186" t="str">
             <v/>
           </cell>
           <cell r="I186">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="187">
           <cell r="B187" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C187" t="str">
             <v/>
@@ -10416,15 +10599,18 @@
             <v>1</v>
           </cell>
           <cell r="E187" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H187" t="str">
             <v/>
+          </cell>
+          <cell r="I187">
+            <v>-1</v>
           </cell>
         </row>
         <row r="188">
           <cell r="B188" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C188" t="str">
             <v/>
@@ -10433,15 +10619,18 @@
             <v>2</v>
           </cell>
           <cell r="E188" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H188" t="str">
             <v/>
+          </cell>
+          <cell r="I188">
+            <v>-1</v>
           </cell>
         </row>
         <row r="189">
           <cell r="B189" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C189" t="str">
             <v/>
@@ -10450,15 +10639,18 @@
             <v>3</v>
           </cell>
           <cell r="E189" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H189" t="str">
             <v/>
+          </cell>
+          <cell r="I189">
+            <v>-1</v>
           </cell>
         </row>
         <row r="190">
           <cell r="B190" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C190" t="str">
             <v/>
@@ -10467,15 +10659,18 @@
             <v>4</v>
           </cell>
           <cell r="E190" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H190" t="str">
             <v/>
+          </cell>
+          <cell r="I190">
+            <v>-1</v>
           </cell>
         </row>
         <row r="191">
           <cell r="B191" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
           <cell r="C191" t="str">
             <v/>
@@ -10484,15 +10679,18 @@
             <v>5</v>
           </cell>
           <cell r="E191" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H191" t="str">
             <v/>
+          </cell>
+          <cell r="I191">
+            <v>-1</v>
           </cell>
         </row>
         <row r="192">
           <cell r="B192" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C192" t="str">
             <v/>
@@ -10501,18 +10699,15 @@
             <v>1</v>
           </cell>
           <cell r="E192" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H192" t="str">
             <v/>
-          </cell>
-          <cell r="I192">
-            <v>-1</v>
           </cell>
         </row>
         <row r="193">
           <cell r="B193" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C193" t="str">
             <v/>
@@ -10521,18 +10716,15 @@
             <v>2</v>
           </cell>
           <cell r="E193" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H193" t="str">
             <v/>
-          </cell>
-          <cell r="I193">
-            <v>-1</v>
           </cell>
         </row>
         <row r="194">
           <cell r="B194" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C194" t="str">
             <v/>
@@ -10541,18 +10733,15 @@
             <v>3</v>
           </cell>
           <cell r="E194" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H194" t="str">
             <v/>
-          </cell>
-          <cell r="I194">
-            <v>-1</v>
           </cell>
         </row>
         <row r="195">
           <cell r="B195" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C195" t="str">
             <v/>
@@ -10561,18 +10750,15 @@
             <v>4</v>
           </cell>
           <cell r="E195" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H195" t="str">
             <v/>
-          </cell>
-          <cell r="I195">
-            <v>-1</v>
           </cell>
         </row>
         <row r="196">
           <cell r="B196" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C196" t="str">
             <v/>
@@ -10581,18 +10767,15 @@
             <v>5</v>
           </cell>
           <cell r="E196" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H196" t="str">
             <v/>
-          </cell>
-          <cell r="I196">
-            <v>-1</v>
           </cell>
         </row>
         <row r="197">
           <cell r="B197" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C197" t="str">
             <v/>
@@ -10601,15 +10784,18 @@
             <v>1</v>
           </cell>
           <cell r="E197" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H197" t="str">
             <v/>
+          </cell>
+          <cell r="I197">
+            <v>-1</v>
           </cell>
         </row>
         <row r="198">
           <cell r="B198" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C198" t="str">
             <v/>
@@ -10618,15 +10804,18 @@
             <v>2</v>
           </cell>
           <cell r="E198" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H198" t="str">
             <v/>
+          </cell>
+          <cell r="I198">
+            <v>-1</v>
           </cell>
         </row>
         <row r="199">
           <cell r="B199" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C199" t="str">
             <v/>
@@ -10635,15 +10824,18 @@
             <v>3</v>
           </cell>
           <cell r="E199" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H199" t="str">
             <v/>
+          </cell>
+          <cell r="I199">
+            <v>-1</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C200" t="str">
             <v/>
@@ -10652,15 +10844,18 @@
             <v>4</v>
           </cell>
           <cell r="E200" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H200" t="str">
             <v/>
+          </cell>
+          <cell r="I200">
+            <v>-1</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
           <cell r="C201" t="str">
             <v/>
@@ -10669,15 +10864,18 @@
             <v>5</v>
           </cell>
           <cell r="E201" t="str">
-            <v>Heal</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H201" t="str">
             <v/>
+          </cell>
+          <cell r="I201">
+            <v>-1</v>
           </cell>
         </row>
         <row r="202">
           <cell r="B202" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C202" t="str">
             <v/>
@@ -10686,18 +10884,15 @@
             <v>1</v>
           </cell>
           <cell r="E202" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H202" t="str">
             <v/>
-          </cell>
-          <cell r="I202">
-            <v>-1</v>
           </cell>
         </row>
         <row r="203">
           <cell r="B203" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C203" t="str">
             <v/>
@@ -10706,18 +10901,15 @@
             <v>2</v>
           </cell>
           <cell r="E203" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H203" t="str">
             <v/>
-          </cell>
-          <cell r="I203">
-            <v>-1</v>
           </cell>
         </row>
         <row r="204">
           <cell r="B204" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C204" t="str">
             <v/>
@@ -10726,18 +10918,15 @@
             <v>3</v>
           </cell>
           <cell r="E204" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H204" t="str">
             <v/>
-          </cell>
-          <cell r="I204">
-            <v>-1</v>
           </cell>
         </row>
         <row r="205">
           <cell r="B205" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C205" t="str">
             <v/>
@@ -10746,18 +10935,15 @@
             <v>4</v>
           </cell>
           <cell r="E205" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H205" t="str">
             <v/>
-          </cell>
-          <cell r="I205">
-            <v>-1</v>
           </cell>
         </row>
         <row r="206">
           <cell r="B206" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C206" t="str">
             <v/>
@@ -10766,13 +10952,10 @@
             <v>5</v>
           </cell>
           <cell r="E206" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H206" t="str">
             <v/>
-          </cell>
-          <cell r="I206">
-            <v>-1</v>
           </cell>
         </row>
         <row r="207">
@@ -10783,7 +10966,7 @@
             <v/>
           </cell>
           <cell r="D207">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E207" t="str">
             <v>CallAffectorValue</v>
@@ -10803,7 +10986,7 @@
             <v/>
           </cell>
           <cell r="D208">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E208" t="str">
             <v>CallAffectorValue</v>
@@ -10823,7 +11006,7 @@
             <v/>
           </cell>
           <cell r="D209">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E209" t="str">
             <v>CallAffectorValue</v>
@@ -10843,7 +11026,7 @@
             <v/>
           </cell>
           <cell r="D210">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E210" t="str">
             <v>CallAffectorValue</v>
@@ -10857,102 +11040,102 @@
         </row>
         <row r="211">
           <cell r="B211" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C211" t="str">
             <v/>
           </cell>
           <cell r="D211">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E211" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H211" t="str">
             <v/>
           </cell>
           <cell r="I211">
-            <v>5.0999999999999996</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="212">
           <cell r="B212" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C212" t="str">
             <v/>
           </cell>
           <cell r="D212">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E212" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H212" t="str">
             <v/>
           </cell>
           <cell r="I212">
-            <v>4.8499999999999996</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="213">
           <cell r="B213" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C213" t="str">
             <v/>
           </cell>
           <cell r="D213">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E213" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H213" t="str">
             <v/>
           </cell>
           <cell r="I213">
-            <v>4.5999999999999996</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="214">
           <cell r="B214" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C214" t="str">
             <v/>
           </cell>
           <cell r="D214">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E214" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H214" t="str">
             <v/>
           </cell>
           <cell r="I214">
-            <v>4.3499999999999988</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="215">
           <cell r="B215" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
           <cell r="C215" t="str">
             <v/>
           </cell>
           <cell r="D215">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E215" t="str">
-            <v>HealOverTime</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H215" t="str">
             <v/>
           </cell>
           <cell r="I215">
-            <v>4.0999999999999988</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="216">
@@ -10963,7 +11146,7 @@
             <v/>
           </cell>
           <cell r="D216">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E216" t="str">
             <v>HealOverTime</v>
@@ -10972,7 +11155,7 @@
             <v/>
           </cell>
           <cell r="I216">
-            <v>3.8499999999999992</v>
+            <v>5.0999999999999996</v>
           </cell>
         </row>
         <row r="217">
@@ -10983,7 +11166,7 @@
             <v/>
           </cell>
           <cell r="D217">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E217" t="str">
             <v>HealOverTime</v>
@@ -10992,7 +11175,7 @@
             <v/>
           </cell>
           <cell r="I217">
-            <v>3.5999999999999988</v>
+            <v>4.8499999999999996</v>
           </cell>
         </row>
         <row r="218">
@@ -11003,7 +11186,7 @@
             <v/>
           </cell>
           <cell r="D218">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E218" t="str">
             <v>HealOverTime</v>
@@ -11012,7 +11195,7 @@
             <v/>
           </cell>
           <cell r="I218">
-            <v>3.3499999999999983</v>
+            <v>4.5999999999999996</v>
           </cell>
         </row>
         <row r="219">
@@ -11023,7 +11206,7 @@
             <v/>
           </cell>
           <cell r="D219">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E219" t="str">
             <v>HealOverTime</v>
@@ -11032,112 +11215,112 @@
             <v/>
           </cell>
           <cell r="I219">
-            <v>3.0999999999999983</v>
+            <v>4.3499999999999988</v>
           </cell>
         </row>
         <row r="220">
           <cell r="B220" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C220" t="str">
             <v/>
           </cell>
           <cell r="D220">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E220" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H220" t="str">
             <v/>
           </cell>
           <cell r="I220">
-            <v>-1</v>
+            <v>4.0999999999999988</v>
           </cell>
         </row>
         <row r="221">
           <cell r="B221" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C221" t="str">
             <v/>
           </cell>
           <cell r="D221">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E221" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H221" t="str">
             <v/>
           </cell>
           <cell r="I221">
-            <v>-1</v>
+            <v>3.8499999999999992</v>
           </cell>
         </row>
         <row r="222">
           <cell r="B222" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C222" t="str">
             <v/>
           </cell>
           <cell r="D222">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E222" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H222" t="str">
             <v/>
           </cell>
           <cell r="I222">
-            <v>-1</v>
+            <v>3.5999999999999988</v>
           </cell>
         </row>
         <row r="223">
           <cell r="B223" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C223" t="str">
             <v/>
           </cell>
           <cell r="D223">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E223" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H223" t="str">
             <v/>
           </cell>
           <cell r="I223">
-            <v>-1</v>
+            <v>3.3499999999999983</v>
           </cell>
         </row>
         <row r="224">
           <cell r="B224" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C224" t="str">
             <v/>
           </cell>
           <cell r="D224">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E224" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="H224" t="str">
             <v/>
           </cell>
           <cell r="I224">
-            <v>-1</v>
+            <v>3.0999999999999983</v>
           </cell>
         </row>
         <row r="225">
           <cell r="B225" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C225" t="str">
             <v/>
@@ -11157,7 +11340,7 @@
         </row>
         <row r="226">
           <cell r="B226" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C226" t="str">
             <v/>
@@ -11177,7 +11360,7 @@
         </row>
         <row r="227">
           <cell r="B227" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C227" t="str">
             <v/>
@@ -11197,7 +11380,7 @@
         </row>
         <row r="228">
           <cell r="B228" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C228" t="str">
             <v/>
@@ -11217,7 +11400,7 @@
         </row>
         <row r="229">
           <cell r="B229" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C229" t="str">
             <v/>
@@ -11237,7 +11420,7 @@
         </row>
         <row r="230">
           <cell r="B230" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C230" t="str">
             <v/>
@@ -11246,7 +11429,7 @@
             <v>1</v>
           </cell>
           <cell r="E230" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H230" t="str">
             <v/>
@@ -11257,7 +11440,7 @@
         </row>
         <row r="231">
           <cell r="B231" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C231" t="str">
             <v/>
@@ -11266,7 +11449,7 @@
             <v>2</v>
           </cell>
           <cell r="E231" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H231" t="str">
             <v/>
@@ -11277,7 +11460,7 @@
         </row>
         <row r="232">
           <cell r="B232" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C232" t="str">
             <v/>
@@ -11286,7 +11469,7 @@
             <v>3</v>
           </cell>
           <cell r="E232" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H232" t="str">
             <v/>
@@ -11297,7 +11480,7 @@
         </row>
         <row r="233">
           <cell r="B233" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C233" t="str">
             <v/>
@@ -11306,7 +11489,7 @@
             <v>4</v>
           </cell>
           <cell r="E233" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H233" t="str">
             <v/>
@@ -11317,7 +11500,7 @@
         </row>
         <row r="234">
           <cell r="B234" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C234" t="str">
             <v/>
@@ -11326,7 +11509,7 @@
             <v>5</v>
           </cell>
           <cell r="E234" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="H234" t="str">
             <v/>
@@ -11337,7 +11520,7 @@
         </row>
         <row r="235">
           <cell r="B235" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C235" t="str">
             <v/>
@@ -11357,7 +11540,7 @@
         </row>
         <row r="236">
           <cell r="B236" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C236" t="str">
             <v/>
@@ -11377,7 +11560,7 @@
         </row>
         <row r="237">
           <cell r="B237" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C237" t="str">
             <v/>
@@ -11397,16 +11580,16 @@
         </row>
         <row r="238">
           <cell r="B238" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C238" t="str">
             <v/>
           </cell>
           <cell r="D238">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E238" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H238" t="str">
             <v/>
@@ -11417,16 +11600,16 @@
         </row>
         <row r="239">
           <cell r="B239" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C239" t="str">
             <v/>
           </cell>
           <cell r="D239">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E239" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H239" t="str">
             <v/>
@@ -11437,16 +11620,16 @@
         </row>
         <row r="240">
           <cell r="B240" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C240" t="str">
             <v/>
           </cell>
           <cell r="D240">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E240" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H240" t="str">
             <v/>
@@ -11457,16 +11640,16 @@
         </row>
         <row r="241">
           <cell r="B241" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C241" t="str">
             <v/>
           </cell>
           <cell r="D241">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E241" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H241" t="str">
             <v/>
@@ -11477,16 +11660,16 @@
         </row>
         <row r="242">
           <cell r="B242" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C242" t="str">
             <v/>
           </cell>
           <cell r="D242">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E242" t="str">
-            <v>InstantDeath</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="H242" t="str">
             <v/>
@@ -11497,16 +11680,16 @@
         </row>
         <row r="243">
           <cell r="B243" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C243" t="str">
             <v/>
           </cell>
           <cell r="D243">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E243" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H243" t="str">
             <v/>
@@ -11517,16 +11700,16 @@
         </row>
         <row r="244">
           <cell r="B244" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C244" t="str">
             <v/>
           </cell>
           <cell r="D244">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E244" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H244" t="str">
             <v/>
@@ -11537,16 +11720,16 @@
         </row>
         <row r="245">
           <cell r="B245" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C245" t="str">
             <v/>
           </cell>
           <cell r="D245">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E245" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H245" t="str">
             <v/>
@@ -11557,16 +11740,16 @@
         </row>
         <row r="246">
           <cell r="B246" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="C246" t="str">
             <v/>
           </cell>
           <cell r="D246">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E246" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="H246" t="str">
             <v/>
@@ -11583,7 +11766,7 @@
             <v/>
           </cell>
           <cell r="D247">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E247" t="str">
             <v>InstantDeath</v>
@@ -11603,7 +11786,7 @@
             <v/>
           </cell>
           <cell r="D248">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E248" t="str">
             <v>InstantDeath</v>
@@ -11623,7 +11806,7 @@
             <v/>
           </cell>
           <cell r="D249">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E249" t="str">
             <v>InstantDeath</v>
@@ -11643,7 +11826,7 @@
             <v/>
           </cell>
           <cell r="D250">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E250" t="str">
             <v>InstantDeath</v>
@@ -11657,13 +11840,13 @@
         </row>
         <row r="251">
           <cell r="B251" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C251" t="str">
             <v/>
           </cell>
           <cell r="D251">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E251" t="str">
             <v>InstantDeath</v>
@@ -11677,13 +11860,13 @@
         </row>
         <row r="252">
           <cell r="B252" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C252" t="str">
             <v/>
           </cell>
           <cell r="D252">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E252" t="str">
             <v>InstantDeath</v>
@@ -11697,13 +11880,13 @@
         </row>
         <row r="253">
           <cell r="B253" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C253" t="str">
             <v/>
           </cell>
           <cell r="D253">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E253" t="str">
             <v>InstantDeath</v>
@@ -11717,13 +11900,13 @@
         </row>
         <row r="254">
           <cell r="B254" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C254" t="str">
             <v/>
           </cell>
           <cell r="D254">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E254" t="str">
             <v>InstantDeath</v>
@@ -11737,13 +11920,13 @@
         </row>
         <row r="255">
           <cell r="B255" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C255" t="str">
             <v/>
           </cell>
           <cell r="D255">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E255" t="str">
             <v>InstantDeath</v>
@@ -11757,7 +11940,7 @@
         </row>
         <row r="256">
           <cell r="B256" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C256" t="str">
             <v/>
@@ -11766,7 +11949,7 @@
             <v>1</v>
           </cell>
           <cell r="E256" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H256" t="str">
             <v/>
@@ -11777,7 +11960,7 @@
         </row>
         <row r="257">
           <cell r="B257" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C257" t="str">
             <v/>
@@ -11786,7 +11969,7 @@
             <v>2</v>
           </cell>
           <cell r="E257" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H257" t="str">
             <v/>
@@ -11797,7 +11980,7 @@
         </row>
         <row r="258">
           <cell r="B258" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C258" t="str">
             <v/>
@@ -11806,7 +11989,7 @@
             <v>3</v>
           </cell>
           <cell r="E258" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H258" t="str">
             <v/>
@@ -11817,7 +12000,7 @@
         </row>
         <row r="259">
           <cell r="B259" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C259" t="str">
             <v/>
@@ -11826,7 +12009,7 @@
             <v>4</v>
           </cell>
           <cell r="E259" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H259" t="str">
             <v/>
@@ -11837,7 +12020,7 @@
         </row>
         <row r="260">
           <cell r="B260" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C260" t="str">
             <v/>
@@ -11846,7 +12029,7 @@
             <v>5</v>
           </cell>
           <cell r="E260" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="H260" t="str">
             <v/>
@@ -11863,7 +12046,7 @@
             <v/>
           </cell>
           <cell r="D261">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E261" t="str">
             <v>ImmortalWill</v>
@@ -11883,7 +12066,7 @@
             <v/>
           </cell>
           <cell r="D262">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="E262" t="str">
             <v>ImmortalWill</v>
@@ -11903,7 +12086,7 @@
             <v/>
           </cell>
           <cell r="D263">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="E263" t="str">
             <v>ImmortalWill</v>
@@ -11923,7 +12106,7 @@
             <v/>
           </cell>
           <cell r="D264">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="E264" t="str">
             <v>ImmortalWill</v>
@@ -11937,13 +12120,13 @@
         </row>
         <row r="265">
           <cell r="B265" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C265" t="str">
             <v/>
           </cell>
           <cell r="D265">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E265" t="str">
             <v>ImmortalWill</v>
@@ -11957,13 +12140,13 @@
         </row>
         <row r="266">
           <cell r="B266" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C266" t="str">
             <v/>
           </cell>
           <cell r="D266">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E266" t="str">
             <v>ImmortalWill</v>
@@ -11977,13 +12160,13 @@
         </row>
         <row r="267">
           <cell r="B267" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C267" t="str">
             <v/>
           </cell>
           <cell r="D267">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="E267" t="str">
             <v>ImmortalWill</v>
@@ -11997,13 +12180,13 @@
         </row>
         <row r="268">
           <cell r="B268" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C268" t="str">
             <v/>
           </cell>
           <cell r="D268">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="E268" t="str">
             <v>ImmortalWill</v>
@@ -12017,13 +12200,13 @@
         </row>
         <row r="269">
           <cell r="B269" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C269" t="str">
             <v/>
           </cell>
           <cell r="D269">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="E269" t="str">
             <v>ImmortalWill</v>
@@ -12037,7 +12220,7 @@
         </row>
         <row r="270">
           <cell r="B270" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C270" t="str">
             <v/>
@@ -12046,7 +12229,7 @@
             <v>1</v>
           </cell>
           <cell r="E270" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H270" t="str">
             <v/>
@@ -12057,7 +12240,7 @@
         </row>
         <row r="271">
           <cell r="B271" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
@@ -12066,7 +12249,7 @@
             <v>2</v>
           </cell>
           <cell r="E271" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H271" t="str">
             <v/>
@@ -12077,7 +12260,7 @@
         </row>
         <row r="272">
           <cell r="B272" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C272" t="str">
             <v/>
@@ -12086,7 +12269,7 @@
             <v>3</v>
           </cell>
           <cell r="E272" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H272" t="str">
             <v/>
@@ -12097,7 +12280,7 @@
         </row>
         <row r="273">
           <cell r="B273" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
@@ -12106,7 +12289,7 @@
             <v>4</v>
           </cell>
           <cell r="E273" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H273" t="str">
             <v/>
@@ -12117,7 +12300,7 @@
         </row>
         <row r="274">
           <cell r="B274" t="str">
-            <v>LP_HealAreaOnEncounter</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
@@ -12126,7 +12309,7 @@
             <v>5</v>
           </cell>
           <cell r="E274" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="H274" t="str">
             <v/>
@@ -12143,7 +12326,7 @@
             <v/>
           </cell>
           <cell r="D275">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E275" t="str">
             <v>CallAffectorValue</v>
@@ -12157,87 +12340,102 @@
         </row>
         <row r="276">
           <cell r="B276" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C276" t="str">
             <v/>
           </cell>
           <cell r="D276">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E276" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H276" t="str">
             <v/>
+          </cell>
+          <cell r="I276">
+            <v>-1</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C277" t="str">
             <v/>
           </cell>
           <cell r="D277">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E277" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H277" t="str">
             <v/>
+          </cell>
+          <cell r="I277">
+            <v>-1</v>
           </cell>
         </row>
         <row r="278">
           <cell r="B278" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C278" t="str">
             <v/>
           </cell>
           <cell r="D278">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E278" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H278" t="str">
             <v/>
+          </cell>
+          <cell r="I278">
+            <v>-1</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
           </cell>
           <cell r="D279">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E279" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H279" t="str">
             <v/>
+          </cell>
+          <cell r="I279">
+            <v>-1</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280" t="str">
-            <v>LP_HealAreaOnEncounter_CreateHit</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
           </cell>
           <cell r="D280">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E280" t="str">
-            <v>CreateHitObject</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H280" t="str">
             <v/>
+          </cell>
+          <cell r="I280">
+            <v>-1</v>
           </cell>
         </row>
         <row r="281">
@@ -12248,7 +12446,7 @@
             <v/>
           </cell>
           <cell r="D281">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E281" t="str">
             <v>CreateHitObject</v>
@@ -12259,16 +12457,16 @@
         </row>
         <row r="282">
           <cell r="B282" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C282" t="str">
             <v/>
           </cell>
           <cell r="D282">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E282" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H282" t="str">
             <v/>
@@ -12276,16 +12474,16 @@
         </row>
         <row r="283">
           <cell r="B283" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C283" t="str">
             <v/>
           </cell>
           <cell r="D283">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E283" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H283" t="str">
             <v/>
@@ -12293,16 +12491,16 @@
         </row>
         <row r="284">
           <cell r="B284" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C284" t="str">
             <v/>
           </cell>
           <cell r="D284">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E284" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H284" t="str">
             <v/>
@@ -12310,16 +12508,16 @@
         </row>
         <row r="285">
           <cell r="B285" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
           </cell>
           <cell r="D285">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E285" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H285" t="str">
             <v/>
@@ -12327,16 +12525,16 @@
         </row>
         <row r="286">
           <cell r="B286" t="str">
-            <v>LP_HealAreaOnEncounter_CH_Heal</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
           </cell>
           <cell r="D286">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E286" t="str">
-            <v>Heal</v>
+            <v>CreateHitObject</v>
           </cell>
           <cell r="H286" t="str">
             <v/>
@@ -12350,7 +12548,7 @@
             <v/>
           </cell>
           <cell r="D287">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E287" t="str">
             <v>Heal</v>
@@ -12361,102 +12559,87 @@
         </row>
         <row r="288">
           <cell r="B288" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C288" t="str">
             <v/>
           </cell>
           <cell r="D288">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E288" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H288" t="str">
             <v/>
-          </cell>
-          <cell r="I288">
-            <v>-1</v>
           </cell>
         </row>
         <row r="289">
           <cell r="B289" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C289" t="str">
             <v/>
           </cell>
           <cell r="D289">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E289" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H289" t="str">
             <v/>
-          </cell>
-          <cell r="I289">
-            <v>-1</v>
           </cell>
         </row>
         <row r="290">
           <cell r="B290" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C290" t="str">
             <v/>
           </cell>
           <cell r="D290">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E290" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H290" t="str">
             <v/>
-          </cell>
-          <cell r="I290">
-            <v>-1</v>
           </cell>
         </row>
         <row r="291">
           <cell r="B291" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C291" t="str">
             <v/>
           </cell>
           <cell r="D291">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E291" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H291" t="str">
             <v/>
-          </cell>
-          <cell r="I291">
-            <v>-1</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C292" t="str">
             <v/>
           </cell>
           <cell r="D292">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E292" t="str">
-            <v>CallAffectorValue</v>
+            <v>Heal</v>
           </cell>
           <cell r="H292" t="str">
             <v/>
-          </cell>
-          <cell r="I292">
-            <v>-1</v>
           </cell>
         </row>
         <row r="293">
@@ -12467,7 +12650,7 @@
             <v/>
           </cell>
           <cell r="D293">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E293" t="str">
             <v>CallAffectorValue</v>
@@ -12481,102 +12664,102 @@
         </row>
         <row r="294">
           <cell r="B294" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C294" t="str">
             <v/>
           </cell>
           <cell r="D294">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E294" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H294" t="str">
             <v/>
           </cell>
           <cell r="I294">
-            <v>5</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="295">
           <cell r="B295" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C295" t="str">
             <v/>
           </cell>
           <cell r="D295">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E295" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H295" t="str">
             <v/>
           </cell>
           <cell r="I295">
-            <v>7</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="296">
           <cell r="B296" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C296" t="str">
             <v/>
           </cell>
           <cell r="D296">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E296" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H296" t="str">
             <v/>
           </cell>
           <cell r="I296">
-            <v>9</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="297">
           <cell r="B297" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C297" t="str">
             <v/>
           </cell>
           <cell r="D297">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E297" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H297" t="str">
             <v/>
           </cell>
           <cell r="I297">
-            <v>11</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="298">
           <cell r="B298" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C298" t="str">
             <v/>
           </cell>
           <cell r="D298">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E298" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H298" t="str">
             <v/>
           </cell>
           <cell r="I298">
-            <v>13</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="299">
@@ -12587,7 +12770,7 @@
             <v/>
           </cell>
           <cell r="D299">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E299" t="str">
             <v>ChangeActorStatus</v>
@@ -12596,107 +12779,107 @@
             <v/>
           </cell>
           <cell r="I299">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="300">
           <cell r="B300" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C300" t="str">
             <v/>
           </cell>
           <cell r="D300">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E300" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H300" t="str">
             <v/>
           </cell>
           <cell r="I300">
-            <v>-1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="301">
           <cell r="B301" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C301" t="str">
             <v/>
           </cell>
           <cell r="D301">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E301" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H301" t="str">
             <v/>
           </cell>
           <cell r="I301">
-            <v>-1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="302">
           <cell r="B302" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C302" t="str">
             <v/>
           </cell>
           <cell r="D302">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E302" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H302" t="str">
             <v/>
           </cell>
           <cell r="I302">
-            <v>-1</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="303">
           <cell r="B303" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C303" t="str">
             <v/>
           </cell>
           <cell r="D303">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E303" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H303" t="str">
             <v/>
           </cell>
           <cell r="I303">
-            <v>-1</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C304" t="str">
             <v/>
           </cell>
           <cell r="D304">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E304" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H304" t="str">
             <v/>
           </cell>
           <cell r="I304">
-            <v>-1</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="305">
@@ -12707,7 +12890,7 @@
             <v/>
           </cell>
           <cell r="D305">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E305" t="str">
             <v>CreateHitObjectMoving</v>
@@ -12721,102 +12904,102 @@
         </row>
         <row r="306">
           <cell r="B306" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C306" t="str">
             <v/>
           </cell>
           <cell r="D306">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E306" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H306" t="str">
             <v/>
           </cell>
           <cell r="I306">
-            <v>2</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="307">
           <cell r="B307" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C307" t="str">
             <v/>
           </cell>
           <cell r="D307">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E307" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H307" t="str">
             <v/>
           </cell>
           <cell r="I307">
-            <v>4</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="308">
           <cell r="B308" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C308" t="str">
             <v/>
           </cell>
           <cell r="D308">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E308" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H308" t="str">
             <v/>
           </cell>
           <cell r="I308">
-            <v>6</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C309" t="str">
             <v/>
           </cell>
           <cell r="D309">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E309" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H309" t="str">
             <v/>
           </cell>
           <cell r="I309">
-            <v>8</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C310" t="str">
             <v/>
           </cell>
           <cell r="D310">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E310" t="str">
-            <v>CollisionDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="H310" t="str">
             <v/>
           </cell>
           <cell r="I310">
-            <v>10</v>
+            <v>-1</v>
           </cell>
         </row>
         <row r="311">
@@ -12827,7 +13010,7 @@
             <v/>
           </cell>
           <cell r="D311">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E311" t="str">
             <v>CollisionDamage</v>
@@ -12836,112 +13019,112 @@
             <v/>
           </cell>
           <cell r="I311">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="312">
           <cell r="B312" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C312" t="str">
             <v/>
           </cell>
           <cell r="D312">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E312" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H312" t="str">
             <v/>
           </cell>
           <cell r="I312">
-            <v>-1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="313">
           <cell r="B313" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C313" t="str">
             <v/>
           </cell>
           <cell r="D313">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E313" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H313" t="str">
             <v/>
           </cell>
           <cell r="I313">
-            <v>-1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="314">
           <cell r="B314" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C314" t="str">
             <v/>
           </cell>
           <cell r="D314">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E314" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H314" t="str">
             <v/>
           </cell>
           <cell r="I314">
-            <v>-1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="315">
           <cell r="B315" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C315" t="str">
             <v/>
           </cell>
           <cell r="D315">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E315" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H315" t="str">
             <v/>
           </cell>
           <cell r="I315">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="316">
           <cell r="B316" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C316" t="str">
             <v/>
           </cell>
           <cell r="D316">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E316" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="H316" t="str">
             <v/>
           </cell>
           <cell r="I316">
-            <v>-1</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="317">
           <cell r="B317" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C317" t="str">
             <v/>
@@ -12950,15 +13133,18 @@
             <v>1</v>
           </cell>
           <cell r="E317" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H317" t="str">
             <v/>
+          </cell>
+          <cell r="I317">
+            <v>-1</v>
           </cell>
         </row>
         <row r="318">
           <cell r="B318" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C318" t="str">
             <v/>
@@ -12967,15 +13153,18 @@
             <v>2</v>
           </cell>
           <cell r="E318" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H318" t="str">
             <v/>
+          </cell>
+          <cell r="I318">
+            <v>-1</v>
           </cell>
         </row>
         <row r="319">
           <cell r="B319" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C319" t="str">
             <v/>
@@ -12984,15 +13173,18 @@
             <v>3</v>
           </cell>
           <cell r="E319" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H319" t="str">
             <v/>
+          </cell>
+          <cell r="I319">
+            <v>-1</v>
           </cell>
         </row>
         <row r="320">
           <cell r="B320" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C320" t="str">
             <v/>
@@ -13001,15 +13193,18 @@
             <v>4</v>
           </cell>
           <cell r="E320" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H320" t="str">
             <v/>
+          </cell>
+          <cell r="I320">
+            <v>-1</v>
           </cell>
         </row>
         <row r="321">
           <cell r="B321" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C321" t="str">
             <v/>
@@ -13018,15 +13213,18 @@
             <v>5</v>
           </cell>
           <cell r="E321" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="H321" t="str">
             <v/>
+          </cell>
+          <cell r="I321">
+            <v>-1</v>
           </cell>
         </row>
         <row r="322">
           <cell r="B322" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C322" t="str">
             <v/>
@@ -13035,18 +13233,15 @@
             <v>1</v>
           </cell>
           <cell r="E322" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H322" t="str">
             <v/>
-          </cell>
-          <cell r="I322">
-            <v>1.5</v>
           </cell>
         </row>
         <row r="323">
           <cell r="B323" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C323" t="str">
             <v/>
@@ -13055,18 +13250,15 @@
             <v>2</v>
           </cell>
           <cell r="E323" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H323" t="str">
             <v/>
-          </cell>
-          <cell r="I323">
-            <v>1.8</v>
           </cell>
         </row>
         <row r="324">
           <cell r="B324" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C324" t="str">
             <v/>
@@ -13075,18 +13267,15 @@
             <v>3</v>
           </cell>
           <cell r="E324" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H324" t="str">
             <v/>
-          </cell>
-          <cell r="I324">
-            <v>2.1</v>
           </cell>
         </row>
         <row r="325">
           <cell r="B325" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C325" t="str">
             <v/>
@@ -13095,18 +13284,15 @@
             <v>4</v>
           </cell>
           <cell r="E325" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H325" t="str">
             <v/>
-          </cell>
-          <cell r="I325">
-            <v>2.4</v>
           </cell>
         </row>
         <row r="326">
           <cell r="B326" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C326" t="str">
             <v/>
@@ -13115,18 +13301,15 @@
             <v>5</v>
           </cell>
           <cell r="E326" t="str">
-            <v>CannotAction</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="H326" t="str">
             <v/>
-          </cell>
-          <cell r="I326">
-            <v>2.7</v>
           </cell>
         </row>
         <row r="327">
           <cell r="B327" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C327" t="str">
             <v/>
@@ -13135,15 +13318,18 @@
             <v>1</v>
           </cell>
           <cell r="E327" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H327" t="str">
             <v/>
+          </cell>
+          <cell r="I327">
+            <v>1.5</v>
           </cell>
         </row>
         <row r="328">
           <cell r="B328" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C328" t="str">
             <v/>
@@ -13152,15 +13338,18 @@
             <v>2</v>
           </cell>
           <cell r="E328" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H328" t="str">
             <v/>
+          </cell>
+          <cell r="I328">
+            <v>1.8</v>
           </cell>
         </row>
         <row r="329">
           <cell r="B329" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C329" t="str">
             <v/>
@@ -13169,15 +13358,18 @@
             <v>3</v>
           </cell>
           <cell r="E329" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H329" t="str">
             <v/>
+          </cell>
+          <cell r="I329">
+            <v>2.1</v>
           </cell>
         </row>
         <row r="330">
           <cell r="B330" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C330" t="str">
             <v/>
@@ -13186,15 +13378,18 @@
             <v>4</v>
           </cell>
           <cell r="E330" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H330" t="str">
             <v/>
+          </cell>
+          <cell r="I330">
+            <v>2.4</v>
           </cell>
         </row>
         <row r="331">
           <cell r="B331" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C331" t="str">
             <v/>
@@ -13203,15 +13398,18 @@
             <v>5</v>
           </cell>
           <cell r="E331" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="H331" t="str">
             <v/>
+          </cell>
+          <cell r="I331">
+            <v>2.7</v>
           </cell>
         </row>
         <row r="332">
           <cell r="B332" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C332" t="str">
             <v/>
@@ -13220,18 +13418,15 @@
             <v>1</v>
           </cell>
           <cell r="E332" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H332" t="str">
             <v/>
-          </cell>
-          <cell r="I332">
-            <v>1</v>
           </cell>
         </row>
         <row r="333">
           <cell r="B333" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C333" t="str">
             <v/>
@@ -13240,18 +13435,15 @@
             <v>2</v>
           </cell>
           <cell r="E333" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H333" t="str">
             <v/>
-          </cell>
-          <cell r="I333">
-            <v>2</v>
           </cell>
         </row>
         <row r="334">
           <cell r="B334" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C334" t="str">
             <v/>
@@ -13260,18 +13452,15 @@
             <v>3</v>
           </cell>
           <cell r="E334" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H334" t="str">
             <v/>
-          </cell>
-          <cell r="I334">
-            <v>3</v>
           </cell>
         </row>
         <row r="335">
           <cell r="B335" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C335" t="str">
             <v/>
@@ -13280,18 +13469,15 @@
             <v>4</v>
           </cell>
           <cell r="E335" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H335" t="str">
             <v/>
-          </cell>
-          <cell r="I335">
-            <v>4</v>
           </cell>
         </row>
         <row r="336">
           <cell r="B336" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C336" t="str">
             <v/>
@@ -13300,18 +13486,15 @@
             <v>5</v>
           </cell>
           <cell r="E336" t="str">
-            <v>CannotMove</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="H336" t="str">
             <v/>
-          </cell>
-          <cell r="I336">
-            <v>5</v>
           </cell>
         </row>
         <row r="337">
           <cell r="B337" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C337" t="str">
             <v/>
@@ -13320,15 +13503,18 @@
             <v>1</v>
           </cell>
           <cell r="E337" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H337" t="str">
             <v/>
+          </cell>
+          <cell r="I337">
+            <v>1</v>
           </cell>
         </row>
         <row r="338">
           <cell r="B338" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C338" t="str">
             <v/>
@@ -13337,15 +13523,18 @@
             <v>2</v>
           </cell>
           <cell r="E338" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H338" t="str">
             <v/>
+          </cell>
+          <cell r="I338">
+            <v>2</v>
           </cell>
         </row>
         <row r="339">
           <cell r="B339" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C339" t="str">
             <v/>
@@ -13354,15 +13543,18 @@
             <v>3</v>
           </cell>
           <cell r="E339" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H339" t="str">
             <v/>
+          </cell>
+          <cell r="I339">
+            <v>3</v>
           </cell>
         </row>
         <row r="340">
           <cell r="B340" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C340" t="str">
             <v/>
@@ -13371,15 +13563,18 @@
             <v>4</v>
           </cell>
           <cell r="E340" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H340" t="str">
             <v/>
+          </cell>
+          <cell r="I340">
+            <v>4</v>
           </cell>
         </row>
         <row r="341">
           <cell r="B341" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C341" t="str">
             <v/>
@@ -13388,15 +13583,18 @@
             <v>5</v>
           </cell>
           <cell r="E341" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="H341" t="str">
             <v/>
+          </cell>
+          <cell r="I341">
+            <v>5</v>
           </cell>
         </row>
         <row r="342">
           <cell r="B342" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C342" t="str">
             <v/>
@@ -13405,18 +13603,15 @@
             <v>1</v>
           </cell>
           <cell r="E342" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H342" t="str">
             <v/>
-          </cell>
-          <cell r="I342">
-            <v>10</v>
           </cell>
         </row>
         <row r="343">
           <cell r="B343" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C343" t="str">
             <v/>
@@ -13425,18 +13620,15 @@
             <v>2</v>
           </cell>
           <cell r="E343" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H343" t="str">
             <v/>
-          </cell>
-          <cell r="I343">
-            <v>10</v>
           </cell>
         </row>
         <row r="344">
           <cell r="B344" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C344" t="str">
             <v/>
@@ -13445,18 +13637,15 @@
             <v>3</v>
           </cell>
           <cell r="E344" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H344" t="str">
             <v/>
-          </cell>
-          <cell r="I344">
-            <v>10</v>
           </cell>
         </row>
         <row r="345">
           <cell r="B345" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C345" t="str">
             <v/>
@@ -13465,18 +13654,15 @@
             <v>4</v>
           </cell>
           <cell r="E345" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H345" t="str">
             <v/>
-          </cell>
-          <cell r="I345">
-            <v>10</v>
           </cell>
         </row>
         <row r="346">
           <cell r="B346" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Transport</v>
           </cell>
           <cell r="C346" t="str">
             <v/>
@@ -13485,18 +13671,15 @@
             <v>5</v>
           </cell>
           <cell r="E346" t="str">
-            <v>Teleported</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="H346" t="str">
             <v/>
-          </cell>
-          <cell r="I346">
-            <v>10</v>
           </cell>
         </row>
         <row r="347">
           <cell r="B347" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C347" t="str">
             <v/>
@@ -13505,18 +13688,18 @@
             <v>1</v>
           </cell>
           <cell r="E347" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H347" t="str">
             <v/>
           </cell>
           <cell r="I347">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="348">
           <cell r="B348" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C348" t="str">
             <v/>
@@ -13525,18 +13708,18 @@
             <v>2</v>
           </cell>
           <cell r="E348" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H348" t="str">
             <v/>
           </cell>
           <cell r="I348">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="349">
           <cell r="B349" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C349" t="str">
             <v/>
@@ -13545,18 +13728,18 @@
             <v>3</v>
           </cell>
           <cell r="E349" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H349" t="str">
             <v/>
           </cell>
           <cell r="I349">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="350">
           <cell r="B350" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C350" t="str">
             <v/>
@@ -13565,18 +13748,18 @@
             <v>4</v>
           </cell>
           <cell r="E350" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H350" t="str">
             <v/>
           </cell>
           <cell r="I350">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="351">
           <cell r="B351" t="str">
-            <v>LP_SummonShield</v>
+            <v>LP_Transport_Teleported</v>
           </cell>
           <cell r="C351" t="str">
             <v/>
@@ -13585,18 +13768,18 @@
             <v>5</v>
           </cell>
           <cell r="E351" t="str">
-            <v>CreateWall</v>
+            <v>Teleported</v>
           </cell>
           <cell r="H351" t="str">
             <v/>
           </cell>
           <cell r="I351">
-            <v>-1</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="352">
           <cell r="B352" t="str">
-            <v>PN_Magic2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C352" t="str">
             <v/>
@@ -13605,10 +13788,7 @@
             <v>1</v>
           </cell>
           <cell r="E352" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G352" t="str">
-            <v>DefenderSource==Magic</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H352" t="str">
             <v/>
@@ -13619,19 +13799,16 @@
         </row>
         <row r="353">
           <cell r="B353" t="str">
-            <v>PN_Machine2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C353" t="str">
             <v/>
           </cell>
           <cell r="D353">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E353" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G353" t="str">
-            <v>DefenderSource==Machine</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H353" t="str">
             <v/>
@@ -13642,19 +13819,16 @@
         </row>
         <row r="354">
           <cell r="B354" t="str">
-            <v>PN_Nature2Times</v>
+            <v>LP_SummonShield</v>
           </cell>
           <cell r="C354" t="str">
             <v/>
           </cell>
           <cell r="D354">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E354" t="str">
-            <v>EnlargeDamage</v>
-          </cell>
-          <cell r="G354" t="str">
-            <v>DefenderSource==Nature</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="H354" t="str">
             <v/>
@@ -13665,31 +13839,140 @@
         </row>
         <row r="355">
           <cell r="B355" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C355" t="str">
+            <v/>
+          </cell>
+          <cell r="D355">
+            <v>4</v>
+          </cell>
+          <cell r="E355" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H355" t="str">
+            <v/>
+          </cell>
+          <cell r="I355">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C356" t="str">
+            <v/>
+          </cell>
+          <cell r="D356">
+            <v>5</v>
+          </cell>
+          <cell r="E356" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="H356" t="str">
+            <v/>
+          </cell>
+          <cell r="I356">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>PN_Magic2Times</v>
+          </cell>
+          <cell r="C357" t="str">
+            <v/>
+          </cell>
+          <cell r="D357">
+            <v>1</v>
+          </cell>
+          <cell r="E357" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G357" t="str">
+            <v>DefenderSource==Magic</v>
+          </cell>
+          <cell r="H357" t="str">
+            <v/>
+          </cell>
+          <cell r="I357">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>PN_Machine2Times</v>
+          </cell>
+          <cell r="C358" t="str">
+            <v/>
+          </cell>
+          <cell r="D358">
+            <v>1</v>
+          </cell>
+          <cell r="E358" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G358" t="str">
+            <v>DefenderSource==Machine</v>
+          </cell>
+          <cell r="H358" t="str">
+            <v/>
+          </cell>
+          <cell r="I358">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>PN_Nature2Times</v>
+          </cell>
+          <cell r="C359" t="str">
+            <v/>
+          </cell>
+          <cell r="D359">
+            <v>1</v>
+          </cell>
+          <cell r="E359" t="str">
+            <v>EnlargeDamage</v>
+          </cell>
+          <cell r="G359" t="str">
+            <v>DefenderSource==Nature</v>
+          </cell>
+          <cell r="H359" t="str">
+            <v/>
+          </cell>
+          <cell r="I359">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
             <v>PN_Qigong2Times</v>
           </cell>
-          <cell r="C355" t="str">
-            <v/>
-          </cell>
-          <cell r="D355">
-            <v>1</v>
-          </cell>
-          <cell r="E355" t="str">
+          <cell r="C360" t="str">
+            <v/>
+          </cell>
+          <cell r="D360">
+            <v>1</v>
+          </cell>
+          <cell r="E360" t="str">
             <v>EnlargeDamage</v>
           </cell>
-          <cell r="G355" t="str">
+          <cell r="G360" t="str">
             <v>DefenderSource==Qigong</v>
           </cell>
-          <cell r="H355" t="str">
-            <v/>
-          </cell>
-          <cell r="I355">
+          <cell r="H360" t="str">
+            <v/>
+          </cell>
+          <cell r="I360">
             <v>-1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14239,7 +14522,7 @@
 IFERROR(VLOOKUP(C2,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
         <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
-강력한 단일 공격을 사용한다</v>
+적을 꿰뚫어버리는 강력한 한 방의 마법을 구사하며 전용 전투팩으로 관통샷과 최상급 공격력을 가지고 있다.</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -14290,7 +14573,7 @@
         <v>33</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T9" si="1">"Portrait_"&amp;S2</f>
+        <f t="shared" ref="T2:T14" si="1">"Portrait_"&amp;S2</f>
         <v>Portrait_Ganfaul</v>
       </c>
       <c r="U2">
@@ -14305,11 +14588,11 @@
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B9" si="2">"CharName_"&amp;S3</f>
+        <f t="shared" ref="B3:B14" si="2">"CharName_"&amp;S3</f>
         <v>CharName_KeepSeries</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C9" si="3">"CharDesc_"&amp;S3</f>
+        <f t="shared" ref="C3:C14" si="3">"CharDesc_"&amp;S3</f>
         <v>CharDesc_KeepSeries</v>
       </c>
       <c r="D3" t="str">
@@ -14324,8 +14607,8 @@
 IFERROR(VLOOKUP(C3,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C3,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>킵시리즈의 설명 우다다다
-간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
+        <v>아이돌을 꿈꾸던 소녀였는데 결류자가 세상을 멸망시키려 하면서 꿈이 사라져버렸다. 간파울 아저씨가 구조한 첫번째 생존자.
+간파울 아저씨가 구해온 플라즈마탄이 장착된 총을 사용한다.</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -14840,8 +15123,8 @@
 IFERROR(VLOOKUP(C9,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C9,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>다이나몹의 설명 우다다다
-멀티타겟 프리셋으로 공격한다</v>
+        <v>배터리 공장에서 33년 근무한 베테랑 공돌이 아저씨. 세상이 망하던 날 야근하고 있던 중 테슬라 코일을 즉석에서 만들어냈다. 공장 주변에 출몰한 몬스터 무리들을 돌파하여 이미 아내와 아이들이 있다던 대피소로 가지만 이미 사람들은 몬스터의 습격을 피해 다시 이주한 상황. 가족들을 찾는 여행은 계속 된다.
+테슬라 코일을 사용하여 근거리 내 모든 적을 공격할 수 있다. 전용 전투팩으로 상급 공격력을 가지고 있다.</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14906,22 +15189,31 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_SciFiWarrior</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_SciFiWarrior</v>
+      </c>
       <c r="D10" t="str">
         <f>IF(ISBLANK(B10),"",
 IFERROR(VLOOKUP(B10,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B10,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>SF워리어</v>
       </c>
       <c r="E10" t="str">
         <f>IF(ISBLANK(C10),"",
 IFERROR(VLOOKUP(C10,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C10,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>SF워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -14929,38 +15221,51 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10">
         <f>IF(ISBLANK(B10),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B10,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K10">
         <v>0.7</v>
       </c>
+      <c r="L10">
+        <v>1.9</v>
+      </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="O10">
         <v>3.5</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>50</v>
       </c>
       <c r="R10">
         <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_SciFiWarrior</v>
+      </c>
+      <c r="U10">
+        <v>0.05</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -14969,20 +15274,29 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_ChaosElemental</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_ChaosElemental</v>
       </c>
       <c r="D11" t="str">
         <f>IF(ISBLANK(B11),"",
 IFERROR(VLOOKUP(B11,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B11,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>카오스엘리멘탈</v>
       </c>
       <c r="E11" t="str">
         <f>IF(ISBLANK(C11),"",
 IFERROR(VLOOKUP(C11,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C11,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>카오스엘리멘탈의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14993,32 +15307,35 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11">
         <f>IF(ISBLANK(B11),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B11,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K11">
         <v>0.7</v>
       </c>
+      <c r="L11">
+        <v>1.9</v>
+      </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="O11">
         <v>3.5</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <v>50</v>
@@ -15026,27 +15343,46 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="S11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_ChaosElemental</v>
+      </c>
+      <c r="U11">
+        <v>0.05</v>
+      </c>
       <c r="V11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_SuperHero</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_SuperHero</v>
       </c>
       <c r="D12" t="str">
         <f>IF(ISBLANK(B12),"",
 IFERROR(VLOOKUP(B12,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B12,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>슈퍼히어로</v>
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(C12),"",
 IFERROR(VLOOKUP(C12,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C12,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>슈퍼히어로의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -15057,26 +15393,29 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12">
         <f>IF(ISBLANK(B12),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B12,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K12">
         <v>0.7</v>
       </c>
+      <c r="L12">
+        <v>1.9</v>
+      </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="O12">
         <v>3.5</v>
@@ -15089,6 +15428,16 @@
       </c>
       <c r="R12">
         <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_SuperHero</v>
+      </c>
+      <c r="U12">
+        <v>0.05</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -15097,23 +15446,32 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_Meryl</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_Meryl</v>
       </c>
       <c r="D13" t="str">
         <f>IF(ISBLANK(B13),"",
 IFERROR(VLOOKUP(B13,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B13,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>메릴</v>
       </c>
       <c r="E13" t="str">
         <f>IF(ISBLANK(C13),"",
 IFERROR(VLOOKUP(C13,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C13,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>메릴의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -15121,38 +15479,51 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13">
         <f>IF(ISBLANK(B13),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B13,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K13">
         <v>0.7</v>
       </c>
+      <c r="L13">
+        <v>1.9</v>
+      </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="O13">
         <v>3.5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>50</v>
       </c>
       <c r="R13">
         <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_Meryl</v>
+      </c>
+      <c r="U13">
+        <v>0.05</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -15161,23 +15532,32 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>CharName_GreekWarrior</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="3"/>
+        <v>CharDesc_GreekWarrior</v>
       </c>
       <c r="D14" t="str">
         <f>IF(ISBLANK(B14),"",
 IFERROR(VLOOKUP(B14,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(B14,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>그릭워리어</v>
       </c>
       <c r="E14" t="str">
         <f>IF(ISBLANK(C14),"",
 IFERROR(VLOOKUP(C14,[1]StringTable!$1:$1048576,MATCH([1]StringTable!$B$1,[1]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(C14,[1]InApkStringTable!$1:$1048576,MATCH([1]InApkStringTable!$C$1,[1]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v/>
+        <v>그릭워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -15185,26 +15565,29 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14">
         <f>IF(ISBLANK(B14),"",
 IFERROR(
 VLOOKUP("NormalAttack"&amp;SUBSTITUTE(B14,"CharName_",""),[2]AffectorValueLevelTable!$B:$I,MATCH([2]AffectorValueLevelTable!$I$1,[2]AffectorValueLevelTable!$B$1:$I$1,0),0),"어펙터밸류레벨없음"))</f>
-        <v/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K14">
         <v>0.7</v>
       </c>
+      <c r="L14">
+        <v>1.9</v>
+      </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="O14">
         <v>3.5</v>
@@ -15217,6 +15600,16 @@
       </c>
       <c r="R14">
         <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="1"/>
+        <v>Portrait_GreekWarrior</v>
+      </c>
+      <c r="U14">
+        <v>0.05</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>

--- a/Excel/작업Actor.xlsx
+++ b/Excel/작업Actor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DCF7D-5376-49FD-B5BE-97BAC35F7415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EA0580-BB19-4459-9C18-92F913654685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -2219,7 +2219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2476,6 +2476,18 @@
     <t>GreekWarrior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Akai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteampunkRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6676,55 +6688,57 @@
         </row>
         <row r="292">
           <cell r="A292" t="str">
-            <v>BossName_SlimeRabbit</v>
+            <v>CharName_Akai</v>
           </cell>
           <cell r="B292">
             <v>1</v>
           </cell>
           <cell r="C292" t="str">
-            <v>초록 토끼귀 슬라임</v>
+            <v>아카이</v>
           </cell>
           <cell r="D292" t="str">
-            <v>Green Rabbit Slime</v>
+            <v>Akai</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
+            <v>CharDesc_Akai</v>
           </cell>
           <cell r="B293">
             <v>1</v>
           </cell>
           <cell r="C293" t="str">
-            <v>붉은 토끼귀 슬라임</v>
+            <v>아카이의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D293" t="str">
-            <v>Red Rabbit Slime</v>
+            <v>In progress of translating…(293)</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294" t="str">
-            <v>BossName_TerribleStump_Purple</v>
+            <v>CharName_Yuka</v>
           </cell>
           <cell r="B294">
             <v>1</v>
           </cell>
           <cell r="C294" t="str">
-            <v>나무귀신</v>
+            <v>유카</v>
           </cell>
           <cell r="D294" t="str">
-            <v>Terrible Stump</v>
+            <v>Yuka</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
+            <v>CharDesc_Yuka</v>
           </cell>
           <cell r="B295">
             <v>1</v>
           </cell>
           <cell r="C295" t="str">
-            <v>외뿔 풍뎅이</v>
+            <v>유카의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D295" t="str">
             <v>In progress of translating…(295)</v>
@@ -6732,27 +6746,28 @@
         </row>
         <row r="296">
           <cell r="A296" t="str">
-            <v>BossName_SpiritKing</v>
+            <v>CharName_SteampunkRobot</v>
           </cell>
           <cell r="B296">
             <v>1</v>
           </cell>
           <cell r="C296" t="str">
-            <v>스피릿 킹</v>
+            <v>스팀펑크로봇</v>
           </cell>
           <cell r="D296" t="str">
-            <v>Spirit King</v>
+            <v>SteampunkRobot</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>BossDesc_SlimeRabbit</v>
+            <v>CharDesc_SteampunkRobot</v>
           </cell>
           <cell r="B297">
             <v>1</v>
           </cell>
           <cell r="C297" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>스팀펑크로봇의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</v>
           </cell>
           <cell r="D297" t="str">
             <v>In progress of translating…(297)</v>
@@ -6760,55 +6775,55 @@
         </row>
         <row r="298">
           <cell r="A298" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
+            <v>BossName_SlimeRabbit</v>
           </cell>
           <cell r="B298">
             <v>1</v>
           </cell>
           <cell r="C298" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>초록 토끼귀 슬라임</v>
           </cell>
           <cell r="D298" t="str">
-            <v>In progress of translating…(298)</v>
+            <v>Green Rabbit Slime</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
+            <v>BossName_SlimeRabbit_Red</v>
           </cell>
           <cell r="B299">
             <v>1</v>
           </cell>
           <cell r="C299" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>붉은 토끼귀 슬라임</v>
           </cell>
           <cell r="D299" t="str">
-            <v>In progress of translating…(299)</v>
+            <v>Red Rabbit Slime</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
+            <v>BossName_TerribleStump_Purple</v>
           </cell>
           <cell r="B300">
             <v>1</v>
           </cell>
           <cell r="C300" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>나무귀신</v>
           </cell>
           <cell r="D300" t="str">
-            <v>In progress of translating…(300)</v>
+            <v>Terrible Stump</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301" t="str">
-            <v>BossDesc_SpiritKing</v>
+            <v>BossName_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B301">
             <v>1</v>
           </cell>
           <cell r="C301" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+            <v>외뿔 풍뎅이</v>
           </cell>
           <cell r="D301" t="str">
             <v>In progress of translating…(301)</v>
@@ -6816,27 +6831,27 @@
         </row>
         <row r="302">
           <cell r="A302" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossName_SpiritKing</v>
           </cell>
           <cell r="B302">
             <v>1</v>
           </cell>
           <cell r="C302" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>스피릿 킹</v>
           </cell>
           <cell r="D302" t="str">
-            <v>In progress of translating…(302)</v>
+            <v>Spirit King</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>BossDesc_SlimeRabbit</v>
           </cell>
           <cell r="B303">
             <v>1</v>
           </cell>
           <cell r="C303" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="D303" t="str">
             <v>In progress of translating…(303)</v>
@@ -6844,13 +6859,13 @@
         </row>
         <row r="304">
 